--- a/!parsed_items_100/1299/1299_99-200.xlsx
+++ b/!parsed_items_100/1299/1299_99-200.xlsx
@@ -655,12 +655,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Брелок маска</t>
+          <t>Брелок-гитара</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>id-27992-1299</t>
+          <t>id-27993-1299</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -674,10 +674,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27993/27993_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27993/27993_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Брелок для ключей, выполненный из качественной натуральной кож</t>
+          <t xml:space="preserve">Брелок для ключей, выполненный из качественной натуральной кожи. Оригинальный брелок-гитара - отличный подарок для мужчины, подарок для ребенка, подарок для девушки, подарок коллегам или просто подарок на память. Кожаный брелок имеет надежное металлическое кольцо для крепления, корпус гитары двуслойный кожаный, прошит по краю, поэтому прослужит долго и не растреплется. Брелок из кожи на ключи имеет удобную форму, теперь Ваши ключи не затеряются в сумке! Аксессуар прекрасно подойдет, как брелок для сумки, брелок детский, брелок для кошелька, брелок для машины, ключница автомобильная, брелок на рюкзак, брелок для авто или любой вещи по вашему желанию. Очень оригинальный и стильный аксессуар. Яркий подарок ребенку, подарок парню, подарок девушке!.Брелок-гитара.  Брелок-гитара. Модель: bdsmars-141. Приколы. Эротические сувениры &gt; Сувениры. Цвет: коричневый, серебряный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -712,16 +716,20 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
+      <c r="W2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.44</v>
+      </c>
       <c r="Y2" t="n">
-        <v>11.55</v>
+        <v>10.45</v>
       </c>
       <c r="Z2" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -761,7 +769,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Сувениры эротик</t>
+          <t>Маски эротик</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -772,21 +780,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Брелок-гитара</t>
+          <t>Кожаная красная маска с мехом</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>id-27993-1299</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>id-27324-1299</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
         <v>99999</v>
@@ -796,10 +812,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27324/27324_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27324/27324_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Брелок для ключей, выполненный из качественной натуральной кожи. Оригинальный брелок-гитара - отличный подарок для мужчины, подарок для ребенка, подарок для девушки, подарок коллегам или просто подарок на память. Кожаный брелок имеет надежное металлическое кольцо для крепления, корпус гитары двуслойный кожаный, прошит по краю, поэтому прослужит долго и не растреплется. Брелок из кожи на ключи имеет удобную форму, теперь Ваши ключи не затеряются в сумке! Аксессуар прекрасно подойдет, как брелок для сумки, брелок детский, брелок для кошелька, брелок для машины, ключница автомобильная, брелок на рюкзак, брелок для авто или любой вещи по вашему желанию. Очень оригинальный и стильный аксессуар. Яркий подарок ребенку, подарок парню, подарок девушке!.Брелок-гитара.  Брелок-гитара. Модель: bdsmars-141. Приколы. Эротические сувениры &gt; Сувениры. Цвет: коричневый, серебряный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Игривая маска красного цвета выполнена из натуральной кожи. Ушки маски украшены нежным белым эко-мехом, что придаёт ей изящности. Фиксируется сзади с помощью металлической пряжки, позволяя выбрать комфортный обхват головы. Форма макси эффектно подчеркивает глаза и создаёт необычный образ. Кожаная красная маска с мехом.  Кожаная красная маска с мехом. Модель: bdsmars-20022. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Аксессуары, украшения для тела &gt; Аксессуары. Аксессуары для игр &gt; Наборы и аксессуары. Эротическое белье для женщин &gt; Маскарадные маски. Цвет: красный с белым. Материал: натуральная кожа, искусственный мех. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -819,7 +839,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>натуральная кожа, металл</t>
+          <t>натуральная кожа, искусственный мех</t>
         </is>
       </c>
       <c r="S3" t="inlineStr"/>
@@ -834,21 +854,11 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W3" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>10.45</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>9.5</v>
-      </c>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr"/>
@@ -903,12 +913,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Кожаная красная маска с мехом</t>
+          <t>Кожаная белая маска с мехом</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>id-27324-1299</t>
+          <t>id-27323-1299</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -930,10 +940,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27323/27323_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27323/27323_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Игривая маска красного цвета выполнена из натуральной кожи. Ушки маски украшены нежным белым эко-мехом, что придаёт ей изящности. Фиксируется сзади с помощью металлической пряжки, позволяя выбрать комфортный обхват головы. Форма макси эффектно подчеркивает глаза и создаёт необычный образ. Кожаная красная маска с мехом.  Кожаная к</t>
+          <t xml:space="preserve">Игривая маска белого цвета выполнена из натуральной кожи. Ушки маски украшены нежным белым эко-мехом, что придаёт ей изящности. Фиксируется сзади с помощью металлической пряжки, позволяя выбрать комфортный обхват головы. Форма макси эффектно подчеркивает глаза и создаёт необычный образ. Кожаная белая маска с мехом.  Кожаная белая маска с мехом. Модель: bdsmars-20023. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Аксессуары, украшения для тела &gt; Аксессуары. Аксессуары для игр &gt; Наборы и аксессуары. Эротическое белье для женщин &gt; Маскарадные маски. Цвет: белый. Материал: натуральная кожа, искусственный мех. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1011,7 +1025,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Маски эротик</t>
+          <t>Стрэпы эротик</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -1027,12 +1041,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Кожаная белая маска с мехом</t>
+          <t>Портупея Demetra из черной кожи</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>id-27323-1299</t>
+          <t>id-26777-1299</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1054,10 +1068,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26777/26777_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26777/26777_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26777/26777_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26777/26777_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26777/26777_5_650.jpg</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Игривая маска белого цвета выполнена из натуральной кожи. Ушки маски украшены нежным белым эко-мехом, что придаёт ей изящности. Фиксируется сзади с помощью металлической пряжки, позволяя выбрать комфортный обхват головы. Форма макси эффектно подчеркивает глаза и создаёт необычный образ. Кожаная белая маска с мехом.  Кожаная белая маска с мехом. Модель: bdsmars-20023. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Аксессуары, украшения для тела &gt; Аксессуары. Аксессуары для игр &gt; Наборы и аксессуары. Эротическое белье для женщин &gt; Маскарадные маски. Цвет: белый. Материал: натуральная кожа, искусственный мех. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Стильная черная портупея из натуральной кожи, декорирована металлическими кольцами. Модель аксессуара позволяет надевать его любой стороной, как кольцом вперед, так и назад, что делает портупею отличным ярким дополнением для любого образа! Благодаря трём металлическим пряжкам размер регулируется и прекрасно подойдет на размер от 40 до 48. Расстояние от кольца до поясного ремешка 22 см, максимальный обхват талии 100 см. Портупея Demetra из черной кожи.  Портупея Demetra из черной кожи. Модель: bdsmars-300-01. БДСМ. БДСМ товары и фетиш &gt; Одежда и белье для женщин. Аксессуары, украшения для тела &gt; Портупеи, стрэпы. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1067,17 +1085,17 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>натуральная кожа, искусственный мех</t>
+          <t>натуральная кожа, металл</t>
         </is>
       </c>
       <c r="S5" t="inlineStr"/>
@@ -1151,12 +1169,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Портупея Demetra из черной кожи</t>
+          <t>Кожаная портупея Aphrodite</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>id-26777-1299</t>
+          <t>id-26778-1299</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1178,10 +1196,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26778/26778_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26778/26778_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26778/26778_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26778/26778_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26778/26778_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26778/26778_6_650.jpg</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Стильная черная портупея из натуральной кожи, декорирована металлическими кольцами. Модель аксессуара позволяет надевать его любой стороной, как кольцом вперед, так и назад, что делает портупею отличным ярким дополнением для любого образа! Благодаря трём металлическим пряжкам размер регулируется и прекрасно подойдет на размер от 40 до 48. Расстояние от кольца до поясного ремешка 22 см, максимальный обхват талии 100 см. Портупея Demetra из черной кожи.  Портупея Demetra из черной кожи. Модель: bdsmars-300-01. БДСМ. БДСМ товары и фетиш &gt; Одежда и белье для женщин. Аксессуары, украшения для тела &gt; Портупеи, стрэпы. Цв</t>
+          <t xml:space="preserve">Сексуальная портупея из натуральной кожи черного цвета, декорирована металлическими кольцами. Два длинных ремешка крест-накрест застегиваются вокруг талии, добавляя любому вашему образу изюминку. Аксессуар можно носить, как кольцом вперед, так и кольцом назад, Размер удобно регулируется благодаря трём металлическим пряжкам. Расстояние от кольца до кольца 23 см, максимальный обхват в талии 85 см. Размер регулируется и подойдет от 40 до 48. Кожаная портупея Aphrodite.  Кожаная портупея Aphrodite. Модель: bdsmars-300-02. БДСМ. БДСМ товары и фетиш &gt; Одежда и белье для женщин. Аксессуары, украшения для тела &gt; Портупеи, стрэпы. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1275,12 +1297,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Кожаная портупея Aphrodite</t>
+          <t>Портупея Aurora SM</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>id-26778-1299</t>
+          <t>id-26773-1299</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1302,10 +1324,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26773/26773_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26773/26773_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сексуальная портупея из натуральной кожи черного цвета, декорирована металлическими кольцами. Два длинных ремешка крест-накрест застегиваются вокруг талии, добавляя любому вашему образу изюминку. Аксессуар можно носить, как кольцом вперед, так и кольцом назад, Размер удобно регулируется благодаря трём металлическим пряжкам. Расстояние от кольца до кольца 23 см, максимальный обхват в талии 85 см. Размер регулируется и подойдет от 40 до 48. Кожаная портупея Aphrodite.  Кожаная портупея Aphrodite. Модель: bdsmars-300-02. БДСМ. БДСМ товары и фетиш &gt; Одежда и белье для женщин. Аксессуары, украшения для тела &gt; Портупеи, стрэпы. Цвет: черный. Материал: натура</t>
+          <t xml:space="preserve">Необычная портупея из натуральной кожи черного цвета. Интересно подчеркивает женскую фигуру, придает изящность силуэту. Размер удобно регулируется на шее и на поясе благодаря металлическим пряжкам. Подходит на размер от 42 до 46. Этот аксессуар можно использовать как для украшения повседневного наряда, так и для создания эротического образа!.Портупея Aurora SM.  Портупея Aurora SM. Модель: bdsmars-300-03. БДСМ. БДСМ товары и фетиш &gt; Одежда и белье для женщин. Аксессуары, украшения для тела &gt; Портупеи, стрэпы. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1399,22 +1425,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Портупея Aurora SM</t>
+          <t>Боди-портупея Hera SM</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>id-26773-1299</t>
+          <t>id-26772-1299</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>42-46</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -1426,10 +1452,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26772/26772_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26772/26772_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Необычная портупея из натуральной кожи черного цвета. Интересно подчеркивает женскую фигуру, придает изящность силуэту. Размер удобно регулируется на шее и на поясе благодаря металлическим пряжкам. Подходит на размер от 42 до 46. Этот аксессуар можно использовать как для украшения повседневного наряда, так и для создания эротического образа!.Портупея Aurora SM.  Портупея Aurora SM. Модель: bdsmars-300-03. БДСМ. БДСМ товары и фетиш &gt; Одежда и белье для женщин. Аксессуары, украшения для тела &gt; Портупеи, стрэпы. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Портупея-боди выполнена из натуральной кожи черного цвета.Декорирована портупея металлической фурнитурой. Подойдет на размеры S.M (42-46), пряжки позволяют легко отрегулировать аксессуар по размеру.Очень сексуальная портупея, которая поможет Вам создать неповторимый эротический образ!.Боди-портупея Hera SM.  Боди-портупея Hera SM. Модель: bdsmars-300-04. БДСМ. БДСМ товары и фетиш &gt; Одежда и белье для женщин. Аксессуары, украшения для тела &gt; Портупеи, стрэпы. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1523,22 +1553,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Боди-портупея Hera SM</t>
+          <t>Кожаная портупея Diane с двойным</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>id-26772-1299</t>
+          <t>id-26776-1299</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>42-46</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -1550,10 +1580,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26776/26776_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26776/26776_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Портупея-боди выполнена из натуральной кожи черного цвета.Декорирована портупея металлической фурнитурой. Подойдет на размеры S.M (42-46), пряжки позволяют легко отрегулировать аксессуар по размеру.Очень сексуальная портупея, которая поможет Вам создать неповторимый эротический образ!.Боди-портупея Hera SM.  Боди-портупея Hera SM. Модель: bdsmars-300-04. БДСМ. БДСМ товары и фетиш &gt; Одежда и белье для женщин. Аксессуары, украшения для тела &gt; Портупеи, стрэпы. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Изящная портупея из натуральной кожи черного цвета. Она может стать незаменимым аксессуаром для Вашего неповторимого образа. Благодаря 4 пряжкам, расположенным на плечах и на поясе, размер удобно регулировать и менять положение аксессуара по вашему желанию. Размер универсальный - легко регулируется от S до L (42-48). Кожаная портупея Diane с двойным ремешком.  Кожаная портупея Diane с двойным ремешком. Модель: bdsmars-300-05. БДСМ. БДСМ товары и фетиш &gt; Одежда и белье для женщин. Аксессуары, украшения для тела &gt; Портупеи, стрэпы. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1647,12 +1681,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Кожаная портупея Diane с двойным</t>
+          <t>Портупея Aura с цепями</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>id-26776-1299</t>
+          <t>id-26775-1299</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1674,10 +1708,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26775/26775_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26775/26775_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Изящная портупея из натуральной кожи черного цвета. Она может стать незаменимым аксессуаром для Вашего неповторимого образа. Благодаря 4 пряжкам, расположенным на плечах и на поясе, размер удобно регулировать и менять положение аксессуара по вашему желанию. Размер универсальный - легко регулируется от S до L (42-48). Кожаная портупея Diane с двойным ремешком.  Кожаная портупея Diane с двойным ремешком. Модель: bdsmars-300-05. БДСМ. БДСМ товары и фетиш &gt; Одежда и белье для женщин. Аксессуары, украшения для тела &gt; Портупеи, стрэпы. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Сексуальная портупея выполнена из натуральной кожи черного цвета и металлических цепочек. На груди в центре находится металлическое кольцо, от которого в стороны расходятся по пять цепей, ширина кожаных ремешков 1,5 см. Цепочки очень красиво выделяют грудь, а кожаная лента подчеркивает талию. Эта портупея сделает Ваш образ по-настоящему особенным. Пряжки на шее и на поясе позволяют выбрать нужный  размер, он легко регулируется от S до L (40-48). Портупея идеально сочетается с поясом Aura. Портупея Aura с цепями.  Портупея Aura с цепями. Модель: bdsmars-300-08. БДСМ. БДСМ товары и фетиш &gt; Одежда и белье для женщин. Аксессуары, украшения для тела &gt; Портупеи, стрэпы. Цвет: черный с серебристым. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1755,7 +1793,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Стрэпы эротик</t>
+          <t>Пояса эротик</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -1771,12 +1809,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Портупея Aura с цепями</t>
+          <t>Пояс Aura с цепями</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>id-26775-1299</t>
+          <t>id-26779-1299</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1798,10 +1836,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26779/26779_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26779/26779_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сексуальная портупея выполнена из натуральной кожи черного цвета и металлических цепочек. На груди в центре находится металлическое кольцо, от которого в стороны расходятся по пять цепей, ширина кожаных ремешков 1,5 см. Цепочки очень красиво выделяют грудь, а кожаная лента подчеркивает талию. Эта портупея сделает Ваш образ по-настоящему особенным. Пряжки на шее и на поясе позволяют выбрать нужный  размер, он легко регулируется от S до L (40-48). Портупея идеально сочетается с поясом Aura. Портупея Aura с цепями.  Портупея Aura с цепями. Модель: bdsmars-300-08. БДСМ. БДСМ товары и фетиш &gt; Одежда и белье для женщин. Аксессуары, украшения для тела &gt; Портупеи, стрэпы. Цвет: черный с серебристым. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Стильный поясок из натуральной черной кожи, декорирован 4 металлическими кольцами, к которым крепятся цепочки. Ширина ремешка 1,5см, благодаря пряжке размер удобно регулировать. Данный аксессуар отлично подчеркнет фигуру и добавит изящности образу. Идеально сочетается с портупеей Aura. Пояс Aura с цепями.  Пояс Aura с цепями. Модель: bdsmars-300-09. БДСМ. БДСМ товары и фетиш &gt; Одежда и белье для женщин. Цвет: черный с серебристым. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1879,7 +1921,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Пояса эротик</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -1895,12 +1937,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Пояс Aura с цепями</t>
+          <t>Атласный чокер с поводком Romantic</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>id-26779-1299</t>
+          <t>id-26783-1299</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1922,10 +1964,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26783/26783_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26783/26783_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Стильный поясок из натуральной черной кожи, декорирован 4 металлическими кольцами, к которым крепятся цепочки. Ширина ремешка 1,5см, благодаря пряжке размер удобно регулировать. Данный аксессуар отлично подчеркнет фигуру и добавит изящности образу. Идеально сочетается с портупеей Aura. Пояс Aura с цепями.  Пояс Aura с цепями. Модель: bdsmars-300-09. БДСМ. БДСМ товары и фетиш &gt; Одежда и белье для женщин. Цвет: черный с серебристым. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Изящный атласный чокер с поводком черного цвета, очень приятный на коже. По центру декорирован металлическим кольцом, к которому крепится поводок. Длина ленты чокера 95 см позволяет подобрать комфортный обхват и красиво завязать по вашему желанию. Поводок крепится при помощи металлического карабина, внутри ленты расположена эластичная резинка, позволяющая увеличить длину поводка с 45 см до 70 см при натяжении. При желании его можно отстегнуть и использовать по отдельности. Этот волнующий аксессуар станет не только помощником во время вечера в стиле BDSM Light, но и полноценным ярким дополнением к вашему образу для особенного мероприятия!.Атласный чокер с поводком Romantic Arsenal.  Атласный чокер с поводком Romantic Arsenal. Модель: bdsmars-3102-01. БДСМ. Аксессуары, украшения для тела &gt; Аксессуары. Аксессуары для игр &gt; Наборы и аксессуары. Цвет: черный. Материал: полиэстер, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1935,17 +1981,17 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>натуральная кожа, металл</t>
+          <t>полиэстер, металл</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
@@ -1983,7 +2029,7 @@
       <c r="AM12" t="inlineStr"/>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>чокер, поводок с карабином</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
@@ -2003,7 +2049,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Наручники эротик</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -2019,12 +2065,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Атласный чокер с поводком Romantic</t>
+          <t>Атласные манжеты с соединением Romantic</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>id-26783-1299</t>
+          <t>id-26785-1299</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2046,10 +2092,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26785/26785_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26785/26785_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Изящный атласный чокер с поводком черного цвета, очень приятный на коже. По центру декорирован металлическим кольцом, к которому крепится поводок. Длина ленты чокера 95 см позволяет подобрать комфортный обхват и красиво завязать по вашему желанию. Поводок крепится при помощи металлического карабина, внутри ленты расположена эластичная резинка, позволяющая увеличить длину поводка с 45 см до 70 см при натяжении. При желании его можно отстегнуть и использовать по отдельности. Этот волнующий аксессуар станет не только помощником во время вечера в стиле BDSM Light, но и полноценным ярким дополнением к вашему образу для особенного мероприятия!.Атласный чокер с поводком Romantic Arsenal.  Атласный чокер с поводком Romantic Arsenal. Модель: bdsmars-3102-01. БДСМ. Аксессуары, украшения для тела &gt; Аксессуары. Аксессуары для игр &gt; Наборы и аксессуары. Цвет: черный. Материал: полиэстер, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Потрясающе нежные и утонченные браслеты из черных атласных лент, они никого не оставят равнодушным! Длина каждого браслета 95 см, что делает размер универсальным и позволяет красиво и оригинально завязать аксессуар по вашему желанию. Ширина лент по краям 7 см, к центру сужается до 3 см. В центре расположены металлические полукольца к которым крепится соединение на карабинах. Внутри ленты соединения имеется эластичная резинка, позволяющая увеличить его длину с 15 до 20 см. Игривый и многофункциональный аксессуар добавит волшебства в ваши BDSM фантазии!.Атласные манжеты с соединением Romantic Arsenal.  Атласные манжеты с соединением Romantic Arsenal. Модель: bdsmars-3103-01. БДСМ. БДСМ товары и фетиш &gt; Наручники, фиксаторы на руки. Аксессуары для игр &gt; Наборы и аксессуары. Цвет: черный. Материал: полиэстер, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -2107,7 +2157,7 @@
       <c r="AM13" t="inlineStr"/>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>чокер, поводок с карабином</t>
+          <t>два манжета, соединитель с карабинами</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
@@ -2127,7 +2177,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Фиксаторы эротик</t>
+          <t>Маски эротик</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -2138,27 +2188,27 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Атласные манжеты с соединением Romantic</t>
+          <t>Красная атласная лента Romantic Arsenal</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>id-26785-1299</t>
+          <t>id-27984-1299</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>40-42</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -2170,10 +2220,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27984/27984_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Потрясающе нежные и утонченные браслеты из черных атласных лент, они никого не оставят равнодушным! Длина каждого браслета 95 см, что делает размер универсальным и позволяет красиво и оригинально завязать аксессуар по вашему желанию. Ширина лент по краям 7 см, к центру сужается до 3 см. В центре расположены металлические полукольца к которым крепится соединение на карабинах. Внутри ленты соединения имеется эластичная резинка, позволяющая увеличить его длину с 15 до 20 см. Игривый и многофункциональный аксессуар добавит волшебства в ваши BDSM фантазии!.Атласные манжеты с соединением Romantic Arsenal.  Атласные манжеты с соединением Romantic Arsenal. Модель: bdsmars-3103-01. БДСМ. БДСМ товары и фетиш &gt; Наручники, фиксаторы на руки. Аксессуары для игр &gt; Наборы и аксессуары. Цвет: черный. Материал: полиэстер, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Нежная и волнующая воображение лента для глаз, выполненная из красного атласа. Длина ленты 115см, а ширина 7см, ее можно красиво завязать по вашему желанию, а так же, использовать не только на глаза, но и в других вариациях, стоит лишь включить фантазию! Этот волшебный аксессуар сделает ваш вечер незабываемым, обострит ощущения, подарит яркие эмоции и откроет новые грани удовольствия!.Красная атласная лента Romantic Arsenal.  Красная атласная лента Romantic Arsenal. Модель: bdsmars-3104-02. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Аксессуары для игр &gt; Наборы и аксессуары. БДСМ товары и фетиш &gt; Веревки, скотч для тела. Цвет: красный. Материал: полиэстер. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -2193,7 +2247,7 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>полиэстер, металл</t>
+          <t>полиэстер</t>
         </is>
       </c>
       <c r="S14" t="inlineStr"/>
@@ -2231,7 +2285,7 @@
       <c r="AM14" t="inlineStr"/>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>два манжета, соединитель с карабинами</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
@@ -2251,7 +2305,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Маски эротик</t>
+          <t>Шлепалки эротик</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -2267,22 +2321,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Красная атласная лента Romantic Arsenal</t>
+          <t>Плеть из натуральной кожи с атласной</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>id-27984-1299</t>
+          <t>id-26784-1299</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>40-42</t>
+          <t>46-48</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -2294,10 +2348,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26784/26784_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нежная и волнующая воображение лента для глаз, выполненная из красного атласа. Длина ленты 115см, а ширина 7см, ее можно красиво завязать по вашему желанию, а так же, использовать не только на глаза, но и в других вариациях, стоит лишь включить фантазию! Этот волшебный аксессуар сделает ваш вечер незабываемым, обострит ощущения, подарит яркие эмоции и откроет новые грани удовольствия!.Красная атласная лента Romantic Arsenal.  Красная атласная лента Romantic Arsenal. Модель: bdsmars-3104-02. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Аксессуары для игр &gt; Наборы и аксессуары. БДСМ товары и фетиш &gt; Веревки, скотч для тела. Цвет: красный. Материал: полиэстер. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Изящная, притягивающая внимание плеть из натуральной кожи. Плеть имеет 34 мягких кожаных хвоста. Нежный, но властный аксессуар для пикантной BDSM игры. Ручка плети декорирована черной атласной лентой, длина ручки 17см, диаметр 2см., их длина 33см. Общая длина изделия 50см. Плеть из натуральной кожи с атласной ручкой Romantic Arsenal.  Плеть из натуральной кожи с атласной ручкой Romantic Arsenal. Модель: bdsmars-3105-01. БДСМ. БДСМ товары и фетиш &gt; Плетки, стеки, шлепалки. Цвет: черный. Материал: натуральная кожа, атлас. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -2317,7 +2375,7 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>полиэстер</t>
+          <t>натуральная кожа, атлас</t>
         </is>
       </c>
       <c r="S15" t="inlineStr"/>
@@ -2375,7 +2433,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Плетки эротик</t>
+          <t>Шлепалки эротик</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -2391,22 +2449,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Плеть из натуральной кожи с атласной</t>
+          <t>Шлепалка из натуральной кожи с атласом</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>id-26784-1299</t>
+          <t>id-26780-1299</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -2418,10 +2476,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26780/26780_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26780/26780_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Изящная, притягивающая внимание плеть из натуральной кожи. Плеть имеет 34 мягких кожаных хвоста. Нежный, но властный аксессуар для пикантной BDSM игры. Ручка плети декорирована черной атласной лентой, длина ручки 17см, диаметр 2см., их длина 33см. Общая длина изделия 50см. Плеть из натуральной кожи с атласной ручкой Romantic Arsenal.  Плеть из натуральной кожи с атласной ручкой Romantic Arsenal. Модель: bdsmars-3105-01. БДСМ. БДСМ товары и фетиш &gt; Плетки, стеки, шлепалки. Цвет: черный. Материал: натуральная кожа, атлас. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Оригинальный и яркий аксессуар выполнен из натуральной кожи, шлепок декорирован черной атласной лентой. Размеры шлепка 20х5 см. На рукоятке имеется декоративный элемент из кожи. Звук при хлопке очень эффектный. Эта необычная изящная шлепалка станет незаменимой изюминкой в ваших BDSM играх!.Шлепалка из натуральной кожи с атласом Romantic Arsenal.  Шлепалка из натуральной кожи с атласом Romantic Arsenal. Модель: bdsmars-3106-01. БДСМ. БДСМ товары и фетиш &gt; Плетки, стеки, шлепалки. Цвет: черный. Материал: натуральная кожа, атлас. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -2499,7 +2561,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Плетки эротик</t>
+          <t>Маски эротик</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -2515,12 +2577,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Шлепалка из натуральной кожи с атласом</t>
+          <t>Двусторонняя черная маска из эко-кожи</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>id-26780-1299</t>
+          <t>id-27868-1299</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -2542,10 +2604,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27868/27868_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27868/27868_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27868/27868_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Оригинальный и яркий аксессуар выполнен из натуральной кожи, шлепок декорирован черной атласной лентой. Размеры шлепка 20х5 см. На рукоятке имеется декоративный элемент из кожи. Звук при хлопке очень эффектный. Эта необычная изящная шлепалка станет незаменимой изюминкой в ваших BDSM играх!.Шлепалка из натуральной кожи с атласом Romantic Arsenal.  Шлепалка из натуральной кожи с атласом Romantic Arsenal. Модель: bdsmars-3106-01. БДСМ. БДСМ товары и фетиш &gt; Плетки, стеки, шлепалки. Цвет: черный. Материал: натуральная кожа, атлас. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Стильная чёрная маска на глаза выполнена из искусственной кожи. Одна сторона маски выполнена из блестящего материала, а другая - из матового, что позволяет при желании носить маску любой стороной на выбор. Мягкая резинка будет комфортно ощущаться во время носки. Удобная, красивая, экономичная и экологичная маска!.Двусторонняя черная маска из эко-кожи.  Двусторонняя черная маска из эко-кожи. Модель: bdsmars-50001. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Цвет: черный. Материал: эко кожа. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -2565,7 +2631,7 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>натуральная кожа, атлас</t>
+          <t>эко кожа</t>
         </is>
       </c>
       <c r="S17" t="inlineStr"/>
@@ -2639,12 +2705,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Двусторонняя черная маска из эко-кожи</t>
+          <t>Двусторонняя черно-красная маска из</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>id-27868-1299</t>
+          <t>id-27867-1299</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -2666,10 +2732,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27867/27867_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27867/27867_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27867/27867_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Стильная чёрная маска на глаза выполнена из искусственной кожи. Одна сторона маски выполнена из блестящего материала, а другая - из матового, что позволяет при желании носить маску любой стороной на выбор. Мягкая резинка будет комфортно ощущаться во время носки. Удобная, красивая, экономичная и экологичная маска!.Двусторонняя черная маска из эко-кожи.  Двусторонняя черная маска из эко-кожи. Модель: bdsmars-50001. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Цвет: черный. Материал: эко кожа. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Стильная красная маска на глаза выполнена из искусственной кожи. Одна сторона маски выполнена из блестящего красного материала, а другая - из матового черного, что позволяет при желании носить маску любой стороной на выбор. Мягкая резинка будет комфортно ощущаться во время носки. Удобная, красивая, экономичная и экологичная маска!.Двусторонняя черно-красная маска из эко-кожи.  Двусторонняя черно-красная маска из эко-кожи. Модель: bdsmars-50002. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Цвет: черный, красный. Материал: эко кожа. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -2679,12 +2749,12 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -2763,12 +2833,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Двусторонняя черно-красная маска из</t>
+          <t>Двусторонняя маска с ушками из эко-кожи</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>id-27867-1299</t>
+          <t>id-27866-1299</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -2790,10 +2860,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27866/27866_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27866/27866_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27866/27866_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Стильная красная маска на глаза выполнена из искусственной кожи. Одна сторона маски выполнена из блестящего красного материала, а другая - из матового черного, что позволяет при желании носить маску любой стороной на выбор. Мягкая резинка будет комфортно ощущаться во время носки. Удобная, красивая, экономичная и экологичная маска!.Двусторонняя черно-красная маска из эко-кожи.  Двусторонняя черно-красная маска из эко-кожи. Модель: bdsmars-50002. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Цвет: черный, красный. Материал: эко кожа. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Игривая маска с ушками выполнена из черной эко-кожи. Лицевая сторона сделана из лакового материала, а оборотная из матового, что позволяет по желанию носить аксессуар любой стороной. Эластичная резинка обеспечит комфорт во время носки. Красивая, элегантная форма эффектно подчеркнет глаза и добавит загадочности образу. Экономичный, экологичный и просто красивый аксессуар!.Двусторонняя маска с ушками из эко-кожи.  Двусторонняя маска с ушками из эко-кожи. Модель: bdsmars-50003. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Цвет: черный. Материал: эко кожа. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -2871,7 +2945,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Маски эротик</t>
+          <t>Комплекты БДСМ</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -2882,17 +2956,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Двусторонняя маска с ушками из эко-кожи</t>
+          <t>Стринги из эко-кожи с бантиком</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>id-27866-1299</t>
+          <t>id-27870-1299</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -2914,10 +2988,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27870/27870_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27870/27870_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27870/27870_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Игривая маска с ушками выполнена из черной эко-кожи. Лицевая сторона сделана из лакового материала, а оборотная из матового, что позволяет по желанию носить аксессуар любой стороной. Эластичная резинка обеспечит комфорт во время носки. Красивая, элегантная форма эффектно подчеркнет глаза и добавит загадочности образу. Экономичный, экологичный и просто красивый аксессуар!.Двусторонняя маска с ушками из эко-кожи.  Двусторонняя маска с ушками из эко-кожи. Модель: bdsmars-50003. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Цвет: черный. Материал: эко кожа. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Сексуальные черные стринги выполнены из эко-кожи. Декорированы спереди бантиком. Лицевая сторона выполнена из лакового материала, а внутренняя из матового. Благодаря эластичной резинке, отлично сядут по фигуре, подойдут на размеры 40-46. Очень красивая и удобная модель, которая поможет создать дерзкий сексуальный образ для вашей любовной игры!.Стринги из эко-кожи с бантиком.  Стринги из эко-кожи с бантиком. Модель: bdsmars-50005. БДСМ. БДСМ товары и фетиш &gt; Одежда и белье для женщин. Цвет: черный. Материал: эко кожа, полиэстер, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -2937,7 +3015,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>эко кожа</t>
+          <t>эко кожа, полиэстер, металл</t>
         </is>
       </c>
       <c r="S20" t="inlineStr"/>
@@ -2995,7 +3073,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Комплекты БДСМ</t>
+          <t>Наручники эротик</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -3011,12 +3089,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Стринги из эко-кожи с бантиком</t>
+          <t>Наручники из эко-кожи с бантиками</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>id-27870-1299</t>
+          <t>id-27861-1299</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -3038,10 +3116,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27861/27861_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27861/27861_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27861/27861_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27861/27861_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27861/27861_5_650.jpg</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сексуальные черные стринги выполнены из эко-кожи. Декорированы спереди бантиком. Лицевая сторона выполнена из лакового материала, а внутренняя из матового. Благодаря эластичной резинке, отлично сядут по фигуре, подойдут на размеры 40-46. Очень красивая и удобная модель, которая поможет создать дерзкий сексуальный образ для вашей любовной игры!.Стринги из эко-кожи с бантиком.  Стринги из эко-кожи с бантиком. Модель: bdsmars-50005. БДСМ. БДСМ товары и фетиш &gt; Одежда и белье для женщин. Цвет: черный. Материал: эко кожа, полиэстер, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Красивые и функциональные наручники черного цвета. Выполнены из искусственной кожи, декорированы металлической фурнитурой, лаковыми бантиками и вставками по краям. Обхват удобно регулируется с помощью пряжек. В комплекте идет соединение с карабинами, общая длина соединения 11 см. Практически незаменимый аксессуар для вашей любовной игры!.Наручники из эко-кожи с бантиками.  Наручники из эко-кожи с бантиками. Модель: bdsmars-50008. БДСМ. БДСМ товары и фетиш &gt; Наручники, фиксаторы на руки. Цвет: черно-красный. Материал: эко кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -3061,7 +3143,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>эко кожа, полиэстер, металл</t>
+          <t>эко кожа, металл</t>
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
@@ -3099,7 +3181,7 @@
       <c r="AM21" t="inlineStr"/>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>наручники, соединение с карабинами</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
@@ -3119,7 +3201,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Фиксаторы эротик</t>
+          <t>Поводки эротик</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -3135,12 +3217,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Наручники из эко-кожи с бантиками</t>
+          <t>Ошейник из эко-кожи с бантиком</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>id-27860-1299</t>
+          <t>id-27864-1299</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -3162,10 +3244,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27864/27864_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27864/27864_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Красивые и функциональные наручники черного цвета. Выполнены из искусственной кожи, декорированы металлической фурнитурой, лаковыми бантиками и вставками по краям. Обхват удобно регулируется с помощью пряжек. В комплекте идет соединение с карабинами, общая длина соединения 11 см. Практически незаменимый аксессуар для вашей любовной игры!.Наручники из эко-кожи с бантиками.  Наручники из эко-кожи с бантиками. Модель: bdsmars-50007. БДСМ. БДСМ товары и фетиш &gt; Наручники, фиксаторы на руки. Цвет: черный. Материал: эко кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Минималистичный черный ошейник выполнен из искусственной кожи. Аксессуар декорирован бантиком спереди и металлическим полукольцом, к которому можно пристегнуть поводок. Основная часть выполнена из матовой эко-кожи, а бант и вставки по краю - из лаковой, что придаёт ошейнику изящества. Этот ошейник может отлично дополнить образ и стать волнующим элементом любовной игры. Экономичный, экологичный и симпатичный аксессуар!.Ошейник из эко-кожи с бантиком.  Ошейник из эко-кожи с бантиком. Модель: bdsmars-50009. БДСМ. БДСМ товары и фетиш &gt; Ошейники, поводки. Цвет: черный. Материал: эко кожа. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -3185,7 +3271,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>эко кожа, металл</t>
+          <t>эко кожа</t>
         </is>
       </c>
       <c r="S22" t="inlineStr"/>
@@ -3223,7 +3309,7 @@
       <c r="AM22" t="inlineStr"/>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>наручники, соединение с карабинами</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
@@ -3243,7 +3329,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Фиксаторы эротик</t>
+          <t>Поводки эротик</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -3259,12 +3345,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Наручники из эко-кожи с бантиками</t>
+          <t>Ошейник из эко-кожи с бантиком и</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>id-27861-1299</t>
+          <t>id-27865-1299</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -3286,10 +3372,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27865/27865_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27865/27865_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Красивые и функциональные наручники черного цвета. Выполнены из искусственной кожи, декорированы металлической фурнитурой, лаковыми бантиками и вставками по краям. Обхват удобно регулируется с помощью пряжек. В комплекте идет соединение с карабинами, общая длина соединения 11 см. Практически незаменимый аксессуар для вашей любовной игры!.Наручники из эко-кожи с бантиками.  Наручники из эко-кожи с бантиками. Модель: bdsmars-50008. БДСМ. БДСМ товары и фетиш &gt; Наручники, фиксаторы на руки. Цвет: черно-красный. Материал: эко кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Комплект аксессуаров из ошейника с металлическим поводком, выполнены из черной искусственной кожи. Ошейник декорирован бантиком спереди и металлическим полукольцом, к которому пристегивается поводок. Основная часть выполнена из матовой эко-кожи, а бант и вставки по краю - из лаковой, что придаёт ошейнику изящества. Общая длина поводка, включая карабин и петельку, 45 см. Этот комплект поможет добавить разнообразия и стать волнующим элементом любовной игры. Экономичный, экологичный и функциональный аксессуар!.Ошейник из эко-кожи с бантиком и поводком-цепью.  Ошейник из эко-кожи с бантиком и поводком-цепью. Модель: bdsmars-50010. БДСМ. БДСМ товары и фетиш &gt; Ошейники, поводки. Цвет: черный. Материал: эко кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -3347,7 +3437,7 @@
       <c r="AM23" t="inlineStr"/>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>наручники, соединение с карабинами</t>
+          <t>ошейник, поводок</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
@@ -3367,7 +3457,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Поводки эротик</t>
+          <t>Шлепалки эротик</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -3378,27 +3468,27 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Ошейник из эко-кожи с бантиком</t>
+          <t>Лаконичная плеть из эко-кожи</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>id-27864-1299</t>
+          <t>id-27862-1299</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -3410,15 +3500,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27862/27862_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27862/27862_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27862/27862_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Минималистичный черный ошейник выполнен из искусственной кожи. Аксессуар декорирован бантиком спереди и металлическим полукольцом, к которому можно пристегнуть поводок. Основная часть выполнена из матовой эко-кожи, а бант и вставки по краю - из лаковой, что придаёт ошейнику изящества. Этот ошейник может отлично дополнить образ и стать волнующим элементом любовной игры. Экономичный, экологичный и симпатичный аксессуар!.Ошейник из эко-кожи с бантиком.  Ошейник из эко-кожи с бантиком. Модель: bdsmars-50009. БДСМ. БДСМ товары и фетиш &gt; Ошейники, поводки. Цвет: черный. Материал: эко кожа. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Стильная лаконичная плеть выполнена из чёрной эко-кожи. Рукоятка декорирована лаковыми полосками. Эта плеть поможет разнообразить вашу БДСМ игру и подарит новые ощущения. Лаконичная плеть из эко-кожи.  Лаконичная плеть из эко-кожи. Модель: bdsmars-50012. БДСМ. БДСМ товары и фетиш &gt; Плетки, стеки, шлепалки. Цвет: черный. Материал: эко кожа. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -3491,7 +3585,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Поводки эротик</t>
+          <t>Шлепалки эротик</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -3502,27 +3596,27 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Ошейник из эко-кожи с бантиком и</t>
+          <t>Лаконичная плеть из эко-кожи</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>id-27865-1299</t>
+          <t>id-27863-1299</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -3534,10 +3628,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27863/27863_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27863/27863_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27863/27863_4_650.jpg</t>
+        </is>
+      </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Комплект аксессуаров из ошейника с металлическим поводком, выполнены из черной искусственной кожи. Ошейник декорирован бантиком спереди и металлическим полукольцом, к которому пристегивается поводок. Основная часть выполнена из матовой эко-кожи, а бант и вставки по краю - из лаковой, что придаёт ошейнику изящества. Общая длина поводка, включая карабин и петельку, 45 см. Этот комплект поможет добавить разнообразия и стать волнующим элементом любовной игры. Экономичный, экологичный и функциональный аксессуар!.Ошейник из эко-кожи с бантиком и поводком-цепью.  Ошейник из эко-кожи с бантиком и поводком-цепью. Модель: bdsmars-50010. БДСМ. БДСМ товары и фетиш &gt; Ошейники, поводки. Цвет: черный. Материал: эко кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Стильная лаконичная плеть выполнена из чёрной эко-кожи. Рукоятка декорирована красными полосками. Эта плеть поможет разнообразить вашу БДСМ игру и подарит новые ощущения. Лаконичная плеть из эко-кожи.  Лаконичная плеть из эко-кожи. Модель: bdsmars-50013. БДСМ. БДСМ товары и фетиш &gt; Плетки, стеки, шлепалки. Цвет: черный с красным. Материал: эко кожа. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -3557,7 +3655,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>эко кожа, металл</t>
+          <t>эко кожа</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
@@ -3595,7 +3693,7 @@
       <c r="AM25" t="inlineStr"/>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>ошейник, поводок</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
@@ -3615,7 +3713,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Плетки эротик</t>
+          <t>Страпоны</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -3626,27 +3724,27 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Лаконичная плеть из эко-кожи</t>
+          <t>Трусики для страпона из натуральной</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>id-27862-1299</t>
+          <t>id-25105-1299</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -3658,15 +3756,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25105/25105_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25105/25105_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Стильная лаконичная плеть выполнена из чёрной эко-кожи. Рукоятка декорирована лаковыми полосками. Эта плеть поможет разнообразить вашу БДСМ игру и подарит новые ощущения. Лаконичная плеть из эко-кожи.  Лаконичная плеть из эко-кожи. Модель: bdsmars-50012. БДСМ. БДСМ товары и фетиш &gt; Плетки, стеки, шлепалки. Цвет: черный. Материал: эко кожа. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Трусики для страпона, изготовлены из натуральной кожи. Крепятся при помощи широких эластичных резинок (размер легко меняется). Диаметр отверстия для страпона - 4 см. Трусики для страпона из натуральной кожи.  Трусики для страпона из натуральной кожи. Модель: bdsmars-52001. БДСМ. Страпоны и фаллопротезы &gt; Трусики и насадки. Цвет: черный. Материал: натуральная кожа, нейлон. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -3681,7 +3783,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>эко кожа</t>
+          <t>натуральная кожа, нейлон</t>
         </is>
       </c>
       <c r="S26" t="inlineStr"/>
@@ -3739,7 +3841,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Плетки эротик</t>
+          <t>Страпоны</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -3755,24 +3857,16 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Лаконичная плеть из эко-кожи</t>
+          <t>Страпон-трусики из натуральной кожи с</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>id-27863-1299</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>42-44</t>
-        </is>
-      </c>
+          <t>id-19522-1299</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
         <v>99999</v>
@@ -3782,10 +3876,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19522/19522_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19522/19522_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19522/19522_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Стильная лаконичная плеть выполнена из чёрной эко-кожи. Рукоятка декорирована красными полосками. Эта плеть поможет разнообразить вашу БДСМ игру и подарит новые ощущения. Лаконичная плеть из эко-кожи.  Лаконичная плеть из эко-кожи. Модель: bdsmars-50013. БДСМ. БДСМ товары и фетиш &gt; Плетки, стеки, шлепалки. Цвет: черный с красным. Материал: эко кожа. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Трусики из коллекции российского бренда BDSM Арсенал, предназначены для крепления насадок небольшого диаметра. Они выполнены из натуральной кожи, а при помощи широкого пояса легко регулируются по размеру, благодаря чему имеют универсальный размер. Фаллоимитаторы крепятся при помощи отверстия в передней части трусиков. Страпон-трусики из натуральной кожи с интимным доступом.  Страпон-трусики из натуральной кожи с интимным доступом. Модель: bdsmars-52007. Секс-игрушки. Страпоны и фаллопротезы &gt; Трусики и насадки. Цвет: черный. Материал: натуральная кожа, трикотажная резина. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -3805,7 +3903,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>эко кожа</t>
+          <t>натуральная кожа, трикотажная резина</t>
         </is>
       </c>
       <c r="S27" t="inlineStr"/>
@@ -3879,12 +3977,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Трусики для страпона из натуральной</t>
+          <t>Красные трусики со штырьком для насадки</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>id-25105-1299</t>
+          <t>id-25093-1299</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -3906,10 +4004,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25093/25093_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25093/25093_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25093/25093_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Трусики для страпона, изготовлены из натуральной кожи. Крепятся при помощи широких эластичных резинок (размер легко меняется). Диаметр отверстия для страпона - 4 см. Трусики для страпона из натуральной кожи.  Трусики для страпона из натуральной кожи. Модель: bdsmars-52001. БДСМ. Страпоны и фаллопротезы &gt; Трусики и насадки. Цвет: черный. Материал: натуральная кожа, нейлон. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Трусики для страпона, в комплект входит штырек для насадок. Размер регулируется ремешками (ширина 5 см), которые крепятся на бёдрах. Основная часть трусиков (передняя) изготовлена из кожи, ремешки изготовлены из плотных корсажных лент. Красные трусики со штырьком для насадки.  Красные трусики со штырьком для насадки. Модель: bdsmars-52017. Секс-игрушки. Страпоны и фаллопротезы &gt; Трусики и насадки. Цвет: красный, черный. Материал: натуральная кожа, пластик, нейлон. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -3929,7 +4031,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>натуральная кожа, нейлон</t>
+          <t>натуральная кожа, пластик, нейлон</t>
         </is>
       </c>
       <c r="S28" t="inlineStr"/>
@@ -4003,16 +4105,24 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Страпон-трусики из натуральной кожи с</t>
+          <t>Кожаные страпон-трусики для гигантского</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>id-19522-1299</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+          <t>id-21282-1299</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
         <v>99999</v>
@@ -4022,10 +4132,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21282/21282_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21282/21282_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21282/21282_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Трусики из коллекции российского бренда BDSM Арсенал, предназначены для крепления насадок небольшого диаметра. Они выполнены из натуральной кожи, а при помощи широкого пояса легко регулируются по размеру, благодаря чему имеют универсальный размер. Фаллоимитаторы крепятся при помощи отверстия в передней части трусиков. Страпон-трусики из натуральной кожи с интимным доступом.  Страпон-трусики из натуральной кожи с интимным доступом. Модель: bdsmars-52007. Секс-игрушки. Страпоны и фаллопротезы &gt; Трусики и насадки. Цвет: черный. Материал: натуральная кожа, трикотажная резина. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Трусики для страпона, изготовлены из кожи. Крепятся при помощи ремней (размер легко меняется). Диаметр отверстия регулируется под разные размеры страпона. Упаковка: прозрачный пакет. Кожаные страпон-трусики для гигантского фаллоса XL BDSM Арсенал.  Кожаные страпон-трусики для гигантского фаллоса XL BDSM Арсенал. Модель: bdsmars-52021xl. БДСМ. Страпоны и фаллопротезы &gt; Трусики и насадки. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -4045,7 +4159,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>натуральная кожа, трикотажная резина</t>
+          <t>натуральная кожа, металл</t>
         </is>
       </c>
       <c r="S29" t="inlineStr"/>
@@ -4103,7 +4217,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Страпоны</t>
+          <t>Фиксаторы эротик</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -4114,17 +4228,17 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Красные трусики со штырьком для насадки</t>
+          <t>Штанга с креплениями для рук и ног</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>id-25093-1299</t>
+          <t>id-27990-1299</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -4146,10 +4260,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27990/27990_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27990/27990_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Трусики для страпона, в комплект входит штырек для насадок. Размер регулируется ремешками (ширина 5 см), которые крепятся на бёдрах. Основная часть трусиков (передняя) изготовлена из кожи, ремешки изготовлены из плотных корсажных лент. Красные трусики со штырьком для насадки.  Красные трусики со штырьком для насадки. Модель: bdsmars-52017. Секс-игрушки. Страпоны и фаллопротезы &gt; Трусики и насадки. Цвет: красный, черный. Материал: натуральная кожа, пластик, нейлон. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Штанга выполнена из металла, по ее длине расположены 4 крепления с карабинами для наручников и оков. Длина изделия 80 см, диаметр штанги 2,5 см. Оковы и наручники сделаны из натуральной черной кожи, декорированной холнитенами.  Ремни на липучей ленте позволяет отрегулировать нужный размер и обеспечить максимальную фиксацию. Наручники подойдут на обхват руки от 15 до 20 см, оковы подойдут на обхват от 19 до 25 см. Ширина аксессуаров 5 см. Подклад выполнен из нежной перчаточной кожи. При производстве использована усиленная металлическая фурнитура. Собирается штанга из двух частей. Штанга с креплениями для рук и ног.  Штанга с креплениями для рук и ног. Модель: bdsmars-53004. БДСМ. БДСМ товары и фетиш &gt; Кандалы, фиксаторы на ноги. БДСМ товары и фетиш &gt; Аксессуары. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -4169,7 +4287,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>натуральная кожа, пластик, нейлон</t>
+          <t>натуральная кожа, металл</t>
         </is>
       </c>
       <c r="S30" t="inlineStr"/>
@@ -4207,7 +4325,7 @@
       <c r="AM30" t="inlineStr"/>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t xml:space="preserve">две штанги, 4 фиксатора для рук и ног, ключ </t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
@@ -4227,7 +4345,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Страпоны</t>
+          <t>Фиксаторы эротик</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -4243,12 +4361,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Кожаные страпон-трусики для гигантского</t>
+          <t>Фиксатор запястий к лодыжкам</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>id-21282-1299</t>
+          <t>id-19919-1299</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -4270,10 +4388,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19919/19919_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19919/19919_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Трусики для страпона, изготовлены из кожи. Крепятся при помощи ремней (размер легко меняется). Диаметр отверстия регулируется под разные размеры страпона. Упаковка: прозрачный пакет. Кожаные страпон-трусики для гигантского фаллоса XL BDSM Арсенал.  Кожаные страпон-трусики для гигантского фаллоса XL BDSM Арсенал. Модель: bdsmars-52021xl. БДСМ. Страпоны и фаллопротезы &gt; Трусики и насадки. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Фиксатор черного цвета, изготовленный из плотной черной корсажной ленты. Ширина почти 5 см, длина - 78 см. По всей длине расположены фиксаторы для рук.запястий (2 шт) и лодыжек (2 шт) Их размер легко регулируется при помощи застежек-липучек. Фиксатор запястий к лодыжкам.  Фиксатор запястий к лодыжкам. Модель: bdsmars-53006. БДСМ. БДСМ товары и фетиш &gt; Фиксаторы и сбруи. Цвет: черный. Материал: 100% полиэстер. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -4293,7 +4415,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>натуральная кожа, металл</t>
+          <t>100% полиэстер</t>
         </is>
       </c>
       <c r="S31" t="inlineStr"/>
@@ -4351,7 +4473,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Фиксаторы эротик</t>
+          <t>Поводки эротик</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -4362,17 +4484,17 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Штанга с креплениями для рук и ног</t>
+          <t>Сбруя с ошейником из черной</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>id-27990-1299</t>
+          <t>id-23321-1299</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -4394,10 +4516,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23321/23321_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Штанга выполнена из металла, по ее длине расположены 4 крепления с карабинами для наручников и оков. Длина изделия 80 см, диаметр штанги 2,5 см. Оковы и наручники сделаны из натуральной черной кожи, декорированной холнитенами.  Ремни на липучей ленте позволяет отрегулировать нужный размер и обеспечить максимальную фиксацию. Наручники подойдут на обхват руки от 15 до 20 см, оковы подойдут на обхват от 19 до 25 см. Ширина аксессуаров 5 см. Подклад выполнен из нежной перчаточной кожи. При производстве использована усиленная металлическая фурнитура. Собирается штанга из двух частей. Штанга с креплениями для рук и ног.  Штанга с креплениями для рук и ног. Модель: bdsmars-53004. БДСМ. БДСМ товары и фетиш &gt; Кандалы, фиксаторы на ноги. БДСМ товары и фетиш &gt; Аксессуары. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Сбруя выполнена из натуральной лакированной кожи черного цвета.  Ошейник с  мягким подкладом позволяем чувствовать себя максимально комфортно.  Лиф из кожаных ремешков  приподнимает грудь, придавая женским формам еще большую привлекательность. Сексуальный аксессуар не оставит равнодушным ни одного партнера. Сбруя с ошейником из черной лакированной кожи.  Сбруя с ошейником из черной лакированной кожи. Модель: bdsmars-53008. БДСМ. БДСМ товары и фетиш &gt; Ошейники, поводки. БДСМ товары и фетиш &gt; Фиксаторы и сбруи. Цвет: черный. Материал: натуральная кожа (лак). Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -4417,7 +4543,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>натуральная кожа, металл</t>
+          <t>натуральная кожа (лак)</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
@@ -4455,7 +4581,7 @@
       <c r="AM32" t="inlineStr"/>
       <c r="AN32" t="inlineStr">
         <is>
-          <t xml:space="preserve">две штанги, 4 фиксатора для рук и ног, ключ </t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
@@ -4491,22 +4617,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Фиксатор запястий к лодыжкам</t>
+          <t>Кожаная распорка с карабинами</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>id-19919-1299</t>
+          <t>id-28100-1299</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>40-42</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -4518,10 +4644,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28100/28100_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28100/28100_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28100/28100_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28100/28100_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Фиксатор черного цвета, изготовленный из плотной черной корсажной ленты. Ширина почти 5 см, длина - 78 см. По всей длине расположены фиксаторы для рук.запястий (2 шт) и лодыжек (2 шт) Их размер легко регулируется при помощи застежек-липучек. Фиксатор запястий к лодыжкам.  Фиксатор запястий к лодыжкам. Модель: bdsmars-53006. БДСМ. БДСМ товары и фетиш &gt; Фиксаторы и сбруи. Цвет: черный. Материал: 100% полиэстер. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Надёжная и простая в использовании распорка. Основа выполнена из металла, обтянутого натуральной черной кожей. По краям распорки расположены карабины для фиксации наручников, а по центру располагается металлическое кольцо для фиксации ошейника. При производстве использована усиленная сварная металлическая фурнитура. Отличный аксессуар для смелых и горячих экспериментов!.Кожаная распорка с карабинами.  Кожаная распорка с карабинами. Модель: bdsmars-53020. БДСМ. БДСМ товары и фетиш &gt; Фиксаторы и сбруи. Цвет: черный. Материал: металл, натуральная кожа. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -4531,17 +4661,17 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>100% полиэстер</t>
+          <t>металл, натуральная кожа</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -4579,7 +4709,7 @@
       <c r="AM33" t="inlineStr"/>
       <c r="AN33" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>распорка, мешочек для хранения</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
@@ -4599,7 +4729,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Поводки эротик</t>
+          <t>Маски эротик</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -4610,17 +4740,17 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Сбруя с ошейником из черной</t>
+          <t>Кожаная черная маска с клепками</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>id-23321-1299</t>
+          <t>id-27325-1299</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -4642,10 +4772,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27325/27325_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27325/27325_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сбруя выполнена из натуральной лакированной кожи черного цвета.  Ошейник с  мягким подкладом позволяем чувствовать себя максимально комфортно.  Лиф из кожаных ремешков  приподнимает грудь, придавая женским формам еще большую привлекательность. Сексуальный аксессуар не оставит равнодушным ни одного партнера. Сбруя с ошейником из черной лакированной кожи.  Сбруя с ошейником из черной лакированной кожи. Модель: bdsmars-53008. БДСМ. БДСМ товары и фетиш &gt; Ошейники, поводки. БДСМ товары и фетиш &gt; Фиксаторы и сбруи. Цвет: черный. Материал: натуральная кожа (лак). Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Черная маска из натуральной кожи, декорированная заклепками. Крепится к голове при помощи удобной резинки. Кожаная черная маска с клепками.  Кожаная черная маска с клепками. Модель: bdsmars-58005. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Аксессуары для игр &gt; Наборы и аксессуары. Цвет: черный с серебряным. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -4655,17 +4789,17 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>натуральная кожа (лак)</t>
+          <t>натуральная кожа, металл</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -4723,7 +4857,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Фиксаторы эротик</t>
+          <t>Кляпы эротик</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -4734,27 +4868,27 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Кожаная распорка с карабинами</t>
+          <t>Кляп-роза замшевый</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>id-28100-1299</t>
+          <t>id-27989-1299</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>40-42</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -4766,10 +4900,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27989/27989_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27989/27989_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27989/27989_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Надёжная и простая в использовании распорка. Основа выполнена из металла, обтянутого натуральной черной кожей. По краям распорки расположены карабины для фиксации наручников, а по центру располагается металлическое кольцо для фиксации ошейника. При производстве использована усиленная сварная металлическая фурнитура. Отличный аксессуар для смелых и горячих экспериментов!.Кожаная распорка с карабинами.  Кожаная распорка с карабинами. Модель: bdsmars-53020. БДСМ. БДСМ товары и фетиш &gt; Фиксаторы и сбруи. Цвет: черный. Материал: металл, натуральная кожа. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Необычный и очень красивый кляп, который декорирован красной розой. Цветок и ремешки кляпа выполнены из натуральной нежной замши, что очень комфортно во время использования. Обратная сторона выполнена из нежной натуральной кожи. Аксессуар декорирован качественной металлической фурнитурой, обхват удобно регулируется с помощью пряжки. Этот кляп добавит игривого и страстного настроения в БДСМ игру!.Кляп-роза замшевый.  Кляп-роза замшевый. Модель: bdsmars-60007. БДСМ. БДСМ товары и фетиш &gt; Кляпы, распорки для рта. Цвет: черно-красный. Материал: натуральная кожа, натуральная замша. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -4789,7 +4927,7 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>металл, натуральная кожа</t>
+          <t>натуральная кожа, натуральная замша</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -4827,7 +4965,7 @@
       <c r="AM35" t="inlineStr"/>
       <c r="AN35" t="inlineStr">
         <is>
-          <t>распорка, мешочек для хранения</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
@@ -4847,7 +4985,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Маски эротик</t>
+          <t>Кляпы эротик</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -4863,12 +5001,12 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Кожаная черная маска с клепками</t>
+          <t>Кляп с красным кожаным кольцом</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>id-27325-1299</t>
+          <t>id-27986-1299</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -4890,10 +5028,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27986/27986_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27986/27986_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Черная маска из натуральной кожи, декорированная заклепками. Крепится к голове при помощи удобной резинки. Кожаная черная маска с клепками.  Кожаная черная маска с клепками. Модель: bdsmars-58005. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Аксессуары для игр &gt; Наборы и аксессуары. Цвет: черный с серебряным. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Строгий и надежный кляп, выполненный из натуральной кожи черного цвета. В основании использовано сварное металлическое кольцо, обтянутое нежной овечьей кожей красного цвета. Ширина ремешков 1,8 см, обхват удобно регулируется с помощью металлической пряжки. Такой кляп станет отличным элементом БДСМ игры, функциональным и комфортным в использовании. Кляп с красным кожаным кольцом.  Кляп с красным кожаным кольцом. Модель: bdsmars-60011. БДСМ. БДСМ товары и фетиш &gt; Кляпы, распорки для рта. Цвет: черно-красный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -4982,17 +5124,17 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Кляп-роза замшевый</t>
+          <t>Черно-красный кожаный кляп</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>id-27989-1299</t>
+          <t>id-27985-1299</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -5014,10 +5156,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27985/27985_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27985/27985_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Необычный и очень красивый кляп, который декорирован красной розой. Цветок и ремешки кляпа выполнены из натуральной нежной замши, что очень комфортно во время использования. Обратная сторона выполнена из нежной натуральной кожи. Аксессуар декорирован качественной металлической фурнитурой, обхват удобно регулируется с помощью пряжки. Этот кляп добавит игривого и страстного настроения в БДСМ игру!.Кляп-роза замшевый.  Кляп-роза замшевый. Модель: bdsmars-60007. БДСМ. БДСМ товары и фетиш &gt; Кляпы, распорки для рта. Цвет: черно-красный. Материал: натуральная кожа, натуральная замша. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Качественный и удобный кляп, выполненный из натуральной кожи черного и красного цветов. Размеры кляпа 9 х 5 см, благодаря наполнителю средней жесткости этот кляп будет комфортен в использовании. Аксессуар декорирован сварной металлической фурнитурой. Ширина ремешков 1,8 см, обхват удобно регулируется с помощью металлической пряжки. Отличный аксессуар для любовной игры и новых ощущений!.Черно-красный кожаный кляп.  Черно-красный кожаный кляп. Модель: bdsmars-60014. БДСМ. БДСМ товары и фетиш &gt; Кляпы, распорки для рта. Цвет: черно-красный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -5037,7 +5183,7 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>натуральная кожа, натуральная замша</t>
+          <t>натуральная кожа, металл</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -5095,7 +5241,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Кляпы эротик</t>
+          <t>Поводки эротик</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -5106,17 +5252,17 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Кляп с красным кожаным кольцом</t>
+          <t>Ошейник с поводком LADY'S ARSENAL</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>id-27986-1299</t>
+          <t>id-27320-1299</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -5138,10 +5284,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27320/27320_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27320/27320_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27320/27320_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Строгий и надежный кляп, выполненный из натуральной кожи черного цвета. В основании использовано сварное металлическое кольцо, обтянутое нежной овечьей кожей красного цвета. Ширина ремешков 1,8 см, обхват удобно регулируется с помощью металлической пряжки. Такой кляп станет отличным элементом БДСМ игры, функциональным и комфортным в использовании. Кляп с красным кожаным кольцом.  Кляп с красным кожаным кольцом. Модель: bdsmars-60011. БДСМ. БДСМ товары и фетиш &gt; Кляпы, распорки для рта. Цвет: черно-красный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Ошейник в лаконичном дизайне, выполнен из качественной натуральной кожи. Впереди декорирован серебристым кольцом. В комплекте поводок из металла с удобной кожаной ручкой. Размер универсальный, регулируется с помощью ремешка. Упакованы ошейник с поводком в картонную коробку. Ошейник с поводком LADY'S ARSENAL.  Ошейник с поводком LADY'S ARSENAL. Модель: bdsmars-68003. БДСМ. БДСМ товары и фетиш &gt; Ошейники, поводки. Цвет: черный с серебряным. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -5199,7 +5349,7 @@
       <c r="AM38" t="inlineStr"/>
       <c r="AN38" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>ошейник, поводок</t>
         </is>
       </c>
       <c r="AO38" t="inlineStr">
@@ -5219,7 +5369,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Кляпы эротик</t>
+          <t>Маски эротик</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -5230,17 +5380,17 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Черно-красный кожаный кляп</t>
+          <t>Кожаная маска зайца MISS BUNNY</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>id-27985-1299</t>
+          <t>id-27322-1299</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -5262,10 +5412,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27322/27322_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27322/27322_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Качественный и удобный кляп, выполненный из натуральной кожи черного и красного цветов. Размеры кляпа 9 х 5 см, благодаря наполнителю средней жесткости этот кляп будет комфортен в использовании. Аксессуар декорирован сварной металлической фурнитурой. Ширина ремешков 1,8 см, обхват удобно регулируется с помощью металлической пряжки. Отличный аксессуар для любовной игры и новых ощущений!.Черно-красный кожаный кляп.  Черно-красный кожаный кляп. Модель: bdsmars-60014. БДСМ. БДСМ товары и фетиш &gt; Кляпы, распорки для рта. Цвет: черно-красный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Супер-эффектная и сексуальная маска зайки Выполнена маска из плотной черной кожи высокого качества, она отлично держит форму. Подойдет к любому типу лица, отлично подчеркнув глаза. Ушки длинные, стоячие. Фиксируется маска на металлическую пряжку сзади. Этот аксессуар станет главной фишкой вашего образа, добавит сексуальности и игривого настроения!.Кожаная маска зайца MISS BUNNY.  Кожаная маска зайца MISS BUNNY. Модель: bdsmars-68013. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Аксессуары, украшения для тела &gt; Аксессуары. Аксессуары для игр &gt; Наборы и аксессуары. Эротическое белье для женщин &gt; Маскарадные маски. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -5343,7 +5497,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Поводки эротик</t>
+          <t>Маски эротик</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -5359,12 +5513,12 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Ошейник с поводком LADY'S ARSENAL</t>
+          <t>Маска зайки с черным кружевом на ушках</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>id-27320-1299</t>
+          <t>id-27321-1299</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -5386,10 +5540,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27321/27321_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ошейник в лаконичном дизайне, выполнен из качественной натуральной кожи. Впереди декорирован серебристым кольцом. В комплекте поводок из металла с удобной кожаной ручкой. Размер универсальный, регулируется с помощью ремешка. Упакованы ошейник с поводком в картонную коробку. Ошейник с поводком LADY'S ARSENAL.  Ошейник с поводком LADY'S ARSENAL. Модель: bdsmars-68003. БДСМ. БДСМ товары и фетиш &gt; Ошейники, поводки. Цвет: черный с серебряным. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Супер-эффектная и сексуальная маска зайки. Выполнена маска из плотной черной кожи высокого качества, она отлично держит форму. Ушки декорированы красивым чёрным кружевом, что придает образу кокетства. Подойдет к любому типу лица, отлично подчеhкнув глаза. Ушки длинные, стоячие. Фиксируется маска на металлическую пряжку сзади. Этот аксессуар станет главной фишкой вашего образа, добавит сексуальности и игривого настроения!.Маска зайки с черным кружевом на ушках.  Маска зайки с черным кружевом на ушках. Модель: bdsmars-68015. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Аксессуары, украшения для тела &gt; Аксессуары. Аксессуары для игр &gt; Наборы и аксессуары. Эротическое белье для женщин &gt; Маскарадные маски. Цвет: черный. Материал: натуральная кожа, металл, кружево. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -5409,7 +5567,7 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>натуральная кожа, металл</t>
+          <t>натуральная кожа, металл, кружево</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -5447,7 +5605,7 @@
       <c r="AM40" t="inlineStr"/>
       <c r="AN40" t="inlineStr">
         <is>
-          <t>ошейник, поводок</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO40" t="inlineStr">
@@ -5467,7 +5625,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Маски эротик</t>
+          <t>Наручники эротик</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -5483,12 +5641,12 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Кожаная маска зайца MISS BUNNY</t>
+          <t>Изысканные наручники с кружевом BDSM</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>id-27322-1299</t>
+          <t>id-21278-1299</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -5510,10 +5668,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21278/21278_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21278/21278_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21278/21278_5_650.jpg</t>
+        </is>
+      </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Супер-эффектная и сексуальная маска зайки Выполнена маска из плотной черной кожи высокого качества, она отлично держит форму. Подойдет к любому типу лица, отлично подчеркнув глаза. Ушки длинные, стоячие. Фиксируется маска на металлическую пряжку сзади. Этот аксессуар станет главной фишкой вашего образа, добавит сексуальности и игривого настроения!.Кожаная маска зайца MISS BUNNY.  Кожаная маска зайца MISS BUNNY. Модель: bdsmars-68013. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Аксессуары, украшения для тела &gt; Аксессуары. Аксессуары для игр &gt; Наборы и аксессуары. Эротическое белье для женщин &gt; Маскарадные маски. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Оживить эротические игры Вам помогут наручники с изысканным кружевом. Этот интимный аксессуар пользуется успехом у мужчин. Выполненные в черном цвете (лак) с черным кружевом и украшены прочными ремешками. Модный интимный аксессуар не сдавливает и не нарушает кровообращение, так как изготовлен из мягкой кожи. Чтобы любимая никуда не убежала, наручники соединены короткой перемычкой. Изысканные наручники с кружевом BDSM Light.  Изысканные наручники с кружевом BDSM Light. Модель: bdsmars-810005. БДСМ. БДСМ товары и фетиш &gt; Наручники, фиксаторы на руки. Аксессуары для игр &gt; Наборы и аксессуары. Цвет: черный. Материал: лаковая кожа, полиэстер, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -5523,17 +5685,17 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>натуральная кожа, металл</t>
+          <t>лаковая кожа, полиэстер, металл</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -5571,7 +5733,7 @@
       <c r="AM41" t="inlineStr"/>
       <c r="AN41" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>манжеты, сцепка</t>
         </is>
       </c>
       <c r="AO41" t="inlineStr">
@@ -5591,13 +5753,13 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Маски эротик</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>BDSM АРСЕНАЛ</t>
+          <t>Wisteria</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -5607,24 +5769,16 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Маска зайки с черным кружевом на ушках</t>
+          <t>Светящийся в темноте реалистичный</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>id-27321-1299</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-22773-1299</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
         <v>99999</v>
@@ -5634,15 +5788,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22773/22773_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22773/22773_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22773/22773_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22773/22773_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22773/22773_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Супер-эффектная и сексуальная маска зайки. Выполнена маска из плотной черной кожи высокого качества, она отлично держит форму. Ушки декорированы красивым чёрным кружевом, что придает образу кокетства. Подойдет к любому типу лица, отлично подчеhкнув глаза. Ушки длинные, стоячие. Фиксируется маска на металлическую пряжку сзади. Этот аксессуар станет главной фишкой вашего образа, добавит сексуальности и игривого настроения!.Маска зайки с черным кружевом на ушках.  Маска зайки с черным кружевом на ушках. Модель: bdsmars-68015. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Аксессуары, украшения для тела &gt; Аксессуары. Аксессуары для игр &gt; Наборы и аксессуары. Эротическое белье для женщин &gt; Маскарадные маски. Цвет: черный. Материал: натуральная кожа, металл, кружево. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Светящийся в темноте Clark Glow - твой выход за пределы реальности с собственным героем. Можешь не волноваться! Он спасет тебя от скучных ночей и серой действительности, ведь, как у каждого супергероя, у Clark Glow есть сверхспособность. В темноте из обычной реалистичной игрушки он превращается в сияющий жезл удовольствия.Внешняя часть, идеально имитирующая мужское достоинство, выполнена из жидкого силикона - такого приятного и нежного на ощупь. Внутренний слой светится благодаря безопасной фосфоресцирующей пудре. Позволь Clark Glow стать твоим героем.В основании имеется мощная присоска, которая позволяет крепить фаллос к любой твердой гладкой поверхности. Светящийся в темноте реалистичный фаллоимитатор Beyond Clark Glow.  Светящийся в темноте реалистичный фаллоимитатор Beyond Clark Glow. Модель: beyond-872001. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Цвет: салатовый. Материал: мягкий силикон с бархатистой поверхностью. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Гонконг</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -5657,7 +5815,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>натуральная кожа, металл, кружево</t>
+          <t>мягкий силикон с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -5674,15 +5832,25 @@
       </c>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
-      <c r="AA42" t="inlineStr"/>
+      <c r="Y42" t="n">
+        <v>21.45</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>19.5</v>
+      </c>
       <c r="AB42" t="inlineStr"/>
       <c r="AC42" t="inlineStr"/>
       <c r="AD42" t="inlineStr"/>
       <c r="AE42" t="inlineStr"/>
-      <c r="AF42" t="inlineStr"/>
-      <c r="AG42" t="inlineStr"/>
+      <c r="AF42" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>3.6</v>
+      </c>
       <c r="AH42" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -5715,13 +5883,13 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Фиксаторы эротик</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>BDSM АРСЕНАЛ</t>
+          <t>Wisteria</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -5731,24 +5899,16 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Изысканные наручники с кружевом BDSM</t>
+          <t>Светящийся в темноте реалистичный</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>id-21278-1299</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-22752-1299</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
         <v>99999</v>
@@ -5758,30 +5918,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22752/22752_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22752/22752_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22752/22752_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22752/22752_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22752/22752_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Оживить эротические игры Вам помогут наручники с изысканным кружевом. Этот интимный аксессуар пользуется успехом у мужчин. Выполненные в черном цвете (лак) с черным кружевом и украшены прочными ремешками. Модный интимный аксессуар не сдавливает и не нарушает кровообращение, так как изготовлен из мягкой кожи. Чтобы любимая никуда не убежала, наручники соединены короткой перемычкой. Изысканные наручники с кружевом BDSM Light.  Изысканные наручники с кружевом BDSM Light. Модель: bdsmars-810005. БДСМ. БДСМ товары и фетиш &gt; Наручники, фиксаторы на руки. Аксессуары для игр &gt; Наборы и аксессуары. Цвет: черный. Материал: лаковая кожа, полиэстер, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Светящийся в темноте Bruce Glow - твой выход за пределы реальности с собственным героем. Можешь не волноваться! Он спасет тебя от скучных ночей и серой действительности, ведь, как у каждого супергероя, у Bruce Glow есть сверхспособность. В темноте из обычной реалистичной игрушки он превращается в сияющий жезл удовольствия.Внешняя часть, идеально имитирующая мужское достоинство, выполнена из жидкого силикона - такого приятного и нежного на ощупь. Внутренний слой светится благодаря безопасной фосфоресцирующей пудре. Позволь Bruce Glow стать твоим героем.В основании имеется мощная присоска, которая позволяет крепить фаллос к любой твердой гладкой поверхности. Светящийся в темноте реалистичный фаллоимитатор Beyond Bruce Glow.  Светящийся в темноте реалистичный фаллоимитатор Beyond Bruce Glow. Модель: beyond-872002. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Цвет: голубой. Материал: мягкий силикон с бархатистой поверхностью. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Гонконг</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>лаковая кожа, полиэстер, металл</t>
+          <t>мягкий силикон с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -5798,15 +5962,25 @@
       </c>
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr"/>
-      <c r="AA43" t="inlineStr"/>
+      <c r="Y43" t="n">
+        <v>21.45</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>19.5</v>
+      </c>
       <c r="AB43" t="inlineStr"/>
       <c r="AC43" t="inlineStr"/>
       <c r="AD43" t="inlineStr"/>
       <c r="AE43" t="inlineStr"/>
-      <c r="AF43" t="inlineStr"/>
-      <c r="AG43" t="inlineStr"/>
+      <c r="AF43" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>3.6</v>
+      </c>
       <c r="AH43" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -5819,7 +5993,7 @@
       <c r="AM43" t="inlineStr"/>
       <c r="AN43" t="inlineStr">
         <is>
-          <t>манжеты, сцепка</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO43" t="inlineStr">
@@ -5860,7 +6034,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>id-22773-1299</t>
+          <t>id-22755-1299</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -5874,10 +6048,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22755/22755_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22755/22755_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22755/22755_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22755/22755_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22755/22755_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Светящийся в темноте Clark Glow - твой выход за пределы реальности с собственным героем. Можешь не волноваться! Он спасет тебя от скучных ночей и серой действительности, ведь, как у каждого супергероя, у Clark Glow есть сверхспособность. В темноте из обычной реалистичной игрушки он превращается в сияющий жезл удовольствия.Внешняя часть, идеально имитирующая мужское достоинство, выполнена из жидкого силикона - такого приятного и нежного на ощупь. Внутренний слой светится благодаря безопасной фосфоресцирующей пудре. Позволь Clark Glow стать твоим героем.В основании имеется мощная присоска, которая позволяет крепить фаллос к любой твердой гладкой поверхности. Светящийся в темноте реалистичный фаллоимитатор Beyond Clark Glow.  Светящийся в темноте реалистичный фаллоимитатор Beyond Clark Glow. Модель: beyond-872001. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Цвет: салатовый. Материал: мягкий силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: Wisteria. </t>
+          <t xml:space="preserve">Светящийся в темноте Peter Glow - твой выход за пределы реальности с собственным героем. Можешь не волноваться! Он спасет тебя от скучных ночей и серой действительности, ведь, как у каждого супергероя, у Peter Glow есть сверхспособность. В темноте из обычной реалистичной игрушки он превращается в сияющий жезл удовольствия.Внешняя часть, идеально имитирующая мужское достоинство, выполнена из жидкого силикона - такого приятного и нежного на ощупь. Внутренний слой светится благодаря безопасной фосфоресцирующей пудре. Позволь Peter Glow стать твоим героем.В основании имеется мощная присоска, которая позволяет крепить фаллос к любой твердой гладкой поверхности. Светящийся в темноте реалистичный фаллоимитатор Beyond Peter Glow.  Светящийся в темноте реалистичный фаллоимитатор Beyond Peter Glow. Модель: beyond-872003. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Цвет: розовый. Материал: мягкий силикон с бархатистой поверхностью. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -5986,7 +6164,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>id-22752-1299</t>
+          <t>id-22767-1299</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -6000,10 +6178,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22767/22767_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22767/22767_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22767/22767_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22767/22767_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22767/22767_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Светящийся в темноте Bruce Glow - твой выход за пределы реальности с собственным героем. Можешь не волноваться! Он спасет тебя от скучных ночей и серой действительности, ведь, как у каждого супергероя, у Bruce Glow есть сверхспособность. В темноте из обычной реалистичной игрушки он превращается в сияющий жезл удовольствия.Внешняя часть, идеально имитирующая мужское достоинство, выполнена из жидкого силикона - такого приятного и нежного на ощупь. Внутренний слой светится благодаря безопасной фосфоресцирующей пудре. Позволь Bruce Glow стать твоим героем.В основании имеется мощная присоска, которая позволяет крепить фаллос к любой твердой гладкой поверхности. Светящийся в темноте реалистичный фаллоимитатор Beyond Bruce Glow.  Светящийся в темноте реалистичный фаллоимитатор Beyond Bruce Glow. Модель: beyond-872002. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Цвет: голубой. Материал: мягкий силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: Wisteria. </t>
+          <t xml:space="preserve">Светящийся в темноте Wade Glow - твой выход за пределы реальности с собственным героем. Можешь не волноваться! Он спасет тебя от скучных ночей и серой действительности, ведь, как у каждого супергероя, у Wade Glow есть сверхспособность. В темноте из обычной реалистичной игрушки он превращается в сияющий жезл удовольствия.Внешняя часть, идеально имитирующая мужское достоинство, выполнена из жидкого силикона - такого приятного и нежного на ощупь. Внутренний слой светится благодаря безопасной фосфоресцирующей пудре. Позволь Wade Glow стать твоим героем.В основании имеется мощная присоска, которая позволяет крепить фаллос к любой твердой гладкой поверхности. Светящийся в темноте реалистичный фаллоимитатор Beyond Wade Glow.  Светящийся в темноте реалистичный фаллоимитатор Beyond Wade Glow. Модель: beyond-872006. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Цвет: салатовый. Материал: мягкий силикон с бархатистой поверхностью. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -6041,23 +6223,23 @@
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="n">
-        <v>21.45</v>
+        <v>19.25</v>
       </c>
       <c r="Z45" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA45" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AB45" t="inlineStr"/>
       <c r="AC45" t="inlineStr"/>
       <c r="AD45" t="inlineStr"/>
       <c r="AE45" t="inlineStr"/>
       <c r="AF45" t="n">
-        <v>3.96</v>
+        <v>3.685</v>
       </c>
       <c r="AG45" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="AH45" t="inlineStr">
         <is>
@@ -6112,7 +6294,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>id-22755-1299</t>
+          <t>id-22751-1299</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -6126,10 +6308,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22751/22751_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22751/22751_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22751/22751_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22751/22751_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22751/22751_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Светящийся в темноте Peter Glow - твой выход за пределы реальности с собственным героем. Можешь не волноваться! Он спасет тебя от скучных ночей и серой действительности, ведь, как у каждого супергероя, у Peter Glow есть сверхспособность. В темноте из обычной реалистичной игрушки он превращается в сияющий жезл удовольствия.Внешняя часть, идеально имитирующая мужское достоинство, выполнена из жидкого силикона - такого приятного и нежного на ощупь. Внутренний слой светится благодаря безопасной фосфоресцирующей пудре. Позволь Peter Glow стать твоим героем.В основании имеется мощная присоска, которая позволяет крепить фаллос к любой твердой гладкой поверхности. Светящийся в темноте реалистичный фаллоимитатор Beyond Peter Glow.  Светящийся в темноте реалистичный фаллоимитатор Beyond Peter Glow. Модель: beyond-872003. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Цвет: розовый. Материал: мягкий силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: Wisteria. </t>
+          <t xml:space="preserve">Светящийся в темноте Steve Glow - твой выход за пределы реальности с собственным героем. Можешь не волноваться! Он спасет тебя от скучных ночей и серой действительности, ведь, как у каждого супергероя, у Steve Glow есть сверхспособность. В темноте из обычной реалистичной игрушки он превращается в сияющий жезл удовольствия.Внешняя часть, идеально имитирующая мужское достоинство, выполнена из жидкого силикона - такого приятного и нежного на ощупь. Внутренний слой светится благодаря безопасной фосфоресцирующей пудре. Позволь Steve Glow стать твоим героем.В основании имеется мощная присоска, которая позволяет крепить фаллос к любой твердой гладкой поверхности. Светящийся в темноте реалистичный фаллоимитатор Beyond Steve Glow.  Светящийся в темноте реалистичный фаллоимитатор Beyond Steve Glow. Модель: beyond-872007. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Цвет: голубой. Материал: мягкий силикон с бархатистой поверхностью. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -6167,23 +6353,23 @@
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="n">
-        <v>21.45</v>
+        <v>19.25</v>
       </c>
       <c r="Z46" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA46" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AB46" t="inlineStr"/>
       <c r="AC46" t="inlineStr"/>
       <c r="AD46" t="inlineStr"/>
       <c r="AE46" t="inlineStr"/>
       <c r="AF46" t="n">
-        <v>3.96</v>
+        <v>3.685</v>
       </c>
       <c r="AG46" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="AH46" t="inlineStr">
         <is>
@@ -6238,7 +6424,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>id-22767-1299</t>
+          <t>id-22754-1299</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -6252,10 +6438,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22754/22754_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22754/22754_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22754/22754_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22754/22754_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22754/22754_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Светящийся в темноте Wade Glow - твой выход за пределы реальности с собственным героем. Можешь не волноваться! Он спасет тебя от скучных ночей и серой действительности, ведь, как у каждого супергероя, у Wade Glow есть сверхспособность. В темноте из обычной реалистичной игрушки он превращается в сияющий жезл удовольствия.Внешняя часть, идеально имитирующая мужское достоинство, выполнена из жидкого силикона - такого приятного и нежного на ощупь. Внутренний слой светится благодаря безопасной фосфоресцирующей пудре. Позволь Wade Glow стать твоим героем.В основании имеется мощная присоска, которая позволяет крепить фаллос к любой твердой гладкой поверхности. Светящийся в темноте реалистичный фаллоимитатор Beyond Wade Glow.  Светящийся в темноте реалистичный фаллоимитатор Beyond Wade Glow. Модель: beyond-872006. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Цвет: салатовый. Материал: мягкий силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: Wisteria. </t>
+          <t xml:space="preserve">Светящийся в темноте Tony Glow - твой выход за пределы реальности с собственным героем. Можешь не волноваться! Он спасет тебя от скучных ночей и серой действительности, ведь, как у каждого супергероя, у Tony Glow есть сверхспособность. В темноте из обычной реалистичной игрушки он превращается в сияющий жезл удовольствия.Внешняя часть, идеально имитирующая мужское достоинство, выполнена из жидкого силикона - такого приятного и нежного на ощупь. Внутренний слой светится благодаря безопасной фосфоресцирующей пудре. Позволь Tony Glow стать твоим героем.В основании имеется мощная присоска, которая позволяет крепить фаллос к любой твердой гладкой поверхности. Светящийся в темноте реалистичный фаллоимитатор Beyond Tony Glow.  Светящийся в темноте реалистичный фаллоимитатор Beyond Tony Glow. Модель: beyond-872008. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Цвет: розовый. Материал: мягкий силикон с бархатистой поверхностью. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -6364,7 +6554,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>id-22751-1299</t>
+          <t>id-22756-1299</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
@@ -6378,10 +6568,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22756/22756_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22756/22756_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22756/22756_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22756/22756_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22756/22756_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Светящийся в темноте Steve Glow - твой выход за пределы реальности с собственным героем. Можешь не волноваться! Он спасет тебя от скучных ночей и серой действительности, ведь, как у каждого супергероя, у Steve Glow есть сверхспособность. В темноте из обычной реалистичной игрушки он превращается в сияющий жезл удовольствия.Внешняя часть, идеально имитирующая мужское достоинство, выполнена из жидкого силикона - такого приятного и нежного на ощупь. Внутренний слой светится благодаря безопасной фосфоресцирующей пудре. Позволь Steve Glow стать твоим героем.В основании имеется мощная присоска, которая позволяет крепить фаллос к любой твердой гладкой поверхности. Светящийся в темноте реалистичный фаллоимитатор Beyond Steve Glow.  Светящийся в темноте реалистичный фаллоимитатор Beyond Steve Glow. Модель: beyond-872007. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Цвет: голубой. Материал: мягкий силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: Wisteria. </t>
+          <t xml:space="preserve">Светящийся в темноте Dick Glow - твой выход за пределы реальности с собственным героем. Можешь не волноваться! Он спасет тебя от скучных ночей и серой действительности, ведь, как у каждого супергероя, у Dick Glow есть сверхспособность. В темноте из обычной реалистичной игрушки он превращается в сияющий жезл удовольствия.Внешняя часть, идеально имитирующая мужское достоинство, выполнена из жидкого силикона - такого приятного и нежного на ощупь. Внутренний слой светится благодаря безопасной фосфоресцирующей пудре. Позволь Dick Glow стать твоим героем.В основании имеется мощная присоска, которая позволяет крепить фаллос к любой твердой гладкой поверхности. Светящийся в темноте реалистичный фаллоимитатор Beyond Dick Glow.  Светящийся в темноте реалистичный фаллоимитатор Beyond Dick Glow. Модель: beyond-872011. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Цвет: салатовый. Материал: мягкий силикон с бархатистой поверхностью. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -6419,23 +6613,23 @@
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="n">
-        <v>19.25</v>
+        <v>17.38</v>
       </c>
       <c r="Z48" t="n">
-        <v>17.5</v>
+        <v>15.8</v>
       </c>
       <c r="AA48" t="n">
-        <v>17.5</v>
+        <v>15.8</v>
       </c>
       <c r="AB48" t="inlineStr"/>
       <c r="AC48" t="inlineStr"/>
       <c r="AD48" t="inlineStr"/>
       <c r="AE48" t="inlineStr"/>
       <c r="AF48" t="n">
-        <v>3.685</v>
+        <v>3.3</v>
       </c>
       <c r="AG48" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="AH48" t="inlineStr">
         <is>
@@ -6490,7 +6684,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>id-22754-1299</t>
+          <t>id-22750-1299</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
@@ -6504,10 +6698,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22750/22750_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22750/22750_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22750/22750_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22750/22750_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22750/22750_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Светящийся в темноте Tony Glow - твой выход за пределы реальности с собственным героем. Можешь не волноваться! Он спасет тебя от скучных ночей и серой действительности, ведь, как у каждого супергероя, у Tony Glow есть сверхспособность. В темноте из обычной реалистичной игрушки он превращается в сияющий жезл удовольствия.Внешняя часть, идеально имитирующая мужское достоинство, выполнена из жидкого силикона - такого приятного и нежного на ощупь. Внутренний слой светится благодаря безопасной фосфоресцирующей пудре. Позволь Tony Glow стать твоим героем.В основании имеется мощная присоска, которая позволяет крепить фаллос к любой твердой гладкой поверхности. Светящийся в темноте реалистичный фаллоимитатор Beyond Tony Glow.  Светящийся в темноте реалистичный фаллоимитатор Beyond Tony Glow. Модель: beyond-872008. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Цвет: розовый. Материал: мягкий силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: Wisteria. </t>
+          <t xml:space="preserve">Светящийся в темноте Matt Glow - твой выход за пределы реальности с собственным героем. Можешь не волноваться! Он спасет тебя от скучных ночей и серой действительности, ведь, как у каждого супергероя, у Matt Glow есть сверхспособность. В темноте из обычной реалистичной игрушки он превращается в сияющий жезл удовольствия.Внешняя часть, идеально имитирующая мужское достоинство, выполнена из жидкого силикона - такого приятного и нежного на ощупь. Внутренний слой светится благодаря безопасной фосфоресцирующей пудре. Позволь Matt Glow стать твоим героем.В основании имеется мощная присоска, которая позволяет крепить фаллос к любой твердой гладкой поверхности. Светящийся в темноте реалистичный фаллоимитатор Beyond Matt Glow.  Светящийся в темноте реалистичный фаллоимитатор Beyond Matt Glow. Модель: beyond-872012. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Цвет: голубой. Материал: мягкий силикон с бархатистой поверхностью. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -6545,23 +6743,23 @@
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="n">
-        <v>19.25</v>
+        <v>17.38</v>
       </c>
       <c r="Z49" t="n">
-        <v>17.5</v>
+        <v>15.8</v>
       </c>
       <c r="AA49" t="n">
-        <v>17.5</v>
+        <v>15.8</v>
       </c>
       <c r="AB49" t="inlineStr"/>
       <c r="AC49" t="inlineStr"/>
       <c r="AD49" t="inlineStr"/>
       <c r="AE49" t="inlineStr"/>
       <c r="AF49" t="n">
-        <v>3.685</v>
+        <v>3.3</v>
       </c>
       <c r="AG49" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="AH49" t="inlineStr">
         <is>
@@ -6616,7 +6814,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>id-22756-1299</t>
+          <t>id-22753-1299</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -6630,10 +6828,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22753/22753_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22753/22753_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22753/22753_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22753/22753_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22753/22753_5_650.jpg</t>
+        </is>
+      </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Светящийся в темноте Dick Glow - твой выход за пределы реальности с собственным героем. Можешь не волноваться! Он спасет тебя от скучных ночей и серой действительности, ведь, как у каждого супергероя, у Dick Glow есть сверхспособность. В темноте из обычной реалистичной игрушки он превращается в сияющий жезл удовольствия.Внешняя часть, идеально имитирующая мужское достоинство, выполнена из жидкого силикона - такого приятного и нежного на ощупь. Внутренний слой светится благодаря безопасной фосфоресцирующей пудре. Позволь Dick Glow стать твоим героем.В основании имеется мощная присоска, которая позволяет крепить фаллос к любой твердой гладкой поверхности. Светящийся в темноте реалистичный фаллоимитатор Beyond Dick Glow.  Светящийся в темноте реалистичный фаллоимитатор Beyond Dick Glow. Модель: beyond-872011. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Цвет: салатовый. Материал: мягкий силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: Wisteria. </t>
+          <t xml:space="preserve">Светящийся в темноте James Glow - твой выход за пределы реальности с собственным героем. Можешь не волноваться! Он спасет тебя от скучных ночей и серой действительности, ведь, как у каждого супергероя, у James Glow есть сверхспособность. В темноте из обычной реалистичной игрушки он превращается в сияющий жезл удовольствия.Внешняя часть, идеально имитирующая мужское достоинство, выполнена из жидкого силикона - такого приятного и нежного на ощупь. Внутренний слой светится благодаря безопасной фосфоресцирующей пудре. Позволь James Glow стать твоим героем.В основании имеется мощная присоска, которая позволяет крепить фаллос к любой твердой гладкой поверхности. Светящийся в темноте реалистичный фаллоимитатор Beyond James Glow.  Светящийся в темноте реалистичный фаллоимитатор Beyond James Glow. Модель: beyond-872013. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Цвет: розовый. Материал: мягкий силикон с бархатистой поверхностью. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -6721,7 +6923,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -6732,17 +6934,17 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Светящийся в темноте реалистичный</t>
+          <t>Анальная втулка на присоске светящаяся</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>id-22750-1299</t>
+          <t>id-24101-1299</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
@@ -6756,10 +6958,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24101/24101_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24101/24101_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24101/24101_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24101/24101_5_650.jpg</t>
+        </is>
+      </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Светящийся в темноте Matt Glow - твой выход за пределы реальности с собственным героем. Можешь не волноваться! Он спасет тебя от скучных ночей и серой действительности, ведь, как у каждого супергероя, у Matt Glow есть сверхспособность. В темноте из обычной реалистичной игрушки он превращается в сияющий жезл удовольствия.Внешняя часть, идеально имитирующая мужское достоинство, выполнена из жидкого силикона - такого приятного и нежного на ощупь. Внутренний слой светится благодаря безопасной фосфоресцирующей пудре. Позволь Matt Glow стать твоим героем.В основании имеется мощная присоска, которая позволяет крепить фаллос к любой твердой гладкой поверхности. Светящийся в темноте реалистичный фаллоимитатор Beyond Matt Glow.  Светящийся в темноте реалистичный фаллоимитатор Beyond Matt Glow. Модель: beyond-872012. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Цвет: голубой. Материал: мягкий силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: Wisteria. </t>
+          <t xml:space="preserve">Светящийся в темноте Mortimer Glow - твой шанс выйти за пределы реальности и забыть об условностях этого мира. Теперь у тебя есть свой супергерой. Познакомься с его сверх способностью превращаться во тьме из обычной игрушки в сияющий жезл удовольствия. Позволь ему разнообразить ночные игры в паре с помощью внутреннего силиконового слоя повышенной плотности с фосфоресцирующей пудрой. Ощути комфортное введение, которое гарантирует его наружный слой из нежного жидкого силикона. Позволь Mortimer Glow стать твоим героем. Анальная втулка на присоске светящаяся в темноте Mortimer Glow.  Анальная втулка на присоске светящаяся в темноте Mortimer Glow. Модель: beyond-873006. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: зеленый. Материал: мягкий силикон. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -6779,7 +6985,7 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>мягкий силикон с бархатистой поверхностью</t>
+          <t>мягкий силикон</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -6797,23 +7003,27 @@
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="n">
-        <v>17.38</v>
+        <v>13.75</v>
       </c>
       <c r="Z51" t="n">
-        <v>15.8</v>
+        <v>12.5</v>
       </c>
       <c r="AA51" t="n">
-        <v>15.8</v>
+        <v>12.5</v>
       </c>
       <c r="AB51" t="inlineStr"/>
       <c r="AC51" t="inlineStr"/>
-      <c r="AD51" t="inlineStr"/>
-      <c r="AE51" t="inlineStr"/>
+      <c r="AD51" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>11.55</v>
+      </c>
       <c r="AF51" t="n">
-        <v>3.3</v>
+        <v>3.08</v>
       </c>
       <c r="AG51" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AH51" t="inlineStr">
         <is>
@@ -6847,7 +7057,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -6858,17 +7068,17 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Светящийся в темноте реалистичный</t>
+          <t>Анальная втулка на присоске светящаяся</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>id-22753-1299</t>
+          <t>id-24106-1299</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
@@ -6882,10 +7092,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24106/24106_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24106/24106_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24106/24106_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24106/24106_4_650.jpg</t>
+        </is>
+      </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Светящийся в темноте James Glow - твой выход за пределы реальности с собственным героем. Можешь не волноваться! Он спасет тебя от скучных ночей и серой действительности, ведь, как у каждого супергероя, у James Glow есть сверхспособность. В темноте из обычной реалистичной игрушки он превращается в сияющий жезл удовольствия.Внешняя часть, идеально имитирующая мужское достоинство, выполнена из жидкого силикона - такого приятного и нежного на ощупь. Внутренний слой светится благодаря безопасной фосфоресцирующей пудре. Позволь James Glow стать твоим героем.В основании имеется мощная присоска, которая позволяет крепить фаллос к любой твердой гладкой поверхности. Светящийся в темноте реалистичный фаллоимитатор Beyond James Glow.  Светящийся в темноте реалистичный фаллоимитатор Beyond James Glow. Модель: beyond-872013. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Цвет: розовый. Материал: мягкий силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: Wisteria. </t>
+          <t xml:space="preserve">Светящийся в темноте Namor Glow - твой шанс выйти за пределы реальности и забыть об условностях этого мира. Теперь у тебя есть свой супергерой. Познакомься с его сверхспособностью превращаться во тьме из обычной игрушки в сияющий жезл удовольствия. Позволь ему разнообразить ночные игры в паре с помощью внутреннего силиконового слоя повышенной плотности с фосфоресцирующей пудрой. Ощути комфортное введение, которое гарантирует его наружный слой из нежного жидкого силикона. Позволь Namor Glow стать твоим героем. Анальная втулка на присоске светящаяся в темноте Namor Glow.  Анальная втулка на присоске светящаяся в темноте Namor Glow. Модель: beyond-873007. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: голубой. Материал: мягкий силикон. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -6905,7 +7119,7 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>мягкий силикон с бархатистой поверхностью</t>
+          <t>мягкий силикон</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -6923,23 +7137,27 @@
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="n">
-        <v>17.38</v>
+        <v>13.75</v>
       </c>
       <c r="Z52" t="n">
-        <v>15.8</v>
+        <v>12.5</v>
       </c>
       <c r="AA52" t="n">
-        <v>15.8</v>
+        <v>12.5</v>
       </c>
       <c r="AB52" t="inlineStr"/>
       <c r="AC52" t="inlineStr"/>
-      <c r="AD52" t="inlineStr"/>
-      <c r="AE52" t="inlineStr"/>
+      <c r="AD52" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>11.55</v>
+      </c>
       <c r="AF52" t="n">
-        <v>3.3</v>
+        <v>3.08</v>
       </c>
       <c r="AG52" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AH52" t="inlineStr">
         <is>
@@ -6994,7 +7212,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>id-24101-1299</t>
+          <t>id-24104-1299</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
@@ -7008,10 +7226,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24104/24104_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24104/24104_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24104/24104_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24104/24104_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Светящийся в темноте Mortimer Glow - твой шанс выйти за пределы реальности и забыть об условностях этого мира. Теперь у тебя есть свой супергерой. Познакомься с его сверх способностью превращаться во тьме из обычной игрушки в сияющий жезл удовольствия. Позволь ему разнообразить ночные игры в паре с помощью внутреннего силиконового слоя повышенной плотности с фосфоресцирующей пудрой. Ощути комфортное введение, которое гарантирует его наружный слой из нежного жидкого силикона. Позволь Mortimer Glow стать твоим героем. Анальная втулка на присоске светящаяся в темноте Mortimer Glow.  Анальная втулка на присоске светящаяся в темноте Mortimer Glow. Модель: beyond-873006. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: зеленый. Материал: мягкий силикон. Батареек нет в комплекте. Бренд: Wisteria. </t>
+          <t xml:space="preserve">Светящийся в темноте John Glow - твой шанс выйти за пределы реальности и забыть об условностях этого мира. Теперь у тебя есть свой супергерой. Познакомься с его сверхспособностью превращаться во тьме из обычной игрушки в сияющий жезл удовольствия. Позволь ему разнообразить ночные игры в паре с помощью внутреннего силиконового слоя повышенной плотности с фосфоресцирующей пудрой. Ощути комфортное введение, которое гарантирует его наружный слой из нежного жидкого силикона. Позволь John Glow стать твоим героем. Анальная втулка на присоске светящаяся в темноте John Glow.  Анальная втулка на присоске светящаяся в темноте John Glow. Модель: beyond-873008. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: розовый. Материал: мягкий силикон. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -7119,12 +7341,12 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Анальная втулка на присоске светящаяся</t>
+          <t>Небольшая анальная втулка на присоске</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>id-24106-1299</t>
+          <t>id-24102-1299</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
@@ -7138,10 +7360,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24102/24102_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24102/24102_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24102/24102_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24102/24102_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Светящийся в темноте Namor Glow - твой шанс выйти за пределы реальности и забыть об условностях этого мира. Теперь у тебя есть свой супергерой. Познакомься с его сверхспособностью превращаться во тьме из обычной игрушки в сияющий жезл удовольствия. Позволь ему разнообразить ночные игры в паре с помощью внутреннего силиконового слоя повышенной плотности с фосфоресцирующей пудрой. Ощути комфортное введение, которое гарантирует его наружный слой из нежного жидкого силикона. Позволь Namor Glow стать твоим героем. Анальная втулка на присоске светящаяся в темноте Namor Glow.  Анальная втулка на присоске светящаяся в темноте Namor Glow. Модель: beyond-873007. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: голубой. Материал: мягкий силикон. Батареек нет в комплекте. Бренд: Wisteria. </t>
+          <t xml:space="preserve">Светящийся в темноте Victor Glow - твой шанс выйти за пределы реальности и забыть об условностях этого мира. Теперь у тебя есть свой супергерой. Познакомься с его сверхспособностью превращаться во тьме из обычной игрушки в сияющий жезл удовольствия. Позволь ему разнообразить ночные игры в паре с помощью внутреннего силиконового слоя повышенной плотности с фосфоресцирующей пудрой. Ощути комфортное введение, которое гарантирует его наружный слой из нежного жидкого силикона. Позволь Victor Glow стать твоим героем. Небольшая анальная втулка на присоске светящаяся в темноте Victor Glow.  Небольшая анальная втулка на присоске светящаяся в темноте Victor Glow. Модель: beyond-873011. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: зеленый. Материал: мягкий силикон. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -7179,27 +7405,27 @@
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="n">
-        <v>13.75</v>
+        <v>11.22</v>
       </c>
       <c r="Z54" t="n">
-        <v>12.5</v>
+        <v>10.2</v>
       </c>
       <c r="AA54" t="n">
-        <v>12.5</v>
+        <v>10.2</v>
       </c>
       <c r="AB54" t="inlineStr"/>
       <c r="AC54" t="inlineStr"/>
       <c r="AD54" t="n">
-        <v>10.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE54" t="n">
-        <v>11.55</v>
+        <v>9.35</v>
       </c>
       <c r="AF54" t="n">
-        <v>3.08</v>
+        <v>2.53</v>
       </c>
       <c r="AG54" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="AH54" t="inlineStr">
         <is>
@@ -7249,12 +7475,12 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Анальная втулка на присоске светящаяся</t>
+          <t>Небольшая анальная втулка на присоске</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>id-24104-1299</t>
+          <t>id-24105-1299</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
@@ -7268,10 +7494,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24105/24105_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24105/24105_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24105/24105_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24105/24105_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Светящийся в темноте John Glow - твой шанс выйти за пределы реальности и забыть об условностях этого мира. Теперь у тебя есть свой супергерой. Познакомься с его сверхспособностью превращаться во тьме из обычной игрушки в сияющий жезл удовольствия. Позволь ему разнообразить ночные игры в паре с помощью внутреннего силиконового слоя повышенной плотности с фосфоресцирующей пудрой. Ощути комфортное введение, которое гарантирует его наружный слой из нежного жидкого силикона. Позволь John Glow стать твоим героем. Анальная втулка на присоске светящаяся в темноте John Glow.  Анальная втулка на присоске светящаяся в темноте John Glow. Модель: beyond-873008. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: розовый. Материал: мягкий силикон. Батареек нет в комплекте. Бренд: Wisteria. </t>
+          <t xml:space="preserve">Светящийся в темноте Kyle Glow - твой шанс выйти за пределы реальности и забыть об условностях этого мира. Теперь у тебя есть свой супергерой. Познакомься с его сверхспособностью превращаться во тьме из обычной игрушки в сияющий жезл удовольствия. Позволь ему разнообразить ночные игры в паре с помощью внутреннего силиконового слоя повышенной плотности с фосфоресцирующей пудрой. Ощути комфортное введение, которое гарантирует его наружный слой из нежного жидкого силикона. Позволь Kyle Glow стать твоим героем. Небольшая анальная втулка на присоске светящаяся в темноте Kyle Glow.  Небольшая анальная втулка на присоске светящаяся в темноте Kyle Glow. Модель: beyond-873012. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: голубой. Материал: мягкий силикон. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -7309,27 +7539,27 @@
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="n">
-        <v>13.75</v>
+        <v>11.22</v>
       </c>
       <c r="Z55" t="n">
-        <v>12.5</v>
+        <v>10.2</v>
       </c>
       <c r="AA55" t="n">
-        <v>12.5</v>
+        <v>10.2</v>
       </c>
       <c r="AB55" t="inlineStr"/>
       <c r="AC55" t="inlineStr"/>
       <c r="AD55" t="n">
-        <v>10.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE55" t="n">
-        <v>11.55</v>
+        <v>9.35</v>
       </c>
       <c r="AF55" t="n">
-        <v>3.08</v>
+        <v>2.53</v>
       </c>
       <c r="AG55" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="AH55" t="inlineStr">
         <is>
@@ -7384,7 +7614,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>id-24102-1299</t>
+          <t>id-24103-1299</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
@@ -7398,10 +7628,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24103/24103_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24103/24103_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24103/24103_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24103/24103_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Светящийся в темноте Victor Glow - твой шанс выйти за пределы реальности и забыть об условностях этого мира. Теперь у тебя есть свой супергерой. Познакомься с его сверхспособностью превращаться во тьме из обычной игрушки в сияющий жезл удовольствия. Позволь ему разнообразить ночные игры в паре с помощью внутреннего силиконового слоя повышенной плотности с фосфоресцирующей пудрой. Ощути комфортное введение, которое гарантирует его наружный слой из нежного жидкого силикона. Позволь Victor Glow стать твоим героем. Небольшая анальная втулка на присоске светящаяся в темноте Victor Glow.  Небольшая анальная втулка на присоске светящаяся в темноте Victor Glow. Модель: beyond-873011. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: зеленый. Материал: мягкий силикон. Батареек нет в комплекте. Бренд: Wisteria. </t>
+          <t xml:space="preserve">Светящийся в темноте Cain Glow - твой шанс выйти за пределы реальности и забыть об условностях этого мира. Теперь у тебя есть свой супергерой. Познакомься с его сверхспособностью превращаться во тьме из обычной игрушки в сияющий жезл удовольствия. Позволь ему разнообразить ночные игры в паре с помощью внутреннего силиконового слоя повышенной плотности с фосфоресцирующей пудрой. Ощути комфортное введение, которое гарантирует его наружный слой из нежного жидкого силикона. Позволь Cain Glow стать твоим героем. Небольшая анальная втулка на присоске светящаяся в темноте Cain Glow.  Небольшая анальная втулка на присоске светящаяся в темноте Cain Glow. Модель: beyond-873013. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: розовый. Материал: мягкий силикон. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -7493,13 +7727,13 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Сувениры эротик</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>BIJOUX INDISCRETS</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -7509,12 +7743,12 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Небольшая анальная втулка на присоске</t>
+          <t>Съедобная краска для тела со вкусом</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>id-24105-1299</t>
+          <t>id-23282-1299</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
@@ -7528,69 +7762,59 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23282/23282_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23282/23282_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23282/23282_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Светящийся в темноте Kyle Glow - твой шанс выйти за пределы реальности и забыть об условностях этого мира. Теперь у тебя есть свой супергерой. Познакомься с его сверхспособностью превращаться во тьме из обычной игрушки в сияющий жезл удовольствия. Позволь ему разнообразить ночные игры в паре с помощью внутреннего силиконового слоя повышенной плотности с фосфоресцирующей пудрой. Ощути комфортное введение, которое гарантирует его наружный слой из нежного жидкого силикона. Позволь Kyle Glow стать твоим героем. Небольшая анальная втулка на присоске светящаяся в темноте Kyle Glow.  Небольшая анальная втулка на присоске светящаяся в темноте Kyle Glow. Модель: beyond-873012. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: голубой. Материал: мягкий силикон. Батарее</t>
+          <t xml:space="preserve">Оставляйте на теле партнёра сладкие рисунки и наслаждайтесь близостью со съедобной краской для тела от Bijoux Indiscrets. Воплотите в жизнь свои сексуальные фантазии и ощутите изысканный вкус темного шоколада. Съедобная краска для тела со вкусом темного шоколада Bijoux Indiscrets Poeme (50 г).  Съедобная краска для тела со вкусом темного шоколада Bijoux Indiscrets Poeme (50 г). Модель: bijoux-0122. Косметика, препараты. Аксессуары, украшения для тела &gt; Аксессуары. Эротические сувениры &gt; Сувениры. Аксессуары для игр &gt; Наборы и аксессуары. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: BIJOUX INDISCRETS. </t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Гонконг</t>
+          <t>Испания</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>мягкий силикон</t>
-        </is>
-      </c>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U57" t="inlineStr"/>
+          <t>50 г</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="n">
-        <v>11.22</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="AA57" t="n">
-        <v>10.2</v>
-      </c>
+      <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr"/>
+      <c r="AA57" t="inlineStr"/>
       <c r="AB57" t="inlineStr"/>
       <c r="AC57" t="inlineStr"/>
-      <c r="AD57" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="AG57" t="n">
-        <v>2.3</v>
-      </c>
+      <c r="AD57" t="inlineStr"/>
+      <c r="AE57" t="inlineStr"/>
+      <c r="AF57" t="inlineStr"/>
+      <c r="AG57" t="inlineStr"/>
       <c r="AH57" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -7603,7 +7827,7 @@
       <c r="AM57" t="inlineStr"/>
       <c r="AN57" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>стеклянная чернильница с краской, перо для росписи</t>
         </is>
       </c>
       <c r="AO57" t="inlineStr">
@@ -7623,13 +7847,13 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>BIJOUX INDISCRETS</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -7639,12 +7863,12 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Небольшая анальная втулка на присоске</t>
+          <t>Разогревающее массажное масло со вкусом</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>id-24103-1299</t>
+          <t>id-23277-1299</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -7658,69 +7882,59 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23277/23277_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23277/23277_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Светящийся в темноте Cain Glow - твой шанс выйти за пределы реальности и забыть об условностях этого мира. Теперь у тебя есть свой супергерой. Познакомься с его сверхспособностью превращаться во тьме из обычной игрушки в сияющий жезл удовольствия. Позволь ему разнообразить ночные игры в паре с помощью внутреннего силиконового слоя повышенной плотности с фосфоресцирующей пудрой. Ощути комфортное введение, которое гарантирует его наружный слой из нежного жидкого силикона. Позволь Cain Glow стать твоим героем. Небольшая анальная втулка на присоске светящаяся в темноте Cain Glow.  Небольшая анальная втулка на присоске светящаяся в темноте Cain Glow. Модель: beyond-873013. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: розовый. Материал: мягкий силикон. Батареек нет в комплекте. Бренд: Wisteria. </t>
+          <t xml:space="preserve">Разожгите огонь в своем следующем массаже! Ласкайте и дуйте, чтобы максимизировать согревающий эффект, и целуйте каждый дюйм кожи, чтобы насладиться восхитительным ароматом. Разогревающее массажное масло со вкусом карамели и морской соли Light My Fire (100 мл).  Разогревающее массажное масло со вкусом карамели и морской соли Light My Fire (100 мл). Модель: bijoux-0168. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: BIJOUX INDISCRETS. </t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Гонконг</t>
+          <t>Испания</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>мягкий силикон</t>
-        </is>
-      </c>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U58" t="inlineStr"/>
+          <t>100 мл</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>100 мл</t>
         </is>
       </c>
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="n">
-        <v>11.22</v>
-      </c>
-      <c r="Z58" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="AA58" t="n">
-        <v>10.2</v>
-      </c>
+      <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr"/>
+      <c r="AA58" t="inlineStr"/>
       <c r="AB58" t="inlineStr"/>
       <c r="AC58" t="inlineStr"/>
-      <c r="AD58" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="AF58" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="AG58" t="n">
-        <v>2.3</v>
-      </c>
+      <c r="AD58" t="inlineStr"/>
+      <c r="AE58" t="inlineStr"/>
+      <c r="AF58" t="inlineStr"/>
+      <c r="AG58" t="inlineStr"/>
       <c r="AH58" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -7753,7 +7967,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Пэстис эротик</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -7764,29 +7978,21 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Пестис с кисточками Burlesque Pesties</t>
+          <t>Увлажняющий гель для тела Bubblegum 2</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>id-12299-1299</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>XXL</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>54-56</t>
-        </is>
-      </c>
+          <t>id-26939-1299</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
         <v>99999</v>
@@ -7796,10 +8002,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26939/26939_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Коллекция Burlesque дает множество способов для соблазнения . . Если вам нравится чувствовать себя сексуально и привлекательно, то это украшение для Вас! Самоклеящееся украшение на грудь из тонкой черной эко кожи с маленьким бантиком и кисточкой. Пестис с кисточками Burlesque Pesties.  Пестис с кисточками Burlesque Pesties. Модель: bijoux-0039. Белье. Аксессуары, украшения для тела &gt; Стикини, пестис. Красивая грудь &gt; Украшения. Цвет: черный. Материал: искуственная кожа. Батареек нет в комплекте. Бренд: BIJOUX INDISCRETS. </t>
+          <t xml:space="preserve">Универсальное средство для романтического вечера в шикарном золотом флаконе с дозатором идеально подходит для массажа и удовольствия! Классический аромат жевательной резинки, сладкий, насыщенный и веселый!Силиконовая основа геля делает скольжение долгим и приятным, как во время массажа, так и во время интимной близости. Не рекомендуется использовать с интимными игрушками, как и любые другие средства на силиконовой основе. Увлажняющий гель для тела Bubblegum 2 in 1 - Scented Silicone Massage and Intimate Gel.  Увлажняющий гель для тела Bubblegum 2 in 1 - Scented Silicone Massage and Intimate Gel. Модель: bijoux-0317. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: BIJOUX INDISCRETS. </t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -7817,21 +8027,21 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>искуственная кожа</t>
-        </is>
-      </c>
+      <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U59" t="inlineStr"/>
+          <t>100 мл</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>100 мл</t>
         </is>
       </c>
       <c r="W59" t="inlineStr"/>
@@ -7857,7 +8067,7 @@
       <c r="AM59" t="inlineStr"/>
       <c r="AN59" t="inlineStr">
         <is>
-          <t>два самоклеящихся пестиса</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO59" t="inlineStr">
@@ -7877,7 +8087,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Сувениры эротик</t>
+          <t>Поводки эротик</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -7888,21 +8098,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Съедобная краска для тела со вкусом</t>
+          <t>Кожаный чокер с сердцем и стразами</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>id-23282-1299</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
+          <t>id-20469-1299</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
         <v>99999</v>
@@ -7912,42 +8130,46 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20469/20469_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20469/20469_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20469/20469_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20469/20469_4_650.jpg</t>
+        </is>
+      </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Оставляйте на теле партнёра сладкие рисунки и наслаждайтесь близостью со съедобной краской для тела от Bijoux Indiscrets. Воплотите в жизнь свои сексуальные фантазии и ощутите изысканный вкус темного шоколада. Съедобная краска для тела со вкусом темного шоколада Bijoux Indiscrets Poeme (50 г).  Съедобная краска для тела со вкусом темного шоколада Bijoux Indiscrets Poeme (50 г). Модель: bijoux-0122. Косметика, препараты. Аксессуары, украшения для тела &gt; Аксессуары. Эротические сувениры &gt; Сувениры. Аксессуары для игр &gt; Наборы и аксессуары. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: BIJOUX INDISCRETS. </t>
+          <t xml:space="preserve">Изысканный французский вкус раскрылся в этом привлекательном чокере,который может пригодиться и в фетиш-игре и в повседневной жизни,как соблазнительный аксессуар. Кожаный чокер с сердцем и стразами Bijoux Pour Toi.  Кожаный чокер с сердцем и стразами Bijoux Pour Toi. Модель: bijoux-6060050010. БДСМ. БДСМ товары и фетиш &gt; Ошейники, поводки. Аксессуары, украшения для тела &gt; Аксессуары. Цвет: черный с серебряным. Материал: искусственная кожа, металл. Батареек нет в комплекте. Бренд: BIJOUX INDISCRETS. </t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Франция</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
-        </is>
-      </c>
-      <c r="R60" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>искусственная кожа, металл</t>
+        </is>
+      </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr">
         <is>
-          <t>50 г</t>
-        </is>
-      </c>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W60" t="inlineStr"/>
@@ -7973,7 +8195,7 @@
       <c r="AM60" t="inlineStr"/>
       <c r="AN60" t="inlineStr">
         <is>
-          <t>стеклянная чернильница с краской, перо для росписи</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO60" t="inlineStr">
@@ -7993,28 +8215,28 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Возбуждающие препараты</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>BIJOUX INDISCRETS</t>
+          <t>BIOMANIX</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Разогревающее массажное масло со вкусом</t>
+          <t>Возбуждающие таблетки для мужчин</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>id-23277-1299</t>
+          <t>id-26873-1299</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
@@ -8028,42 +8250,42 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26873/26873_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26873/26873_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26873/26873_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26873/26873_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26873/26873_5_650.jpg</t>
+        </is>
+      </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Разожгите огонь в своем следующем массаже! Ласкайте и дуйте, чтобы максимизировать согревающий эффект, и целуйте каждый дюйм кожи, чтобы насладиться восхитительным ароматом. Разогревающее массажное масло со вкусом карамели и морской соли Light My Fire (100 мл).  Разогревающее массажное масло со вкусом карамели и морской соли Light My Fire (100 мл). Модель: bijoux-0168. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: BIJOUX INDISCRETS. </t>
+          <t xml:space="preserve">Любой мужчина нуждается в заботе. Особенно важно поддерживать мужскую энергичность и активный образ жизни, сохраняя высокий темп жизнедеятельности. Постоянная борьба со стрессом, усталостью и заболеваниями приводит к ослаблению мужской энергии, потенции, потери сексуального аппетита и уверенности в собственных силах.Тонизирующий и стимулирующий препарат для мужского здоровья BIOMANIX является биологически активной добавкой. Натуральные компоненты безопасны и эффективны. В составе BIOMANIX только самые необходимые и проверенные ингредиенты:    L-аргинин  аминокислота, которая повышает выделение спермы и стимулирует секрецию гормона роста.    Экстракт эврикомы длиннолистной  один из самых эффективных растительных афродизиаков, оказывающий прямое влияние на восстановление потенции и повышение либидо.    Экстракт корня женьшеня  отличный стимулятор сексуального желания, оказывает воздействие на органы эндокринной системы, и значительно усиливает ощущения наслаждения.    Экстракты муира-пуама (дерева потенции) и померанца используются в народной медицине в качестве высокоэффективного средства для лечения импотенции. Кроме этого содержащиеся в составе вещества, например, синефрин, оказывают благотворное влияние: тонизируют нервную систему, повышают работоспособность, активность и энергичность.Рекомендации по применению:Капсулы BIOMANIX принимаются 2 раза в день - утром и вечером по 1 капсуле, запивая небольшим количеством жидкости. Упаковка рассчитана на курсовой прием продолжительностью 21 день. Допустимо однократное применение  за 30-60 минут до полового акта. Не рекомендуется употреблять с алкоголем.Регулярный прием обеспечит мужчине:    Повышение потенции и укрепление эрекции    Улучшение качества спермы    Увеличение продолжительности полового акта    Усиление сексуального влечения и ощущений от оргазма    Нормализацию работы половых желез и кровообращения в органах малого тазаПринимая BIOMANIX по инструкции, ощущение прилива сил и энергии не заставит себя ждать. Начните принимать BIOMANIX прямо сейчас, чтобы почувствовать бодрость, сексуальное желание и жизненный тонус в ближайшее время.Состав: мальтодекстрин, L-аргинин, растительные экстракты (эврикома длиннолистная, корня женьшеня, муира пуама, померанца), антислеживающий агент кремния диоксид.Противопоказания: непереносимость отдельных компонентов, атеросклероз, аритмия, почечная или печеночная недостаточность, перенесенный инсульт или инфаркт, возраст менее 18 лет. Возбуждающие таблетки для мужчин BIOMANIX (42 шт).  Возбуждающие таблетки для мужчин BIOMANIX (42 шт). Модель: bio-94-1. Косметика, препараты. Препараты и возбудители &gt; Возбуждающие средства для мужчин. Препараты и возбудители &gt; Усиление эрекции. Батареек нет в комплекте. Бренд: BIOMANIX. </t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr">
         <is>
-          <t>100 мл</t>
-        </is>
-      </c>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr">
         <is>
-          <t>100 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W61" t="inlineStr"/>
@@ -8089,7 +8311,7 @@
       <c r="AM61" t="inlineStr"/>
       <c r="AN61" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>42 капсулы</t>
         </is>
       </c>
       <c r="AO61" t="inlineStr">
@@ -8115,7 +8337,7 @@
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>BIJOUX INDISCRETS</t>
+          <t>BIORITM</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -8125,12 +8347,12 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Увлажняющий гель для тела Bubblegum 2</t>
+          <t>Гель-лубрикант на водной основе УСЛАДА</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>id-26939-1299</t>
+          <t>id-2268-1299</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
@@ -8144,42 +8366,46 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/2268/2268_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/2268/2268_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Универсальное средство для романтического вечера в шикарном золотом флаконе с дозатором идеально подходит для массажа и удовольствия! Классический аромат жевательной резинки, сладкий, насыщенный и веселый!Силиконовая основа геля делает скольжение долгим и приятным, как во время массажа, так и во время интимной близости. Не рекомендуется использовать с интимными игрушками, как и любые другие средства на силиконовой основе. Увлажняющий гель для тела Bubblegum 2 in 1 - Scented Silicone Massage and Intimate Gel.  Увлажняющий гель для тела Bubblegum 2 in 1 - Scented Silicone Massage and Intimate Gel. Модель: bijoux-0317. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: BIJOUX INDISCRETS. </t>
+          <t xml:space="preserve">Витамин В5 и его предшественника провитамин В5 (пантенол-Д) по праву называют витамином красоты. Его недостаток в организме проявляется в увядании и старении: на коже образуются морщинки, на слизистой  трещинки. Поэтому провитамин В5 является незаменимым средством восстановления. Гель-лубрикант Услада с провитамином В5 усиленно регенерирует и интенсивно увлажняет слизистые. Особенно эффективен при сухости влагалища. Обеспечивает нежное проникновение и длительное скольжение при интимной близости, сохраняя целостность слизистых. Обладает заживляющими и смягчающими свойствами. Возвращает сухой и чувствительной слизистой состояние комфорта. Гель-лубрикант Услада с провитамином В5 отлично подходит для профилактического деликатного ухода за слизистой (при сухости влагалища в период климакса, после родов, операций и т.п.) Клиническое исследование показало, что регулярное применение геля-лубриканта с провитамином В5 способствует: -устранению сухости половых органов. -увеличению выделения собственной смазки перед половым актом. -повышению эластичности слизистой влагалища. Применение: перед интимной близостью нанесите тонким слоем на половые органы (половые губы, клитор, вход во влагалище). Для деликатного ухода за слизистой нанесите небольшое количество геля на вход во влагалище 2-3 раза в день после гигиенических процедур. Гель-лубрикант на водной основе УСЛАДА (60 г).  Гель-лубрикант на водной основе УСЛАДА (60 г). Модель: bioritm-00215. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr">
         <is>
-          <t>100 мл</t>
+          <t>60 г</t>
         </is>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>60</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>100 мл</t>
+          <t>60 г</t>
         </is>
       </c>
       <c r="W62" t="inlineStr"/>
@@ -8225,40 +8451,32 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Поводки эротик</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>BIJOUX INDISCRETS</t>
+          <t>BIORITM</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Кожаный чокер с сердцем Bijoux Pour Toi</t>
+          <t>Классический лубрикант с гиалуроновой</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>id-20455-1299</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-2283-1299</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
         <v>99999</v>
@@ -8268,42 +8486,46 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/2283/2283_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Изысканный французский вкус раскрылся в этом привлекательном чокере,который может пригодиться и в фетиш-игре и в повседневной жизни,как соблазнительный аксессуар. Кожаный чокер с сердцем Bijoux Pour Toi.  Кожаный чокер с сердцем Bijoux Pour Toi. Модель: bijoux-6060000010. БДСМ. БДСМ товары и фетиш &gt; Ошейники, поводки. Аксессуары, украшения для тела &gt; Аксессуары. Цвет: черный с серебряным. Материал: искусственная кожа, металл. Батареек нет в комплекте. Бренд: BIJOUX INDISCRETS. </t>
+          <t xml:space="preserve">MAGIC SEX - это чувственность, нежность, сладкая нега. . Природная формула лубриканта дарит абсолютно естественные ощущения.Гель создан с учетом особенностей организма прекрасной половины человечества. Средство максимально близко копирует женскую смазку и обеспечивает продолжительное скольжение. Идеальный выбор для чувствительной кожи. Благодаря 100% натуральному составу на водной основе и специальному пребиотику лубрикант поддерживает баланс микрофлоры интимной зоны. Гиалуроновая кислота способствует регенерации, дарит интенсивное увлажнение и мягкий уход. MAGIC SEX - сказочное удовольствие и незабываемый восторг взаимного экстаза!.Классический лубрикант с гиалуроновой кислотой Magic Sex (55 г).  Классический лубрикант с гиалуроновой кислотой Magic Sex (55 г). Модель: bioritm-02492. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Франция</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>искусственная кожа, металл</t>
-        </is>
-      </c>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U63" t="inlineStr"/>
+          <t>55 г</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>55 г</t>
         </is>
       </c>
       <c r="W63" t="inlineStr"/>
@@ -8349,40 +8571,32 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Поводки эротик</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>BIJOUX INDISCRETS</t>
+          <t>BIORITM</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Кожаный чокер с сердцем и стразами</t>
+          <t>Классический лубрикант с гиалуроновой</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>id-20469-1299</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-1509-1299</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
         <v>99999</v>
@@ -8392,42 +8606,46 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/1509/1509_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/1509/1509_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/1509/1509_4_650.jpg</t>
+        </is>
+      </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Изысканный французский вкус раскрылся в этом привлекательном чокере,который может пригодиться и в фетиш-игре и в повседневной жизни,как соблазнительный аксессуар. Кожаный чокер с сердцем и стразами Bijoux Pour Toi.  Кожаный чокер с сердцем и стразами Bijoux Pour Toi. Модель: bijoux-6060050010. БДСМ. БДСМ товары и фетиш &gt; Ошейники, поводки. Аксессуары, украшения для тела &gt; Аксессуары. Цвет: черный с серебряным. Материал: искусственная кожа, металл. Батареек нет в комплекте. Бренд: BIJOUX INDISCRETS. </t>
+          <t xml:space="preserve">MAGIC SEX - это чувственность, нежность, сладкая нега. . Природная формула лубриканта дарит абсолютно естественные ощущения.Гель создан с учетом особенностей организма прекрасной половины человечества. Средство максимально близко копирует женскую смазку и обеспечивает продолжительное скольжение. Идеальный выбор для чувствительной кожи. Благодаря 100% натуральному составу на водной основе и специальному пребиотику лубрикант поддерживает баланс микрофлоры интимной зоны. Гиалуроновая кислота способствует регенерации, дарит интенсивное увлажнение и мягкий уход. MAGIC SEX - сказочное удовольствие и незабываемый восторг взаимного экстаза!.Классический лубрикант с гиалуроновой кислотой Magic Sex (20 г).  Классический лубрикант с гиалуроновой кислотой Magic Sex (20 г). Модель: bioritm-02493. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Франция</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>искусственная кожа, металл</t>
-        </is>
-      </c>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U64" t="inlineStr"/>
+          <t>20 г</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>20 г</t>
         </is>
       </c>
       <c r="W64" t="inlineStr"/>
@@ -8473,28 +8691,28 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Возбуждающие средства</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>BIOMANIX</t>
+          <t>BIORITM</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Возбуждающие таблетки для мужчин</t>
+          <t>Анальный гель с мятой и гиалуроновой</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>id-26873-1299</t>
+          <t>id-2281-1299</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
@@ -8508,10 +8726,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/2281/2281_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Любой мужчина нуждается в заботе. Особенно важно поддерживать мужскую энергичность и активный образ жизни, сохраняя высокий темп жизнедеятельности. Постоянная борьба со стрессом, усталостью и заболеваниями приводит к ослаблению мужской энергии, потенции, потери сексуального аппетита и уверенности в собственных силах.Тонизирующий и стимулирующий препарат для мужского здоровья BIOMANIX является биологически активной добавкой. Натуральные компоненты безопасны и эффективны. В составе BIOMANIX только самые необходимые и проверенные ингредиенты:    L-аргинин  аминокислота, которая повышает выделение спермы и стимулирует секрецию гормона роста.    Экстракт эврикомы длиннолистной  один из самых эффективных растительных афродизиаков, оказывающий прямое влияние на восстановление потенции и повышение либидо.    Экстракт корня женьшеня  отличный стимулятор сексуального желания, оказывает воздействие на органы эндокринной системы, и значительно усиливает ощущения наслаждения.    Экстракты муира-пуама (дерева потенции) и померанца используются в народной медицине в качестве высокоэффективного средства для лечения импотенции. Кроме этого содержащиеся в составе вещества, например, синефрин, оказывают благотворное влияние: тонизируют нервную систему, повышают работоспособность, активность и энергичность.Рекомендации по применению:Капсулы BIOMANIX принимаются 2 раза в день - утром и вечером по 1 капсуле, запивая небольшим количеством жидкости. Упаковка рассчитана на курсовой прием продолжительностью 21 день. Допустимо однократное применение  за 30-60 минут до полового акта. Не рекомендуется употреблять с алкоголем.Регулярный прием обеспечит мужчине:    Повышение потенции и укрепление эрекции    Улучшение качества спермы    Увеличение продолжительности полового акта    Усиление сексуального влечения и ощущений от оргазма    Нормализацию работы половых желез и кровообращения в органах малого тазаПринимая BIOMANIX по инструкции, ощущение прилива сил и энергии не заставит себя ждать. Начните принимать BIOMANIX прямо сейчас, чтобы почувствовать бодрость, сексуальное желание и жизненный тонус в ближайшее время.Состав: мальтодекстрин, L-аргинин, растительные экстракты (эврикома длиннолистная, корня женьшеня, муира пуама, померанца), антислеживающий агент кремния диоксид.Противопоказания: непереносимость отдельных компонентов, атеросклероз, аритмия, почечная или печеночная недостаточность, перенесенный инсульт или инфаркт, возраст менее 18 лет. Возбуждающие таблетки для мужчин BIOMANIX (42 шт).  Возбуждающие таблетки для мужчин BIOMANIX (42 шт). Модель: bio-94-1. Косметика, препараты. Препараты и возбудители &gt; Возбуждающие средства для мужчин. Препараты и возбудители &gt; Усиление эрекции. Батареек нет в комплекте. Бренд: BIOMANIX. </t>
+          <t xml:space="preserve">Дарит восхитительное чувство комфорта и мягкое безболезненное проникновение при анальном сексе. Формула лубриканта обогащена экстрактом мяты, который снимает возможные неприятные ощущения во время полового акта. Гиалуроновая кислота активно увлажняет и быстро восстанавливает ткани после интимной близости. Anal sex сводит к минимуму вероятность появления микротравм. Комплексный уход, продолжительное скольжение и защита слизистых безупречно сочетаются в одном флаконе. Почувствуй с этим лубрикантом экстремальную свободу, остроту сексуальных ощущений, безопасность и безболезненность. Anal sex можно использовать при различных видах интимной близости. Применение: перед половым контактом нанесите тонким слоем на интимную зону, требующую смазывания. LOVEGEL E ANAL SEX - СТРАСТЬ БЕЗ ГРАНИЦ!.Анальный гель с мятой и гиалуроновой кислотой Anal Sex (55 г).  Анальный гель с мятой и гиалуроновой кислотой Anal Sex (55 г). Модель: bioritm-02509. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -8533,13 +8755,17 @@
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U65" t="inlineStr"/>
+          <t>55 г</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>55 г</t>
         </is>
       </c>
       <c r="W65" t="inlineStr"/>
@@ -8565,7 +8791,7 @@
       <c r="AM65" t="inlineStr"/>
       <c r="AN65" t="inlineStr">
         <is>
-          <t>42 капсулы</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO65" t="inlineStr">
@@ -8601,12 +8827,12 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Гель-лубрикант на водной основе УСЛАДА</t>
+          <t>Возбуждающий лубрикант Hot Sex с</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>id-2268-1299</t>
+          <t>id-2277-1299</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
@@ -8620,10 +8846,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/2277/2277_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/2277/2277_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/2277/2277_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Витамин В5 и его предшественника провитамин В5 (пантенол-Д) по праву называют витамином красоты. Его недостаток в организме проявляется в увядании и старении: на коже образуются морщинки, на слизистой  трещинки. Поэтому провитамин В5 является незаменимым средством восстановления. Гель-лубрикант Услада с провитамином В5 усиленно регенерирует и интенсивно увлажняет слизистые. Особенно эффективен при сухости влагалища. Обеспечивает нежное проникновение и длительное скольжение при интимной близости, сохраняя целостность слизистых. Обладает заживляющими и смягчающими свойствами. Возвращает сухой и чувствительной слизистой состояние комфорта. Гель-лубрикант Услада с провитамином В5 отлично подходит для профилактического деликатного ухода за слизистой (при сухости влагалища в период климакса, после родов, операций и т.п.) Клиническое исследование показало, что регулярное применение геля-лубриканта с провитамином В5 способствует: -устранению сухости половых органов. -увеличению выделения собственной смазки перед половым актом. -повышению эластичности слизистой влагалища. Применение: перед интимной близостью нанесите тонким слоем на половые органы (половые губы, клитор, вход во влагалище). Для деликатного ухода за слизистой нанесите небольшое количество геля на вход во влагалище 2-3 раза в день после гигиенических процедур. Гель-лубрикант на водной основе УСЛАДА (60 г).  Гель-лубрикант на водной основе УСЛАДА (60 г). Модель: bioritm-00215. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Это беспроигрышный вариант для тех, кто любит погорячее. Hot sex с новой силой зажжёт огонь любви и привнесет в отношения желанную чувствительность и безудержную страсть. В состав лубриканта входит экстракт имбиря, который вызывает приятное мягкое ощущение тепла и усиливает половое влечение. Гиалуроновая кислота увлажняет и восстанавливает слизистую. Благодаря нежной текстуре средства скольжение будет длительным, а эмоции  незабываемыми. С гелем Hot sex вы получите максимальное удовольствие и настоящий горячий секс. Применение: перед половым контактом нанесите тонким слоем на интимную зону, требующую смазывания. LOVEGEL C HOT SEX - БЫСТРЫЙ ПУТЬ К ОРГАЗМУ!.Возбуждающий лубрикант Hot Sex с разогревающим эффектом (20 г).  Возбуждающий лубрикант Hot Sex с разогревающим эффектом (20 г). Модель: bioritm-02513. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -8645,17 +8875,17 @@
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr">
         <is>
-          <t>60 г</t>
+          <t>20 г</t>
         </is>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>20</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>60 г</t>
+          <t>20 г</t>
         </is>
       </c>
       <c r="W66" t="inlineStr"/>
@@ -8701,7 +8931,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -8717,12 +8947,12 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Классический лубрикант с гиалуроновой</t>
+          <t>Увлажняющая гель-смазка Услада с алое</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>id-2283-1299</t>
+          <t>id-19141-1299</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
@@ -8736,10 +8966,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19141/19141_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19141/19141_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19141/19141_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t xml:space="preserve">MAGIC SEX - это чувственность, нежность, сладкая нега. . Природная формула лубриканта дарит абсолютно естественные ощущения.Гель создан с учетом особенностей организма прекрасной половины человечества. Средство максимально близко копирует женскую смазку и обеспечивает продолжительное скольжение. Идеальный выбор для чувствительной кожи. Благодаря 100% натуральному составу на водной основе и специальному пребиотику лубрикант поддерживает баланс микрофлоры интимной зоны. Гиалуроновая кислота способствует регенерации, дарит интенсивное увлажнение и мягкий уход. MAGIC SEX - сказочное удовольствие и незабываемый восторг взаимного экстаза!.Классический лубрикант с гиалуроновой кислотой Magic Sex (55 г).  Классический лубрикант с гиалуроновой кислотой Magic Sex (55 г). Модель: bioritm-02492. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Гель-лубрикант Услада с алое вера создан специально для интенсивного ухода за склонными к сухости слизистыми половых органов.Алое вера - уникальное растение, содержащее огромное количество полезных веществ, обладающих целебными свойствами. На протяжении многих веков оно успешно применяется для профилактики и лечения различных заболеваний. Входящий в состав смазки сок алое содержит биоактивный комплекс, способствующий глубокому увлажнению, сохранению упругости и эластичности тканей интимных зон.Гель образует защитный, великолепно скользящий слой. При регулярном использовании смазка восстанавливает необходимый водный баланс.Лубрикант Услада с алое вера:- бережно ухаживает за слизистыми.- активно питает и увлажняет ткани интимных зон.- эффективно устраняет ощущение дискомфорта.- способствует нормализации водного обмена.- прекрасно имитирует женскую смазку.- легко смывается водой.Услада с алое вера - маскимальный комфорт интимных отношений!.Увлажняющая гель-смазка Услада с алое вера (60 г).  Увлажняющая гель-смазка Услада с алое вера (60 г). Модель: bioritm-10007. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -8761,17 +8995,17 @@
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr">
         <is>
-          <t>55 г</t>
+          <t>60 г</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>60</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>55 г</t>
+          <t>60 г</t>
         </is>
       </c>
       <c r="W67" t="inlineStr"/>
@@ -8817,7 +9051,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Эрекционные кольца</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -8828,17 +9062,17 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Классический лубрикант с гиалуроновой</t>
+          <t>Эрекционное кольцо с вибрацией VIBE</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>id-1509-1299</t>
+          <t>id-26470-1299</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
@@ -8852,10 +9086,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26470/26470_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26470/26470_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26470/26470_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t xml:space="preserve">MAGIC SEX - это чувственность, нежность, сладкая нега. . Природная формула лубриканта дарит абсолютно естественные ощущения.Гель создан с учетом особенностей организма прекрасной половины человечества. Средство максимально близко копирует женскую смазку и обеспечивает продолжительное скольжение. Идеальный выбор для чувствительной кожи. Благодаря 100% натуральному составу на водной основе и специальному пребиотику лубрикант поддерживает баланс микрофлоры интимной зоны. Гиалуроновая кислота способствует регенерации, дарит интенсивное увлажнение и мягкий уход. MAGIC SEX - сказочное удовольствие и незабываемый восторг взаимного экстаза!.Классический лубрикант с гиалуроновой кислотой Magic Sex (20 г).  Классический лубрикант с гиалуроновой кислотой Magic Sex (20 г). Модель: bioritm-02493. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Эрекционное кольцо с вибрацией подарит стойкую и продолжительную эрекцию, сделает интимную близость насыщенной и яркой!Секс-игрушка состоит из двух колец, одно из которых надевается на пенис, второе  на мошонку. Шипики и выпуклости на поверхности изделия будут дополнительно стимулировать интимные зоны. Добавит остроты ощущениям режим вибрация.Эрекционное кольцо изготовлено из мягкого, приятного на ощупь материала. Прекрасно растягивается, легко надевается. Просто в использовании и уходе. Эрекционное кольцо с вибрацией VIBE.  Эрекционное кольцо с вибрацией VIBE. Модель: bioritm-10269. Секс-игрушки. Насадки и кольца &gt; Эрекционные. Насадки и кольца &gt; С вибрацией, с ротацией. Цвет: фиолетовый. Материал: эластичный TPR. LR 754 x 1 шт (в комплекте)Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -8873,21 +9111,21 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R68" t="inlineStr"/>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>эластичный TPR</t>
+        </is>
+      </c>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr">
         <is>
-          <t>20 г</t>
-        </is>
-      </c>
-      <c r="U68" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr">
         <is>
-          <t>20 г</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W68" t="inlineStr"/>
@@ -8933,7 +9171,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -8949,12 +9187,12 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Анальный гель с мятой и гиалуроновой</t>
+          <t>Анальная силиконовая крем-смазка АCC</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>id-2281-1299</t>
+          <t>id-2273-1299</t>
         </is>
       </c>
       <c r="H69" t="inlineStr"/>
@@ -8968,10 +9206,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/2273/2273_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Дарит восхитительное чувство комфорта и мягкое безболезненное проникновение при анальном сексе. Формула лубриканта обогащена экстрактом мяты, который снимает возможные неприятные ощущения во время полового акта. Гиалуроновая кислота активно увлажняет и быстро восстанавливает ткани после интимной близости. Anal sex сводит к минимуму вероятность появления микротравм. Комплексный уход, продолжительное скольжение и защита слизистых безупречно сочетаются в одном флаконе. Почувствуй с этим лубрикантом экстремальную свободу, остроту сексуальных ощущений, безопасность и безболезненность. Anal sex можно использовать при различных видах интимной близости. Применение: перед половым контактом нанесите тонким слоем на интимную зону, требующую смазывания. LOVEGEL E ANAL SEX - СТРАСТЬ БЕЗ ГРАНИЦ!.Анальный гель с мятой и гиалуроновой кислотой Anal Sex (55 г).  Анальный гель с мятой и гиалуроновой кислотой Anal Sex (55 г). Модель: bioritm-02509. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Уникальный кремлубрикант с эфирными маслами на силиконовой основе. Подходит как для опытных, так и для начинающих пар. Эфирные масла в составе крема способствуют расслаблению мышц ануса, делая вход более свободным, оказывают антибактериальное, заживляющее и дезодорирующее действия. Особая, ни с чем не сравнимая, шелковистая текстура крема обеспечивает легкость проникновения и супердлительное скольжение. Крем-смазка CreamAnal ACC легко смывается водой. Совместим с изделиями из искусственных материалов. Анальная силиконовая крем-смазка АCC (50 мл).  Анальная силиконовая крем-смазка АCC (50 мл). Модель: bioritm-10486. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -8993,17 +9235,17 @@
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr">
         <is>
-          <t>55 г</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>50</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>55 г</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="W69" t="inlineStr"/>
@@ -9065,12 +9307,12 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Возбуждающий лубрикант Hot Sex с</t>
+          <t>Анальная силиконовая крем-смазка ACC</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>id-2277-1299</t>
+          <t>id-4285-1299</t>
         </is>
       </c>
       <c r="H70" t="inlineStr"/>
@@ -9084,10 +9326,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/4285/4285_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Это беспроигрышный вариант для тех, кто любит погорячее. Hot sex с новой силой зажжёт огонь любви и привнесет в отношения желанную чувствительность и безудержную страсть. В состав лубриканта входит экстракт имбиря, который вызывает приятное мягкое ощущение тепла и усиливает половое влечение. Гиалуроновая кислота увлажняет и восстанавливает слизистую. Благодаря нежной текстуре средства скольжение будет длительным, а эмоции  незабываемыми. С гелем Hot sex вы получите максимальное удовольствие и настоящий горячий секс. Применение: перед половым контактом нанесите тонким слоем на интимную зону, требующую смазывания. LOVEGEL C HOT SEX - БЫСТРЫЙ ПУТЬ К ОРГАЗМУ!.Возбуждающий лубрикант Hot Sex с разогревающим эффектом (20 г).  Возбуждающий лубрикант Hot Sex с разогревающим эффектом (20 г). Модель: bioritm-02513. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Уникальный кремлубрикант с эфирными маслами на силиконовой основе. Подходит как для опытных, так и для начинающих пар. Эфирные масла в составе крема способствуют расслаблению мышц ануса, делая вход более свободным, оказывают антибактериальное, заживляющее и дезодорирующее действия. Особая, ни с чем не сравнимая, шелковистая текстура крема обеспечивает легкость проникновения и супердлительное скольжение. Крем-смазка CreamAnal ACC легко смывается водой. Совместим с изделиями из искусственных материалов. Анальная силиконовая крем-смазка ACC (25 мл).  Анальная силиконовая крем-смазка ACC (25 мл). Модель: bioritm-10487. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -9097,29 +9343,29 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr">
         <is>
-          <t>20 г</t>
+          <t>25 мл</t>
         </is>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>20 г</t>
+          <t>25 мл</t>
         </is>
       </c>
       <c r="W70" t="inlineStr"/>
@@ -9181,12 +9427,12 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Возбуждающий лубрикант Hot Sex с</t>
+          <t>Гель-лубрикант Окей для двоих (15 г)</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>id-2278-1299</t>
+          <t>id-4923-1299</t>
         </is>
       </c>
       <c r="H71" t="inlineStr"/>
@@ -9200,10 +9446,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/4923/4923_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Это беспроигрышный вариант для тех, кто любит погорячее. Hot sex с новой силой зажжёт огонь любви и привнесет в отношения желанную чувствительность и безудержную страсть. В состав лубриканта входит экстракт имбиря, который вызывает приятное мягкое ощущение тепла и усиливает половое влечение. Гиалуроновая кислота увлажняет и восстанавливает слизистую. Благодаря нежной текстуре средства скольжение будет длительным, а эмоции  незабываемыми. С гелем Hot sex вы получите максимальное удовольствие и настоящий горячий секс. Применение: перед половым контактом нанесите тонким слоем на интимную зону, требующую смазывания. LOVEGEL C HOT SEX - БЫСТРЫЙ ПУТЬ К ОРГАЗМУ!.Возбуждающий лубрикант Hot Sex с разогревающим эффектом (55 г).  Возбуждающий лубрикант Hot Sex с разогревающим эффектом (55 г). Модель: bioritm-02514. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Из-за недостаточного количества естественной смазки во время интимной близости могут возникнуть неприятные болевые ощущения. О'кей для двоих - это ваш заветный билет в мир комфортного секса. Классический лубрикант на водной основе интенсивно увлажняет слизистые. Обеспечивает достаточное смазывание и скольжение на протяжении всего полового акта. Одобрен гинекологами. Без красителей и ароматизаторов. Имеет нейтральную формулу, поэтому подходит для большинства людей. Не пачкает белье. Смазка совместима с секс-игрушками и презервативами. Применение: перед началом интимной близости нанесите на половые органы. Гель-лубрикант Окей для двоих (15 г).  Гель-лубрикант Окей для двоих (15 г). Модель: bioritm-10966. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -9213,29 +9463,29 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr">
         <is>
-          <t>55 г</t>
+          <t>15 г</t>
         </is>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>15</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>55 г</t>
+          <t>15 г</t>
         </is>
       </c>
       <c r="W71" t="inlineStr"/>
@@ -9281,7 +9531,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -9297,12 +9547,12 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Увлажняющая гель-смазка Услада с алое</t>
+          <t>Гель-лубрикант на водной основе ОКЕЙ</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>id-19141-1299</t>
+          <t>id-2265-1299</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
@@ -9316,10 +9566,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/2265/2265_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Гель-лубрикант Услада с алое вера создан специально для интенсивного ухода за склонными к сухости слизистыми половых органов.Алое вера - уникальное растение, содержащее огромное количество полезных веществ, обладающих целебными свойствами. На протяжении многих веков оно успешно применяется для профилактики и лечения различных заболеваний. Входящий в состав смазки сок алое содержит биоактивный комплекс, способствующий глубокому увлажнению, сохранению упругости и эластичности тканей интимных зон.Гель образует защитный, великолепно скользящий слой. При регулярном использовании смазка восстанавливает необходимый водный баланс.Лубрикант Услада с алое вера:- бережно ухаживает за слизистыми.- активно питает и увлажняет ткани интимных зон.- эффективно устраняет ощущение дискомфорта.- способствует нормализации водного обмена.- прекрасно имитирует женскую смазку.- легко смывается водой.Услада с алое вера - маскимальный комфорт интимных отношений!.Увлажняющая гель-смазка Услада с алое вера (60 г).  Увлажняющая гель-смазка Услада с алое вера (60 г). Модель: bioritm-10007. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Из-за недостаточного количества естественной смазки во время интимной близости могут возникнуть неприятные болевые ощущения. О'кей для двоих - это ваш заветный билет в мир комфортного секса. Классический лубрикант на водной основе интенсивно увлажняет слизистые. Обеспечивает достаточное смазывание и скольжение на протяжении всего полового акта. Одобрен гинекологами. Без красителей и ароматизаторов. Имеет нейтральную формулу, поэтому подходит для большинства людей. Не пачкает белье. Смазка совместима с секс-игрушками и презервативами. Применение: перед началом интимной близости нанесите на половые органы. Гель-лубрикант на водной основе ОКЕЙ (50 г).  Гель-лубрикант на водной основе ОКЕЙ (50 г). Модель: bioritm-10967. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -9341,17 +9595,17 @@
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr">
         <is>
-          <t>60 г</t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>60 г</t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="W72" t="inlineStr"/>
@@ -9397,7 +9651,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Эрекционные кольца</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -9408,17 +9662,17 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Эрекционное кольцо с вибрацией VIBE</t>
+          <t>Универсальный лубрикант на водной</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>id-26470-1299</t>
+          <t>id-2270-1299</t>
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
@@ -9432,10 +9686,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/2270/2270_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эрекционное кольцо с вибрацией подарит стойкую и продолжительную эрекцию, сделает интимную близость насыщенной и яркой!Секс-игрушка состоит из двух колец, одно из которых надевается на пенис, второе  на мошонку. Шипики и выпуклости на поверхности изделия будут дополнительно стимулировать интимные зоны. Добавит остроты ощущениям режим вибрация.Эрекционное кольцо изготовлено из мягкого, приятного на ощупь материала. Прекрасно растягивается, легко надевается. Просто в использовании и уходе. Эрекционное кольцо с вибрацией VIBE.  Эрекционное кольцо с вибрацией VIBE. Модель: bioritm-10269. Секс-игрушки. Насадки и кольца &gt; Эрекционные. Насадки и кольца &gt; С вибрацией, с ротацией. Цвет: фиолетовый. Материал: эластичный TPR. LR 754 x 1 шт (в комплекте)Бренд: BIORITM. </t>
+          <t xml:space="preserve">Из-за недостаточного количества естественной смазки во время интимной близости могут возникнуть неприятные болевые ощущения. О'кей для двоих - это ваш заветный билет в мир комфортного секса. Классический лубрикант на водной основе интенсивно увлажняет слизистые. Обеспечивает достаточное смазывание и скольжение на протяжении всего полового акта. Одобрен гинекологами. Без красителей и ароматизаторов. Имеет нейтральную формулу, поэтому подходит для большинства людей. Не пачкает белье. Смазка совместима с секс-игрушками и презервативами. Применение: перед началом интимной близости нанесите на половые органы. Универсальный лубрикант на водной основе ОКЕЙ (100 г).  Универсальный лубрикант на водной основе ОКЕЙ (100 г). Модель: bioritm-10968. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -9453,21 +9711,21 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R73" t="inlineStr">
-        <is>
-          <t>эластичный TPR</t>
-        </is>
-      </c>
+      <c r="R73" t="inlineStr"/>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U73" t="inlineStr"/>
+          <t>100 г</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>100 г</t>
         </is>
       </c>
       <c r="W73" t="inlineStr"/>
@@ -9513,7 +9771,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Секс куклы</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -9524,17 +9782,17 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Темнокожая кукла с вибрацией ЛИОНЕЛЛА</t>
+          <t>Анальный антибактериальный гель на</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>id-28175-1299</t>
+          <t>id-12978-1299</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
@@ -9548,10 +9806,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12978/12978_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Мечты о сексе с темнокожей девушкой могут стать реальностью благодаря этой развратной надувной брюнетке с вибрацией. Реалистичная голова, шикарная грудь с твёрдыми сосками, два призывающих к горячему сексу отверстия, выполненных из нежнейшего материала, вибрация, которая многократно усилит ощущения. . Секс-кукла премиальной линейки создана для того, чтобы сексуальная разрядка достигала высшей стадии!.Темнокожая кукла с вибрацией ЛИОНЕЛЛА.  Темнокожая кукла с вибрацией ЛИОНЕЛЛА. Модель: bioritm-10277. Секс-игрушки. Секс куклы &gt; Премиум класса. Цвет: темнокожая брюнетка. Материал: ПВХ. Батареек нет в комплекте. AA x 2 шт (в комплект не входят)Бренд: BIORITM. </t>
+          <t xml:space="preserve">Приятно разнообразить сексуальную жизнь поможет мягкий водно-силиконовый крем ОКей Anal. Отлично подходит парам, практикующим анальный секс. Обеспечивает нежное, устойчивое и длительное скольжение. Обладает антисептическим действием, защищает от инфицирования. Смывается водой. Может использоваться с секс-игрушками. Анальный антибактериальный гель на водной основе ОКЕЙ  Anal (50 г).  Анальный антибактериальный гель на водной основе ОКЕЙ  Anal (50 г). Модель: bioritm-10970. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -9561,29 +9823,29 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R74" t="inlineStr">
-        <is>
-          <t>ПВХ</t>
-        </is>
-      </c>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U74" t="inlineStr"/>
+          <t>50 г</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="W74" t="inlineStr"/>
@@ -9609,7 +9871,7 @@
       <c r="AM74" t="inlineStr"/>
       <c r="AN74" t="inlineStr">
         <is>
-          <t>кукла, вибро-яйцо, насос</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO74" t="inlineStr">
@@ -9629,7 +9891,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Секс куклы</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -9638,15 +9900,19 @@
           <t>BIORITM</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>для женщин и мужчин</t>
+        </is>
+      </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Кукла с вибрацией АНГЕЛИНА</t>
+          <t>Анальный гель Intim Bluz (20 г)</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>id-28174-1299</t>
+          <t>id-6807-1299</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
@@ -9660,10 +9926,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/6807/6807_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/6807/6807_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/6807/6807_4_650.jpg</t>
+        </is>
+      </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Мечты о страстном сексе с большегрудой девушкой могут стать реальностью благодаря этой развратной надувной брюнетке с вибрацией. Реалистичная голова, шикарная грудь с твёрдыми сосками, два призывающих к горячему сексу отверстия, выполненных из нежнейшего материала, вибрация, которая многократно усилит ощущения. . Секс-кукла премиальной линейки создана для того, чтобы сексуальная разрядка достигала высшей стадии!.Кукла с вибрацией АНГЕЛИНА.  Кукла с вибрацией АНГЕЛИНА. Модель: bioritm-10278. Секс-игрушки. Секс куклы &gt; Премиум класса. Цвет: светлокожая брюнетка. Материал: ПВХ, вторая кожа. Батареек нет в комплекте. AA x 2 шт (в комплект не входят)Бренд: BIORITM. </t>
+          <t xml:space="preserve">Нежный и бережный анальный лубрикант на водной основе отлично подойдет начинающим парам. Ухаживающая формула увлажняет кожу и способствует легкому проникновению. Специальные компоненты, входящие в состав, снимают болевые ощущения. Гель-лубрикант Intim Bluz обеспечивает легкое и длительное скольжение. Защищает от инфицирования. Совместим с изделиями из искусственных материалов. Применение: нанесите на участок тела, требующий смазывания. Анальный гель Intim Bluz (20 г).  Анальный гель Intim Bluz (20 г). Модель: bioritm-10975. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -9681,21 +9951,21 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>ПВХ, вторая кожа</t>
-        </is>
-      </c>
+      <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U75" t="inlineStr"/>
+          <t>20 г</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>20 г</t>
         </is>
       </c>
       <c r="W75" t="inlineStr"/>
@@ -9721,7 +9991,7 @@
       <c r="AM75" t="inlineStr"/>
       <c r="AN75" t="inlineStr">
         <is>
-          <t>кукла, вибро-яйцо, насос</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO75" t="inlineStr">
@@ -9757,12 +10027,12 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Анальная силиконовая крем-смазка АCC</t>
+          <t>Анальный гель на водной основе Intim</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>id-2273-1299</t>
+          <t>id-13008-1299</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
@@ -9776,10 +10046,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/13008/13008_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13008/13008_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13008/13008_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Уникальный кремлубрикант с эфирными маслами на силиконовой основе. Подходит как для опытных, так и для начинающих пар. Эфирные масла в составе крема способствуют расслаблению мышц ануса, делая вход более свободным, оказывают антибактериальное, заживляющее и дезодорирующее действия. Особая, ни с чем не сравнимая, шелковистая текстура крема обеспечивает легкость проникновения и супердлительное скольжение. Крем-смазка CreamAnal ACC легко смывается водой. Совместим с изделиями из искусственных материалов. Анальная силиконовая крем-смазка АCC (50 мл).  Анальная силиконовая крем-смазка АCC (50 мл). Модель: bioritm-10486. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Нежный и бережный анальный лубрикант на водной основе отлично подойдет начинающим парам. Ухаживающая формула увлажняет кожу и способствует легкому проникновению. Специальные компоненты, входящие в состав, снимают болевые ощущения. Гель-лубрикант Intim Bluz обеспечивает легкое и длительное скольжение. Защищает от инфицирования. Совместим с изделиями из искусственных материалов. Применение: нанесите на участок тела, требующий смазывания. Анальный гель на водной основе Intim Bluz (50 г).  Анальный гель на водной основе Intim Bluz (50 г). Модель: bioritm-10976. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -9801,7 +10075,7 @@
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr">
         <is>
-          <t>50 мл</t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="U76" t="inlineStr">
@@ -9811,7 +10085,7 @@
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>50 мл</t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="W76" t="inlineStr"/>
@@ -9873,12 +10147,12 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Анальная силиконовая крем-смазка ACC</t>
+          <t>Возбуждающий лубрикант Stimulove STRONG</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>id-4285-1299</t>
+          <t>id-5669-1299</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
@@ -9892,10 +10166,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/5669/5669_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/5669/5669_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/5669/5669_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Уникальный кремлубрикант с эфирными маслами на силиконовой основе. Подходит как для опытных, так и для начинающих пар. Эфирные масла в составе крема способствуют расслаблению мышц ануса, делая вход более свободным, оказывают антибактериальное, заживляющее и дезодорирующее действия. Особая, ни с чем не сравнимая, шелковистая текстура крема обеспечивает легкость проникновения и супердлительное скольжение. Крем-смазка CreamAnal ACC легко смывается водой. Совместим с изделиями из искусственных материалов. Анальная силиконовая крем-смазка ACC (25 мл).  Анальная силиконовая крем-смазка ACC (25 мл). Модель: bioritm-10487. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Идеально подходит любителям острых ощущений и сильных эмоций. Обладает мгновенным разогревающим эффектом длительного действия (до 40 минут). Быстро повышает сексуальное желание у обоих партнеров. Усиливает чувствительность, придает темпераментность. Обеспечивает продолжительное скольжение. Легко смывается водой.Применение: нанесите тонким слоем перед половым контактом. Доза подбирается индивидуально, начиная с 1-2 капель.StimuLove strong - жгучая страсть ваших отношений!.Возбуждающий лубрикант Stimulove STRONG мощного действия (20 г).  Возбуждающий лубрикант Stimulove STRONG мощного действия (20 г). Модель: bioritm-10984. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -9905,29 +10183,29 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R77" t="inlineStr"/>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr">
         <is>
-          <t>25 мл</t>
+          <t>20 г</t>
         </is>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>25 мл</t>
+          <t>20 г</t>
         </is>
       </c>
       <c r="W77" t="inlineStr"/>
@@ -9989,12 +10267,12 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Гель-лубрикант Окей для двоих (15 г)</t>
+          <t>Возбуждающий лубрикант мощного действия</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>id-4923-1299</t>
+          <t>id-13006-1299</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
@@ -10008,10 +10286,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/13006/13006_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13006/13006_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13006/13006_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Из-за недостаточного количества естественной смазки во время интимной близости могут возникнуть неприятные болевые ощущения. О'кей для двоих - это ваш заветный билет в мир комфортного секса. Классический лубрикант на водной основе интенсивно увлажняет слизистые. Обеспечивает достаточное смазывание и скольжение на протяжении всего полового акта. Одобрен гинекологами. Без красителей и ароматизаторов. Имеет нейтральную формулу, поэтому подходит для большинства людей. Не пачкает белье. Смазка совместима с секс-игрушками и презервативами. Применение: перед началом интимной близости нанесите на половые органы. Гель-лубрикант Окей для двоих (15 г).  Гель-лубрикант Окей для двоих (15 г). Модель: bioritm-10966. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Идеально подходит любителям острых ощущений и сильных эмоций. Обладает мгновенным разогревающим эффектом длительного действия (до 40 минут). Быстро повышает сексуальное желание у обоих партнеров. Усиливает чувствительность, придает темпераментность. Обеспечивает продолжительное скольжение. Легко смывается водой.Применение: нанесите тонким слоем перед половым контактом. Доза подбирается индивидуально, начиная с 1-2 капель.StimuLove strong - жгучая страсть ваших отношений!.Возбуждающий лубрикант мощного действия Stimulove STRONG (50 г).  Возбуждающий лубрикант мощного действия Stimulove STRONG (50 г). Модель: bioritm-10985. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -10021,29 +10303,29 @@
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R78" t="inlineStr"/>
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr">
         <is>
-          <t>15 г</t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>50</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>15 г</t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="W78" t="inlineStr"/>
@@ -10105,12 +10387,12 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Гель-лубрикант на водной основе ОКЕЙ</t>
+          <t>Возбуждающий гель-лубрикант Stimulove</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>id-2265-1299</t>
+          <t>id-5668-1299</t>
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
@@ -10124,10 +10406,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/5668/5668_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/5668/5668_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/5668/5668_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Из-за недостаточного количества естественной смазки во время интимной близости могут возникнуть неприятные болевые ощущения. О'кей для двоих - это ваш заветный билет в мир комфортного секса. Классический лубрикант на водной основе интенсивно увлажняет слизистые. Обеспечивает достаточное смазывание и скольжение на протяжении всего полового акта. Одобрен гинекологами. Без красителей и ароматизаторов. Имеет нейтральную формулу, поэтому подходит для большинства людей. Не пачкает белье. Смазка совместима с секс-игрушками и презервативами. Применение: перед началом интимной близости нанесите на половые органы. Гель-лубрикант на водной основе ОКЕЙ (50 г).  Гель-лубрикант на водной основе ОКЕЙ (50 г). Модель: bioritm-10967. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Помогает почувствовать нежность каждого прикосновения. Чуткие натуры по достоинству оценят приятный разогревающий эффект (продолжительностью до 20 минут). Повышает сексуальное желание у обоих партнеров. Предварительные ласки и сладкие поцелуи идеально дополнят возбуждающее действие геля. Лубрикант обеспечивает долгое и чувственное скольжение. Легко смывается водой.Применение: нанесите тонким слоем перед половым контактом. Доза подбирается индивидуально, начиная с 1-2 капель.Секс со StimuLove light украсит нежный романтический вечер.Возбуждающий гель-лубрикант Stimulove Light легкого действия (20 г).  Возбуждающий гель-лубрикант Stimulove Light легкого действия (20 г). Модель: bioritm-10987. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -10149,17 +10435,17 @@
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t>20 г</t>
         </is>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>20</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t>20 г</t>
         </is>
       </c>
       <c r="W79" t="inlineStr"/>
@@ -10221,12 +10507,12 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Универсальный лубрикант на водной</t>
+          <t>Возбуждающий гель-лубрикант Stimulove</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>id-2270-1299</t>
+          <t>id-13005-1299</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
@@ -10240,10 +10526,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/13005/13005_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13005/13005_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13005/13005_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Из-за недостаточного количества естественной смазки во время интимной близости могут возникнуть неприятные болевые ощущения. О'кей для двоих - это ваш заветный билет в мир комфортного секса. Классический лубрикант на водной основе интенсивно увлажняет слизистые. Обеспечивает достаточное смазывание и скольжение на протяжении всего полового акта. Одобрен гинекологами. Без красителей и ароматизаторов. Имеет нейтральную формулу, поэтому подходит для большинства людей. Не пачкает белье. Смазка совместима с секс-игрушками и презервативами. Применение: перед началом интимной близости нанесите на половые органы. Универсальный лубрикант на водной основе ОКЕЙ (100 г).  Универсальный лубрикант на водной основе ОКЕЙ (100 г). Модель: bioritm-10968. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Помогает почувствовать нежность каждого прикосновения. Чуткие натуры по достоинству оценят приятный разогревающий эффект (продолжительностью до 20 минут). Повышает сексуальное желание у обоих партнеров. Предварительные ласки и сладкие поцелуи идеально дополнят возбуждающее действие геля. Лубрикант обеспечивает долгое и чувственное скольжение. Легко смывается водой.Применение: нанесите тонким слоем перед половым контактом. Доза подбирается индивидуально, начиная с 1-2 капель.Секс со StimuLove light украсит нежный романтический вечер.Возбуждающий гель-лубрикант Stimulove Light легкого действия (50 г).  Возбуждающий гель-лубрикант Stimulove Light легкого действия (50 г). Модель: bioritm-10988. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -10265,17 +10555,17 @@
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr">
         <is>
-          <t>100 г</t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>100 г</t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="W80" t="inlineStr"/>
@@ -10337,12 +10627,12 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Анальный антибактериальный гель на</t>
+          <t>Анальная силиконовая смазка ANALOVE ММ7</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>id-12978-1299</t>
+          <t>id-4732-1299</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
@@ -10356,10 +10646,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/4732/4732_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/4732/4732_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/4732/4732_5_650.jpg</t>
+        </is>
+      </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Приятно разнообразить сексуальную жизнь поможет мягкий водно-силиконовый крем ОКей Anal. Отлично подходит парам, практикующим анальный секс. Обеспечивает нежное, устойчивое и длительное скольжение. Обладает антисептическим действием, защищает от инфицирования. Смывается водой. Может использоваться с секс-игрушками. Анальный антибактериальный гель на водной основе ОКЕЙ  Anal (50 г).  Анальный антибактериальный гель на водной основе ОКЕЙ  Anal (50 г). Модель: bioritm-10970. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Прозрачная густая водно-силиконовая смазка способствует легкому и безболезненному проникновению при анальном сексе. Обладает антисептическими свойствами. Крем-лубрикант AnaLove из серии Ты и Я рекомендуется для повышения качества и безопасности интимных отношений. Идеально подходит для тех, кто приобретает опыт анального секса впервые. Дарит ни с чем несравнимое супердлительное скольжение. Совместим с изделиями из искусственных материалов. Анальная силиконовая смазка ANALOVE ММ7 (20 г).  Анальная силиконовая смазка ANALOVE ММ7 (20 г). Модель: bioritm-10990. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -10369,29 +10663,29 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t>20 г</t>
         </is>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>20</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t>20 г</t>
         </is>
       </c>
       <c r="W81" t="inlineStr"/>
@@ -10453,12 +10747,12 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Анальный гель Intim Bluz (20 г)</t>
+          <t>Анальная силиконовая смазка ANALOVE 50</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>id-6807-1299</t>
+          <t>id-13002-1299</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
@@ -10472,10 +10766,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/13002/13002_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13002/13002_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13002/13002_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13002/13002_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нежный и бережный анальный лубрикант на водной основе отлично подойдет начинающим парам. Ухаживающая формула увлажняет кожу и способствует легкому проникновению. Специальные компоненты, входящие в состав, снимают болевые ощущения. Гель-лубрикант Intim Bluz обеспечивает легкое и длительное скольжение. Защищает от инфицирования. Совместим с изделиями из искусственных материалов. Применение: нанесите на участок тела, требующий смазывания. Анальный гель Intim Bluz (20 г).  Анальный гель Intim Bluz (20 г). Модель: bioritm-10975. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Прозрачная густая водно-силиконовая смазка способствует легкому и безболезненному проникновению при анальном сексе. Обладает антисептическими свойствами. Крем-лубрикант AnaLove из серии Ты и Я рекомендуется для повышения качества и безопасности интимных отношений. Идеально подходит для тех, кто приобретает опыт анального секса впервые. Дарит ни с чем несравнимое супердлительное скольжение. Совместим с изделиями из искусственных материалов. Анальная силиконовая смазка ANALOVE (50 г).  Анальная силиконовая смазка ANALOVE (50 г). Модель: bioritm-10991. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -10497,17 +10795,17 @@
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr">
         <is>
-          <t>20 г</t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>50</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>20 г</t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="W82" t="inlineStr"/>
@@ -10569,12 +10867,12 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Анальный гель на водной основе Intim</t>
+          <t>Cиликоновая анальная смазка AnaLove, 4</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>id-13008-1299</t>
+          <t>id-7754-1299</t>
         </is>
       </c>
       <c r="H83" t="inlineStr"/>
@@ -10588,10 +10886,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/7754/7754_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нежный и бережный анальный лубрикант на водной основе отлично подойдет начинающим парам. Ухаживающая формула увлажняет кожу и способствует легкому проникновению. Специальные компоненты, входящие в состав, снимают болевые ощущения. Гель-лубрикант Intim Bluz обеспечивает легкое и длительное скольжение. Защищает от инфицирования. Совместим с изделиями из искусственных материалов. Применение: нанесите на участок тела, требующий смазывания. Анальный гель на водной основе Intim Bluz (50 г).  Анальный гель на водной основе Intim Bluz (50 г). Модель: bioritm-10976. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Прозрачная густая водно-силиконовая смазка способствует легкому и безболезненному проникновению при анальном сексе. Обладает антисептическими свойствами. Крем-лубрикант AnaLove из серии Ты и Я рекомендуется для повышения качества и безопасности интимных отношений. Идеально подходит для тех, кто приобретает опыт анального секса впервые. Дарит ни с чем несравнимое супердлительное скольжение. Совместим с изделиями из искусственных материалов. Cиликоновая анальная смазка AnaLove, 4 г (в упаковке 5 шт).  Cиликоновая анальная смазка AnaLove, 4 г (в упаковке 5 шт). Модель: bioritm-11-327. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -10613,17 +10915,17 @@
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t>5 * 4 г</t>
         </is>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>5 * 4</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t>5 * 4 г</t>
         </is>
       </c>
       <c r="W83" t="inlineStr"/>
@@ -10649,7 +10951,7 @@
       <c r="AM83" t="inlineStr"/>
       <c r="AN83" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>5 пробников</t>
         </is>
       </c>
       <c r="AO83" t="inlineStr">
@@ -10669,7 +10971,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -10680,17 +10982,17 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Возбуждающий лубрикант Stimulove STRONG</t>
+          <t>Крем-пролонгатор LONG PLAY (15 мл)</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>id-5669-1299</t>
+          <t>id-3357-1299</t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
@@ -10704,10 +11006,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/3357/3357_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3357/3357_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3357/3357_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3357/3357_5_650.jpg</t>
+        </is>
+      </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Идеально подходит любителям острых ощущений и сильных эмоций. Обладает мгновенным разогревающим эффектом длительного действия (до 40 минут). Быстро повышает сексуальное желание у обоих партнеров. Усиливает чувствительность, придает темпераментность. Обеспечивает продолжительное скольжение. Легко смывается водой.Применение: нанесите тонким слоем перед половым контактом. Доза подбирается индивидуально, начиная с 1-2 капель.StimuLove strong - жгучая страсть ваших отношений!.Возбуждающий лубрикант Stimulove STRONG мощного действия (20 г).  Возбуждающий лубрикант Stimulove STRONG мощного действия (20 г). Модель: bioritm-10984. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Сексуальные отношения будут такими же долгоиграющими, как и действие от крема Long play. Средство легко впитывается и быстро понижает чувствительность головки полового члена, благодаря чему появляется сильный пролонгирующий эффект. Дальше дело техники. Ухаживает за кожей полового члена. Начинает действовать спустя 7-10 минут с момента нанесения. Применение: за 7-10 минут до интимной близости крем мягко втирается в головку полового члена до полного впитывания. Доза подбирается индивидуально, начиная с 1-2 капель. Крем-пролонгатор LONG PLAY (15 мл).  Крем-пролонгатор LONG PLAY (15 мл). Модель: bioritm-11003. Косметика, препараты. Смазки, косметика &gt; Пролонгирующие смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -10729,17 +11035,17 @@
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr">
         <is>
-          <t>20 г</t>
+          <t>15 мл</t>
         </is>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>20 г</t>
+          <t>15 мл</t>
         </is>
       </c>
       <c r="W84" t="inlineStr"/>
@@ -10801,12 +11107,12 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Возбуждающий лубрикант мощного действия</t>
+          <t>Гель-лубрикант анальный Lovegel E</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>id-13006-1299</t>
+          <t>id-8043-1299</t>
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
@@ -10820,10 +11126,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/8043/8043_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Идеально подходит любителям острых ощущений и сильных эмоций. Обладает мгновенным разогревающим эффектом длительного действия (до 40 минут). Быстро повышает сексуальное желание у обоих партнеров. Усиливает чувствительность, придает темпераментность. Обеспечивает продолжительное скольжение. Легко смывается водой.Применение: нанесите тонким слоем перед половым контактом. Доза подбирается индивидуально, начиная с 1-2 капель.StimuLove strong - жгучая страсть ваших отношений!.Возбуждающий лубрикант мощного действия Stimulove STRONG (50 г).  Возбуждающий лубрикант мощного действия Stimulove STRONG (50 г). Модель: bioritm-10985. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Дарит восхитительное чувство комфорта и мягкое безболезненное проникновение при анальном сексе. Формула лубриканта обогащена экстрактом мяты, который снимает возможные неприятные ощущения во время полового акта. Гиалуроновая кислота активно увлажняет и быстро восстанавливает ткани после интимной близости. Anal sex сводит к минимуму вероятность появления микротравм. Комплексный уход, продолжительное скольжение и защита слизистых безупречно сочетаются в одном флаконе. Почувствуй с этим лубрикантом экстремальную свободу, остроту сексуальных ощущений, безопасность и безболезненность. Anal sex можно использовать при различных видах интимной близости. Применение: перед половым контактом нанесите тонким слоем на интимную зону, требующую смазывания. LOVEGEL E ANAL SEX - СТРАСТЬ БЕЗ ГРАНИЦ!.Гель-лубрикант анальный Lovegel E Extreme с экстрактом мяты, 4 г (в упаковке 5 шт).  Гель-лубрикант анальный Lovegel E Extreme с экстрактом мяты, 4 г (в упаковке 5 шт). Модель: bioritm-11313. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -10845,17 +11155,17 @@
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t>4 г</t>
         </is>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>4</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t>4 г</t>
         </is>
       </c>
       <c r="W85" t="inlineStr"/>
@@ -10917,12 +11227,12 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Возбуждающий гель-лубрикант Stimulove</t>
+          <t>Гель лубрикант Lovegel M Magic, 4 г в</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>id-5668-1299</t>
+          <t>id-8042-1299</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
@@ -10936,10 +11246,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/8042/8042_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/8042/8042_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Помогает почувствовать нежность каждого прикосновения. Чуткие натуры по достоинству оценят приятный разогревающий эффект (продолжительностью до 20 минут). Повышает сексуальное желание у обоих партнеров. Предварительные ласки и сладкие поцелуи идеально дополнят возбуждающее действие геля. Лубрикант обеспечивает долгое и чувственное скольжение. Легко смывается водой.Применение: нанесите тонким слоем перед половым контактом. Доза подбирается индивидуально, начиная с 1-2 капель.Секс со StimuLove light украсит нежный романтический вечер.Возбуждающий гель-лубрикант Stimulove Light легкого действия (20 г).  Возбуждающий гель-лубрикант Stimulove Light легкого действия (20 г). Модель: bioritm-10987. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">LOVEGEL M MAGIC SEX - ГЕЛЬ-ЛУБРИКАНТ С 100% НАТУРАЛЬНЫМ СОСТАВОМ Магия чувств и нежности слились в природной формуле лубриканта. Гель дарит абсолютно естественные ощущения. Создан с учетом особенностей женского организма. Максимально близко копирует женскую смазку и обеспечивает продолжительное скольжение. Идеальный выбор для чувствительной кожи. Благодаря 100% натуральному составу на водной основе и специальному пребиотику лубрикант поддерживает естественный баланс микрофлоры интимной зоны. Гиалуроновая кислота способствует регенерации, дарит интенсивное увлажнение и мягкий уход. Magic sex - сказочное удовольствие и незабываемый восторг взаимного экстаза! Применение: перед половым контактом нанесите тонким слоем на интимную зону, требующую смазывания. LOVEGEL M MAGIC SEX - НЕЖНОСТЬ ВАШЕЙ ЛЮБВИ!.Гель лубрикант Lovegel M Magic, 4 г (в упаковке 5 шт).  Гель лубрикант Lovegel M Magic, 4 г (в упаковке 5 шт). Модель: bioritm-11315. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -10961,17 +11275,17 @@
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr">
         <is>
-          <t>20 г</t>
+          <t>4 г</t>
         </is>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>4</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>20 г</t>
+          <t>4 г</t>
         </is>
       </c>
       <c r="W86" t="inlineStr"/>
@@ -11033,12 +11347,12 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Возбуждающий гель-лубрикант Stimulove</t>
+          <t>Анальный гель-лубрикант Intim Anal 60 г</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>id-13005-1299</t>
+          <t>id-6728-1299</t>
         </is>
       </c>
       <c r="H87" t="inlineStr"/>
@@ -11052,10 +11366,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/6728/6728_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/6728/6728_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t xml:space="preserve">Помогает почувствовать нежность каждого прикосновения. Чуткие натуры по достоинству оценят приятный разогревающий эффект (продолжительностью до 20 минут). Повышает сексуальное желание у обоих партнеров. Предварительные ласки и сладкие поцелуи идеально дополнят возбуждающее действие геля. Лубрикант обеспечивает долгое и чувственное скольжение. Легко смывается водой.Применение: нанесите тонким слоем перед половым контактом. Доза подбирается индивидуально, начиная с 1-2 капель.Секс со StimuLove light украсит нежный романтический вечер.Возбуждающий гель-лубрикант Stimulove Light легкого действия (50 г).  Возбуждающий гель-лубрикант Stimulove Light легкого действия (50 г). Модель: bioritm-10988. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">В порыве чувств помни, что во время анального секса нужны особые средства. Intim anal отлично сочетает долгое скольжение с мягкой, бережной защитой. Он обеспечивает нежное проникновение и создает необходимую увлажненность, способствуя только комфортным ощущениям во время секса. Легко смывается водой. Без запаха. Сочетается с изделиями из латекса и синтетических материалов. Применение: непосредственно перед интимной близостью нанесите тонким слоем на области, требующие смазывания. Анальный гель-лубрикант Intim Anal 60 г.  Анальный гель-лубрикант Intim Anal 60 г. Модель: bioritm-11934. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -11077,17 +11395,17 @@
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t>60 г</t>
         </is>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t>60 г</t>
         </is>
       </c>
       <c r="W87" t="inlineStr"/>
@@ -11133,7 +11451,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -11149,12 +11467,12 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Анальная силиконовая смазка ANALOVE ММ7</t>
+          <t>Анальный гель с мятой и гиалуроновой</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>id-4732-1299</t>
+          <t>id-2280-1299</t>
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
@@ -11168,10 +11486,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/2280/2280_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Прозрачная густая водно-силиконовая смазка способствует легкому и безболезненному проникновению при анальном сексе. Обладает антисептическими свойствами. Крем-лубрикант AnaLove из серии Ты и Я рекомендуется для повышения качества и безопасности интимных отношений. Идеально подходит для тех, кто приобретает опыт анального секса впервые. Дарит ни с чем несравнимое супердлительное скольжение. Совместим с изделиями из искусственных материалов. Анальная силиконовая смазка ANALOVE ММ7 (20 г).  Анальная силиконовая смазка ANALOVE ММ7 (20 г). Модель: bioritm-10990. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Дарит восхитительное чувство комфорта и мягкое безболезненное проникновение при анальном сексе. Формула лубриканта обогащена экстрактом мяты, который снимает возможные неприятные ощущения во время полового акта. Гиалуроновая кислота активно увлажняет и быстро восстанавливает ткани после интимной близости. Anal sex сводит к минимуму вероятность появления микротравм. Комплексный уход, продолжительное скольжение и защита слизистых безупречно сочетаются в одном флаконе. Почувствуй с этим лубрикантом экстремальную свободу, остроту сексуальных ощущений, безопасность и безболезненность. Anal sex можно использовать при различных видах интимной близости. Применение: перед половым контактом нанесите тонким слоем на интимную зону, требующую смазывания. LOVEGEL E ANAL SEX - СТРАСТЬ БЕЗ ГРАНИЦ!.Анальный гель с мятой и гиалуроновой кислотой Anal Sex (20 г).  Анальный гель с мятой и гиалуроновой кислотой Anal Sex (20 г). Модель: bioritm-12004. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -11181,12 +11503,12 @@
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R88" t="inlineStr"/>
@@ -11249,7 +11571,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -11260,17 +11582,17 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Анальная силиконовая смазка ANALOVE 50</t>
+          <t>Крем для увеличения пениса BIG PEN 50</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>id-13002-1299</t>
+          <t>id-10879-1299</t>
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
@@ -11284,10 +11606,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/10879/10879_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/10879/10879_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/10879/10879_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/10879/10879_5_650.jpg</t>
+        </is>
+      </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Прозрачная густая водно-силиконовая смазка способствует легкому и безболезненному проникновению при анальном сексе. Обладает антисептическими свойствами. Крем-лубрикант AnaLove из серии Ты и Я рекомендуется для повышения качества и безопасности интимных отношений. Идеально подходит для тех, кто приобретает опыт анального секса впервые. Дарит ни с чем несравнимое супердлительное скольжение. Совместим с изделиями из искусственных материалов. Анальная силиконовая смазка ANALOVE (50 г).  Анальная силиконовая смазка ANALOVE (50 г). Модель: bioritm-10991. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Увеличить размер пениса также легко, как, например, бицепсов. Для этого используется специальная методика - пенбилдинг (от слов penis и building, т.е. дословно построение пениса). Это постепенное механическое растяжения пениса мужчины до желаемых размеров. За счет удлинения кровенаполнение полового органа значительно увеличивается во время эрекции. Член становится большим и упругим. Крем Big Pen  персональный тренер и помощник для занятий пенбилдингом. Разогревая кожу полового члена, он настраивает своего обладателя на спортивный лад и предстоящие упражнения. Средство разработано специально для максимального комфорта: комбинирует нежное и супердлительное скольжение масла и приятную упругость крема. Исключительный уровень комфорта и приятных ощущений сочетается с особенной структурой. Tingle-эффект является уникальным свойством Big Pen. Это чувство покалывания и дрожи, которое возникает за счет быстрого проникновения активных компонентов и дает реальное ощущение происходящих изменений. Крем обогащен натуральными компонентами. Смесь экстрактов (каштан конский, гинко билоба, иглица шиповатая) эффективно укрепляет стенки кровеносных сосудов и улучшает кровообращение, делает соединительные ткани эластичными и легко растяжимыми. Южноамериканское дерево потенции муира пуама с древних времен используется в народной медицине в качестве средства, которое то, что мягкое, делает твердым. Женьшень оказывает тонизирующее и стимулирующее действие. Природный афродизиак имбирь вызывает и усиливает половое влечение. Применение: ежедневно (в течение курса 10-14 дней) наносите крем на ствол и головку полового члена массирующими движениями до полного впитывания. После чего приступайте к специальным упражнениям. Длительность занятий пенбилдингом в среднем составляет 15-20 минут в день. Упражнения подробно описаны в инструкции, прилагаемой к крему Big Pen. Крем для увеличения пениса BIG PEN (50 г).  Крем для увеличения пениса BIG PEN (50 г). Модель: bioritm-12841. Косметика, препараты. Увеличение пениса &gt; Кремы, препараты. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -11365,7 +11691,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -11381,12 +11707,12 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Cиликоновая анальная смазка AnaLove, 4</t>
+          <t>Масло Eros для эротического массажа с</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>id-7754-1299</t>
+          <t>id-18397-1299</t>
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
@@ -11400,15 +11726,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/18397/18397_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t xml:space="preserve">Прозрачная густая водно-силиконовая смазка способствует легкому и безболезненному проникновению при анальном сексе. Обладает антисептическими свойствами. Крем-лубрикант AnaLove из серии Ты и Я рекомендуется для повышения качества и безопасности интимных отношений. Идеально подходит для тех, кто приобретает опыт анального секса впервые. Дарит ни с чем несравнимое супердлительное скольжение. Совместим с изделиями из искусственных материалов. Cиликоновая анальная смазка AnaLove, 4 г (в упаковке 5 шт).  Cиликоновая анальная смазка AnaLove, 4 г (в упаковке 5 шт). Модель: bioritm-11-327. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Побалуйте себя великолепным ароматом. Масло для эротического массажа Eros fantasy вызывает ощущение тепла, особенно при дуновении. Повышает чувствительность. Имеет приятный аромат земляники и сладкий вкус. Eros fantasy обеспечивают длительное скольжение. Легко смывается водой. Масло Eros для эротического массажа с ароматом земляники (75 мл).  Масло Eros для эротического массажа с аромато</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
@@ -11425,17 +11755,17 @@
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr">
         <is>
-          <t>5 * 4 г</t>
+          <t>75 мл</t>
         </is>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>5 * 4</t>
+          <t>75</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>5 * 4 г</t>
+          <t>75 мл</t>
         </is>
       </c>
       <c r="W90" t="inlineStr"/>
@@ -11461,7 +11791,7 @@
       <c r="AM90" t="inlineStr"/>
       <c r="AN90" t="inlineStr">
         <is>
-          <t>5 пробников</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO90" t="inlineStr">
@@ -11481,7 +11811,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -11492,17 +11822,17 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Крем-пролонгатор LONG PLAY (15 мл)</t>
+          <t>Массажное масло с феромонами ZODIAC AIR</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>id-3357-1299</t>
+          <t>id-26854-1299</t>
         </is>
       </c>
       <c r="H91" t="inlineStr"/>
@@ -11516,10 +11846,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26854/26854_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сексуальные отношения будут такими же долгоиграющими, как и действие от крема Long play. Средство легко впитывается и быстро понижает чувствительность головки полового члена, благодаря чему появляется сильный пролонгирующий эффект. Дальше дело техники. Ухаживает за кожей полового члена. Начинает действовать спустя 7-10 минут с момента нанесения. Применение: за 7-10 минут до интимной близости крем мягко втирается в головку полового члена до полного впитывания. Доза подбирается индивидуально, начиная с 1-2 капель. Крем-пролонгатор LONG PLAY (15 мл).  Крем-пролонгатор LONG PLAY (15 мл). Модель: bioritm-11003. Косметика, препараты. Смазки, косметика &gt; Пролонгирующие смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Аромат масла подобран специально для знаков зодиака стихии Воздух. Он раскроет чувственность и романтичность воздушных знаков. Феромоны усилят притягательность партнёров. Масло обеспечивает равномерное и длительное скольжение, придаёт коже мягкость и шелковистость, делает её нежной, приятной для прикосновений.Способ применения: перед массажем разогрейте масло в ладонях, нанесите на кожу лёгкими массирующими движениями. Массажное масло с феромонами ZODIAC AIR (75 мл).  Массажное масло с феромонами ZODIAC AIR (75 мл). Модель: bioritm-13019. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -11541,17 +11875,17 @@
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr">
         <is>
-          <t>15 мл</t>
+          <t>75 мл</t>
         </is>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>75</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>15 мл</t>
+          <t>75 мл</t>
         </is>
       </c>
       <c r="W91" t="inlineStr"/>
@@ -11597,7 +11931,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -11613,12 +11947,12 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Гель-лубрикант анальный Lovegel E</t>
+          <t>Массажное масло с феромонами ZODIAC</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>id-8043-1299</t>
+          <t>id-26855-1299</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
@@ -11632,10 +11966,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26855/26855_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Дарит восхитительное чувство комфорта и мягкое безболезненное проникновение при анальном сексе. Формула лубриканта обогащена экстрактом мяты, который снимает возможные неприятные ощущения во время полового акта. Гиалуроновая кислота активно увлажняет и быстро восстанавливает ткани после интимной близости. Anal sex сводит к минимуму вероятность появления микротравм. Комплексный уход, продолжительное скольжение и защита слизистых безупречно сочетаются в одном флаконе. Почувствуй с этим лубрикантом экстремальную свободу, остроту сексуальных ощущений, безопасность и безболезненность. Anal sex можно использовать при различных видах интимной близости. Применение: перед половым контактом нанесите тонким слоем на интимную зону, требующую смазывания. LOVEGEL E ANAL SEX - СТРАСТЬ БЕЗ ГРАНИЦ!.Гель-лубрикант анальный Lovegel E Extreme с экстрактом мяты, 4 г (в упаковке 5 шт).  Гель-лубрикант анальный Lovegel E Extreme с экстрактом мяты, 4 г (в упаковке 5 шт). Модель: bioritm-11313. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Аромат масла подобран специально для знаков зодиака стихии Огня. Он раскроет дерзость и страстность огненных знаков. Феромоны усилят притягательность партнёров. Масло обеспечивает равномерное и длительное скольжение, придаёт коже мягкость и шелковистость, делает её нежной, приятной для прикосновений.Способ применения: перед массажем разогрейте масло в ладонях, нанесите на кожу лёгкими массирующими движениями. Массажное масло с феромонами ZODIAC FIRE (75 мл).  Массажное масло с феромонами ZODIAC FIRE (75 мл). Модель: bioritm-13020. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -11657,17 +11995,17 @@
       <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr">
         <is>
-          <t>4 г</t>
+          <t>75 мл</t>
         </is>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>75</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>4 г</t>
+          <t>75 мл</t>
         </is>
       </c>
       <c r="W92" t="inlineStr"/>
@@ -11713,7 +12051,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -11729,12 +12067,12 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Гель лубрикант Lovegel M Magic, 4 г в</t>
+          <t>Массажное масло с феромонами ZODIAC</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>id-8042-1299</t>
+          <t>id-26856-1299</t>
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
@@ -11748,10 +12086,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26856/26856_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t xml:space="preserve">LOVEGEL M MAGIC SEX - ГЕЛЬ-ЛУБРИКАНТ С 100% НАТУРАЛЬНЫМ СОСТАВОМ Магия чувств и нежности слились в природной формуле лубриканта. Гель дарит абсолютно естественные ощущения. Создан с учетом особенностей женского организма. Максимально близко копирует женскую смазку и обеспечивает продолжительное скольжение. Идеальный выбор для чувствительной кожи. Благодаря 100% натуральному составу на водной основе и специальному пребиотику лубрикант поддерживает естественный баланс микрофлоры интимной зоны. Гиалуроновая кислота способствует регенерации, дарит интенсивное увлажнение и мягкий уход. Magic sex - сказочное удовольствие и незабываемый восторг взаимного экстаза! Применение: перед половым контактом нанесите тонким слоем на интимную зону, требующую смазывания. LOVEGEL M MAGIC SEX - НЕЖНОСТЬ ВАШЕЙ ЛЮБВИ!.Гель лубрикант Lovegel M Magic, 4 г (в упаковке 5 шт).  Гель лубрикант Lovegel M Magic, 4 г (в упаковке 5 шт). Модель: bioritm-11315. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Аромат масла подобран специально для знаков зодиака стихии Земля. Он раскроет пылкость и раскрепощённость земных знаков. Феромоны усилят притягательность партнёров. Масло обеспечивает равномерное и длительное скольжение, придаёт коже мягкость и шелковистость, делает её нежной, приятной для прикосновений.Способ применения: перед массажем разогрейте масло в ладонях, нанесите на кожу лёгкими массирующими движениями. Массажное масло с феромонами ZODIAC TERRA (75 мл).  Массажное масло с феромонами ZODIAC TERRA (75 мл). Модель: bioritm-13021. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -11773,17 +12115,17 @@
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr">
         <is>
-          <t>4 г</t>
+          <t>75 мл</t>
         </is>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>75</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>4 г</t>
+          <t>75 мл</t>
         </is>
       </c>
       <c r="W93" t="inlineStr"/>
@@ -11829,7 +12171,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Средства с феромонами</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -11840,17 +12182,17 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Анальная крем-смазка Асс, 4 г в</t>
+          <t>Арома средство для тела с феромонами</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>id-7752-1299</t>
+          <t>id-26861-1299</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
@@ -11864,10 +12206,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26861/26861_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26861/26861_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26861/26861_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26861/26861_4_650.jpg</t>
+        </is>
+      </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t xml:space="preserve">Уникальный кремлубрикант с эфирными маслами на силиконовой основе. Подходит как для опытных, так и для начинающих пар. Эфирные масла в составе крема способствуют расслаблению мышц ануса, делая вход более свободным, оказывают антибактериальное, заживляющее и дезодорирующее действия. Особая, ни с чем не сравнимая, шелковистая текстура крема обеспечивает легкость проникновения и супердлительное скольжение. Крем-смазка CreamAnal ACC легко смывается водой. Совместим с изделиями из искусственных материалов. Анальная крем-смазка Асс, 4 г (в упаковке 5 шт.).  Анальная крем-смазка Асс, 4 г (в упаковке 5 шт.). Модель: bioritm-11316. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Потрясающая парфюмированная композиция с феромонами Sexy Sweet вскружит голову, заворожит, разбудит эротическую фантазию! Её яркий аромат в сочетании с феромонами раскроет чувственность и сексуальность, раскрепостит, поможет создать свой неповторимый соблазнительный образ.Sexy Sweet работает на подсознательном уровне, без видимых усилий привлекая внимание, возбуждая и вызывая желание заняться любовью.Обладательница аппетитной новинки станет объектом обожания, пробудит желание вкусить все её прелести и подарить невероятное наслаждение!.Арома средство для тела с феромонами SEXY SWEET FROST CHERRY с ароматом вишни (10 мл).  Арома средство для тела с феромонами SEXY SWEET FROST CHERRY с ароматом вишни (10 мл). Модель: bioritm-16119. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -11889,17 +12235,17 @@
       <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr">
         <is>
-          <t>5 * 4 г</t>
+          <t>10 мл</t>
         </is>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>5 * 4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>5 * 4 г</t>
+          <t>10 мл</t>
         </is>
       </c>
       <c r="W94" t="inlineStr"/>
@@ -11925,7 +12271,7 @@
       <c r="AM94" t="inlineStr"/>
       <c r="AN94" t="inlineStr">
         <is>
-          <t>5 пробников</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO94" t="inlineStr">
@@ -11945,7 +12291,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Средства с феромонами</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -11956,17 +12302,17 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Анальный гель-лубрикант Intim Anal 60 г</t>
+          <t>Арома средство для тела с феромонами</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>id-6728-1299</t>
+          <t>id-26858-1299</t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
@@ -11980,10 +12326,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26858/26858_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26858/26858_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26858/26858_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26858/26858_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t xml:space="preserve">В порыве чувств помни, что во время анального секса нужны особые средства. Intim anal отлично сочетает долгое скольжение с мягкой, бережной защитой. Он обеспечивает нежное проникновение и создает необходимую увлажненность, способствуя только комфортным ощущениям во время секса. Легко смывается водой. Без запаха. Сочетается с изделиями из латекса и синтетических материалов. Применение: непосредственно перед интимной близостью нанесите тонким слоем на области, требующие смазывания. Анальный гель-лубрикант Intim Anal 60 г.  Анальный гель-лубрикант Intim Anal 60 г. Модель: bioritm-11934. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Потрясающая парфюмированная композиция с феромонами Sexy Sweet вскружит голову, заворожит, разбудит эротическую фантазию! Её яркий аромат в сочетании с феромонами раскроет чувственность и сексуальность, раскрепостит, поможет создать свой неповторимый соблазнительный образ.Sexy Sweet работает на подсознательном уровне, без видимых усилий привлекая внимание, возбуждая и вызывая желание заняться любовью.Обладательница аппетитной новинки станет объектом обожания, пробудит желание вкусить все её прелести и подарить невероятное наслаждение!.Арома средство для тела с феромонами SEXY SWEET NECTAR LYCHEE с ароматом личи (10 мл).  Арома средство для тела с феромонами SEXY SWEET NECTAR LYCHEE с ароматом личи (10 мл). Модель: bioritm-16120. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -12005,17 +12355,17 @@
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr">
         <is>
-          <t>60 г</t>
+          <t>10 мл</t>
         </is>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>10</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>60 г</t>
+          <t>10 мл</t>
         </is>
       </c>
       <c r="W95" t="inlineStr"/>
@@ -12061,7 +12411,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Средства с феромонами</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -12072,17 +12422,17 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Анальный гель с мятой и гиалуроновой</t>
+          <t>Арома средство для тела с феромонами</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>id-2280-1299</t>
+          <t>id-26859-1299</t>
         </is>
       </c>
       <c r="H96" t="inlineStr"/>
@@ -12096,10 +12446,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26859/26859_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26859/26859_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26859/26859_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26859/26859_4_650.jpg</t>
+        </is>
+      </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t xml:space="preserve">Дарит восхитительное чувство комфорта и мягкое безболезненное проникновение при анальном сексе. Формула лубриканта обогащена экстрактом мяты, который снимает возможные неприятные ощущения во время полового акта. Гиалуроновая кислота активно увлажняет и быстро восстанавливает ткани после интимной близости. Anal sex сводит к минимуму вероятность появления микротравм. Комплексный уход, продолжительное скольжение и защита слизистых безупречно сочетаются в одном флаконе. Почувствуй с этим лубрикантом экстремальную свободу, остроту сексуальных ощущений, безопасность и безболезненность. Anal sex можно использовать при различных видах интимной близости. Применение: перед половым контактом нанесите тонким слоем на интимную зону, требующую смазывания. LOVEGEL E ANAL SEX - СТРАСТЬ БЕЗ ГРАНИЦ!.Анальный гель с мятой и гиалуроновой кислотой Anal Sex (20 г).  Анальный гель с мятой и гиалуроновой кислотой Anal Sex (20 г). Модель: bioritm-12004. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Потрясающая парфюмированная композиция с феромонами Sexy Sweet вскружит голову, заворожит, разбудит эротическую фантазию! Её яркий аромат в сочетании с феромонами раскроет чувственность и сексуальность, раскрепостит, поможет создать свой неповторимый соблазнительный образ.Sexy Sweet работает на подсознательном уровне, без видимых усилий привлекая внимание, возбуждая и вызывая желание заняться любовью.Обладательница аппетитной новинки станет объектом обожания, пробудит желание вкусить все её прелести и подарить невероятное наслаждение!.Арома средство для тела с феромонами SEXY SWEET WILD BERRY с ароматом ягод (10 мл).  Арома средство для тела с феромонами SEXY SWEET WILD BERRY с ароматом ягод (10 мл). Модель: bioritm-16121. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -12121,17 +12475,17 @@
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr">
         <is>
-          <t>20 г</t>
+          <t>10 мл</t>
         </is>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>20 г</t>
+          <t>10 мл</t>
         </is>
       </c>
       <c r="W96" t="inlineStr"/>
@@ -12177,7 +12531,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Средства с феромонами</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -12188,17 +12542,17 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Крем для увеличения пениса BIG PEN 50</t>
+          <t>Арома средство для тела с феромонами</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>id-10879-1299</t>
+          <t>id-26857-1299</t>
         </is>
       </c>
       <c r="H97" t="inlineStr"/>
@@ -12212,10 +12566,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26857/26857_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26857/26857_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26857/26857_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26857/26857_4_650.jpg</t>
+        </is>
+      </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Увеличить размер пениса также легко, как, например, бицепсов. Для этого используется специальная методика - пенбилдинг (от слов penis и building, т.е. дословно построение пениса). Это постепенное механическое растяжения пениса мужчины до желаемых размеров. За счет удлинения кровенаполнение полового органа значительно увеличивается во время эрекции. Член становится большим и упругим. Крем Big Pen  персональный тренер и помощник для занятий пенбилдингом. Разогревая кожу полового члена, он настраивает своего обладателя на спортивный лад и предстоящие упражнения. Средство разработано специально для максимального комфорта: комбинирует нежное и супердлительное скольжение масла и приятную упругость крема. Исключительный уровень комфорта и приятных ощущений сочетается с особенной структурой. Tingle-эффект является уникальным свойством Big Pen. Это чувство покалывания и дрожи, которое возникает за счет быстрого проникновения активных компонентов и дает реальное ощущение происходящих изменений. Крем обогащен натуральными компонентами. Смесь экстрактов (каштан конский, гинко билоба, иглица шиповатая) эффективно укрепляет стенки кровеносных сосудов и улучшает кровообращение, делает соединительные ткани эластичными и легко растяжимыми. Южноамериканское дерево потенции муира пуама с древних времен используется в народной медицине в качестве средства, которое то, что мягкое, делает твердым. Женьшень оказывает тонизирующее и стимулирующее действие. Природный афродизиак имбирь вызывает и усиливает половое влечение. Применение: ежедневно (в течение курса 10-14 дней) наносите крем на ствол и головку полового члена массирующими движениями до полного впитывания. После чего приступайте к специальным упражнениям. Длительность занятий пенбилдингом в среднем составляет 15-20 минут в день. Упражнения подробно описаны в инструкции, прилагаемой к крему Big Pen. Крем для увеличения пениса BIG PEN (50 г).  Крем для увеличения пениса BIG PEN (50 г). Модель: bioritm-12841. Косметика, препараты. Увеличение пениса &gt; Кремы, препараты. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Потрясающая парфюмированная композиция с феромонами Sexy Sweet вскружит голову, заворожит, разбудит эротическую фантазию! Её яркий аромат в сочетании с феромонами раскроет чувственность и сексуальность, раскрепостит, поможет создать свой неповторимый соблазнительный образ.Sexy Sweet работает на подсознательном уровне, без видимых усилий привлекая внимание, возбуждая и вызывая желание заняться любовью.Обладательница аппетитной новинки станет объектом обожания, пробудит желание вкусить все её прелести и подарить невероятное наслаждение!.Арома средство для тела с феромонами SEXY SWEET JUICY MANGO с ароматом манго (10 мл).  Арома средство для тела с феромонами SEXY SWEET JUICY MANGO с ароматом манго (10 мл). Модель: bioritm-16123. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -12237,17 +12595,17 @@
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t>10 мл</t>
         </is>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t>10 мл</t>
         </is>
       </c>
       <c r="W97" t="inlineStr"/>
@@ -12293,7 +12651,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Средства с феромонами</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -12304,17 +12662,17 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Масло Eros для эротического массажа с</t>
+          <t>Арома средство для тела с феромонами</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>id-18397-1299</t>
+          <t>id-26860-1299</t>
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
@@ -12328,15 +12686,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26860/26860_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26860/26860_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26860/26860_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26860/26860_4_650.jpg</t>
+        </is>
+      </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Побалуйте себя великолепным ароматом. Масло для эротического массажа Eros fantasy вызывает ощущение тепла, особенно при дуновении. Повышает чувствительность. Имеет приятный аромат земляники и сладкий вкус. Eros fantasy обеспечивают длительное скольжение. Легко смывается водой. Масло Eros для эротического массажа с ароматом земляники (75 мл).  Масло Eros для эротического массажа с ароматом земляники (75 мл). Модель: bioritm-13015. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Потрясающая парфюмированная композиция с феромонами Sexy Sweet вскружит голову, заворожит, разбудит эротическую фантазию! Её яркий аромат в сочетании с феромонами раскроет чувственность и сексуальность, раскрепостит, поможет создать свой неповторимый соблазнительный образ.Sexy Sweet работает на подсознательном уровне, без видимых усилий привлекая внимание, возбуждая и вызывая желание заняться любовью.Обладательница аппетитной новинки станет объектом обожания, пробудит желание вкусить все её прелести и подарить невероятное наслаждение!.Арома средство для тела с феромонами SEXY SWEET FRESH ORANGE с ароматом апельсина (10 мл).  Арома средство для тела с феромонами SEXY SWEET FRESH ORANGE с ароматом апельсина (10 мл). Модель: bioritm-16124. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P98" t="inlineStr">
@@ -12353,17 +12715,17 @@
       <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr">
         <is>
-          <t>75 мл</t>
+          <t>10 мл</t>
         </is>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>10</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>75 мл</t>
+          <t>10 мл</t>
         </is>
       </c>
       <c r="W98" t="inlineStr"/>
@@ -12409,7 +12771,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Средства с феромонами</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -12420,17 +12782,17 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Массажное масло с феромонами ZODIAC AIR</t>
+          <t>Арома средство для тела с феромонами</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>id-26854-1299</t>
+          <t>id-26862-1299</t>
         </is>
       </c>
       <c r="H99" t="inlineStr"/>
@@ -12444,10 +12806,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26862/26862_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26862/26862_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26862/26862_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26862/26862_4_650.jpg</t>
+        </is>
+      </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Аромат масла подобран специально для знаков зодиака стихии Воздух. Он раскроет чувственность и романтичность воздушных знаков. Феромоны усилят притягательность партнёров. Масло обеспечивает равномерное и длительное скольжение, придаёт коже мягкость и шелковистость, делает её нежной, приятной для прикосновений.Способ применения: перед массажем разогрейте масло в ладонях, нанесите на кожу лёгкими массирующими движениями. Массажное масло с феромонами ZODIAC AIR (75 мл).  Массажное масло с феромонами ZODIAC AIR (75 мл). Модель: bioritm-13019. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Потрясающая парфюмированная композиция с феромонами Sexy Sweet вскружит голову, заворожит, разбудит эротическую фантазию! Её яркий аромат в сочетании с феромонами раскроет чувственность и сексуальность, раскрепостит, поможет создать свой неповторимый соблазнительный образ.Sexy Sweet работает на подсознательном уровне, без видимых усилий привлекая внимание, возбуждая и вызывая желание заняться любовью.Обладательница аппетитной новинки станет объектом обожания, пробудит желание вкусить все её прелести и подарить невероятное наслаждение!.Арома средство для тела с феромонами SEXY SWEET BANANA SPLIT с ароматом банана (10 мл).  Арома средство для тела с феромонами SEXY SWEET BANANA SPLIT с ароматом банана (10 мл). Модель: bioritm-16125. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -12469,17 +12835,17 @@
       <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr">
         <is>
-          <t>75 мл</t>
+          <t>10 мл</t>
         </is>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>10</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>75 мл</t>
+          <t>10 мл</t>
         </is>
       </c>
       <c r="W99" t="inlineStr"/>
@@ -12525,7 +12891,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -12541,12 +12907,12 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Массажное масло с феромонами ZODIAC</t>
+          <t>Восстанавливающая смазка с прополисом</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>id-26855-1299</t>
+          <t>id-12821-1299</t>
         </is>
       </c>
       <c r="H100" t="inlineStr"/>
@@ -12560,10 +12926,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12821/12821_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12821/12821_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12821/12821_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t xml:space="preserve">Аромат масла подобран специально для знаков зодиака стихии Огня. Он раскроет дерзость и страстность огненных знаков. Феромоны усилят притягательность партнёров. Масло обеспечивает равномерное и длительное скольжение, придаёт коже мягкость и шелковистость, делает её нежной, приятной для прикосновений.Способ применения: перед массажем разогрейте масло в ладонях, нанесите на кожу лёгкими массирующими движениями. Массажное масло с феромонами ZODIAC FIRE (75 мл).  Массажное масло с феромонами ZODIAC FIRE (75 мл). Модель: bioritm-13020. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Прополис  один из важнейших продуктов пчеловодства. Его химический состав включает в числе прочих и 10 жизненно необходимых витаминов, среди которых В1, В2, В6, А, Е, никотиновая и пантотеновая кислоты. Благодаря удачному сочетанию компонентов гель-лубрикант Услада с прополисом способствует быстрому восстановлению поврежденной слизистой, подавляет зуд и воспаление, при этом, сохраняя здоровую микрофлору. Услада с прополисом обладает уникальной способностью ускорять обновление тканей, оказывает дезодорирующее действие, препятствуя появлению неприятного запаха. Хорошо имитирует естественную женскую смазку. Обеспечивает нежное проникновение, длительное скольжение и сохранение целостности слизистых. Рекомендуется использовать после гинекологических операций и родов для более быстрого возвращения к нормальной сексуальной жизни. Применение: перед интимной близостью нанесите тонким слоем на половые органы. Для деликатного ухода за слизистой нанесите небольшое количество геля на вход во влагалище 1-2 раза в день после гигиенических процедур. Восстанавливающая смазка с прополисом Услада (30 г).  Восстанавливающая смазка с прополисом Услада (30 г). Модель: bioritm-16388. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -12585,17 +12955,17 @@
       <c r="S100" t="inlineStr"/>
       <c r="T100" t="inlineStr">
         <is>
-          <t>75 мл</t>
+          <t>30 г</t>
         </is>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>30</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>75 мл</t>
+          <t>30 г</t>
         </is>
       </c>
       <c r="W100" t="inlineStr"/>
@@ -12641,7 +13011,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -12652,17 +13022,17 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Массажное масло с феромонами ZODIAC</t>
+          <t>Антибактериальная смазка УСЛАДА с</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>id-26856-1299</t>
+          <t>id-12977-1299</t>
         </is>
       </c>
       <c r="H101" t="inlineStr"/>
@@ -12676,10 +13046,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12977/12977_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12977/12977_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12977/12977_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Аромат масла подобран специально для знаков зодиака стихии Земля. Он раскроет пылкость и раскрепощённость земных знаков. Феромоны усилят притягательность партнёров. Масло обеспечивает равномерное и длительное скольжение, придаёт коже мягкость и шелковистость, делает её нежной, приятной для прикосновений.Способ применения: перед массажем разогрейте масло в ладонях, нанесите на кожу лёгкими массирующими движениями. Массажное масло с феромонами ZODIAC TERRA (75 мл).  Массажное масло с феромонами ZODIAC TERRA (75 мл). Модель: bioritm-13021. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Коллоидное серебро - это полностью натуральный продукт. Его безопасная и эффективная форма используется в качестве природного антисептика и как дезинфицирующее средство широкого спектра действия, способное значительно снизить остроту и длительность многих инфекционных заболеваний. Активно работает против 700 видов бактерий, вирусов и грибков. Гель-лубрикант Услада с серебром обеспечивает защиту слизистых от повреждений и препятствует распространению патогенных микробов во время полового акта. Рекомендуется использовать в качестве профилактики развития микроорганизмов, вызывающих дискомфортные ощущения в области влагалища (зуд, жжение). Гель-лубрикант Услада с серебром хорошо имитирует естественную женскую смазку. Обеспечивает нежное проникновение и длительное скольжение. Применение: перед интимной близостью нанесите тонким слоем на половые органы. Для деликатного ухода за слизистой нанесите небольшое количество геля на вход во влагалище 1-2 раза в день после гигиенических процедур. Антибактериальная смазка УСЛАДА с серебром (30 г).  Антибактериальная смазка УСЛАДА с серебром (30 г). Модель: bioritm-16390. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -12701,17 +13075,17 @@
       <c r="S101" t="inlineStr"/>
       <c r="T101" t="inlineStr">
         <is>
-          <t>75 мл</t>
+          <t>30 г</t>
         </is>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>30</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>75 мл</t>
+          <t>30 г</t>
         </is>
       </c>
       <c r="W101" t="inlineStr"/>

--- a/!parsed_items_100/1299/1299_99-200.xlsx
+++ b/!parsed_items_100/1299/1299_99-200.xlsx
@@ -639,7 +639,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Сувениры эротик</t>
+          <t>Стрэпы эротик</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -650,21 +650,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Брелок-гитара</t>
+          <t>Кожаная портупея Aphrodite</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>id-27993-1299</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>id-26778-1299</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
         <v>99999</v>
@@ -676,12 +684,12 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27993/27993_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27993/27993_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26778/26778_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26778/26778_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26778/26778_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26778/26778_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26778/26778_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26778/26778_6_650.jpg</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Брелок для ключей, выполненный из качественной натуральной кожи. Оригинальный брелок-гитара - отличный подарок для мужчины, подарок для ребенка, подарок для девушки, подарок коллегам или просто подарок на память. Кожаный брелок имеет надежное металлическое кольцо для крепления, корпус гитары двуслойный кожаный, прошит по краю, поэтому прослужит долго и не растреплется. Брелок из кожи на ключи имеет удобную форму, теперь Ваши ключи не затеряются в сумке! Аксессуар прекрасно подойдет, как брелок для сумки, брелок детский, брелок для кошелька, брелок для машины, ключница автомобильная, брелок на рюкзак, брелок для авто или любой вещи по вашему желанию. Очень оригинальный и стильный аксессуар. Яркий подарок ребенку, подарок парню, подарок девушке!.Брелок-гитара.  Брелок-гитара. Модель: bdsmars-141. Приколы. Эротические сувениры &gt; Сувениры. Цвет: коричневый, серебряный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Сексуальная портупея из натуральной кожи черного цвета, декорирована металлическими кольцами. Два длинных ремешка крест-накрест застегиваются вокруг талии, добавляя любому вашему образу изюминку. Аксессуар можно носить, как кольцом вперед, так и кольцом назад, Размер удобно регулируется благодаря трём металлическим пряжкам. Расстояние от кольца до кольца 23 см, максимальный обхват в талии 85 см. Размер регулируется и подойдет от 40 до 48. Кожаная портупея Aphrodite.  Кожаная портупея Aphrodite. Модель: bdsmars-300-02. БДСМ. БДСМ товары и фетиш &gt; Одежда и белье для женщин. Аксессуары, украшения для тела &gt; Портупеи, стрэпы. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -691,12 +699,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -716,21 +724,11 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>10.45</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>9.5</v>
-      </c>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr"/>
@@ -769,7 +767,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Маски эротик</t>
+          <t>Стрэпы эротик</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -785,12 +783,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Кожаная красная маска с мехом</t>
+          <t>Портупея Aurora SM</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>id-27324-1299</t>
+          <t>id-26773-1299</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -814,12 +812,12 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27324/27324_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27324/27324_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26773/26773_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26773/26773_2_650.jpg</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Игривая маска красного цвета выполнена из натуральной кожи. Ушки маски украшены нежным белым эко-мехом, что придаёт ей изящности. Фиксируется сзади с помощью металлической пряжки, позволяя выбрать комфортный обхват головы. Форма макси эффектно подчеркивает глаза и создаёт необычный образ. Кожаная красная маска с мехом.  Кожаная красная маска с мехом. Модель: bdsmars-20022. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Аксессуары, украшения для тела &gt; Аксессуары. Аксессуары для игр &gt; Наборы и аксессуары. Эротическое белье для женщин &gt; Маскарадные маски. Цвет: красный с белым. Материал: натуральная кожа, искусственный мех. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Необычная портупея из натуральной кожи черного цвета. Интересно подчеркивает женскую фигуру, придает изящность силуэту. Размер удобно регулируется на шее и на поясе благодаря металлическим пряжкам. Подходит на размер от 42 до 46. Этот аксессуар можно использовать как для украшения повседневного наряда, так и для создания эротического образа!.Портупея Aurora SM.  Портупея Aurora SM. Модель: bdsmars-300-03. БДСМ. БДСМ товары и фетиш &gt; Одежда и белье для женщин. Аксессуары, украшения для тела &gt; Портупеи, стрэпы. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -829,17 +827,17 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>натуральная кожа, искусственный мех</t>
+          <t>натуральная кожа, металл</t>
         </is>
       </c>
       <c r="S3" t="inlineStr"/>
@@ -897,7 +895,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Маски эротик</t>
+          <t>Стрэпы эротик</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -913,22 +911,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Кожаная белая маска с мехом</t>
+          <t>Боди-портупея Hera SM</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>id-27323-1299</t>
+          <t>id-26772-1299</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>42-46</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -942,12 +940,12 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27323/27323_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27323/27323_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26772/26772_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26772/26772_2_650.jpg</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Игривая маска белого цвета выполнена из натуральной кожи. Ушки маски украшены нежным белым эко-мехом, что придаёт ей изящности. Фиксируется сзади с помощью металлической пряжки, позволяя выбрать комфортный обхват головы. Форма макси эффектно подчеркивает глаза и создаёт необычный образ. Кожаная белая маска с мехом.  Кожаная белая маска с мехом. Модель: bdsmars-20023. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Аксессуары, украшения для тела &gt; Аксессуары. Аксессуары для игр &gt; Наборы и аксессуары. Эротическое белье для женщин &gt; Маскарадные маски. Цвет: белый. Материал: натуральная кожа, искусственный мех. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Портупея-боди выполнена из натуральной кожи черного цвета.Декорирована портупея металлической фурнитурой. Подойдет на размеры S.M (42-46), пряжки позволяют легко отрегулировать аксессуар по размеру.Очень сексуальная портупея, которая поможет Вам создать неповторимый эротический образ!.Боди-портупея Hera SM.  Боди-портупея Hera SM. Модель: bdsmars-300-04. БДСМ. БДСМ товары и фетиш &gt; Одежда и белье для женщин. Аксессуары, украшения для тела &gt; Портупеи, стрэпы. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -957,17 +955,17 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>натуральная кожа, искусственный мех</t>
+          <t>натуральная кожа, металл</t>
         </is>
       </c>
       <c r="S4" t="inlineStr"/>
@@ -1041,12 +1039,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Портупея Demetra из черной кожи</t>
+          <t>Кожаная портупея Diane с двойным</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>id-26777-1299</t>
+          <t>id-26776-1299</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1070,12 +1068,12 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26777/26777_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26777/26777_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26777/26777_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26777/26777_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26777/26777_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26776/26776_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26776/26776_2_650.jpg</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Стильная черная портупея из натуральной кожи, декорирована металлическими кольцами. Модель аксессуара позволяет надевать его любой стороной, как кольцом вперед, так и назад, что делает портупею отличным ярким дополнением для любого образа! Благодаря трём металлическим пряжкам размер регулируется и прекрасно подойдет на размер от 40 до 48. Расстояние от кольца до поясного ремешка 22 см, максимальный обхват талии 100 см. Портупея Demetra из черной кожи.  Портупея Demetra из черной кожи. Модель: bdsmars-300-01. БДСМ. БДСМ товары и фетиш &gt; Одежда и белье для женщин. Аксессуары, украшения для тела &gt; Портупеи, стрэпы. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Изящная портупея из натуральной кожи черного цвета. Она может стать незаменимым аксессуаром для Вашего неповторимого образа. Благодаря 4 пряжкам, расположенным на плечах и на поясе, размер удобно регулировать и менять положение аксессуара по вашему желанию. Размер универсальный - легко регулируется от S до L (42-48). Кожаная портупея Diane с двойным ремешком.  Кожаная портупея Diane с двойным ремешком. Модель: bdsmars-300-05. БДСМ. БДСМ товары и фетиш &gt; Одежда и белье для женщин. Аксессуары, украшения для тела &gt; Портупеи, стрэпы. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1169,12 +1167,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Кожаная портупея Aphrodite</t>
+          <t>Портупея Aura с цепями</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>id-26778-1299</t>
+          <t>id-26775-1299</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1198,12 +1196,12 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26778/26778_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26778/26778_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26778/26778_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26778/26778_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26778/26778_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26778/26778_6_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26775/26775_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26775/26775_2_650.jpg</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сексуальная портупея из натуральной кожи черного цвета, декорирована металлическими кольцами. Два длинных ремешка крест-накрест застегиваются вокруг талии, добавляя любому вашему образу изюминку. Аксессуар можно носить, как кольцом вперед, так и кольцом назад, Размер удобно регулируется благодаря трём металлическим пряжкам. Расстояние от кольца до кольца 23 см, максимальный обхват в талии 85 см. Размер регулируется и подойдет от 40 до 48. Кожаная портупея Aphrodite.  Кожаная портупея Aphrodite. Модель: bdsmars-300-02. БДСМ. БДСМ товары и фетиш &gt; Одежда и белье для женщин. Аксессуары, украшения для тела &gt; Портупеи, стрэпы. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Сексуальная портупея выполнена из натуральной кожи черного цвета и металлических цепочек. На груди в центре находится металлическое кольцо, от которого в стороны расходятся по пять цепей, ширина кожаных ремешков 1,5 см. Цепочки очень красиво выделяют грудь, а кожаная лента подчеркивает талию. Эта портупея сделает Ваш образ по-настоящему особенным. Пряжки на шее и на поясе позволяют выбрать нужный  размер, он легко регулируется от S до L (40-48). Портупея идеально сочетается с поясом Aura. Портупея Aura с цепями.  Портупея Aura с цепями. Модель: bdsmars-300-08. БДСМ. БДСМ товары и фетиш &gt; Одежда и белье для женщин. Аксессуары, украшения для тела &gt; Портупеи, стрэпы. Цвет: черный с серебристым. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1281,7 +1279,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Стрэпы эротик</t>
+          <t>Пояса эротик</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -1297,12 +1295,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Портупея Aurora SM</t>
+          <t>Пояс Aura с цепями</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>id-26773-1299</t>
+          <t>id-26779-1299</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1326,12 +1324,12 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26773/26773_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26773/26773_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26779/26779_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26779/26779_2_650.jpg</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Необычная портупея из натуральной кожи черного цвета. Интересно подчеркивает женскую фигуру, придает изящность силуэту. Размер удобно регулируется на шее и на поясе благодаря металлическим пряжкам. Подходит на размер от 42 до 46. Этот аксессуар можно использовать как для украшения повседневного наряда, так и для создания эротического образа!.Портупея Aurora SM.  Портупея Aurora SM. Модель: bdsmars-300-03. БДСМ. БДСМ товары и фетиш &gt; Одежда и белье для женщин. Аксессуары, украшения для тела &gt; Портупеи, стрэпы. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Стильный поясок из натуральной черной кожи, декорирован 4 металлическими кольцами, к которым крепятся цепочки. Ширина ремешка 1,5см, благодаря пряжке размер удобно регулировать. Данный аксессуар отлично подчеркнет фигуру и добавит изящности образу. Идеально сочетается с портупеей Aura. Пояс Aura с цепями.  Пояс Aura с цепями. Модель: bdsmars-300-09. БДСМ. БДСМ товары и фетиш &gt; Одежда и белье для женщин. Цвет: черный с серебристым. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1409,7 +1407,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Стрэпы эротик</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -1425,22 +1423,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Боди-портупея Hera SM</t>
+          <t>Атласный чокер с поводком Romantic</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>id-26772-1299</t>
+          <t>id-26783-1299</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>42-46</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -1454,12 +1452,12 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26772/26772_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26772/26772_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26783/26783_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26783/26783_2_650.jpg</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Портупея-боди выполнена из натуральной кожи черного цвета.Декорирована портупея металлической фурнитурой. Подойдет на размеры S.M (42-46), пряжки позволяют легко отрегулировать аксессуар по размеру.Очень сексуальная портупея, которая поможет Вам создать неповторимый эротический образ!.Боди-портупея Hera SM.  Боди-портупея Hera SM. Модель: bdsmars-300-04. БДСМ. БДСМ товары и фетиш &gt; Одежда и белье для женщин. Аксессуары, украшения для тела &gt; Портупеи, стрэпы. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Изящный атласный чокер с поводком черного цвета, очень приятный на коже. По центру декорирован металлическим кольцом, к которому крепится поводок. Длина ленты чокера 95 см позволяет подобрать комфортный обхват и красиво завязать по вашему желанию. Поводок крепится при помощи металлического карабина, внутри ленты расположена эластичная резинка, позволяющая увеличить длину поводка с 45 см до 70 см при натяжении. При желании его можно отстегнуть и использовать по отдельности. Этот волнующий аксессуар станет не только помощником во время вечера в стиле BDSM Light, но и полноценным ярким дополнением к вашему образу для особенного мероприятия!.Атласный чокер с поводком Romantic Arsenal.  Атласный чокер с поводком Romantic Arsenal. Модель: bdsmars-3102-01. БДСМ. Аксессуары, украшения для тела &gt; Аксессуары. Аксессуары для игр &gt; Наборы и аксессуары. Цвет: черный. Материал: полиэстер, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1469,17 +1467,17 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>натуральная кожа, металл</t>
+          <t>полиэстер, металл</t>
         </is>
       </c>
       <c r="S8" t="inlineStr"/>
@@ -1517,7 +1515,7 @@
       <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>чокер, поводок с карабином</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
@@ -1537,7 +1535,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Стрэпы эротик</t>
+          <t>Наручники эротик</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -1553,12 +1551,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Кожаная портупея Diane с двойным</t>
+          <t>Атласные манжеты с соединением Romantic</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>id-26776-1299</t>
+          <t>id-26785-1299</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1582,12 +1580,12 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26776/26776_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26776/26776_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26785/26785_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26785/26785_2_650.jpg</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Изящная портупея из натуральной кожи черного цвета. Она может стать незаменимым аксессуаром для Вашего неповторимого образа. Благодаря 4 пряжкам, расположенным на плечах и на поясе, размер удобно регулировать и менять положение аксессуара по вашему желанию. Размер универсальный - легко регулируется от S до L (42-48). Кожаная портупея Diane с двойным ремешком.  Кожаная портупея Diane с двойным ремешком. Модель: bdsmars-300-05. БДСМ. БДСМ товары и фетиш &gt; Одежда и белье для женщин. Аксессуары, украшения для тела &gt; Портупеи, стрэпы. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Потрясающе нежные и утонченные браслеты из черных атласных лент, они никого не оставят равнодушным! Длина каждого браслета 95 см, что делает размер универсальным и позволяет красиво и оригинально завязать аксессуар по вашему желанию. Ширина лент по краям 7 см, к центру сужается до 3 см. В центре расположены металлические полукольца к которым крепится соединение на карабинах. Внутри ленты соединения имеется эластичная резинка, позволяющая увеличить его длину с 15 до 20 см. Игривый и многофункциональный аксессуар добавит волшебства в ваши BDSM фантазии!.Атласные манжеты с соединением Romantic Arsenal.  Атласные манжеты с соединением Romantic Arsenal. Модель: bdsmars-3103-01. БДСМ. БДСМ товары и фетиш &gt; Наручники, фиксаторы на руки. Аксессуары для игр &gt; Наборы и аксессуары. Цвет: черный. Материал: полиэстер, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1597,17 +1595,17 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>натуральная кожа, металл</t>
+          <t>полиэстер, металл</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
@@ -1645,7 +1643,7 @@
       <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>два манжета, соединитель с карабинами</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
@@ -1665,7 +1663,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Стрэпы эротик</t>
+          <t>Маски эротик</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -1676,27 +1674,27 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Портупея Aura с цепями</t>
+          <t>Красная атласная лента Romantic Arsenal</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>id-26775-1299</t>
+          <t>id-27984-1299</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>40-42</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -1710,12 +1708,12 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26775/26775_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26775/26775_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27984/27984_1_650.jpg</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сексуальная портупея выполнена из натуральной кожи черного цвета и металлических цепочек. На груди в центре находится металлическое кольцо, от которого в стороны расходятся по пять цепей, ширина кожаных ремешков 1,5 см. Цепочки очень красиво выделяют грудь, а кожаная лента подчеркивает талию. Эта портупея сделает Ваш образ по-настоящему особенным. Пряжки на шее и на поясе позволяют выбрать нужный  размер, он легко регулируется от S до L (40-48). Портупея идеально сочетается с поясом Aura. Портупея Aura с цепями.  Портупея Aura с цепями. Модель: bdsmars-300-08. БДСМ. БДСМ товары и фетиш &gt; Одежда и белье для женщин. Аксессуары, украшения для тела &gt; Портупеи, стрэпы. Цвет: черный с серебристым. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Нежная и волнующая воображение лента для глаз, выполненная из красного атласа. Длина ленты 115см, а ширина 7см, ее можно красиво завязать по вашему желанию, а так же, использовать не только на глаза, но и в других вариациях, стоит лишь включить фантазию! Этот волшебный аксессуар сделает ваш вечер незабываемым, обострит ощущения, подарит яркие эмоции и откроет новые грани удовольствия!.Красная атласная лента Romantic Arsenal.  Красная атласная лента Romantic Arsenal. Модель: bdsmars-3104-02. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Аксессуары для игр &gt; Наборы и аксессуары. БДСМ товары и фетиш &gt; Веревки, скотч для тела. Цвет: красный. Материал: полиэстер. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1725,17 +1723,17 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>натуральная кожа, металл</t>
+          <t>полиэстер</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
@@ -1793,7 +1791,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Пояса эротик</t>
+          <t>Плетки эротик</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -1804,27 +1802,27 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Пояс Aura с цепями</t>
+          <t>Плеть из натуральной кожи с атласной</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>id-26779-1299</t>
+          <t>id-26784-1299</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>46-48</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -1838,12 +1836,12 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26779/26779_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26779/26779_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26784/26784_1_650.jpg</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Стильный поясок из натуральной черной кожи, декорирован 4 металлическими кольцами, к которым крепятся цепочки. Ширина ремешка 1,5см, благодаря пряжке размер удобно регулировать. Данный аксессуар отлично подчеркнет фигуру и добавит изящности образу. Идеально сочетается с портупеей Aura. Пояс Aura с цепями.  Пояс Aura с цепями. Модель: bdsmars-300-09. БДСМ. БДСМ товары и фетиш &gt; Одежда и белье для женщин. Цвет: черный с серебристым. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Изящная, притягивающая внимание плеть из натуральной кожи. Плеть имеет 34 мягких кожаных хвоста. Нежный, но властный аксессуар для пикантной BDSM игры. Ручка плети декорирована черной атласной лентой, длина ручки 17см, диаметр 2см., их длина 33см. Общая длина изделия 50см. Плеть из натуральной кожи с атласной ручкой Romantic Arsenal.  Плеть из натуральной кожи с атласной ручкой Romantic Arsenal. Модель: bdsmars-3105-01. БДСМ. БДСМ товары и фетиш &gt; Плетки, стеки, шлепалки. Цвет: черный. Материал: натуральная кожа, атлас. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1853,17 +1851,17 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>натуральная кожа, металл</t>
+          <t>натуральная кожа, атлас</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
@@ -1921,7 +1919,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Плетки эротик</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -1932,17 +1930,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Атласный чокер с поводком Romantic</t>
+          <t>Шлепалка из натуральной кожи с атласом</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>id-26783-1299</t>
+          <t>id-26780-1299</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1966,12 +1964,12 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26783/26783_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26783/26783_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26780/26780_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26780/26780_2_650.jpg</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Изящный атласный чокер с поводком черного цвета, очень приятный на коже. По центру декорирован металлическим кольцом, к которому крепится поводок. Длина ленты чокера 95 см позволяет подобрать комфортный обхват и красиво завязать по вашему желанию. Поводок крепится при помощи металлического карабина, внутри ленты расположена эластичная резинка, позволяющая увеличить длину поводка с 45 см до 70 см при натяжении. При желании его можно отстегнуть и использовать по отдельности. Этот волнующий аксессуар станет не только помощником во время вечера в стиле BDSM Light, но и полноценным ярким дополнением к вашему образу для особенного мероприятия!.Атласный чокер с поводком Romantic Arsenal.  Атласный чокер с поводком Romantic Arsenal. Модель: bdsmars-3102-01. БДСМ. Аксессуары, украшения для тела &gt; Аксессуары. Аксессуары для игр &gt; Наборы и аксессуары. Цвет: черный. Материал: полиэстер, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Оригинальный и яркий аксессуар выполнен из натуральной кожи, шлепок декорирован черной атласной лентой. Размеры шлепка 20х5 см. На рукоятке имеется декоративный элемент из кожи. Звук при хлопке очень эффектный. Эта необычная изящная шлепалка станет незаменимой изюминкой в ваших BDSM играх!.Шлепалка из натуральной кожи с атласом Romantic Arsenal.  Шлепалка из натуральной кожи с атласом Romantic Arsenal. Модель: bdsmars-3106-01. БДСМ. БДСМ товары и фетиш &gt; Плетки, стеки, шлепалки. Цвет: черный. Материал: натуральная кожа, атлас. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1991,7 +1989,7 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>полиэстер, металл</t>
+          <t>натуральная кожа, атлас</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
@@ -2029,7 +2027,7 @@
       <c r="AM12" t="inlineStr"/>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>чокер, поводок с карабином</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
@@ -2049,7 +2047,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Наручники эротик</t>
+          <t>Маски эротик</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -2060,17 +2058,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Атласные манжеты с соединением Romantic</t>
+          <t>Двусторонняя черная маска из эко-кожи</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>id-26785-1299</t>
+          <t>id-27868-1299</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2094,12 +2092,12 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26785/26785_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26785/26785_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27868/27868_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27868/27868_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27868/27868_3_650.jpg</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Потрясающе нежные и утонченные браслеты из черных атласных лент, они никого не оставят равнодушным! Длина каждого браслета 95 см, что делает размер универсальным и позволяет красиво и оригинально завязать аксессуар по вашему желанию. Ширина лент по краям 7 см, к центру сужается до 3 см. В центре расположены металлические полукольца к которым крепится соединение на карабинах. Внутри ленты соединения имеется эластичная резинка, позволяющая увеличить его длину с 15 до 20 см. Игривый и многофункциональный аксессуар добавит волшебства в ваши BDSM фантазии!.Атласные манжеты с соединением Romantic Arsenal.  Атласные манжеты с соединением Romantic Arsenal. Модель: bdsmars-3103-01. БДСМ. БДСМ товары и фетиш &gt; Наручники, фиксаторы на руки. Аксессуары для игр &gt; Наборы и аксессуары. Цвет: черный. Материал: полиэстер, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Стильная чёрная маска на глаза выполнена из искусственной кожи. Одна сторона маски выполнена из блестящего материала, а другая - из матового, что позволяет при желании носить маску любой стороной на выбор. Мягкая резинка будет комфортно ощущаться во время носки. Удобная, красивая, экономичная и экологичная маска!.Двусторонняя черная маска из эко-кожи.  Двусторонняя черная маска из эко-кожи. Модель: bdsmars-50001. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Цвет: черный. Материал: эко кожа. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -2119,7 +2117,7 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>полиэстер, металл</t>
+          <t>эко кожа</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
@@ -2157,7 +2155,7 @@
       <c r="AM13" t="inlineStr"/>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>два манжета, соединитель с карабинами</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
@@ -2193,22 +2191,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Красная атласная лента Romantic Arsenal</t>
+          <t>Двусторонняя черно-красная маска из</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>id-27984-1299</t>
+          <t>id-27867-1299</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>40-42</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -2222,12 +2220,12 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27984/27984_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27867/27867_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27867/27867_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27867/27867_3_650.jpg</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нежная и волнующая воображение лента для глаз, выполненная из красного атласа. Длина ленты 115см, а ширина 7см, ее можно красиво завязать по вашему желанию, а так же, использовать не только на глаза, но и в других вариациях, стоит лишь включить фантазию! Этот волшебный аксессуар сделает ваш вечер незабываемым, обострит ощущения, подарит яркие эмоции и откроет новые грани удовольствия!.Красная атласная лента Romantic Arsenal.  Красная атласная лента Romantic Arsenal. Модель: bdsmars-3104-02. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Аксессуары для игр &gt; Наборы и аксессуары. БДСМ товары и фетиш &gt; Веревки, скотч для тела. Цвет: красный. Материал: полиэстер. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Стильная красная маска на глаза выполнена из искусственной кожи. Одна сторона маски выполнена из блестящего красного материала, а другая - из матового черного, что позволяет при желании носить маску любой стороной на выбор. Мягкая резинка будет комфортно ощущаться во время носки. Удобная, красивая, экономичная и экологичная маска!.Двусторонняя черно-красная маска из эко-кожи.  Двусторонняя черно-красная маска из эко-кожи. Модель: bdsmars-50002. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Цвет: черный, красный. Материал: эко кожа. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -2237,17 +2235,17 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>полиэстер</t>
+          <t>эко кожа</t>
         </is>
       </c>
       <c r="S14" t="inlineStr"/>
@@ -2305,7 +2303,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Шлепалки эротик</t>
+          <t>Маски эротик</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -2321,22 +2319,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Плеть из натуральной кожи с атласной</t>
+          <t>Двусторонняя маска с ушками из эко-кожи</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>id-26784-1299</t>
+          <t>id-27866-1299</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -2350,12 +2348,12 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26784/26784_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27866/27866_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27866/27866_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27866/27866_3_650.jpg</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Изящная, притягивающая внимание плеть из натуральной кожи. Плеть имеет 34 мягких кожаных хвоста. Нежный, но властный аксессуар для пикантной BDSM игры. Ручка плети декорирована черной атласной лентой, длина ручки 17см, диаметр 2см., их длина 33см. Общая длина изделия 50см. Плеть из натуральной кожи с атласной ручкой Romantic Arsenal.  Плеть из натуральной кожи с атласной ручкой Romantic Arsenal. Модель: bdsmars-3105-01. БДСМ. БДСМ товары и фетиш &gt; Плетки, стеки, шлепалки. Цвет: черный. Материал: натуральная кожа, атлас. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Игривая маска с ушками выполнена из черной эко-кожи. Лицевая сторона сделана из лакового материала, а оборотная из матового, что позволяет по желанию носить аксессуар любой стороной. Эластичная резинка обеспечит комфорт во время носки. Красивая, элегантная форма эффектно подчеркнет глаза и добавит загадочности образу. Экономичный, экологичный и просто красивый аксессуар!.Двусторонняя маска с ушками из эко-кожи.  Двусторонняя маска с ушками из эко-кожи. Модель: bdsmars-50003. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Цвет: черный. Материал: эко кожа. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -2365,17 +2363,17 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>натуральная кожа, атлас</t>
+          <t>эко кожа</t>
         </is>
       </c>
       <c r="S15" t="inlineStr"/>
@@ -2433,7 +2431,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Шлепалки эротик</t>
+          <t>Комплекты БДСМ</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -2444,17 +2442,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Шлепалка из натуральной кожи с атласом</t>
+          <t>Стринги из эко-кожи с бантиком</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>id-26780-1299</t>
+          <t>id-27870-1299</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -2478,12 +2476,12 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26780/26780_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26780/26780_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27870/27870_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27870/27870_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27870/27870_3_650.jpg</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Оригинальный и яркий аксессуар выполнен из натуральной кожи, шлепок декорирован черной атласной лентой. Размеры шлепка 20х5 см. На рукоятке имеется декоративный элемент из кожи. Звук при хлопке очень эффектный. Эта необычная изящная шлепалка станет незаменимой изюминкой в ваших BDSM играх!.Шлепалка из натуральной кожи с атласом Romantic Arsenal.  Шлепалка из натуральной кожи с атласом Romantic Arsenal. Модель: bdsmars-3106-01. БДСМ. БДСМ товары и фетиш &gt; Плетки, стеки, шлепалки. Цвет: черный. Материал: натуральная кожа, атлас. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Сексуальные черные стринги выполнены из эко-кожи. Декорированы спереди бантиком. Лицевая сторона выполнена из лакового материала, а внутренняя из матового. Благодаря эластичной резинке, отлично сядут по фигуре, подойдут на размеры 40-46. Очень красивая и удобная модель, которая поможет создать дерзкий сексуальный образ для вашей любовной игры!.Стринги из эко-кожи с бантиком.  Стринги из эко-кожи с бантиком. Модель: bdsmars-50005. БДСМ. БДСМ товары и фетиш &gt; Одежда и белье для женщин. Цвет: черный. Материал: эко кожа, полиэстер, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -2493,17 +2491,17 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>натуральная кожа, атлас</t>
+          <t>эко кожа, полиэстер, металл</t>
         </is>
       </c>
       <c r="S16" t="inlineStr"/>
@@ -2561,7 +2559,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Маски эротик</t>
+          <t>Наручники эротик</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -2572,17 +2570,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Двусторонняя черная маска из эко-кожи</t>
+          <t>Наручники из эко-кожи с бантиками</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>id-27868-1299</t>
+          <t>id-27861-1299</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -2606,12 +2604,12 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27868/27868_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27868/27868_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27868/27868_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27861/27861_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27861/27861_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27861/27861_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27861/27861_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27861/27861_5_650.jpg</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Стильная чёрная маска на глаза выполнена из искусственной кожи. Одна сторона маски выполнена из блестящего материала, а другая - из матового, что позволяет при желании носить маску любой стороной на выбор. Мягкая резинка будет комфортно ощущаться во время носки. Удобная, красивая, экономичная и экологичная маска!.Двусторонняя черная маска из эко-кожи.  Двусторонняя черная маска из эко-кожи. Модель: bdsmars-50001. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Цвет: черный. Материал: эко кожа. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Красивые и функциональные наручники черного цвета. Выполнены из искусственной кожи, декорированы металлической фурнитурой, лаковыми бантиками и вставками по краям. Обхват удобно регулируется с помощью пряжек. В комплекте идет соединение с карабинами, общая длина соединения 11 см. Практически незаменимый аксессуар для вашей любовной игры!.Наручники из эко-кожи с бантиками.  Наручники из эко-кожи с бантиками. Модель: bdsmars-50008. БДСМ. БДСМ товары и фетиш &gt; Наручники, фиксаторы на руки. Цвет: черно-красный. Материал: эко кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -2621,17 +2619,17 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>эко кожа</t>
+          <t>эко кожа, металл</t>
         </is>
       </c>
       <c r="S17" t="inlineStr"/>
@@ -2669,7 +2667,7 @@
       <c r="AM17" t="inlineStr"/>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>наручники, соединение с карабинами</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
@@ -2689,7 +2687,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Маски эротик</t>
+          <t>Поводки эротик</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -2700,17 +2698,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Двусторонняя черно-красная маска из</t>
+          <t>Ошейник из эко-кожи с бантиком</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>id-27867-1299</t>
+          <t>id-27864-1299</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -2734,12 +2732,12 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27867/27867_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27867/27867_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27867/27867_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27864/27864_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27864/27864_2_650.jpg</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Стильная красная маска на глаза выполнена из искусственной кожи. Одна сторона маски выполнена из блестящего красного материала, а другая - из матового черного, что позволяет при желании носить маску любой стороной на выбор. Мягкая резинка будет комфортно ощущаться во время носки. Удобная, красивая, экономичная и экологичная маска!.Двусторонняя черно-красная маска из эко-кожи.  Двусторонняя черно-красная маска из эко-кожи. Модель: bdsmars-50002. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Цвет: черный, красный. Материал: эко кожа. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Минималистичный черный ошейник выполнен из искусственной кожи. Аксессуар декорирован бантиком спереди и металлическим полукольцом, к которому можно пристегнуть поводок. Основная часть выполнена из матовой эко-кожи, а бант и вставки по краю - из лаковой, что придаёт ошейнику изящества. Этот ошейник может отлично дополнить образ и стать волнующим элементом любовной игры. Экономичный, экологичный и симпатичный аксессуар!.Ошейник из эко-кожи с бантиком.  Ошейник из эко-кожи с бантиком. Модель: bdsmars-50009. БДСМ. БДСМ товары и фетиш &gt; Ошейники, поводки. Цвет: черный. Материал: эко кожа. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -2817,7 +2815,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Маски эротик</t>
+          <t>Поводки эротик</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -2828,17 +2826,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Двусторонняя маска с ушками из эко-кожи</t>
+          <t>Ошейник из эко-кожи с бантиком и</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>id-27866-1299</t>
+          <t>id-27865-1299</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -2862,12 +2860,12 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27866/27866_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27866/27866_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27866/27866_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27865/27865_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27865/27865_2_650.jpg</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Игривая маска с ушками выполнена из черной эко-кожи. Лицевая сторона сделана из лакового материала, а оборотная из матового, что позволяет по желанию носить аксессуар любой стороной. Эластичная резинка обеспечит комфорт во время носки. Красивая, элегантная форма эффектно подчеркнет глаза и добавит загадочности образу. Экономичный, экологичный и просто красивый аксессуар!.Двусторонняя маска с ушками из эко-кожи.  Двусторонняя маска с ушками из эко-кожи. Модель: bdsmars-50003. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Цвет: черный. Материал: эко кожа. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Комплект аксессуаров из ошейника с металлическим поводком, выполнены из черной искусственной кожи. Ошейник декорирован бантиком спереди и металлическим полукольцом, к которому пристегивается поводок. Основная часть выполнена из матовой эко-кожи, а бант и вставки по краю - из лаковой, что придаёт ошейнику изящества. Общая длина поводка, включая карабин и петельку, 45 см. Этот комплект поможет добавить разнообразия и стать волнующим элементом любовной игры. Экономичный, экологичный и функциональный аксессуар!.Ошейник из эко-кожи с бантиком и поводком-цепью.  Ошейник из эко-кожи с бантиком и поводком-цепью. Модель: bdsmars-50010. БДСМ. БДСМ товары и фетиш &gt; Ошейники, поводки. Цвет: черный. Материал: эко кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -2887,7 +2885,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>эко кожа</t>
+          <t>эко кожа, металл</t>
         </is>
       </c>
       <c r="S19" t="inlineStr"/>
@@ -2925,7 +2923,7 @@
       <c r="AM19" t="inlineStr"/>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>ошейник, поводок</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
@@ -2945,7 +2943,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Комплекты БДСМ</t>
+          <t>Плетки эротик</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -2956,27 +2954,27 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Стринги из эко-кожи с бантиком</t>
+          <t>Лаконичная плеть из эко-кожи</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>id-27870-1299</t>
+          <t>id-27862-1299</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -2990,17 +2988,17 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27870/27870_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27870/27870_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27870/27870_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27862/27862_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27862/27862_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27862/27862_3_650.jpg</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сексуальные черные стринги выполнены из эко-кожи. Декорированы спереди бантиком. Лицевая сторона выполнена из лакового материала, а внутренняя из матового. Благодаря эластичной резинке, отлично сядут по фигуре, подойдут на размеры 40-46. Очень красивая и удобная модель, которая поможет создать дерзкий сексуальный образ для вашей любовной игры!.Стринги из эко-кожи с бантиком.  Стринги из эко-кожи с бантиком. Модель: bdsmars-50005. БДСМ. БДСМ товары и фетиш &gt; Одежда и белье для женщин. Цвет: черный. Материал: эко кожа, полиэстер, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Стильная лаконичная плеть выполнена из чёрной эко-кожи. Рукоятка декорирована лаковыми полосками. Эта плеть поможет разнообразить вашу БДСМ игру и подарит новые ощущения. Лаконичная плеть из эко-кожи.  Лаконичная плеть из эко-кожи. Модель: bdsmars-50012. БДСМ. БДСМ товары и фетиш &gt; Плетки, стеки, шлепалки. Цвет: черный. Материал: эко кожа. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -3015,7 +3013,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>эко кожа, полиэстер, металл</t>
+          <t>эко кожа</t>
         </is>
       </c>
       <c r="S20" t="inlineStr"/>
@@ -3073,7 +3071,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Наручники эротик</t>
+          <t>Плетки эротик</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -3084,27 +3082,27 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Наручники из эко-кожи с бантиками</t>
+          <t>Лаконичная плеть из эко-кожи</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>id-27861-1299</t>
+          <t>id-27863-1299</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -3118,12 +3116,12 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27861/27861_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27861/27861_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27861/27861_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27861/27861_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27861/27861_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27863/27863_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27863/27863_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27863/27863_4_650.jpg</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Красивые и функциональные наручники черного цвета. Выполнены из искусственной кожи, декорированы металлической фурнитурой, лаковыми бантиками и вставками по краям. Обхват удобно регулируется с помощью пряжек. В комплекте идет соединение с карабинами, общая длина соединения 11 см. Практически незаменимый аксессуар для вашей любовной игры!.Наручники из эко-кожи с бантиками.  Наручники из эко-кожи с бантиками. Модель: bdsmars-50008. БДСМ. БДСМ товары и фетиш &gt; Наручники, фиксаторы на руки. Цвет: черно-красный. Материал: эко кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Стильная лаконичная плеть выполнена из чёрной эко-кожи. Рукоятка декорирована красными полосками. Эта плеть поможет разнообразить вашу БДСМ игру и подарит новые ощущения. Лаконичная плеть из эко-кожи.  Лаконичная плеть из эко-кожи. Модель: bdsmars-50013. БДСМ. БДСМ товары и фетиш &gt; Плетки, стеки, шлепалки. Цвет: черный с красным. Материал: эко кожа. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -3143,7 +3141,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>эко кожа, металл</t>
+          <t>эко кожа</t>
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
@@ -3181,7 +3179,7 @@
       <c r="AM21" t="inlineStr"/>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>наручники, соединение с карабинами</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
@@ -3201,7 +3199,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Поводки эротик</t>
+          <t>Страпоны</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -3217,12 +3215,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Ошейник из эко-кожи с бантиком</t>
+          <t>Трусики для страпона из натуральной</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>id-27864-1299</t>
+          <t>id-25105-1299</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -3246,12 +3244,12 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27864/27864_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27864/27864_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25105/25105_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25105/25105_2_650.jpg</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Минималистичный черный ошейник выполнен из искусственной кожи. Аксессуар декорирован бантиком спереди и металлическим полукольцом, к которому можно пристегнуть поводок. Основная часть выполнена из матовой эко-кожи, а бант и вставки по краю - из лаковой, что придаёт ошейнику изящества. Этот ошейник может отлично дополнить образ и стать волнующим элементом любовной игры. Экономичный, экологичный и симпатичный аксессуар!.Ошейник из эко-кожи с бантиком.  Ошейник из эко-кожи с бантиком. Модель: bdsmars-50009. БДСМ. БДСМ товары и фетиш &gt; Ошейники, поводки. Цвет: черный. Материал: эко кожа. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Трусики для страпона, изготовлены из натуральной кожи. Крепятся при помощи широких эластичных резинок (размер легко меняется). Диаметр отверстия для страпона - 4 см. Трусики для страпона из натуральной кожи.  Трусики для страпона из натуральной кожи. Модель: bdsmars-52001. БДСМ. Страпоны и фаллопротезы &gt; Трусики и насадки. Цвет: черный. Материал: натуральная кожа, нейлон. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -3271,7 +3269,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>эко кожа</t>
+          <t>натуральная кожа, нейлон</t>
         </is>
       </c>
       <c r="S22" t="inlineStr"/>
@@ -3329,7 +3327,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Поводки эротик</t>
+          <t>Страпоны</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -3340,29 +3338,21 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ошейник из эко-кожи с бантиком и</t>
+          <t>Страпон-трусики из натуральной кожи с</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>id-27865-1299</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-19522-1299</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
         <v>99999</v>
@@ -3374,12 +3364,12 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27865/27865_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27865/27865_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19522/19522_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19522/19522_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19522/19522_3_650.jpg</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Комплект аксессуаров из ошейника с металлическим поводком, выполнены из черной искусственной кожи. Ошейник декорирован бантиком спереди и металлическим полукольцом, к которому пристегивается поводок. Основная часть выполнена из матовой эко-кожи, а бант и вставки по краю - из лаковой, что придаёт ошейнику изящества. Общая длина поводка, включая карабин и петельку, 45 см. Этот комплект поможет добавить разнообразия и стать волнующим элементом любовной игры. Экономичный, экологичный и функциональный аксессуар!.Ошейник из эко-кожи с бантиком и поводком-цепью.  Ошейник из эко-кожи с бантиком и поводком-цепью. Модель: bdsmars-50010. БДСМ. БДСМ товары и фетиш &gt; Ошейники, поводки. Цвет: черный. Материал: эко кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Трусики из коллекции российского бренда BDSM Арсенал, предназначены для крепления насадок небольшого диаметра. Они выполнены из натуральной кожи, а при помощи широкого пояса легко регулируются по размеру, благодаря чему имеют универсальный размер. Фаллоимитаторы крепятся при помощи отверстия в передней части трусиков. Страпон-трусики из натуральной кожи с интимным доступом.  Страпон-трусики из натуральной кожи с интимным доступом. Модель: bdsmars-52007. Секс-игрушки. Страпоны и фаллопротезы &gt; Трусики и насадки. Цвет: черный. Материал: натуральная кожа, трикотажная резина. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -3399,7 +3389,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>эко кожа, металл</t>
+          <t>натуральная кожа, трикотажная резина</t>
         </is>
       </c>
       <c r="S23" t="inlineStr"/>
@@ -3437,7 +3427,7 @@
       <c r="AM23" t="inlineStr"/>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>ошейник, поводок</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
@@ -3457,7 +3447,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Шлепалки эротик</t>
+          <t>Страпоны</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -3468,27 +3458,27 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Лаконичная плеть из эко-кожи</t>
+          <t>Красные трусики со штырьком для насадки</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>id-27862-1299</t>
+          <t>id-25093-1299</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -3502,17 +3492,17 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27862/27862_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27862/27862_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27862/27862_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25093/25093_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25093/25093_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25093/25093_3_650.jpg</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Стильная лаконичная плеть выполнена из чёрной эко-кожи. Рукоятка декорирована лаковыми полосками. Эта плеть поможет разнообразить вашу БДСМ игру и подарит новые ощущения. Лаконичная плеть из эко-кожи.  Лаконичная плеть из эко-кожи. Модель: bdsmars-50012. БДСМ. БДСМ товары и фетиш &gt; Плетки, стеки, шлепалки. Цвет: черный. Материал: эко кожа. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Трусики для страпона, в комплект входит штырек для насадок. Размер регулируется ремешками (ширина 5 см), которые крепятся на бёдрах. Основная часть трусиков (передняя) изготовлена из кожи, ремешки изготовлены из плотных корсажных лент. Красные трусики со штырьком для насадки.  Красные трусики со штырьком для насадки. Модель: bdsmars-52017. Секс-игрушки. Страпоны и фаллопротезы &gt; Трусики и насадки. Цвет: красный, черный. Материал: натуральная кожа, пластик, нейлон. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -3527,7 +3517,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>эко кожа</t>
+          <t>натуральная кожа, пластик, нейлон</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
@@ -3585,7 +3575,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Шлепалки эротик</t>
+          <t>Страпоны</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -3601,22 +3591,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Лаконичная плеть из эко-кожи</t>
+          <t>Кожаные страпон-трусики для гигантского</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>id-27863-1299</t>
+          <t>id-21282-1299</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -3630,12 +3620,12 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27863/27863_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27863/27863_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27863/27863_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21282/21282_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21282/21282_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21282/21282_3_650.jpg</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Стильная лаконичная плеть выполнена из чёрной эко-кожи. Рукоятка декорирована красными полосками. Эта плеть поможет разнообразить вашу БДСМ игру и подарит новые ощущения. Лаконичная плеть из эко-кожи.  Лаконичная плеть из эко-кожи. Модель: bdsmars-50013. БДСМ. БДСМ товары и фетиш &gt; Плетки, стеки, шлепалки. Цвет: черный с красным. Материал: эко кожа. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Трусики для страпона, изготовлены из кожи. Крепятся при помощи ремней (размер легко меняется). Диаметр отверстия регулируется под разные размеры страпона. Упаковка: прозрачный пакет. Кожаные страпон-трусики для гигантского фаллоса XL BDSM Арсенал.  Кожаные страпон-трусики для гигантского фаллоса XL BDSM Арсенал. Модель: bdsmars-52021xl. БДСМ. Страпоны и фаллопротезы &gt; Трусики и насадки. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -3655,7 +3645,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>эко кожа</t>
+          <t>натуральная кожа, металл</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
@@ -3713,7 +3703,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Страпоны</t>
+          <t>Фиксаторы эротик</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -3724,17 +3714,17 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Трусики для страпона из натуральной</t>
+          <t>Штанга с креплениями для рук и ног</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>id-25105-1299</t>
+          <t>id-27990-1299</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -3758,12 +3748,12 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25105/25105_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25105/25105_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27990/27990_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27990/27990_2_650.jpg</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Трусики для страпона, изготовлены из натуральной кожи. Крепятся при помощи широких эластичных резинок (размер легко меняется). Диаметр отверстия для страпона - 4 см. Трусики для страпона из натуральной кожи.  Трусики для страпона из натуральной кожи. Модель: bdsmars-52001. БДСМ. Страпоны и фаллопротезы &gt; Трусики и насадки. Цвет: черный. Материал: натуральная кожа, нейлон. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Штанга выполнена из металла, по ее длине расположены 4 крепления с карабинами для наручников и оков. Длина изделия 80 см, диаметр штанги 2,5 см. Оковы и наручники сделаны из натуральной черной кожи, декорированной холнитенами.  Ремни на липучей ленте позволяет отрегулировать нужный размер и обеспечить максимальную фиксацию. Наручники подойдут на обхват руки от 15 до 20 см, оковы подойдут на обхват от 19 до 25 см. Ширина аксессуаров 5 см. Подклад выполнен из нежной перчаточной кожи. При производстве использована усиленная металлическая фурнитура. Собирается штанга из двух частей. Штанга с креплениями для рук и ног.  Штанга с креплениями для рук и ног. Модель: bdsmars-53004. БДСМ. БДСМ товары и фетиш &gt; Кандалы, фиксаторы на ноги. БДСМ товары и фетиш &gt; Аксессуары. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -3783,7 +3773,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>натуральная кожа, нейлон</t>
+          <t>натуральная кожа, металл</t>
         </is>
       </c>
       <c r="S26" t="inlineStr"/>
@@ -3821,7 +3811,7 @@
       <c r="AM26" t="inlineStr"/>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t xml:space="preserve">две штанги, 4 фиксатора для рук и ног, ключ </t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
@@ -3841,7 +3831,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Страпоны</t>
+          <t>Фиксаторы эротик</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -3857,16 +3847,24 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Страпон-трусики из натуральной кожи с</t>
+          <t>Фиксатор запястий к лодыжкам</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>id-19522-1299</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
+          <t>id-19919-1299</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
         <v>99999</v>
@@ -3878,12 +3876,12 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/19522/19522_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19522/19522_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19522/19522_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19919/19919_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19919/19919_2_650.jpg</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Трусики из коллекции российского бренда BDSM Арсенал, предназначены для крепления насадок небольшого диаметра. Они выполнены из натуральной кожи, а при помощи широкого пояса легко регулируются по размеру, благодаря чему имеют универсальный размер. Фаллоимитаторы крепятся при помощи отверстия в передней части трусиков. Страпон-трусики из натуральной кожи с интимным доступом.  Страпон-трусики из натуральной кожи с интимным доступом. Модель: bdsmars-52007. Секс-игрушки. Страпоны и фаллопротезы &gt; Трусики и насадки. Цвет: черный. Материал: натуральная кожа, трикотажная резина. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Фиксатор черного цвета, изготовленный из плотной черной корсажной ленты. Ширина почти 5 см, длина - 78 см. По всей длине расположены фиксаторы для рук.запястий (2 шт) и лодыжек (2 шт) Их размер легко регулируется при помощи застежек-липучек. Фиксатор запястий к лодыжкам.  Фиксатор запястий к лодыжкам. Модель: bdsmars-53006. БДСМ. БДСМ товары и фетиш &gt; Фиксаторы и сбруи. Цвет: черный. Материал: 100% полиэстер. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -3903,7 +3901,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>натуральная кожа, трикотажная резина</t>
+          <t>100% полиэстер</t>
         </is>
       </c>
       <c r="S27" t="inlineStr"/>
@@ -3961,7 +3959,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Страпоны</t>
+          <t>Фиксаторы эротик</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -3972,27 +3970,27 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Красные трусики со штырьком для насадки</t>
+          <t>Кожаная распорка с карабинами</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>id-25093-1299</t>
+          <t>id-28100-1299</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>40-42</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -4006,12 +4004,12 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25093/25093_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25093/25093_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25093/25093_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28100/28100_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28100/28100_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28100/28100_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28100/28100_2_650.jpg</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Трусики для страпона, в комплект входит штырек для насадок. Размер регулируется ремешками (ширина 5 см), которые крепятся на бёдрах. Основная часть трусиков (передняя) изготовлена из кожи, ремешки изготовлены из плотных корсажных лент. Красные трусики со штырьком для насадки.  Красные трусики со штырьком для насадки. Модель: bdsmars-52017. Секс-игрушки. Страпоны и фаллопротезы &gt; Трусики и насадки. Цвет: красный, черный. Материал: натуральная кожа, пластик, нейлон. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Надёжная и простая в использовании распорка. Основа выполнена из металла, обтянутого натуральной черной кожей. По краям распорки расположены карабины для фиксации наручников, а по центру располагается металлическое кольцо для фиксации ошейника. При производстве использована усиленная сварная металлическая фурнитура. Отличный аксессуар для смелых и горячих экспериментов!.Кожаная распорка с карабинами.  Кожаная распорка с карабинами. Модель: bdsmars-53020. БДСМ. БДСМ товары и фетиш &gt; Фиксаторы и сбруи. Цвет: черный. Материал: металл, натуральная кожа. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -4021,17 +4019,17 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>натуральная кожа, пластик, нейлон</t>
+          <t>металл, натуральная кожа</t>
         </is>
       </c>
       <c r="S28" t="inlineStr"/>
@@ -4069,7 +4067,7 @@
       <c r="AM28" t="inlineStr"/>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>распорка, мешочек для хранения</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
@@ -4089,7 +4087,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Страпоны</t>
+          <t>Маски эротик</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -4105,12 +4103,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Кожаные страпон-трусики для гигантского</t>
+          <t>Кожаная черная маска с клепками</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>id-21282-1299</t>
+          <t>id-27325-1299</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -4134,12 +4132,12 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21282/21282_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21282/21282_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21282/21282_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27325/27325_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27325/27325_1_650.jpg</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Трусики для страпона, изготовлены из кожи. Крепятся при помощи ремней (размер легко меняется). Диаметр отверстия регулируется под разные размеры страпона. Упаковка: прозрачный пакет. Кожаные страпон-трусики для гигантского фаллоса XL BDSM Арсенал.  Кожаные страпон-трусики для гигантского фаллоса XL BDSM Арсенал. Модель: bdsmars-52021xl. БДСМ. Страпоны и фаллопротезы &gt; Трусики и насадки. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Черная маска из натуральной кожи, декорированная заклепками. Крепится к голове при помощи удобной резинки. Кожаная черная маска с клепками.  Кожаная черная маска с клепками. Модель: bdsmars-58005. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Аксессуары для игр &gt; Наборы и аксессуары. Цвет: черный с серебряным. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -4149,12 +4147,12 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -4217,7 +4215,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Фиксаторы эротик</t>
+          <t>Кляпы эротик</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -4228,17 +4226,17 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Штанга с креплениями для рук и ног</t>
+          <t>Кляп-роза замшевый</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>id-27990-1299</t>
+          <t>id-27989-1299</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -4262,12 +4260,12 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27990/27990_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27990/27990_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27989/27989_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27989/27989_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27989/27989_2_650.jpg</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Штанга выполнена из металла, по ее длине расположены 4 крепления с карабинами для наручников и оков. Длина изделия 80 см, диаметр штанги 2,5 см. Оковы и наручники сделаны из натуральной черной кожи, декорированной холнитенами.  Ремни на липучей ленте позволяет отрегулировать нужный размер и обеспечить максимальную фиксацию. Наручники подойдут на обхват руки от 15 до 20 см, оковы подойдут на обхват от 19 до 25 см. Ширина аксессуаров 5 см. Подклад выполнен из нежной перчаточной кожи. При производстве использована усиленная металлическая фурнитура. Собирается штанга из двух частей. Штанга с креплениями для рук и ног.  Штанга с креплениями для рук и ног. Модель: bdsmars-53004. БДСМ. БДСМ товары и фетиш &gt; Кандалы, фиксаторы на ноги. БДСМ товары и фетиш &gt; Аксессуары. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Необычный и очень красивый кляп, который декорирован красной розой. Цветок и ремешки кляпа выполнены из натуральной нежной замши, что очень комфортно во время использования. Обратная сторона выполнена из нежной натуральной кожи. Аксессуар декорирован качественной металлической фурнитурой, обхват удобно регулируется с помощью пряжки. Этот кляп добавит игривого и страстного настроения в БДСМ игру!.Кляп-роза замшевый.  Кляп-роза замшевый. Модель: bdsmars-60007. БДСМ. БДСМ товары и фетиш &gt; Кляпы, распорки для рта. Цвет: черно-красный. Материал: натуральная кожа, натуральная замша. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -4277,17 +4275,17 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>натуральная кожа, металл</t>
+          <t>натуральная кожа, натуральная замша</t>
         </is>
       </c>
       <c r="S30" t="inlineStr"/>
@@ -4325,7 +4323,7 @@
       <c r="AM30" t="inlineStr"/>
       <c r="AN30" t="inlineStr">
         <is>
-          <t xml:space="preserve">две штанги, 4 фиксатора для рук и ног, ключ </t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
@@ -4345,7 +4343,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Фиксаторы эротик</t>
+          <t>Кляпы эротик</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -4361,12 +4359,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Фиксатор запястий к лодыжкам</t>
+          <t>Кляп с красным кожаным кольцом</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>id-19919-1299</t>
+          <t>id-27986-1299</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -4390,12 +4388,12 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/19919/19919_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19919/19919_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27986/27986_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27986/27986_2_650.jpg</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Фиксатор черного цвета, изготовленный из плотной черной корсажной ленты. Ширина почти 5 см, длина - 78 см. По всей длине расположены фиксаторы для рук.запястий (2 шт) и лодыжек (2 шт) Их размер легко регулируется при помощи застежек-липучек. Фиксатор запястий к лодыжкам.  Фиксатор запястий к лодыжкам. Модель: bdsmars-53006. БДСМ. БДСМ товары и фетиш &gt; Фиксаторы и сбруи. Цвет: черный. Материал: 100% полиэстер. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Строгий и надежный кляп, выполненный из натуральной кожи черного цвета. В основании использовано сварное металлическое кольцо, обтянутое нежной овечьей кожей красного цвета. Ширина ремешков 1,8 см, обхват удобно регулируется с помощью металлической пряжки. Такой кляп станет отличным элементом БДСМ игры, функциональным и комфортным в использовании. Кляп с красным кожаным кольцом.  Кляп с красным кожаным кольцом. Модель: bdsmars-60011. БДСМ. БДСМ товары и фетиш &gt; Кляпы, распорки для рта. Цвет: черно-красный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -4405,17 +4403,17 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>100% полиэстер</t>
+          <t>натуральная кожа, металл</t>
         </is>
       </c>
       <c r="S31" t="inlineStr"/>
@@ -4473,7 +4471,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Поводки эротик</t>
+          <t>Кляпы эротик</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -4484,17 +4482,17 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Сбруя с ошейником из черной</t>
+          <t>Черно-красный кожаный кляп</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>id-23321-1299</t>
+          <t>id-27985-1299</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -4518,12 +4516,12 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23321/23321_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27985/27985_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27985/27985_2_650.jpg</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сбруя выполнена из натуральной лакированной кожи черного цвета.  Ошейник с  мягким подкладом позволяем чувствовать себя максимально комфортно.  Лиф из кожаных ремешков  приподнимает грудь, придавая женским формам еще большую привлекательность. Сексуальный аксессуар не оставит равнодушным ни одного партнера. Сбруя с ошейником из черной лакированной кожи.  Сбруя с ошейником из черной лакированной кожи. Модель: bdsmars-53008. БДСМ. БДСМ товары и фетиш &gt; Ошейники, поводки. БДСМ товары и фетиш &gt; Фиксаторы и сбруи. Цвет: черный. Материал: натуральная кожа (лак). Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Качественный и удобный кляп, выполненный из натуральной кожи черного и красного цветов. Размеры кляпа 9 х 5 см, благодаря наполнителю средней жесткости этот кляп будет комфортен в использовании. Аксессуар декорирован сварной металлической фурнитурой. Ширина ремешков 1,8 см, обхват удобно регулируется с помощью металлической пряжки. Отличный аксессуар для любовной игры и новых ощущений!.Черно-красный кожаный кляп.  Черно-красный кожаный кляп. Модель: bdsmars-60014. БДСМ. БДСМ товары и фетиш &gt; Кляпы, распорки для рта. Цвет: черно-красный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -4533,17 +4531,17 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>натуральная кожа (лак)</t>
+          <t>натуральная кожа, металл</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
@@ -4601,7 +4599,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Фиксаторы эротик</t>
+          <t>Поводки эротик</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -4612,27 +4610,27 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Кожаная распорка с карабинами</t>
+          <t>Ошейник с поводком LADY'S ARSENAL</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>id-28100-1299</t>
+          <t>id-27320-1299</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>40-42</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -4646,12 +4644,12 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28100/28100_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28100/28100_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28100/28100_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28100/28100_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27320/27320_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27320/27320_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27320/27320_3_650.jpg</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Надёжная и простая в использовании распорка. Основа выполнена из металла, обтянутого натуральной черной кожей. По краям распорки расположены карабины для фиксации наручников, а по центру располагается металлическое кольцо для фиксации ошейника. При производстве использована усиленная сварная металлическая фурнитура. Отличный аксессуар для смелых и горячих экспериментов!.Кожаная распорка с карабинами.  Кожаная распорка с карабинами. Модель: bdsmars-53020. БДСМ. БДСМ товары и фетиш &gt; Фиксаторы и сбруи. Цвет: черный. Материал: металл, натуральная кожа. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Ошейник в лаконичном дизайне, выполнен из качественной натуральной кожи. Впереди декорирован серебристым кольцом. В комплекте поводок из металла с удобной кожаной ручкой. Размер универсальный, регулируется с помощью ремешка. Упакованы ошейник с поводком в картонную коробку. Ошейник с поводком LADY'S ARSENAL.  Ошейник с поводком LADY'S ARSENAL. Модель: bdsmars-68003. БДСМ. БДСМ товары и фетиш &gt; Ошейники, поводки. Цвет: черный с серебряным. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -4671,7 +4669,7 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>металл, натуральная кожа</t>
+          <t>натуральная кожа, металл</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -4709,7 +4707,7 @@
       <c r="AM33" t="inlineStr"/>
       <c r="AN33" t="inlineStr">
         <is>
-          <t>распорка, мешочек для хранения</t>
+          <t>ошейник, поводок</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
@@ -4740,17 +4738,17 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Кожаная черная маска с клепками</t>
+          <t>Кожаная маска зайца MISS BUNNY</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>id-27325-1299</t>
+          <t>id-27322-1299</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -4774,12 +4772,12 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27325/27325_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27325/27325_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27322/27322_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27322/27322_2_650.jpg</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Черная маска из натуральной кожи, декорированная заклепками. Крепится к голове при помощи удобной резинки. Кожаная черная маска с клепками.  Кожаная черная маска с клепками. Модель: bdsmars-58005. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Аксессуары для игр &gt; Наборы и аксессуары. Цвет: черный с серебряным. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Супер-эффектная и сексуальная маска зайки Выполнена маска из плотной черной кожи высокого качества, она отлично держит форму. Подойдет к любому типу лица, отлично подчеркнув глаза. Ушки длинные, стоячие. Фиксируется маска на металлическую пряжку сзади. Этот аксессуар станет главной фишкой вашего образа, добавит сексуальности и игривого настроения!.Кожаная маска зайца MISS BUNNY.  Кожаная маска зайца MISS BUNNY. Модель: bdsmars-68013. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Аксессуары, украшения для тела &gt; Аксессуары. Аксессуары для игр &gt; Наборы и аксессуары. Эротическое белье для женщин &gt; Маскарадные маски. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -4857,7 +4855,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Кляпы эротик</t>
+          <t>Маски эротик</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -4873,12 +4871,12 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Кляп-роза замшевый</t>
+          <t>Маска зайки с черным кружевом на ушках</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>id-27989-1299</t>
+          <t>id-27321-1299</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -4902,12 +4900,12 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27989/27989_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27989/27989_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27989/27989_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27321/27321_1_650.jpg</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Необычный и очень красивый кляп, который декорирован красной розой. Цветок и ремешки кляпа выполнены из натуральной нежной замши, что очень комфортно во время использования. Обратная сторона выполнена из нежной натуральной кожи. Аксессуар декорирован качественной металлической фурнитурой, обхват удобно регулируется с помощью пряжки. Этот кляп добавит игривого и страстного настроения в БДСМ игру!.Кляп-роза замшевый.  Кляп-роза замшевый. Модель: bdsmars-60007. БДСМ. БДСМ товары и фетиш &gt; Кляпы, распорки для рта. Цвет: черно-красный. Материал: натуральная кожа, натуральная замша. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Супер-эффектная и сексуальная маска зайки. Выполнена маска из плотной черной кожи высокого качества, она отлично держит форму. Ушки декорированы красивым чёрным кружевом, что придает образу кокетства. Подойдет к любому типу лица, отлично подчеhкнув глаза. Ушки длинные, стоячие. Фиксируется маска на металлическую пряжку сзади. Этот аксессуар станет главной фишкой вашего образа, добавит сексуальности и игривого настроения!.Маска зайки с черным кружевом на ушках.  Маска зайки с черным кружевом на ушках. Модель: bdsmars-68015. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Аксессуары, украшения для тела &gt; Аксессуары. Аксессуары для игр &gt; Наборы и аксессуары. Эротическое белье для женщин &gt; Маскарадные маски. Цвет: черный. Материал: натуральная кожа, металл, кружево. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -4927,7 +4925,7 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>натуральная кожа, натуральная замша</t>
+          <t>натуральная кожа, металл, кружево</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -4985,7 +4983,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Кляпы эротик</t>
+          <t>Наручники эротик</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -4996,17 +4994,17 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Кляп с красным кожаным кольцом</t>
+          <t>Изысканные наручники с кружевом BDSM</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>id-27986-1299</t>
+          <t>id-21278-1299</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -5030,12 +5028,12 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27986/27986_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27986/27986_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21278/21278_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21278/21278_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21278/21278_5_650.jpg</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Строгий и надежный кляп, выполненный из натуральной кожи черного цвета. В основании использовано сварное металлическое кольцо, обтянутое нежной овечьей кожей красного цвета. Ширина ремешков 1,8 см, обхват удобно регулируется с помощью металлической пряжки. Такой кляп станет отличным элементом БДСМ игры, функциональным и комфортным в использовании. Кляп с красным кожаным кольцом.  Кляп с красным кожаным кольцом. Модель: bdsmars-60011. БДСМ. БДСМ товары и фетиш &gt; Кляпы, распорки для рта. Цвет: черно-красный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Оживить эротические игры Вам помогут наручники с изысканным кружевом. Этот интимный аксессуар пользуется успехом у мужчин. Выполненные в черном цвете (лак) с черным кружевом и украшены прочными ремешками. Модный интимный аксессуар не сдавливает и не нарушает кровообращение, так как изготовлен из мягкой кожи. Чтобы любимая никуда не убежала, наручники соединены короткой перемычкой. Изысканные наручники с кружевом BDSM Light.  Изысканные наручники с кружевом BDSM Light. Модель: bdsmars-810005. БДСМ. БДСМ товары и фетиш &gt; Наручники, фиксаторы на руки. Аксессуары для игр &gt; Наборы и аксессуары. Цвет: черный. Материал: лаковая кожа, полиэстер, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -5045,17 +5043,17 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>натуральная кожа, металл</t>
+          <t>лаковая кожа, полиэстер, металл</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -5093,7 +5091,7 @@
       <c r="AM36" t="inlineStr"/>
       <c r="AN36" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>манжеты, сцепка</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
@@ -5113,40 +5111,32 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Кляпы эротик</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>BDSM АРСЕНАЛ</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Черно-красный кожаный кляп</t>
+          <t>Светящийся в темноте реалистичный</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>id-27985-1299</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-22773-1299</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
         <v>99999</v>
@@ -5158,17 +5148,17 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27985/27985_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27985/27985_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22773/22773_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22773/22773_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22773/22773_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22773/22773_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22773/22773_2_650.jpg</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Качественный и удобный кляп, выполненный из натуральной кожи черного и красного цветов. Размеры кляпа 9 х 5 см, благодаря наполнителю средней жесткости этот кляп будет комфортен в использовании. Аксессуар декорирован сварной металлической фурнитурой. Ширина ремешков 1,8 см, обхват удобно регулируется с помощью металлической пряжки. Отличный аксессуар для любовной игры и новых ощущений!.Черно-красный кожаный кляп.  Черно-красный кожаный кляп. Модель: bdsmars-60014. БДСМ. БДСМ товары и фетиш &gt; Кляпы, распорки для рта. Цвет: черно-красный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Светящийся в темноте Clark Glow - твой выход за пределы реальности с собственным героем. Можешь не волноваться! Он спасет тебя от скучных ночей и серой действительности, ведь, как у каждого супергероя, у Clark Glow есть сверхспособность. В темноте из обычной реалистичной игрушки он превращается в сияющий жезл удовольствия.Внешняя часть, идеально имитирующая мужское достоинство, выполнена из жидкого силикона - такого приятного и нежного на ощупь. Внутренний слой светится благодаря безопасной фосфоресцирующей пудре. Позволь Clark Glow стать твоим героем.В основании имеется мощная присоска, которая позволяет крепить фаллос к любой твердой гладкой поверхности. Светящийся в темноте реалистичный фаллоимитатор Beyond Clark Glow.  Светящийся в темноте реалистичный фаллоимитатор Beyond Clark Glow. Модель: beyond-872001. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Цвет: салатовый. Материал: мягкий силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Гонконг</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -5183,7 +5173,7 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>натуральная кожа, металл</t>
+          <t>мягкий силикон с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -5200,15 +5190,25 @@
       </c>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr"/>
+      <c r="Y37" t="n">
+        <v>21.45</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>19.5</v>
+      </c>
       <c r="AB37" t="inlineStr"/>
       <c r="AC37" t="inlineStr"/>
       <c r="AD37" t="inlineStr"/>
       <c r="AE37" t="inlineStr"/>
-      <c r="AF37" t="inlineStr"/>
-      <c r="AG37" t="inlineStr"/>
+      <c r="AF37" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>3.6</v>
+      </c>
       <c r="AH37" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -5241,13 +5241,13 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Поводки эротик</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>BDSM АРСЕНАЛ</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -5257,24 +5257,16 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Ошейник с поводком LADY'S ARSENAL</t>
+          <t>Светящийся в темноте реалистичный</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>id-27320-1299</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-22752-1299</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
         <v>99999</v>
@@ -5286,17 +5278,17 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27320/27320_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27320/27320_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27320/27320_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22752/22752_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22752/22752_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22752/22752_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22752/22752_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22752/22752_1_650.jpg</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ошейник в лаконичном дизайне, выполнен из качественной натуральной кожи. Впереди декорирован серебристым кольцом. В комплекте поводок из металла с удобной кожаной ручкой. Размер универсальный, регулируется с помощью ремешка. Упакованы ошейник с поводком в картонную коробку. Ошейник с поводком LADY'S ARSENAL.  Ошейник с поводком LADY'S ARSENAL. Модель: bdsmars-68003. БДСМ. БДСМ товары и фетиш &gt; Ошейники, поводки. Цвет: черный с серебряным. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Светящийся в темноте Bruce Glow - твой выход за пределы реальности с собственным героем. Можешь не волноваться! Он спасет тебя от скучных ночей и серой действительности, ведь, как у каждого супергероя, у Bruce Glow есть сверхспособность. В темноте из обычной реалистичной игрушки он превращается в сияющий жезл удовольствия.Внешняя часть, идеально имитирующая мужское достоинство, выполнена из жидкого силикона - такого приятного и нежного на ощупь. Внутренний слой светится благодаря безопасной фосфоресцирующей пудре. Позволь Bruce Glow стать твоим героем.В основании имеется мощная присоска, которая позволяет крепить фаллос к любой твердой гладкой поверхности. Светящийся в темноте реалистичный фаллоимитатор Beyond Bruce Glow.  Светящийся в темноте реалистичный фаллоимитатор Beyond Bruce Glow. Модель: beyond-872002. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Цвет: голубой. Материал: мягкий силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Гонконг</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -5311,7 +5303,7 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>натуральная кожа, металл</t>
+          <t>мягкий силикон с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -5328,15 +5320,25 @@
       </c>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
-      <c r="AA38" t="inlineStr"/>
+      <c r="Y38" t="n">
+        <v>21.45</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>19.5</v>
+      </c>
       <c r="AB38" t="inlineStr"/>
       <c r="AC38" t="inlineStr"/>
       <c r="AD38" t="inlineStr"/>
       <c r="AE38" t="inlineStr"/>
-      <c r="AF38" t="inlineStr"/>
-      <c r="AG38" t="inlineStr"/>
+      <c r="AF38" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>3.6</v>
+      </c>
       <c r="AH38" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -5349,7 +5351,7 @@
       <c r="AM38" t="inlineStr"/>
       <c r="AN38" t="inlineStr">
         <is>
-          <t>ошейник, поводок</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO38" t="inlineStr">
@@ -5369,13 +5371,13 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Маски эротик</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>BDSM АРСЕНАЛ</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -5385,24 +5387,16 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Кожаная маска зайца MISS BUNNY</t>
+          <t>Светящийся в темноте реалистичный</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>id-27322-1299</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-22755-1299</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
         <v>99999</v>
@@ -5414,17 +5408,17 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27322/27322_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27322/27322_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22755/22755_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22755/22755_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22755/22755_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22755/22755_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22755/22755_3_650.jpg</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Супер-эффектная и сексуальная маска зайки Выполнена маска из плотной черной кожи высокого качества, она отлично держит форму. Подойдет к любому типу лица, отлично подчеркнув глаза. Ушки длинные, стоячие. Фиксируется маска на металлическую пряжку сзади. Этот аксессуар станет главной фишкой вашего образа, добавит сексуальности и игривого настроения!.Кожаная маска зайца MISS BUNNY.  Кожаная маска зайца MISS BUNNY. Модель: bdsmars-68013. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Аксессуары, украшения для тела &gt; Аксессуары. Аксессуары для игр &gt; Наборы и аксессуары. Эротическое белье для женщин &gt; Маскарадные маски. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Светящийся в темноте Peter Glow - твой выход за пределы реальности с собственным героем. Можешь не волноваться! Он спасет тебя от скучных ночей и серой действительности, ведь, как у каждого супергероя, у Peter Glow есть сверхспособность. В темноте из обычной реалистичной игрушки он превращается в сияющий жезл удовольствия.Внешняя часть, идеально имитирующая мужское достоинство, выполнена из жидкого силикона - такого приятного и нежного на ощупь. Внутренний слой светится благодаря безопасной фосфоресцирующей пудре. Позволь Peter Glow стать твоим героем.В основании имеется мощная присоска, которая позволяет крепить фаллос к любой твердой гладкой поверхности. Светящийся в темноте реалистичный фаллоимитатор Beyond Peter Glow.  Светящийся в темноте реалистичный фаллоимитатор Beyond Peter Glow. Модель: beyond-872003. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Цвет: розовый. Материал: мягкий силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Гонконг</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -5439,7 +5433,7 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>натуральная кожа, металл</t>
+          <t>мягкий силикон с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -5456,15 +5450,25 @@
       </c>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
-      <c r="AA39" t="inlineStr"/>
+      <c r="Y39" t="n">
+        <v>21.45</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>19.5</v>
+      </c>
       <c r="AB39" t="inlineStr"/>
       <c r="AC39" t="inlineStr"/>
       <c r="AD39" t="inlineStr"/>
       <c r="AE39" t="inlineStr"/>
-      <c r="AF39" t="inlineStr"/>
-      <c r="AG39" t="inlineStr"/>
+      <c r="AF39" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>3.6</v>
+      </c>
       <c r="AH39" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -5497,13 +5501,13 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Маски эротик</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>BDSM АРСЕНАЛ</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -5513,24 +5517,16 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Маска зайки с черным кружевом на ушках</t>
+          <t>Светящийся в темноте реалистичный</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>id-27321-1299</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-22767-1299</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
         <v>99999</v>
@@ -5542,17 +5538,17 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27321/27321_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22767/22767_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22767/22767_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22767/22767_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22767/22767_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22767/22767_2_650.jpg</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Супер-эффектная и сексуальная маска зайки. Выполнена маска из плотной черной кожи высокого качества, она отлично держит форму. Ушки декорированы красивым чёрным кружевом, что придает образу кокетства. Подойдет к любому типу лица, отлично подчеhкнув глаза. Ушки длинные, стоячие. Фиксируется маска на металлическую пряжку сзади. Этот аксессуар станет главной фишкой вашего образа, добавит сексуальности и игривого настроения!.Маска зайки с черным кружевом на ушках.  Маска зайки с черным кружевом на ушках. Модель: bdsmars-68015. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Аксессуары, украшения для тела &gt; Аксессуары. Аксессуары для игр &gt; Наборы и аксессуары. Эротическое белье для женщин &gt; Маскарадные маски. Цвет: черный. Материал: натуральная кожа, металл, кружево. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Светящийся в темноте Wade Glow - твой выход за пределы реальности с собственным героем. Можешь не волноваться! Он спасет тебя от скучных ночей и серой действительности, ведь, как у каждого супергероя, у Wade Glow есть сверхспособность. В темноте из обычной реалистичной игрушки он превращается в сияющий жезл удовольствия.Внешняя часть, идеально имитирующая мужское достоинство, выполнена из жидкого силикона - такого приятного и нежного на ощупь. Внутренний слой светится благодаря безопасной фосфоресцирующей пудре. Позволь Wade Glow стать твоим героем.В основании имеется мощная присоска, которая позволяет крепить фаллос к любой твердой гладкой поверхности. Светящийся в темноте реалистичный фаллоимитатор Beyond Wade Glow.  Светящийся в темноте реалистичный фаллоимитатор Beyond Wade Glow. Модель: beyond-872006. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Цвет: салатовый. Материал: мягкий силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Гонконг</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -5567,7 +5563,7 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>натуральная кожа, металл, кружево</t>
+          <t>мягкий силикон с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -5584,15 +5580,25 @@
       </c>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
-      <c r="AA40" t="inlineStr"/>
+      <c r="Y40" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>17.5</v>
+      </c>
       <c r="AB40" t="inlineStr"/>
       <c r="AC40" t="inlineStr"/>
       <c r="AD40" t="inlineStr"/>
       <c r="AE40" t="inlineStr"/>
-      <c r="AF40" t="inlineStr"/>
-      <c r="AG40" t="inlineStr"/>
+      <c r="AF40" t="n">
+        <v>3.685</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>3.35</v>
+      </c>
       <c r="AH40" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -5625,13 +5631,13 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Наручники эротик</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>BDSM АРСЕНАЛ</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -5641,24 +5647,16 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Изысканные наручники с кружевом BDSM</t>
+          <t>Светящийся в темноте реалистичный</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>id-21278-1299</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-22751-1299</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
         <v>99999</v>
@@ -5670,32 +5668,32 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21278/21278_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21278/21278_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21278/21278_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22751/22751_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22751/22751_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22751/22751_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22751/22751_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22751/22751_1_650.jpg</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Оживить эротические игры Вам помогут наручники с изысканным кружевом. Этот интимный аксессуар пользуется успехом у мужчин. Выполненные в черном цвете (лак) с черным кружевом и украшены прочными ремешками. Модный интимный аксессуар не сдавливает и не нарушает кровообращение, так как изготовлен из мягкой кожи. Чтобы любимая никуда не убежала, наручники соединены короткой перемычкой. Изысканные наручники с кружевом BDSM Light.  Изысканные наручники с кружевом BDSM Light. Модель: bdsmars-810005. БДСМ. БДСМ товары и фетиш &gt; Наручники, фиксаторы на руки. Аксессуары для игр &gt; Наборы и аксессуары. Цвет: черный. Материал: лаковая кожа, полиэстер, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Светящийся в темноте Steve Glow - твой выход за пределы реальности с собственным героем. Можешь не волноваться! Он спасет тебя от скучных ночей и серой действительности, ведь, как у каждого супергероя, у Steve Glow есть сверхспособность. В темноте из обычной реалистичной игрушки он превращается в сияющий жезл удовольствия.Внешняя часть, идеально имитирующая мужское достоинство, выполнена из жидкого силикона - такого приятного и нежного на ощупь. Внутренний слой светится благодаря безопасной фосфоресцирующей пудре. Позволь Steve Glow стать твоим героем.В основании имеется мощная присоска, которая позволяет крепить фаллос к любой твердой гладкой поверхности. Светящийся в темноте реалистичный фаллоимитатор Beyond Steve Glow.  Светящийся в темноте реалистичный фаллоимитатор Beyond Steve Glow. Модель: beyond-872007. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Цвет: голубой. Материал: мягкий силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Гонконг</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>лаковая кожа, полиэстер, металл</t>
+          <t>мягкий силикон с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -5712,15 +5710,25 @@
       </c>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
-      <c r="AA41" t="inlineStr"/>
+      <c r="Y41" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>17.5</v>
+      </c>
       <c r="AB41" t="inlineStr"/>
       <c r="AC41" t="inlineStr"/>
       <c r="AD41" t="inlineStr"/>
       <c r="AE41" t="inlineStr"/>
-      <c r="AF41" t="inlineStr"/>
-      <c r="AG41" t="inlineStr"/>
+      <c r="AF41" t="n">
+        <v>3.685</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>3.35</v>
+      </c>
       <c r="AH41" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -5733,7 +5741,7 @@
       <c r="AM41" t="inlineStr"/>
       <c r="AN41" t="inlineStr">
         <is>
-          <t>манжеты, сцепка</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO41" t="inlineStr">
@@ -5759,7 +5767,7 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -5774,7 +5782,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>id-22773-1299</t>
+          <t>id-22754-1299</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -5790,12 +5798,12 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22773/22773_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22773/22773_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22773/22773_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22773/22773_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22773/22773_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22754/22754_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22754/22754_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22754/22754_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22754/22754_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22754/22754_3_650.jpg</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Светящийся в темноте Clark Glow - твой выход за пределы реальности с собственным героем. Можешь не волноваться! Он спасет тебя от скучных ночей и серой действительности, ведь, как у каждого супергероя, у Clark Glow есть сверхспособность. В темноте из обычной реалистичной игрушки он превращается в сияющий жезл удовольствия.Внешняя часть, идеально имитирующая мужское достоинство, выполнена из жидкого силикона - такого приятного и нежного на ощупь. Внутренний слой светится благодаря безопасной фосфоресцирующей пудре. Позволь Clark Glow стать твоим героем.В основании имеется мощная присоска, которая позволяет крепить фаллос к любой твердой гладкой поверхности. Светящийся в темноте реалистичный фаллоимитатор Beyond Clark Glow.  Светящийся в темноте реалистичный фаллоимитатор Beyond Clark Glow. Модель: beyond-872001. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Цвет: салатовый. Материал: мягкий силикон с бархатистой поверхностью. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Светящийся в темноте Tony Glow - твой выход за пределы реальности с собственным героем. Можешь не волноваться! Он спасет тебя от скучных ночей и серой действительности, ведь, как у каждого супергероя, у Tony Glow есть сверхспособность. В темноте из обычной реалистичной игрушки он превращается в сияющий жезл удовольствия.Внешняя часть, идеально имитирующая мужское достоинство, выполнена из жидкого силикона - такого приятного и нежного на ощупь. Внутренний слой светится благодаря безопасной фосфоресцирующей пудре. Позволь Tony Glow стать твоим героем.В основании имеется мощная присоска, которая позволяет крепить фаллос к любой твердой гладкой поверхности. Светящийся в темноте реалистичный фаллоимитатор Beyond Tony Glow.  Светящийся в темноте реалистичный фаллоимитатор Beyond Tony Glow. Модель: beyond-872008. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Цвет: розовый. Материал: мягкий силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -5833,23 +5841,23 @@
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="n">
-        <v>21.45</v>
+        <v>19.25</v>
       </c>
       <c r="Z42" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA42" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AB42" t="inlineStr"/>
       <c r="AC42" t="inlineStr"/>
       <c r="AD42" t="inlineStr"/>
       <c r="AE42" t="inlineStr"/>
       <c r="AF42" t="n">
-        <v>3.96</v>
+        <v>3.685</v>
       </c>
       <c r="AG42" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="AH42" t="inlineStr">
         <is>
@@ -5889,7 +5897,7 @@
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -5904,7 +5912,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>id-22752-1299</t>
+          <t>id-22756-1299</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -5920,12 +5928,12 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22752/22752_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22752/22752_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22752/22752_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22752/22752_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22752/22752_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22756/22756_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22756/22756_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22756/22756_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22756/22756_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22756/22756_2_650.jpg</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Светящийся в темноте Bruce Glow - твой выход за пределы реальности с собственным героем. Можешь не волноваться! Он спасет тебя от скучных ночей и серой действительности, ведь, как у каждого супергероя, у Bruce Glow есть сверхспособность. В темноте из обычной реалистичной игрушки он превращается в сияющий жезл удовольствия.Внешняя часть, идеально имитирующая мужское достоинство, выполнена из жидкого силикона - такого приятного и нежного на ощупь. Внутренний слой светится благодаря безопасной фосфоресцирующей пудре. Позволь Bruce Glow стать твоим героем.В основании имеется мощная присоска, которая позволяет крепить фаллос к любой твердой гладкой поверхности. Светящийся в темноте реалистичный фаллоимитатор Beyond Bruce Glow.  Светящийся в темноте реалистичный фаллоимитатор Beyond Bruce Glow. Модель: beyond-872002. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Цвет: голубой. Материал: мягкий силикон с бархатистой поверхностью. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Светящийся в темноте Dick Glow - твой выход за пределы реальности с собственным героем. Можешь не волноваться! Он спасет тебя от скучных ночей и серой действительности, ведь, как у каждого супергероя, у Dick Glow есть сверхспособность. В темноте из обычной реалистичной игрушки он превращается в сияющий жезл удовольствия.Внешняя часть, идеально имитирующая мужское достоинство, выполнена из жидкого силикона - такого приятного и нежного на ощупь. Внутренний слой светится благодаря безопасной фосфоресцирующей пудре. Позволь Dick Glow стать твоим героем.В основании имеется мощная присоска, которая позволяет крепить фаллос к любой твердой гладкой поверхности. Светящийся в темноте реалистичный фаллоимитатор Beyond Dick Glow.  Светящийся в темноте реалистичный фаллоимитатор Beyond Dick Glow. Модель: beyond-872011. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Цвет: салатовый. Материал: мягкий силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -5963,23 +5971,23 @@
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="n">
-        <v>21.45</v>
+        <v>17.38</v>
       </c>
       <c r="Z43" t="n">
-        <v>19.5</v>
+        <v>15.8</v>
       </c>
       <c r="AA43" t="n">
-        <v>19.5</v>
+        <v>15.8</v>
       </c>
       <c r="AB43" t="inlineStr"/>
       <c r="AC43" t="inlineStr"/>
       <c r="AD43" t="inlineStr"/>
       <c r="AE43" t="inlineStr"/>
       <c r="AF43" t="n">
-        <v>3.96</v>
+        <v>3.3</v>
       </c>
       <c r="AG43" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="AH43" t="inlineStr">
         <is>
@@ -6019,7 +6027,7 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -6034,7 +6042,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>id-22755-1299</t>
+          <t>id-22750-1299</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -6050,12 +6058,12 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22755/22755_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22755/22755_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22755/22755_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22755/22755_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22755/22755_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22750/22750_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22750/22750_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22750/22750_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22750/22750_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22750/22750_1_650.jpg</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Светящийся в темноте Peter Glow - твой выход за пределы реальности с собственным героем. Можешь не волноваться! Он спасет тебя от скучных ночей и серой действительности, ведь, как у каждого супергероя, у Peter Glow есть сверхспособность. В темноте из обычной реалистичной игрушки он превращается в сияющий жезл удовольствия.Внешняя часть, идеально имитирующая мужское достоинство, выполнена из жидкого силикона - такого приятного и нежного на ощупь. Внутренний слой светится благодаря безопасной фосфоресцирующей пудре. Позволь Peter Glow стать твоим героем.В основании имеется мощная присоска, которая позволяет крепить фаллос к любой твердой гладкой поверхности. Светящийся в темноте реалистичный фаллоимитатор Beyond Peter Glow.  Светящийся в темноте реалистичный фаллоимитатор Beyond Peter Glow. Модель: beyond-872003. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Цвет: розовый. Материал: мягкий силикон с бархатистой поверхностью. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Светящийся в темноте Matt Glow - твой выход за пределы реальности с собственным героем. Можешь не волноваться! Он спасет тебя от скучных ночей и серой действительности, ведь, как у каждого супергероя, у Matt Glow есть сверхспособность. В темноте из обычной реалистичной игрушки он превращается в сияющий жезл удовольствия.Внешняя часть, идеально имитирующая мужское достоинство, выполнена из жидкого силикона - такого приятного и нежного на ощупь. Внутренний слой светится благодаря безопасной фосфоресцирующей пудре. Позволь Matt Glow стать твоим героем.В основании имеется мощная присоска, которая позволяет крепить фаллос к любой твердой гладкой поверхности. Светящийся в темноте реалистичный фаллоимитатор Beyond Matt Glow.  Светящийся в темноте реалистичный фаллоимитатор Beyond Matt Glow. Модель: beyond-872012. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Цвет: голубой. Материал: мягкий силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -6093,23 +6101,23 @@
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="n">
-        <v>21.45</v>
+        <v>17.38</v>
       </c>
       <c r="Z44" t="n">
-        <v>19.5</v>
+        <v>15.8</v>
       </c>
       <c r="AA44" t="n">
-        <v>19.5</v>
+        <v>15.8</v>
       </c>
       <c r="AB44" t="inlineStr"/>
       <c r="AC44" t="inlineStr"/>
       <c r="AD44" t="inlineStr"/>
       <c r="AE44" t="inlineStr"/>
       <c r="AF44" t="n">
-        <v>3.96</v>
+        <v>3.3</v>
       </c>
       <c r="AG44" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="AH44" t="inlineStr">
         <is>
@@ -6149,7 +6157,7 @@
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -6164,7 +6172,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>id-22767-1299</t>
+          <t>id-22753-1299</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -6180,12 +6188,12 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22767/22767_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22767/22767_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22767/22767_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22767/22767_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22767/22767_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22753/22753_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22753/22753_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22753/22753_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22753/22753_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22753/22753_5_650.jpg</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Светящийся в темноте Wade Glow - твой выход за пределы реальности с собственным героем. Можешь не волноваться! Он спасет тебя от скучных ночей и серой действительности, ведь, как у каждого супергероя, у Wade Glow есть сверхспособность. В темноте из обычной реалистичной игрушки он превращается в сияющий жезл удовольствия.Внешняя часть, идеально имитирующая мужское достоинство, выполнена из жидкого силикона - такого приятного и нежного на ощупь. Внутренний слой светится благодаря безопасной фосфоресцирующей пудре. Позволь Wade Glow стать твоим героем.В основании имеется мощная присоска, которая позволяет крепить фаллос к любой твердой гладкой поверхности. Светящийся в темноте реалистичный фаллоимитатор Beyond Wade Glow.  Светящийся в темноте реалистичный фаллоимитатор Beyond Wade Glow. Модель: beyond-872006. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Цвет: салатовый. Материал: мягкий силикон с бархатистой поверхностью. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Светящийся в темноте James Glow - твой выход за пределы реальности с собственным героем. Можешь не волноваться! Он спасет тебя от скучных ночей и серой действительности, ведь, как у каждого супергероя, у James Glow есть сверхспособность. В темноте из обычной реалистичной игрушки он превращается в сияющий жезл удовольствия.Внешняя часть, идеально имитирующая мужское достоинство, выполнена из жидкого силикона - такого приятного и нежного на ощупь. Внутренний слой светится благодаря безопасной фосфоресцирующей пудре. Позволь James Glow стать твоим героем.В основании имеется мощная присоска, которая позволяет крепить фаллос к любой твердой гладкой поверхности. Светящийся в темноте реалистичный фаллоимитатор Beyond James Glow.  Светящийся в темноте реалистичный фаллоимитатор Beyond James Glow. Модель: beyond-872013. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Цвет: розовый. Материал: мягкий силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -6223,23 +6231,23 @@
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="n">
-        <v>19.25</v>
+        <v>17.38</v>
       </c>
       <c r="Z45" t="n">
-        <v>17.5</v>
+        <v>15.8</v>
       </c>
       <c r="AA45" t="n">
-        <v>17.5</v>
+        <v>15.8</v>
       </c>
       <c r="AB45" t="inlineStr"/>
       <c r="AC45" t="inlineStr"/>
       <c r="AD45" t="inlineStr"/>
       <c r="AE45" t="inlineStr"/>
       <c r="AF45" t="n">
-        <v>3.685</v>
+        <v>3.3</v>
       </c>
       <c r="AG45" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="AH45" t="inlineStr">
         <is>
@@ -6273,28 +6281,28 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Светящийся в темноте реалистичный</t>
+          <t>Анальная втулка на присоске светящаяся</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>id-22751-1299</t>
+          <t>id-24101-1299</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -6310,12 +6318,12 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22751/22751_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22751/22751_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22751/22751_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22751/22751_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22751/22751_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24101/24101_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24101/24101_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24101/24101_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24101/24101_5_650.jpg</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Светящийся в темноте Steve Glow - твой выход за пределы реальности с собственным героем. Можешь не волноваться! Он спасет тебя от скучных ночей и серой действительности, ведь, как у каждого супергероя, у Steve Glow есть сверхспособность. В темноте из обычной реалистичной игрушки он превращается в сияющий жезл удовольствия.Внешняя часть, идеально имитирующая мужское достоинство, выполнена из жидкого силикона - такого приятного и нежного на ощупь. Внутренний слой светится благодаря безопасной фосфоресцирующей пудре. Позволь Steve Glow стать твоим героем.В основании имеется мощная присоска, которая позволяет крепить фаллос к любой твердой гладкой поверхности. Светящийся в темноте реалистичный фаллоимитатор Beyond Steve Glow.  Светящийся в темноте реалистичный фаллоимитатор Beyond Steve Glow. Модель: beyond-872007. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Цвет: голубой. Материал: мягкий силикон с бархатистой поверхностью. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Светящийся в темноте Mortimer Glow - твой шанс выйти за пределы реальности и забыть об условностях этого мира. Теперь у тебя есть свой супергерой. Познакомься с его сверх способностью превращаться во тьме из обычной игрушки в сияющий жезл удовольствия. Позволь ему разнообразить ночные игры в паре с помощью внутреннего силиконового слоя повышенной плотности с фосфоресцирующей пудрой. Ощути комфортное введение, которое гарантирует его наружный слой из нежного жидкого силикона. Позволь Mortimer Glow стать твоим героем. Анальная втулка на присоске светящаяся в темноте Mortimer Glow.  Анальная втулка на присоске светящаяся в темноте Mortimer Glow. Модель: beyond-873006. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: зеленый. Материал: мягкий силикон. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -6335,7 +6343,7 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>мягкий силикон с бархатистой поверхностью</t>
+          <t>мягкий силикон</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
@@ -6353,23 +6361,27 @@
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="n">
-        <v>19.25</v>
+        <v>13.75</v>
       </c>
       <c r="Z46" t="n">
-        <v>17.5</v>
+        <v>12.5</v>
       </c>
       <c r="AA46" t="n">
-        <v>17.5</v>
+        <v>12.5</v>
       </c>
       <c r="AB46" t="inlineStr"/>
       <c r="AC46" t="inlineStr"/>
-      <c r="AD46" t="inlineStr"/>
-      <c r="AE46" t="inlineStr"/>
+      <c r="AD46" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>11.55</v>
+      </c>
       <c r="AF46" t="n">
-        <v>3.685</v>
+        <v>3.08</v>
       </c>
       <c r="AG46" t="n">
-        <v>3.35</v>
+        <v>2.8</v>
       </c>
       <c r="AH46" t="inlineStr">
         <is>
@@ -6403,28 +6415,28 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Светящийся в темноте реалистичный</t>
+          <t>Анальная втулка на присоске светящаяся</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>id-22754-1299</t>
+          <t>id-24106-1299</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -6440,12 +6452,12 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22754/22754_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22754/22754_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22754/22754_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22754/22754_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22754/22754_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24106/24106_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24106/24106_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24106/24106_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24106/24106_4_650.jpg</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Светящийся в темноте Tony Glow - твой выход за пределы реальности с собственным героем. Можешь не волноваться! Он спасет тебя от скучных ночей и серой действительности, ведь, как у каждого супергероя, у Tony Glow есть сверхспособность. В темноте из обычной реалистичной игрушки он превращается в сияющий жезл удовольствия.Внешняя часть, идеально имитирующая мужское достоинство, выполнена из жидкого силикона - такого приятного и нежного на ощупь. Внутренний слой светится благодаря безопасной фосфоресцирующей пудре. Позволь Tony Glow стать твоим героем.В основании имеется мощная присоска, которая позволяет крепить фаллос к любой твердой гладкой поверхности. Светящийся в темноте реалистичный фаллоимитатор Beyond Tony Glow.  Светящийся в темноте реалистичный фаллоимитатор Beyond Tony Glow. Модель: beyond-872008. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Цвет: розовый. Материал: мягкий силикон с бархатистой поверхностью. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Светящийся в темноте Namor Glow - твой шанс выйти за пределы реальности и забыть об условностях этого мира. Теперь у тебя есть свой супергерой. Познакомься с его сверхспособностью превращаться во тьме из обычной игрушки в сияющий жезл удовольствия. Позволь ему разнообразить ночные игры в паре с помощью внутреннего силиконового слоя повышенной плотности с фосфоресцирующей пудрой. Ощути комфортное введение, которое гарантирует его наружный слой из нежного жидкого силикона. Позволь Namor Glow стать твоим героем. Анальная втулка на присоске светящаяся в темноте Namor Glow.  Анальная втулка на присоске светящаяся в темноте Namor Glow. Модель: beyond-873007. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: голубой. Материал: мягкий силикон. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -6465,7 +6477,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>мягкий силикон с бархатистой поверхностью</t>
+          <t>мягкий силикон</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -6483,23 +6495,27 @@
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="n">
-        <v>19.25</v>
+        <v>13.75</v>
       </c>
       <c r="Z47" t="n">
-        <v>17.5</v>
+        <v>12.5</v>
       </c>
       <c r="AA47" t="n">
-        <v>17.5</v>
+        <v>12.5</v>
       </c>
       <c r="AB47" t="inlineStr"/>
       <c r="AC47" t="inlineStr"/>
-      <c r="AD47" t="inlineStr"/>
-      <c r="AE47" t="inlineStr"/>
+      <c r="AD47" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>11.55</v>
+      </c>
       <c r="AF47" t="n">
-        <v>3.685</v>
+        <v>3.08</v>
       </c>
       <c r="AG47" t="n">
-        <v>3.35</v>
+        <v>2.8</v>
       </c>
       <c r="AH47" t="inlineStr">
         <is>
@@ -6533,28 +6549,28 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Светящийся в темноте реалистичный</t>
+          <t>Анальная втулка на присоске светящаяся</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>id-22756-1299</t>
+          <t>id-24104-1299</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
@@ -6570,12 +6586,12 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22756/22756_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22756/22756_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22756/22756_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22756/22756_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22756/22756_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24104/24104_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24104/24104_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24104/24104_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24104/24104_2_650.jpg</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Светящийся в темноте Dick Glow - твой выход за пределы реальности с собственным героем. Можешь не волноваться! Он спасет тебя от скучных ночей и серой действительности, ведь, как у каждого супергероя, у Dick Glow есть сверхспособность. В темноте из обычной реалистичной игрушки он превращается в сияющий жезл удовольствия.Внешняя часть, идеально имитирующая мужское достоинство, выполнена из жидкого силикона - такого приятного и нежного на ощупь. Внутренний слой светится благодаря безопасной фосфоресцирующей пудре. Позволь Dick Glow стать твоим героем.В основании имеется мощная присоска, которая позволяет крепить фаллос к любой твердой гладкой поверхности. Светящийся в темноте реалистичный фаллоимитатор Beyond Dick Glow.  Светящийся в темноте реалистичный фаллоимитатор Beyond Dick Glow. Модель: beyond-872011. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Цвет: салатовый. Материал: мягкий силикон с бархатистой поверхностью. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Светящийся в темноте John Glow - твой шанс выйти за пределы реальности и забыть об условностях этого мира. Теперь у тебя есть свой супергерой. Познакомься с его сверхспособностью превращаться во тьме из обычной игрушки в сияющий жезл удовольствия. Позволь ему разнообразить ночные игры в паре с помощью внутреннего силиконового слоя повышенной плотности с фосфоресцирующей пудрой. Ощути комфортное введение, которое гарантирует его наружный слой из нежного жидкого силикона. Позволь John Glow стать твоим героем. Анальная втулка на присоске светящаяся в темноте John Glow.  Анальная втулка на присоске светящаяся в темноте John Glow. Модель: beyond-873008. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: розовый. Материал: мягкий силикон. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -6595,7 +6611,7 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>мягкий силикон с бархатистой поверхностью</t>
+          <t>мягкий силикон</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
@@ -6613,23 +6629,27 @@
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="n">
-        <v>17.38</v>
+        <v>13.75</v>
       </c>
       <c r="Z48" t="n">
-        <v>15.8</v>
+        <v>12.5</v>
       </c>
       <c r="AA48" t="n">
-        <v>15.8</v>
+        <v>12.5</v>
       </c>
       <c r="AB48" t="inlineStr"/>
       <c r="AC48" t="inlineStr"/>
-      <c r="AD48" t="inlineStr"/>
-      <c r="AE48" t="inlineStr"/>
+      <c r="AD48" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>11.55</v>
+      </c>
       <c r="AF48" t="n">
-        <v>3.3</v>
+        <v>3.08</v>
       </c>
       <c r="AG48" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AH48" t="inlineStr">
         <is>
@@ -6663,28 +6683,28 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Светящийся в темноте реалистичный</t>
+          <t>Небольшая анальная втулка на присоске</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>id-22750-1299</t>
+          <t>id-24102-1299</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
@@ -6700,12 +6720,12 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22750/22750_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22750/22750_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22750/22750_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22750/22750_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22750/22750_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24102/24102_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24102/24102_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24102/24102_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24102/24102_1_650.jpg</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Светящийся в темноте Matt Glow - твой выход за пределы реальности с собственным героем. Можешь не волноваться! Он спасет тебя от скучных ночей и серой действительности, ведь, как у каждого супергероя, у Matt Glow есть сверхспособность. В темноте из обычной реалистичной игрушки он превращается в сияющий жезл удовольствия.Внешняя часть, идеально имитирующая мужское достоинство, выполнена из жидкого силикона - такого приятного и нежного на ощупь. Внутренний слой светится благодаря безопасной фосфоресцирующей пудре. Позволь Matt Glow стать твоим героем.В основании имеется мощная присоска, которая позволяет крепить фаллос к любой твердой гладкой поверхности. Светящийся в темноте реалистичный фаллоимитатор Beyond Matt Glow.  Светящийся в темноте реалистичный фаллоимитатор Beyond Matt Glow. Модель: beyond-872012. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Цвет: голубой. Материал: мягкий силикон с бархатистой поверхностью. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Светящийся в темноте Victor Glow - твой шанс выйти за пределы реальности и забыть об условностях этого мира. Теперь у тебя есть свой супергерой. Познакомься с его сверхспособностью превращаться во тьме из обычной игрушки в сияющий жезл удовольствия. Позволь ему разнообразить ночные игры в паре с помощью внутреннего силиконового слоя повышенной плотности с фосфоресцирующей пудрой. Ощути комфортное введение, которое гарантирует его наружный слой из нежного жидкого силикона. Позволь Victor Glow стать твоим героем. Небольшая анальная втулка на присоске светящаяся в темноте Victor Glow.  Небольшая анальная втулка на присоске светящаяся в темноте Victor Glow. Модель: beyond-873011. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: зеленый. Материал: мягкий силикон. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -6725,7 +6745,7 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>мягкий силикон с бархатистой поверхностью</t>
+          <t>мягкий силикон</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -6743,23 +6763,27 @@
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="n">
-        <v>17.38</v>
+        <v>11.22</v>
       </c>
       <c r="Z49" t="n">
-        <v>15.8</v>
+        <v>10.2</v>
       </c>
       <c r="AA49" t="n">
-        <v>15.8</v>
+        <v>10.2</v>
       </c>
       <c r="AB49" t="inlineStr"/>
       <c r="AC49" t="inlineStr"/>
-      <c r="AD49" t="inlineStr"/>
-      <c r="AE49" t="inlineStr"/>
+      <c r="AD49" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>9.35</v>
+      </c>
       <c r="AF49" t="n">
-        <v>3.3</v>
+        <v>2.53</v>
       </c>
       <c r="AG49" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="AH49" t="inlineStr">
         <is>
@@ -6793,28 +6817,28 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Светящийся в темноте реалистичный</t>
+          <t>Небольшая анальная втулка на присоске</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>id-22753-1299</t>
+          <t>id-24105-1299</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -6830,12 +6854,12 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22753/22753_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22753/22753_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22753/22753_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22753/22753_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22753/22753_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24105/24105_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24105/24105_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24105/24105_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24105/24105_3_650.jpg</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Светящийся в темноте James Glow - твой выход за пределы реальности с собственным героем. Можешь не волноваться! Он спасет тебя от скучных ночей и серой действительности, ведь, как у каждого супергероя, у James Glow есть сверхспособность. В темноте из обычной реалистичной игрушки он превращается в сияющий жезл удовольствия.Внешняя часть, идеально имитирующая мужское достоинство, выполнена из жидкого силикона - такого приятного и нежного на ощупь. Внутренний слой светится благодаря безопасной фосфоресцирующей пудре. Позволь James Glow стать твоим героем.В основании имеется мощная присоска, которая позволяет крепить фаллос к любой твердой гладкой поверхности. Светящийся в темноте реалистичный фаллоимитатор Beyond James Glow.  Светящийся в темноте реалистичный фаллоимитатор Beyond James Glow. Модель: beyond-872013. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Цвет: розовый. Материал: мягкий силикон с бархатистой поверхностью. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Светящийся в темноте Kyle Glow - твой шанс выйти за пределы реальности и забыть об условностях этого мира. Теперь у тебя есть свой супергерой. Познакомься с его сверхспособностью превращаться во тьме из обычной игрушки в сияющий жезл удовольствия. Позволь ему разнообразить ночные игры в паре с помощью внутреннего силиконового слоя повышенной плотности с фосфоресцирующей пудрой. Ощути комфортное введение, которое гарантирует его наружный слой из нежного жидкого силикона. Позволь Kyle Glow стать твоим героем. Небольшая анальная втулка на присоске светящаяся в темноте Kyle Glow.  Небольшая анальная втулка на присоске светящаяся в темноте Kyle Glow. Модель: beyond-873012. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: голубой. Материал: мягкий силикон. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -6855,7 +6879,7 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>мягкий силикон с бархатистой поверхностью</t>
+          <t>мягкий силикон</t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
@@ -6873,23 +6897,27 @@
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="n">
-        <v>17.38</v>
+        <v>11.22</v>
       </c>
       <c r="Z50" t="n">
-        <v>15.8</v>
+        <v>10.2</v>
       </c>
       <c r="AA50" t="n">
-        <v>15.8</v>
+        <v>10.2</v>
       </c>
       <c r="AB50" t="inlineStr"/>
       <c r="AC50" t="inlineStr"/>
-      <c r="AD50" t="inlineStr"/>
-      <c r="AE50" t="inlineStr"/>
+      <c r="AD50" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>9.35</v>
+      </c>
       <c r="AF50" t="n">
-        <v>3.3</v>
+        <v>2.53</v>
       </c>
       <c r="AG50" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="AH50" t="inlineStr">
         <is>
@@ -6929,7 +6957,7 @@
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -6939,12 +6967,12 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Анальная втулка на присоске светящаяся</t>
+          <t>Небольшая анальная втулка на присоске</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>id-24101-1299</t>
+          <t>id-24103-1299</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
@@ -6960,12 +6988,12 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24101/24101_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24101/24101_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24101/24101_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24101/24101_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24103/24103_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24103/24103_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24103/24103_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24103/24103_2_650.jpg</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Светящийся в темноте Mortimer Glow - твой шанс выйти за пределы реальности и забыть об условностях этого мира. Теперь у тебя есть свой супергерой. Познакомься с его сверх способностью превращаться во тьме из обычной игрушки в сияющий жезл удовольствия. Позволь ему разнообразить ночные игры в паре с помощью внутреннего силиконового слоя повышенной плотности с фосфоресцирующей пудрой. Ощути комфортное введение, которое гарантирует его наружный слой из нежного жидкого силикона. Позволь Mortimer Glow стать твоим героем. Анальная втулка на присоске светящаяся в темноте Mortimer Glow.  Анальная втулка на присоске светящаяся в темноте Mortimer Glow. Модель: beyond-873006. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: зеленый. Материал: мягкий силикон. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Светящийся в темноте Cain Glow - твой шанс выйти за пределы реальности и забыть об условностях этого мира. Теперь у тебя есть свой супергерой. Познакомься с его сверхспособностью превращаться во тьме из обычной игрушки в сияющий жезл удовольствия. Позволь ему разнообразить ночные игры в паре с помощью внутреннего силиконового слоя повышенной плотности с фосфоресцирующей пудрой. Ощути комфортное введение, которое гарантирует его наружный слой из нежного жидкого силикона. Позволь Cain Glow стать твоим героем. Небольшая анальная втулка на присоске светящаяся в темноте Cain Glow.  Небольшая анальная втулка на присоске светящаяся в темноте Cain Glow. Модель: beyond-873013. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: розовый. Материал: мягкий силикон. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -7003,27 +7031,27 @@
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="n">
-        <v>13.75</v>
+        <v>11.22</v>
       </c>
       <c r="Z51" t="n">
-        <v>12.5</v>
+        <v>10.2</v>
       </c>
       <c r="AA51" t="n">
-        <v>12.5</v>
+        <v>10.2</v>
       </c>
       <c r="AB51" t="inlineStr"/>
       <c r="AC51" t="inlineStr"/>
       <c r="AD51" t="n">
-        <v>10.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE51" t="n">
-        <v>11.55</v>
+        <v>9.35</v>
       </c>
       <c r="AF51" t="n">
-        <v>3.08</v>
+        <v>2.53</v>
       </c>
       <c r="AG51" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="AH51" t="inlineStr">
         <is>
@@ -7057,32 +7085,40 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Пэстис эротик</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>BIJOUX INDISCRETS</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Анальная втулка на присоске светящаяся</t>
+          <t>Пестис с кисточками Burlesque Pesties</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>id-24106-1299</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
+          <t>id-12299-1299</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>XXL</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>54-56</t>
+        </is>
+      </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
         <v>99999</v>
@@ -7094,17 +7130,17 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24106/24106_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24106/24106_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24106/24106_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24106/24106_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12299/12299_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12299/12299_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12299/12299_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12299/12299_6_650.jpg</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Светящийся в темноте Namor Glow - твой шанс выйти за пределы реальности и забыть об условностях этого мира. Теперь у тебя есть свой супергерой. Познакомься с его сверхспособностью превращаться во тьме из обычной игрушки в сияющий жезл удовольствия. Позволь ему разнообразить ночные игры в паре с помощью внутреннего силиконового слоя повышенной плотности с фосфоресцирующей пудрой. Ощути комфортное введение, которое гарантирует его наружный слой из нежного жидкого силикона. Позволь Namor Glow стать твоим героем. Анальная втулка на присоске светящаяся в темноте Namor Glow.  Анальная втулка на присоске светящаяся в темноте Namor Glow. Модель: beyond-873007. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: голубой. Материал: мягкий силикон. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Коллекция Burlesque дает множество способов для соблазнения . . Если вам нравится чувствовать себя сексуально и привлекательно, то это украшение для Вас! Самоклеящееся украшение на грудь из тонкой черной эко кожи с маленьким бантиком и кисточкой. Пестис с кисточками Burlesque Pesties.  Пестис с кисточками Burlesque Pesties. Модель: bijoux-0039. Белье. Аксессуары, украшения для тела &gt; Стикини, пестис. Красивая грудь &gt; Украшения. Цвет: черный. Материал: искуственная кожа. Батареек нет в комплекте. Бренд: BIJOUX INDISCRETS. </t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Гонконг</t>
+          <t>Испания</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -7119,7 +7155,7 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>мягкий силикон</t>
+          <t>искуственная кожа</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -7136,29 +7172,15 @@
       </c>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="n">
-        <v>13.75</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="inlineStr"/>
       <c r="AB52" t="inlineStr"/>
       <c r="AC52" t="inlineStr"/>
-      <c r="AD52" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>2.8</v>
-      </c>
+      <c r="AD52" t="inlineStr"/>
+      <c r="AE52" t="inlineStr"/>
+      <c r="AF52" t="inlineStr"/>
+      <c r="AG52" t="inlineStr"/>
       <c r="AH52" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -7171,7 +7193,7 @@
       <c r="AM52" t="inlineStr"/>
       <c r="AN52" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>два самоклеящихся пестиса</t>
         </is>
       </c>
       <c r="AO52" t="inlineStr">
@@ -7191,13 +7213,13 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Сувениры эротик</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>BIJOUX INDISCRETS</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -7207,12 +7229,12 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Анальная втулка на присоске светящаяся</t>
+          <t>Съедобная краска для тела со вкусом</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>id-24104-1299</t>
+          <t>id-23282-1299</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
@@ -7228,71 +7250,57 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24104/24104_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24104/24104_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24104/24104_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24104/24104_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23282/23282_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23282/23282_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23282/23282_2_650.jpg</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Светящийся в темноте John Glow - твой шанс выйти за пределы реальности и забыть об условностях этого мира. Теперь у тебя есть свой супергерой. Познакомься с его сверхспособностью превращаться во тьме из обычной игрушки в сияющий жезл удовольствия. Позволь ему разнообразить ночные игры в паре с помощью внутреннего силиконового слоя повышенной плотности с фосфоресцирующей пудрой. Ощути комфортное введение, которое гарантирует его наружный слой из нежного жидкого силикона. Позволь John Glow стать твоим героем. Анальная втулка на присоске светящаяся в темноте John Glow.  Анальная втулка на присоске светящаяся в темноте John Glow. Модель: beyond-873008. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: розовый. Материал: мягкий силикон. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Оставляйте на теле партнёра сладкие рисунки и наслаждайтесь близостью со съедобной краской для тела от Bijoux Indiscrets. Воплотите в жизнь свои сексуальные фантазии и ощутите изысканный вкус темного шоколада. Съедобная краска для тела со вкусом темного шоколада Bijoux Indiscrets Poeme (50 г).  Съедобная краска для тела со вкусом темного шоколада Bijoux Indiscrets Poeme (50 г). Модель: bijoux-0122. Косметика, препараты. Аксессуары, украшения для тела &gt; Аксессуары. Эротические сувениры &gt; Сувениры. Аксессуары для игр &gt; Наборы и аксессуары. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: BIJOUX INDISCRETS. </t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Гонконг</t>
+          <t>Испания</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>мягкий силикон</t>
-        </is>
-      </c>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U53" t="inlineStr"/>
+          <t>50 г</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="n">
-        <v>13.75</v>
-      </c>
-      <c r="Z53" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA53" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
+      <c r="AA53" t="inlineStr"/>
       <c r="AB53" t="inlineStr"/>
       <c r="AC53" t="inlineStr"/>
-      <c r="AD53" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>2.8</v>
-      </c>
+      <c r="AD53" t="inlineStr"/>
+      <c r="AE53" t="inlineStr"/>
+      <c r="AF53" t="inlineStr"/>
+      <c r="AG53" t="inlineStr"/>
       <c r="AH53" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -7305,7 +7313,7 @@
       <c r="AM53" t="inlineStr"/>
       <c r="AN53" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>стеклянная чернильница с краской, перо для росписи</t>
         </is>
       </c>
       <c r="AO53" t="inlineStr">
@@ -7325,13 +7333,13 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>BIJOUX INDISCRETS</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -7341,12 +7349,12 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Небольшая анальная втулка на присоске</t>
+          <t>Разогревающее массажное масло со вкусом</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>id-24102-1299</t>
+          <t>id-23277-1299</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
@@ -7362,71 +7370,57 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24102/24102_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24102/24102_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24102/24102_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24102/24102_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23277/23277_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23277/23277_2_650.jpg</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Светящийся в темноте Victor Glow - твой шанс выйти за пределы реальности и забыть об условностях этого мира. Теперь у тебя есть свой супергерой. Познакомься с его сверхспособностью превращаться во тьме из обычной игрушки в сияющий жезл удовольствия. Позволь ему разнообразить ночные игры в паре с помощью внутреннего силиконового слоя повышенной плотности с фосфоресцирующей пудрой. Ощути комфортное введение, которое гарантирует его наружный слой из нежного жидкого силикона. Позволь Victor Glow стать твоим героем. Небольшая анальная втулка на присоске светящаяся в темноте Victor Glow.  Небольшая анальная втулка на присоске светящаяся в темноте Victor Glow. Модель: beyond-873011. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: зеленый. Материал: мягкий силикон. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Разожгите огонь в своем следующем массаже! Ласкайте и дуйте, чтобы максимизировать согревающий эффект, и целуйте каждый дюйм кожи, чтобы насладиться восхитительным ароматом. Разогревающее массажное масло со вкусом карамели и морской соли Light My Fire (100 мл).  Разогревающее массажное масло со вкусом карамели и морской соли Light My Fire (100 мл). Модель: bijoux-0168. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: BIJOUX INDISCRETS. </t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Гонконг</t>
+          <t>Испания</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>мягкий силикон</t>
-        </is>
-      </c>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U54" t="inlineStr"/>
+          <t>100 мл</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>100 мл</t>
         </is>
       </c>
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="n">
-        <v>11.22</v>
-      </c>
-      <c r="Z54" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="AA54" t="n">
-        <v>10.2</v>
-      </c>
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr"/>
       <c r="AB54" t="inlineStr"/>
       <c r="AC54" t="inlineStr"/>
-      <c r="AD54" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>2.3</v>
-      </c>
+      <c r="AD54" t="inlineStr"/>
+      <c r="AE54" t="inlineStr"/>
+      <c r="AF54" t="inlineStr"/>
+      <c r="AG54" t="inlineStr"/>
       <c r="AH54" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -7459,13 +7453,13 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>BIJOUX INDISCRETS</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -7475,12 +7469,12 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Небольшая анальная втулка на присоске</t>
+          <t>Увлажняющий гель для тела Bubblegum 2</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>id-24105-1299</t>
+          <t>id-26939-1299</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
@@ -7496,17 +7490,17 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24105/24105_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24105/24105_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24105/24105_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24105/24105_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26939/26939_1_650.jpg</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Светящийся в темноте Kyle Glow - твой шанс выйти за пределы реальности и забыть об условностях этого мира. Теперь у тебя есть свой супергерой. Познакомься с его сверхспособностью превращаться во тьме из обычной игрушки в сияющий жезл удовольствия. Позволь ему разнообразить ночные игры в паре с помощью внутреннего силиконового слоя повышенной плотности с фосфоресцирующей пудрой. Ощути комфортное введение, которое гарантирует его наружный слой из нежного жидкого силикона. Позволь Kyle Glow стать твоим героем. Небольшая анальная втулка на присоске светящаяся в темноте Kyle Glow.  Небольшая анальная втулка на присоске светящаяся в темноте Kyle Glow. Модель: beyond-873012. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: голубой. Материал: мягкий силикон. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Универсальное средство для романтического вечера в шикарном золотом флаконе с дозатором идеально подходит для массажа и удовольствия! Классический аромат жевательной резинки, сладкий, насыщенный и веселый!Силиконовая основа геля делает скольжение долгим и приятным, как во время массажа, так и во время интимной близости. Не рекомендуется использовать с интимными игрушками, как и любые другие средства на силиконовой основе. Увлажняющий гель для тела Bubblegum 2 in 1 - Scented Silicone Massage and Intimate Gel.  Увлажняющий гель для тела Bubblegum 2 in 1 - Scented Silicone Massage and Intimate Gel. Модель: bijoux-0317. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: BIJOUX INDISCRETS. </t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Гонконг</t>
+          <t>Испания</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -7519,48 +7513,34 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>мягкий силикон</t>
-        </is>
-      </c>
+      <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U55" t="inlineStr"/>
+          <t>100 мл</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>100 мл</t>
         </is>
       </c>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="n">
-        <v>11.22</v>
-      </c>
-      <c r="Z55" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="AA55" t="n">
-        <v>10.2</v>
-      </c>
+      <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr"/>
+      <c r="AA55" t="inlineStr"/>
       <c r="AB55" t="inlineStr"/>
       <c r="AC55" t="inlineStr"/>
-      <c r="AD55" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="AF55" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="AG55" t="n">
-        <v>2.3</v>
-      </c>
+      <c r="AD55" t="inlineStr"/>
+      <c r="AE55" t="inlineStr"/>
+      <c r="AF55" t="inlineStr"/>
+      <c r="AG55" t="inlineStr"/>
       <c r="AH55" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -7593,32 +7573,40 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Поводки эротик</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>BIJOUX INDISCRETS</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Небольшая анальная втулка на присоске</t>
+          <t>Кожаный чокер с сердцем и стразами</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>id-24103-1299</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
+          <t>id-20469-1299</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
         <v>99999</v>
@@ -7630,17 +7618,17 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24103/24103_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24103/24103_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24103/24103_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24103/24103_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20469/20469_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20469/20469_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20469/20469_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20469/20469_4_650.jpg</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Светящийся в темноте Cain Glow - твой шанс выйти за пределы реальности и забыть об условностях этого мира. Теперь у тебя есть свой супергерой. Познакомься с его сверхспособностью превращаться во тьме из обычной игрушки в сияющий жезл удовольствия. Позволь ему разнообразить ночные игры в паре с помощью внутреннего силиконового слоя повышенной плотности с фосфоресцирующей пудрой. Ощути комфортное введение, которое гарантирует его наружный слой из нежного жидкого силикона. Позволь Cain Glow стать твоим героем. Небольшая анальная втулка на присоске светящаяся в темноте Cain Glow.  Небольшая анальная втулка на присоске светящаяся в темноте Cain Glow. Модель: beyond-873013. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: розовый. Материал: мягкий силикон. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Изысканный французский вкус раскрылся в этом привлекательном чокере,который может пригодиться и в фетиш-игре и в повседневной жизни,как соблазнительный аксессуар. Кожаный чокер с сердцем и стразами Bijoux Pour Toi.  Кожаный чокер с сердцем и стразами Bijoux Pour Toi. Модель: bijoux-6060050010. БДСМ. БДСМ товары и фетиш &gt; Ошейники, поводки. Аксессуары, украшения для тела &gt; Аксессуары. Цвет: черный с серебряным. Материал: искусственная кожа, металл. Батареек нет в комплекте. Бренд: BIJOUX INDISCRETS. </t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Гонконг</t>
+          <t>Франция</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -7655,7 +7643,7 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>мягкий силикон</t>
+          <t>искусственная кожа, металл</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -7672,29 +7660,15 @@
       </c>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="n">
-        <v>11.22</v>
-      </c>
-      <c r="Z56" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>10.2</v>
-      </c>
+      <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr"/>
+      <c r="AA56" t="inlineStr"/>
       <c r="AB56" t="inlineStr"/>
       <c r="AC56" t="inlineStr"/>
-      <c r="AD56" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="AF56" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="AG56" t="n">
-        <v>2.3</v>
-      </c>
+      <c r="AD56" t="inlineStr"/>
+      <c r="AE56" t="inlineStr"/>
+      <c r="AF56" t="inlineStr"/>
+      <c r="AG56" t="inlineStr"/>
       <c r="AH56" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -7727,13 +7701,13 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Сувениры эротик</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>BIJOUX INDISCRETS</t>
+          <t>BIORITM</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -7743,12 +7717,12 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Съедобная краска для тела со вкусом</t>
+          <t>Гель-лубрикант на водной основе УСЛАДА</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>id-23282-1299</t>
+          <t>id-2268-1299</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
@@ -7764,44 +7738,44 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23282/23282_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23282/23282_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23282/23282_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/2268/2268_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/2268/2268_2_650.jpg</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Оставляйте на теле партнёра сладкие рисунки и наслаждайтесь близостью со съедобной краской для тела от Bijoux Indiscrets. Воплотите в жизнь свои сексуальные фантазии и ощутите изысканный вкус темного шоколада. Съедобная краска для тела со вкусом темного шоколада Bijoux Indiscrets Poeme (50 г).  Съедобная краска для тела со вкусом темного шоколада Bijoux Indiscrets Poeme (50 г). Модель: bijoux-0122. Косметика, препараты. Аксессуары, украшения для тела &gt; Аксессуары. Эротические сувениры &gt; Сувениры. Аксессуары для игр &gt; Наборы и аксессуары. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: BIJOUX INDISCRETS. </t>
+          <t xml:space="preserve">Витамин В5 и его предшественника провитамин В5 (пантенол-Д) по праву называют витамином красоты. Его недостаток в организме проявляется в увядании и старении: на коже образуются морщинки, на слизистой  трещинки. Поэтому провитамин В5 является незаменимым средством восстановления. Гель-лубрикант Услада с провитамином В5 усиленно регенерирует и интенсивно увлажняет слизистые. Особенно эффективен при сухости влагалища. Обеспечивает нежное проникновение и длительное скольжение при интимной близости, сохраняя целостность слизистых. Обладает заживляющими и смягчающими свойствами. Возвращает сухой и чувствительной слизистой состояние комфорта. Гель-лубрикант Услада с провитамином В5 отлично подходит для профилактического деликатного ухода за слизистой (при сухости влагалища в период климакса, после родов, операций и т.п.) Клиническое исследование показало, что регулярное применение геля-лубриканта с провитамином В5 способствует: -устранению сухости половых органов. -увеличению выделения собственной смазки перед половым актом. -повышению эластичности слизистой влагалища. Применение: перед интимной близостью нанесите тонким слоем на половые органы (половые губы, клитор, вход во влагалище). Для деликатного ухода за слизистой нанесите небольшое количество геля на вход во влагалище 2-3 раза в день после гигиенических процедур. Гель-лубрикант на водной основе УСЛАДА (60 г).  Гель-лубрикант на водной основе УСЛАДА (60 г). Модель: bioritm-00215. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t>60 г</t>
         </is>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t>60 г</t>
         </is>
       </c>
       <c r="W57" t="inlineStr"/>
@@ -7827,7 +7801,7 @@
       <c r="AM57" t="inlineStr"/>
       <c r="AN57" t="inlineStr">
         <is>
-          <t>стеклянная чернильница с краской, перо для росписи</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO57" t="inlineStr">
@@ -7847,13 +7821,13 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>BIJOUX INDISCRETS</t>
+          <t>BIORITM</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -7863,12 +7837,12 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Разогревающее массажное масло со вкусом</t>
+          <t>Классический лубрикант с гиалуроновой</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>id-23277-1299</t>
+          <t>id-2283-1299</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -7884,44 +7858,44 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23277/23277_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23277/23277_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/2283/2283_3_650.jpg</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Разожгите огонь в своем следующем массаже! Ласкайте и дуйте, чтобы максимизировать согревающий эффект, и целуйте каждый дюйм кожи, чтобы насладиться восхитительным ароматом. Разогревающее массажное масло со вкусом карамели и морской соли Light My Fire (100 мл).  Разогревающее массажное масло со вкусом карамели и морской соли Light My Fire (100 мл). Модель: bijoux-0168. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: BIJOUX INDISCRETS. </t>
+          <t xml:space="preserve">MAGIC SEX - это чувственность, нежность, сладкая нега. . Природная формула лубриканта дарит абсолютно естественные ощущения.Гель создан с учетом особенностей организма прекрасной половины человечества. Средство максимально близко копирует женскую смазку и обеспечивает продолжительное скольжение. Идеальный выбор для чувствительной кожи. Благодаря 100% натуральному составу на водной основе и специальному пребиотику лубрикант поддерживает баланс микрофлоры интимной зоны. Гиалуроновая кислота способствует регенерации, дарит интенсивное увлажнение и мягкий уход. MAGIC SEX - сказочное удовольствие и незабываемый восторг взаимного экстаза!.Классический лубрикант с гиалуроновой кислотой Magic Sex (55 г).  Классический лубрикант с гиалуроновой кислотой Magic Sex (55 г). Модель: bioritm-02492. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr">
         <is>
-          <t>100 мл</t>
+          <t>55 г</t>
         </is>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>55</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>100 мл</t>
+          <t>55 г</t>
         </is>
       </c>
       <c r="W58" t="inlineStr"/>
@@ -7973,7 +7947,7 @@
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>BIJOUX INDISCRETS</t>
+          <t>BIORITM</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -7983,12 +7957,12 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Увлажняющий гель для тела Bubblegum 2</t>
+          <t>Классический лубрикант с гиалуроновой</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>id-26939-1299</t>
+          <t>id-1509-1299</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
@@ -8004,44 +7978,44 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26939/26939_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/1509/1509_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/1509/1509_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/1509/1509_4_650.jpg</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Универсальное средство для романтического вечера в шикарном золотом флаконе с дозатором идеально подходит для массажа и удовольствия! Классический аромат жевательной резинки, сладкий, насыщенный и веселый!Силиконовая основа геля делает скольжение долгим и приятным, как во время массажа, так и во время интимной близости. Не рекомендуется использовать с интимными игрушками, как и любые другие средства на силиконовой основе. Увлажняющий гель для тела Bubblegum 2 in 1 - Scented Silicone Massage and Intimate Gel.  Увлажняющий гель для тела Bubblegum 2 in 1 - Scented Silicone Massage and Intimate Gel. Модель: bijoux-0317. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: BIJOUX INDISCRETS. </t>
+          <t xml:space="preserve">MAGIC SEX - это чувственность, нежность, сладкая нега. . Природная формула лубриканта дарит абсолютно естественные ощущения.Гель создан с учетом особенностей организма прекрасной половины человечества. Средство максимально близко копирует женскую смазку и обеспечивает продолжительное скольжение. Идеальный выбор для чувствительной кожи. Благодаря 100% натуральному составу на водной основе и специальному пребиотику лубрикант поддерживает баланс микрофлоры интимной зоны. Гиалуроновая кислота способствует регенерации, дарит интенсивное увлажнение и мягкий уход. MAGIC SEX - сказочное удовольствие и незабываемый восторг взаимного экстаза!.Классический лубрикант с гиалуроновой кислотой Magic Sex (20 г).  Классический лубрикант с гиалуроновой кислотой Magic Sex (20 г). Модель: bioritm-02493. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr">
         <is>
-          <t>100 мл</t>
+          <t>20 г</t>
         </is>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>20</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>100 мл</t>
+          <t>20 г</t>
         </is>
       </c>
       <c r="W59" t="inlineStr"/>
@@ -8087,40 +8061,32 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Поводки эротик</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>BIJOUX INDISCRETS</t>
+          <t>BIORITM</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Кожаный чокер с сердцем и стразами</t>
+          <t>Анальный гель с мятой и гиалуроновой</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>id-20469-1299</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-2281-1299</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
         <v>99999</v>
@@ -8132,44 +8098,44 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20469/20469_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20469/20469_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20469/20469_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20469/20469_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/2281/2281_3_650.jpg</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Изысканный французский вкус раскрылся в этом привлекательном чокере,который может пригодиться и в фетиш-игре и в повседневной жизни,как соблазнительный аксессуар. Кожаный чокер с сердцем и стразами Bijoux Pour Toi.  Кожаный чокер с сердцем и стразами Bijoux Pour Toi. Модель: bijoux-6060050010. БДСМ. БДСМ товары и фетиш &gt; Ошейники, поводки. Аксессуары, украшения для тела &gt; Аксессуары. Цвет: черный с серебряным. Материал: искусственная кожа, металл. Батареек нет в комплекте. Бренд: BIJOUX INDISCRETS. </t>
+          <t xml:space="preserve">Дарит восхитительное чувство комфорта и мягкое безболезненное проникновение при анальном сексе. Формула лубриканта обогащена экстрактом мяты, который снимает возможные неприятные ощущения во время полового акта. Гиалуроновая кислота активно увлажняет и быстро восстанавливает ткани после интимной близости. Anal sex сводит к минимуму вероятность появления микротравм. Комплексный уход, продолжительное скольжение и защита слизистых безупречно сочетаются в одном флаконе. Почувствуй с этим лубрикантом экстремальную свободу, остроту сексуальных ощущений, безопасность и безболезненность. Anal sex можно использовать при различных видах интимной близости. Применение: перед половым контактом нанесите тонким слоем на интимную зону, требующую смазывания. LOVEGEL E ANAL SEX - СТРАСТЬ БЕЗ ГРАНИЦ!.Анальный гель с мятой и гиалуроновой кислотой Anal Sex (55 г).  Анальный гель с мятой и гиалуроновой кислотой Anal Sex (55 г). Модель: bioritm-02509. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Франция</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>искусственная кожа, металл</t>
-        </is>
-      </c>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U60" t="inlineStr"/>
+          <t>55 г</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>55 г</t>
         </is>
       </c>
       <c r="W60" t="inlineStr"/>
@@ -8215,28 +8181,28 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Возбуждающие препараты</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>BIOMANIX</t>
+          <t>BIORITM</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Возбуждающие таблетки для мужчин</t>
+          <t>Возбуждающий лубрикант Hot Sex с</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>id-26873-1299</t>
+          <t>id-2277-1299</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
@@ -8252,12 +8218,12 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26873/26873_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26873/26873_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26873/26873_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26873/26873_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26873/26873_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/2277/2277_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/2277/2277_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/2277/2277_2_650.jpg</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Любой мужчина нуждается в заботе. Особенно важно поддерживать мужскую энергичность и активный образ жизни, сохраняя высокий темп жизнедеятельности. Постоянная борьба со стрессом, усталостью и заболеваниями приводит к ослаблению мужской энергии, потенции, потери сексуального аппетита и уверенности в собственных силах.Тонизирующий и стимулирующий препарат для мужского здоровья BIOMANIX является биологически активной добавкой. Натуральные компоненты безопасны и эффективны. В составе BIOMANIX только самые необходимые и проверенные ингредиенты:    L-аргинин  аминокислота, которая повышает выделение спермы и стимулирует секрецию гормона роста.    Экстракт эврикомы длиннолистной  один из самых эффективных растительных афродизиаков, оказывающий прямое влияние на восстановление потенции и повышение либидо.    Экстракт корня женьшеня  отличный стимулятор сексуального желания, оказывает воздействие на органы эндокринной системы, и значительно усиливает ощущения наслаждения.    Экстракты муира-пуама (дерева потенции) и померанца используются в народной медицине в качестве высокоэффективного средства для лечения импотенции. Кроме этого содержащиеся в составе вещества, например, синефрин, оказывают благотворное влияние: тонизируют нервную систему, повышают работоспособность, активность и энергичность.Рекомендации по применению:Капсулы BIOMANIX принимаются 2 раза в день - утром и вечером по 1 капсуле, запивая небольшим количеством жидкости. Упаковка рассчитана на курсовой прием продолжительностью 21 день. Допустимо однократное применение  за 30-60 минут до полового акта. Не рекомендуется употреблять с алкоголем.Регулярный прием обеспечит мужчине:    Повышение потенции и укрепление эрекции    Улучшение качества спермы    Увеличение продолжительности полового акта    Усиление сексуального влечения и ощущений от оргазма    Нормализацию работы половых желез и кровообращения в органах малого тазаПринимая BIOMANIX по инструкции, ощущение прилива сил и энергии не заставит себя ждать. Начните принимать BIOMANIX прямо сейчас, чтобы почувствовать бодрость, сексуальное желание и жизненный тонус в ближайшее время.Состав: мальтодекстрин, L-аргинин, растительные экстракты (эврикома длиннолистная, корня женьшеня, муира пуама, померанца), антислеживающий агент кремния диоксид.Противопоказания: непереносимость отдельных компонентов, атеросклероз, аритмия, почечная или печеночная недостаточность, перенесенный инсульт или инфаркт, возраст менее 18 лет. Возбуждающие таблетки для мужчин BIOMANIX (42 шт).  Возбуждающие таблетки для мужчин BIOMANIX (42 шт). Модель: bio-94-1. Косметика, препараты. Препараты и возбудители &gt; Возбуждающие средства для мужчин. Препараты и возбудители &gt; Усиление эрекции. Батареек нет в комплекте. Бренд: BIOMANIX. </t>
+          <t xml:space="preserve">Это беспроигрышный вариант для тех, кто любит погорячее. Hot sex с новой силой зажжёт огонь любви и привнесет в отношения желанную чувствительность и безудержную страсть. В состав лубриканта входит экстракт имбиря, который вызывает приятное мягкое ощущение тепла и усиливает половое влечение. Гиалуроновая кислота увлажняет и восстанавливает слизистую. Благодаря нежной текстуре средства скольжение будет длительным, а эмоции  незабываемыми. С гелем Hot sex вы получите максимальное удовольствие и настоящий горячий секс. Применение: перед половым контактом нанесите тонким слоем на интимную зону, требующую смазывания. LOVEGEL C HOT SEX - БЫСТРЫЙ ПУТЬ К ОРГАЗМУ!.Возбуждающий лубрикант Hot Sex с разогревающим эффектом (20 г).  Возбуждающий лубрикант Hot Sex с разогревающим эффектом (20 г). Модель: bioritm-02513. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -8279,13 +8245,17 @@
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U61" t="inlineStr"/>
+          <t>20 г</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>20 г</t>
         </is>
       </c>
       <c r="W61" t="inlineStr"/>
@@ -8311,7 +8281,7 @@
       <c r="AM61" t="inlineStr"/>
       <c r="AN61" t="inlineStr">
         <is>
-          <t>42 капсулы</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO61" t="inlineStr">
@@ -8331,7 +8301,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -8347,12 +8317,12 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Гель-лубрикант на водной основе УСЛАДА</t>
+          <t>Увлажняющая гель-смазка Услада с алое</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>id-2268-1299</t>
+          <t>id-19141-1299</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
@@ -8368,12 +8338,12 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/2268/2268_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/2268/2268_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19141/19141_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19141/19141_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19141/19141_3_650.jpg</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Витамин В5 и его предшественника провитамин В5 (пантенол-Д) по праву называют витамином красоты. Его недостаток в организме проявляется в увядании и старении: на коже образуются морщинки, на слизистой  трещинки. Поэтому провитамин В5 является незаменимым средством восстановления. Гель-лубрикант Услада с провитамином В5 усиленно регенерирует и интенсивно увлажняет слизистые. Особенно эффективен при сухости влагалища. Обеспечивает нежное проникновение и длительное скольжение при интимной близости, сохраняя целостность слизистых. Обладает заживляющими и смягчающими свойствами. Возвращает сухой и чувствительной слизистой состояние комфорта. Гель-лубрикант Услада с провитамином В5 отлично подходит для профилактического деликатного ухода за слизистой (при сухости влагалища в период климакса, после родов, операций и т.п.) Клиническое исследование показало, что регулярное применение геля-лубриканта с провитамином В5 способствует: -устранению сухости половых органов. -увеличению выделения собственной смазки перед половым актом. -повышению эластичности слизистой влагалища. Применение: перед интимной близостью нанесите тонким слоем на половые органы (половые губы, клитор, вход во влагалище). Для деликатного ухода за слизистой нанесите небольшое количество геля на вход во влагалище 2-3 раза в день после гигиенических процедур. Гель-лубрикант на водной основе УСЛАДА (60 г).  Гель-лубрикант на водной основе УСЛАДА (60 г). Модель: bioritm-00215. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Гель-лубрикант Услада с алое вера создан специально для интенсивного ухода за склонными к сухости слизистыми половых органов.Алое вера - уникальное растение, содержащее огромное количество полезных веществ, обладающих целебными свойствами. На протяжении многих веков оно успешно применяется для профилактики и лечения различных заболеваний. Входящий в состав смазки сок алое содержит биоактивный комплекс, способствующий глубокому увлажнению, сохранению упругости и эластичности тканей интимных зон.Гель образует защитный, великолепно скользящий слой. При регулярном использовании смазка восстанавливает необходимый водный баланс.Лубрикант Услада с алое вера:- бережно ухаживает за слизистыми.- активно питает и увлажняет ткани интимных зон.- эффективно устраняет ощущение дискомфорта.- способствует нормализации водного обмена.- прекрасно имитирует женскую смазку.- легко смывается водой.Услада с алое вера - маскимальный комфорт интимных отношений!.Увлажняющая гель-смазка Услада с алое вера (60 г).  Увлажняющая гель-смазка Услада с алое вера (60 г). Модель: bioritm-10007. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -8451,7 +8421,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Эрекционные кольца</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -8462,17 +8432,17 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Классический лубрикант с гиалуроновой</t>
+          <t>Эрекционное кольцо с вибрацией VIBE</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>id-2283-1299</t>
+          <t>id-26470-1299</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
@@ -8488,12 +8458,12 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/2283/2283_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26470/26470_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26470/26470_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26470/26470_3_650.jpg</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t xml:space="preserve">MAGIC SEX - это чувственность, нежность, сладкая нега. . Природная формула лубриканта дарит абсолютно естественные ощущения.Гель создан с учетом особенностей организма прекрасной половины человечества. Средство максимально близко копирует женскую смазку и обеспечивает продолжительное скольжение. Идеальный выбор для чувствительной кожи. Благодаря 100% натуральному составу на водной основе и специальному пребиотику лубрикант поддерживает баланс микрофлоры интимной зоны. Гиалуроновая кислота способствует регенерации, дарит интенсивное увлажнение и мягкий уход. MAGIC SEX - сказочное удовольствие и незабываемый восторг взаимного экстаза!.Классический лубрикант с гиалуроновой кислотой Magic Sex (55 г).  Классический лубрикант с гиалуроновой кислотой Magic Sex (55 г). Модель: bioritm-02492. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Эрекционное кольцо с вибрацией подарит стойкую и продолжительную эрекцию, сделает интимную близость насыщенной и яркой!Секс-игрушка состоит из двух колец, одно из которых надевается на пенис, второе  на мошонку. Шипики и выпуклости на поверхности изделия будут дополнительно стимулировать интимные зоны. Добавит остроты ощущениям режим вибрация.Эрекционное кольцо изготовлено из мягкого, приятного на ощупь материала. Прекрасно растягивается, легко надевается. Просто в использовании и уходе. Эрекционное кольцо с вибрацией VIBE.  Эрекционное кольцо с вибрацией VIBE. Модель: bioritm-10269. Секс-игрушки. Насадки и кольца &gt; Эрекционные. Насадки и кольца &gt; С вибрацией, с ротацией. Цвет: фиолетовый. Материал: эластичный TPR. LR 754 x 1 шт (в комплекте)Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -8511,21 +8481,21 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R63" t="inlineStr"/>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>эластичный TPR</t>
+        </is>
+      </c>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr">
         <is>
-          <t>55 г</t>
-        </is>
-      </c>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr">
         <is>
-          <t>55 г</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W63" t="inlineStr"/>
@@ -8571,7 +8541,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Секс куклы</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -8582,17 +8552,17 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Классический лубрикант с гиалуроновой</t>
+          <t>Темнокожая кукла с вибрацией ЛИОНЕЛЛА</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>id-1509-1299</t>
+          <t>id-28175-1299</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
@@ -8608,12 +8578,12 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/1509/1509_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/1509/1509_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/1509/1509_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28175/28175_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28175/28175_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28175/28175_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28175/28175_4_650.jpg</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t xml:space="preserve">MAGIC SEX - это чувственность, нежность, сладкая нега. . Природная формула лубриканта дарит абсолютно естественные ощущения.Гель создан с учетом особенностей организма прекрасной половины человечества. Средство максимально близко копирует женскую смазку и обеспечивает продолжительное скольжение. Идеальный выбор для чувствительной кожи. Благодаря 100% натуральному составу на водной основе и специальному пребиотику лубрикант поддерживает баланс микрофлоры интимной зоны. Гиалуроновая кислота способствует регенерации, дарит интенсивное увлажнение и мягкий уход. MAGIC SEX - сказочное удовольствие и незабываемый восторг взаимного экстаза!.Классический лубрикант с гиалуроновой кислотой Magic Sex (20 г).  Классический лубрикант с гиалуроновой кислотой Magic Sex (20 г). Модель: bioritm-02493. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Мечты о сексе с темнокожей девушкой могут стать реальностью благодаря этой развратной надувной брюнетке с вибрацией. Реалистичная голова, шикарная грудь с твёрдыми сосками, два призывающих к горячему сексу отверстия, выполненных из нежнейшего материала, вибрация, которая многократно усилит ощущения. . Секс-кукла премиальной линейки создана для того, чтобы сексуальная разрядка достигала высшей стадии!.Темнокожая кукла с вибрацией ЛИОНЕЛЛА.  Темнокожая кукла с вибрацией ЛИОНЕЛЛА. Модель: bioritm-10277. Секс-игрушки. Секс куклы &gt; Премиум класса. Цвет: темнокожая брюнетка. Материал: ПВХ. Батареек нет в комплекте. AA x 2 шт (в комплект не входят)Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -8623,29 +8593,29 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R64" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>ПВХ</t>
+        </is>
+      </c>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr">
         <is>
-          <t>20 г</t>
-        </is>
-      </c>
-      <c r="U64" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr">
         <is>
-          <t>20 г</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W64" t="inlineStr"/>
@@ -8671,7 +8641,7 @@
       <c r="AM64" t="inlineStr"/>
       <c r="AN64" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>кукла, вибро-яйцо, насос</t>
         </is>
       </c>
       <c r="AO64" t="inlineStr">
@@ -8691,7 +8661,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -8707,12 +8677,12 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Анальный гель с мятой и гиалуроновой</t>
+          <t>Анальная силиконовая крем-смазка АCC</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>id-2281-1299</t>
+          <t>id-2273-1299</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
@@ -8728,12 +8698,12 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/2281/2281_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/2273/2273_2_650.jpg</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Дарит восхитительное чувство комфорта и мягкое безболезненное проникновение при анальном сексе. Формула лубриканта обогащена экстрактом мяты, который снимает возможные неприятные ощущения во время полового акта. Гиалуроновая кислота активно увлажняет и быстро восстанавливает ткани после интимной близости. Anal sex сводит к минимуму вероятность появления микротравм. Комплексный уход, продолжительное скольжение и защита слизистых безупречно сочетаются в одном флаконе. Почувствуй с этим лубрикантом экстремальную свободу, остроту сексуальных ощущений, безопасность и безболезненность. Anal sex можно использовать при различных видах интимной близости. Применение: перед половым контактом нанесите тонким слоем на интимную зону, требующую смазывания. LOVEGEL E ANAL SEX - СТРАСТЬ БЕЗ ГРАНИЦ!.Анальный гель с мятой и гиалуроновой кислотой Anal Sex (55 г).  Анальный гель с мятой и гиалуроновой кислотой Anal Sex (55 г). Модель: bioritm-02509. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Уникальный кремлубрикант с эфирными маслами на силиконовой основе. Подходит как для опытных, так и для начинающих пар. Эфирные масла в составе крема способствуют расслаблению мышц ануса, делая вход более свободным, оказывают антибактериальное, заживляющее и дезодорирующее действия. Особая, ни с чем не сравнимая, шелковистая текстура крема обеспечивает легкость проникновения и супердлительное скольжение. Крем-смазка CreamAnal ACC легко смывается водой. Совместим с изделиями из искусственных материалов. Анальная силиконовая крем-смазка АCC (50 мл).  Анальная силиконовая крем-смазка АCC (50 мл). Модель: bioritm-10486. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -8755,17 +8725,17 @@
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr">
         <is>
-          <t>55 г</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>50</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>55 г</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="W65" t="inlineStr"/>
@@ -8827,12 +8797,12 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Возбуждающий лубрикант Hot Sex с</t>
+          <t>Анальная силиконовая крем-смазка ACC</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>id-2277-1299</t>
+          <t>id-4285-1299</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
@@ -8848,12 +8818,12 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/2277/2277_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/2277/2277_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/2277/2277_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/4285/4285_2_650.jpg</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Это беспроигрышный вариант для тех, кто любит погорячее. Hot sex с новой силой зажжёт огонь любви и привнесет в отношения желанную чувствительность и безудержную страсть. В состав лубриканта входит экстракт имбиря, который вызывает приятное мягкое ощущение тепла и усиливает половое влечение. Гиалуроновая кислота увлажняет и восстанавливает слизистую. Благодаря нежной текстуре средства скольжение будет длительным, а эмоции  незабываемыми. С гелем Hot sex вы получите максимальное удовольствие и настоящий горячий секс. Применение: перед половым контактом нанесите тонким слоем на интимную зону, требующую смазывания. LOVEGEL C HOT SEX - БЫСТРЫЙ ПУТЬ К ОРГАЗМУ!.Возбуждающий лубрикант Hot Sex с разогревающим эффектом (20 г).  Возбуждающий лубрикант Hot Sex с разогревающим эффектом (20 г). Модель: bioritm-02513. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Уникальный кремлубрикант с эфирными маслами на силиконовой основе. Подходит как для опытных, так и для начинающих пар. Эфирные масла в составе крема способствуют расслаблению мышц ануса, делая вход более свободным, оказывают антибактериальное, заживляющее и дезодорирующее действия. Особая, ни с чем не сравнимая, шелковистая текстура крема обеспечивает легкость проникновения и супердлительное скольжение. Крем-смазка CreamAnal ACC легко смывается водой. Совместим с изделиями из искусственных материалов. Анальная силиконовая крем-смазка ACC (25 мл).  Анальная силиконовая крем-смазка ACC (25 мл). Модель: bioritm-10487. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -8863,29 +8833,29 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr">
         <is>
-          <t>20 г</t>
+          <t>25 мл</t>
         </is>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>20 г</t>
+          <t>25 мл</t>
         </is>
       </c>
       <c r="W66" t="inlineStr"/>
@@ -8931,7 +8901,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -8947,12 +8917,12 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Увлажняющая гель-смазка Услада с алое</t>
+          <t>Гель-лубрикант Окей для двоих (15 г)</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>id-19141-1299</t>
+          <t>id-4923-1299</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
@@ -8968,12 +8938,12 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/19141/19141_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19141/19141_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19141/19141_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/4923/4923_1_650.jpg</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Гель-лубрикант Услада с алое вера создан специально для интенсивного ухода за склонными к сухости слизистыми половых органов.Алое вера - уникальное растение, содержащее огромное количество полезных веществ, обладающих целебными свойствами. На протяжении многих веков оно успешно применяется для профилактики и лечения различных заболеваний. Входящий в состав смазки сок алое содержит биоактивный комплекс, способствующий глубокому увлажнению, сохранению упругости и эластичности тканей интимных зон.Гель образует защитный, великолепно скользящий слой. При регулярном использовании смазка восстанавливает необходимый водный баланс.Лубрикант Услада с алое вера:- бережно ухаживает за слизистыми.- активно питает и увлажняет ткани интимных зон.- эффективно устраняет ощущение дискомфорта.- способствует нормализации водного обмена.- прекрасно имитирует женскую смазку.- легко смывается водой.Услада с алое вера - маскимальный комфорт интимных отношений!.Увлажняющая гель-смазка Услада с алое вера (60 г).  Увлажняющая гель-смазка Услада с алое вера (60 г). Модель: bioritm-10007. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Из-за недостаточного количества естественной смазки во время интимной близости могут возникнуть неприятные болевые ощущения. О'кей для двоих - это ваш заветный билет в мир комфортного секса. Классический лубрикант на водной основе интенсивно увлажняет слизистые. Обеспечивает достаточное смазывание и скольжение на протяжении всего полового акта. Одобрен гинекологами. Без красителей и ароматизаторов. Имеет нейтральную формулу, поэтому подходит для большинства людей. Не пачкает белье. Смазка совместима с секс-игрушками и презервативами. Применение: перед началом интимной близости нанесите на половые органы. Гель-лубрикант Окей для двоих (15 г).  Гель-лубрикант Окей для двоих (15 г). Модель: bioritm-10966. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -8983,29 +8953,29 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr">
         <is>
-          <t>60 г</t>
+          <t>15 г</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>15</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>60 г</t>
+          <t>15 г</t>
         </is>
       </c>
       <c r="W67" t="inlineStr"/>
@@ -9051,7 +9021,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Эрекционные кольца</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -9062,17 +9032,17 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Эрекционное кольцо с вибрацией VIBE</t>
+          <t>Гель-лубрикант на водной основе ОКЕЙ</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>id-26470-1299</t>
+          <t>id-2265-1299</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
@@ -9088,12 +9058,12 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26470/26470_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26470/26470_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26470/26470_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/2265/2265_1_650.jpg</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эрекционное кольцо с вибрацией подарит стойкую и продолжительную эрекцию, сделает интимную близость насыщенной и яркой!Секс-игрушка состоит из двух колец, одно из которых надевается на пенис, второе  на мошонку. Шипики и выпуклости на поверхности изделия будут дополнительно стимулировать интимные зоны. Добавит остроты ощущениям режим вибрация.Эрекционное кольцо изготовлено из мягкого, приятного на ощупь материала. Прекрасно растягивается, легко надевается. Просто в использовании и уходе. Эрекционное кольцо с вибрацией VIBE.  Эрекционное кольцо с вибрацией VIBE. Модель: bioritm-10269. Секс-игрушки. Насадки и кольца &gt; Эрекционные. Насадки и кольца &gt; С вибрацией, с ротацией. Цвет: фиолетовый. Материал: эластичный TPR. LR 754 x 1 шт (в комплекте)Бренд: BIORITM. </t>
+          <t xml:space="preserve">Из-за недостаточного количества естественной смазки во время интимной близости могут возникнуть неприятные болевые ощущения. О'кей для двоих - это ваш заветный билет в мир комфортного секса. Классический лубрикант на водной основе интенсивно увлажняет слизистые. Обеспечивает достаточное смазывание и скольжение на протяжении всего полового акта. Одобрен гинекологами. Без красителей и ароматизаторов. Имеет нейтральную формулу, поэтому подходит для большинства людей. Не пачкает белье. Смазка совместима с секс-игрушками и презервативами. Применение: перед началом интимной близости нанесите на половые органы. Гель-лубрикант на водной основе ОКЕЙ (50 г).  Гель-лубрикант на водной основе ОКЕЙ (50 г). Модель: bioritm-10967. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -9111,21 +9081,21 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>эластичный TPR</t>
-        </is>
-      </c>
+      <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U68" t="inlineStr"/>
+          <t>50 г</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="W68" t="inlineStr"/>
@@ -9187,12 +9157,12 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Анальная силиконовая крем-смазка АCC</t>
+          <t>Универсальный лубрикант на водной</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>id-2273-1299</t>
+          <t>id-2270-1299</t>
         </is>
       </c>
       <c r="H69" t="inlineStr"/>
@@ -9208,12 +9178,12 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/2273/2273_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/2270/2270_1_650.jpg</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Уникальный кремлубрикант с эфирными маслами на силиконовой основе. Подходит как для опытных, так и для начинающих пар. Эфирные масла в составе крема способствуют расслаблению мышц ануса, делая вход более свободным, оказывают антибактериальное, заживляющее и дезодорирующее действия. Особая, ни с чем не сравнимая, шелковистая текстура крема обеспечивает легкость проникновения и супердлительное скольжение. Крем-смазка CreamAnal ACC легко смывается водой. Совместим с изделиями из искусственных материалов. Анальная силиконовая крем-смазка АCC (50 мл).  Анальная силиконовая крем-смазка АCC (50 мл). Модель: bioritm-10486. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Из-за недостаточного количества естественной смазки во время интимной близости могут возникнуть неприятные болевые ощущения. О'кей для двоих - это ваш заветный билет в мир комфортного секса. Классический лубрикант на водной основе интенсивно увлажняет слизистые. Обеспечивает достаточное смазывание и скольжение на протяжении всего полового акта. Одобрен гинекологами. Без красителей и ароматизаторов. Имеет нейтральную формулу, поэтому подходит для большинства людей. Не пачкает белье. Смазка совместима с секс-игрушками и презервативами. Применение: перед началом интимной близости нанесите на половые органы. Универсальный лубрикант на водной основе ОКЕЙ (100 г).  Универсальный лубрикант на водной основе ОКЕЙ (100 г). Модель: bioritm-10968. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -9235,17 +9205,17 @@
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr">
         <is>
-          <t>50 мл</t>
+          <t>100 г</t>
         </is>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>50 мл</t>
+          <t>100 г</t>
         </is>
       </c>
       <c r="W69" t="inlineStr"/>
@@ -9307,12 +9277,12 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Анальная силиконовая крем-смазка ACC</t>
+          <t>Анальный антибактериальный гель на</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>id-4285-1299</t>
+          <t>id-12978-1299</t>
         </is>
       </c>
       <c r="H70" t="inlineStr"/>
@@ -9328,12 +9298,12 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/4285/4285_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12978/12978_1_650.jpg</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Уникальный кремлубрикант с эфирными маслами на силиконовой основе. Подходит как для опытных, так и для начинающих пар. Эфирные масла в составе крема способствуют расслаблению мышц ануса, делая вход более свободным, оказывают антибактериальное, заживляющее и дезодорирующее действия. Особая, ни с чем не сравнимая, шелковистая текстура крема обеспечивает легкость проникновения и супердлительное скольжение. Крем-смазка CreamAnal ACC легко смывается водой. Совместим с изделиями из искусственных материалов. Анальная силиконовая крем-смазка ACC (25 мл).  Анальная силиконовая крем-смазка ACC (25 мл). Модель: bioritm-10487. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Приятно разнообразить сексуальную жизнь поможет мягкий водно-силиконовый крем ОКей Anal. Отлично подходит парам, практикующим анальный секс. Обеспечивает нежное, устойчивое и длительное скольжение. Обладает антисептическим действием, защищает от инфицирования. Смывается водой. Может использоваться с секс-игрушками. Анальный антибактериальный гель на водной основе ОКЕЙ  Anal (50 г).  Анальный антибактериальный гель на водной основе ОКЕЙ  Anal (50 г). Модель: bioritm-10970. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -9343,29 +9313,29 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr">
         <is>
-          <t>25 мл</t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>25 мл</t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="W70" t="inlineStr"/>
@@ -9427,12 +9397,12 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Гель-лубрикант Окей для двоих (15 г)</t>
+          <t>Анальный гель Intim Bluz (20 г)</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>id-4923-1299</t>
+          <t>id-6807-1299</t>
         </is>
       </c>
       <c r="H71" t="inlineStr"/>
@@ -9448,12 +9418,12 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/4923/4923_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/6807/6807_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/6807/6807_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/6807/6807_4_650.jpg</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Из-за недостаточного количества естественной смазки во время интимной близости могут возникнуть неприятные болевые ощущения. О'кей для двоих - это ваш заветный билет в мир комфортного секса. Классический лубрикант на водной основе интенсивно увлажняет слизистые. Обеспечивает достаточное смазывание и скольжение на протяжении всего полового акта. Одобрен гинекологами. Без красителей и ароматизаторов. Имеет нейтральную формулу, поэтому подходит для большинства людей. Не пачкает белье. Смазка совместима с секс-игрушками и презервативами. Применение: перед началом интимной близости нанесите на половые органы. Гель-лубрикант Окей для двоих (15 г).  Гель-лубрикант Окей для двоих (15 г). Модель: bioritm-10966. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Нежный и бережный анальный лубрикант на водной основе отлично подойдет начинающим парам. Ухаживающая формула увлажняет кожу и способствует легкому проникновению. Специальные компоненты, входящие в состав, снимают болевые ощущения. Гель-лубрикант Intim Bluz обеспечивает легкое и длительное скольжение. Защищает от инфицирования. Совместим с изделиями из искусственных материалов. Применение: нанесите на участок тела, требующий смазывания. Анальный гель Intim Bluz (20 г).  Анальный гель Intim Bluz (20 г). Модель: bioritm-10975. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -9463,29 +9433,29 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr">
         <is>
-          <t>15 г</t>
+          <t>20 г</t>
         </is>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>15 г</t>
+          <t>20 г</t>
         </is>
       </c>
       <c r="W71" t="inlineStr"/>
@@ -9547,12 +9517,12 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Гель-лубрикант на водной основе ОКЕЙ</t>
+          <t>Анальный гель на водной основе Intim</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>id-2265-1299</t>
+          <t>id-13008-1299</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
@@ -9568,12 +9538,12 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/2265/2265_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/13008/13008_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13008/13008_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13008/13008_3_650.jpg</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Из-за недостаточного количества естественной смазки во время интимной близости могут возникнуть неприятные болевые ощущения. О'кей для двоих - это ваш заветный билет в мир комфортного секса. Классический лубрикант на водной основе интенсивно увлажняет слизистые. Обеспечивает достаточное смазывание и скольжение на протяжении всего полового акта. Одобрен гинекологами. Без красителей и ароматизаторов. Имеет нейтральную формулу, поэтому подходит для большинства людей. Не пачкает белье. Смазка совместима с секс-игрушками и презервативами. Применение: перед началом интимной близости нанесите на половые органы. Гель-лубрикант на водной основе ОКЕЙ (50 г).  Гель-лубрикант на водной основе ОКЕЙ (50 г). Модель: bioritm-10967. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Нежный и бережный анальный лубрикант на водной основе отлично подойдет начинающим парам. Ухаживающая формула увлажняет кожу и способствует легкому проникновению. Специальные компоненты, входящие в состав, снимают болевые ощущения. Гель-лубрикант Intim Bluz обеспечивает легкое и длительное скольжение. Защищает от инфицирования. Совместим с изделиями из искусственных материалов. Применение: нанесите на участок тела, требующий смазывания. Анальный гель на водной основе Intim Bluz (50 г).  Анальный гель на водной основе Intim Bluz (50 г). Модель: bioritm-10976. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -9667,12 +9637,12 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Универсальный лубрикант на водной</t>
+          <t>Возбуждающий лубрикант Stimulove STRONG</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>id-2270-1299</t>
+          <t>id-5669-1299</t>
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
@@ -9688,12 +9658,12 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/2270/2270_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/5669/5669_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/5669/5669_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/5669/5669_3_650.jpg</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Из-за недостаточного количества естественной смазки во время интимной близости могут возникнуть неприятные болевые ощущения. О'кей для двоих - это ваш заветный билет в мир комфортного секса. Классический лубрикант на водной основе интенсивно увлажняет слизистые. Обеспечивает достаточное смазывание и скольжение на протяжении всего полового акта. Одобрен гинекологами. Без красителей и ароматизаторов. Имеет нейтральную формулу, поэтому подходит для большинства людей. Не пачкает белье. Смазка совместима с секс-игрушками и презервативами. Применение: перед началом интимной близости нанесите на половые органы. Универсальный лубрикант на водной основе ОКЕЙ (100 г).  Универсальный лубрикант на водной основе ОКЕЙ (100 г). Модель: bioritm-10968. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Идеально подходит любителям острых ощущений и сильных эмоций. Обладает мгновенным разогревающим эффектом длительного действия (до 40 минут). Быстро повышает сексуальное желание у обоих партнеров. Усиливает чувствительность, придает темпераментность. Обеспечивает продолжительное скольжение. Легко смывается водой.Применение: нанесите тонким слоем перед половым контактом. Доза подбирается индивидуально, начиная с 1-2 капель.StimuLove strong - жгучая страсть ваших отношений!.Возбуждающий лубрикант Stimulove STRONG мощного действия (20 г).  Возбуждающий лубрикант Stimulove STRONG мощного действия (20 г). Модель: bioritm-10984. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -9715,17 +9685,17 @@
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr">
         <is>
-          <t>100 г</t>
+          <t>20 г</t>
         </is>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>20</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>100 г</t>
+          <t>20 г</t>
         </is>
       </c>
       <c r="W73" t="inlineStr"/>
@@ -9787,12 +9757,12 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Анальный антибактериальный гель на</t>
+          <t>Возбуждающий лубрикант мощного действия</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>id-12978-1299</t>
+          <t>id-13006-1299</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
@@ -9808,12 +9778,12 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/12978/12978_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/13006/13006_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13006/13006_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13006/13006_3_650.jpg</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Приятно разнообразить сексуальную жизнь поможет мягкий водно-силиконовый крем ОКей Anal. Отлично подходит парам, практикующим анальный секс. Обеспечивает нежное, устойчивое и длительное скольжение. Обладает антисептическим действием, защищает от инфицирования. Смывается водой. Может использоваться с секс-игрушками. Анальный антибактериальный гель на водной основе ОКЕЙ  Anal (50 г).  Анальный антибактериальный гель на водной основе ОКЕЙ  Anal (50 г). Модель: bioritm-10970. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Идеально подходит любителям острых ощущений и сильных эмоций. Обладает мгновенным разогревающим эффектом длительного действия (до 40 минут). Быстро повышает сексуальное желание у обоих партнеров. Усиливает чувствительность, придает темпераментность. Обеспечивает продолжительное скольжение. Легко смывается водой.Применение: нанесите тонким слоем перед половым контактом. Доза подбирается индивидуально, начиная с 1-2 капель.StimuLove strong - жгучая страсть ваших отношений!.Возбуждающий лубрикант мощного действия Stimulove STRONG (50 г).  Возбуждающий лубрикант мощного действия Stimulove STRONG (50 г). Модель: bioritm-10985. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -9907,12 +9877,12 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Анальный гель Intim Bluz (20 г)</t>
+          <t>Возбуждающий гель-лубрикант Stimulove</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>id-6807-1299</t>
+          <t>id-5668-1299</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
@@ -9928,12 +9898,12 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/6807/6807_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/6807/6807_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/6807/6807_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/5668/5668_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/5668/5668_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/5668/5668_2_650.jpg</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нежный и бережный анальный лубрикант на водной основе отлично подойдет начинающим парам. Ухаживающая формула увлажняет кожу и способствует легкому проникновению. Специальные компоненты, входящие в состав, снимают болевые ощущения. Гель-лубрикант Intim Bluz обеспечивает легкое и длительное скольжение. Защищает от инфицирования. Совместим с изделиями из искусственных материалов. Применение: нанесите на участок тела, требующий смазывания. Анальный гель Intim Bluz (20 г).  Анальный гель Intim Bluz (20 г). Модель: bioritm-10975. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Помогает почувствовать нежность каждого прикосновения. Чуткие натуры по достоинству оценят приятный разогревающий эффект (продолжительностью до 20 минут). Повышает сексуальное желание у обоих партнеров. Предварительные ласки и сладкие поцелуи идеально дополнят возбуждающее действие геля. Лубрикант обеспечивает долгое и чувственное скольжение. Легко смывается водой.Применение: нанесите тонким слоем перед половым контактом. Доза подбирается индивидуально, начиная с 1-2 капель.Секс со StimuLove light украсит нежный романтический вечер.Возбуждающий гель-лубрикант Stimulove Light легкого действия (20 г).  Возбуждающий гель-лубрикант Stimulove Light легкого действия (20 г). Модель: bioritm-10987. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -10027,12 +9997,12 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Анальный гель на водной основе Intim</t>
+          <t>Возбуждающий гель-лубрикант Stimulove</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>id-13008-1299</t>
+          <t>id-13005-1299</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
@@ -10048,12 +10018,12 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/13008/13008_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13008/13008_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13008/13008_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/13005/13005_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13005/13005_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13005/13005_2_650.jpg</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нежный и бережный анальный лубрикант на водной основе отлично подойдет начинающим парам. Ухаживающая формула увлажняет кожу и способствует легкому проникновению. Специальные компоненты, входящие в состав, снимают болевые ощущения. Гель-лубрикант Intim Bluz обеспечивает легкое и длительное скольжение. Защищает от инфицирования. Совместим с изделиями из искусственных материалов. Применение: нанесите на участок тела, требующий смазывания. Анальный гель на водной основе Intim Bluz (50 г).  Анальный гель на водной основе Intim Bluz (50 г). Модель: bioritm-10976. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Помогает почувствовать нежность каждого прикосновения. Чуткие натуры по достоинству оценят приятный разогревающий эффект (продолжительностью до 20 минут). Повышает сексуальное желание у обоих партнеров. Предварительные ласки и сладкие поцелуи идеально дополнят возбуждающее действие геля. Лубрикант обеспечивает долгое и чувственное скольжение. Легко смывается водой.Применение: нанесите тонким слоем перед половым контактом. Доза подбирается индивидуально, начиная с 1-2 капель.Секс со StimuLove light украсит нежный романтический вечер.Возбуждающий гель-лубрикант Stimulove Light легкого действия (50 г).  Возбуждающий гель-лубрикант Stimulove Light легкого действия (50 г). Модель: bioritm-10988. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -10147,12 +10117,12 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Возбуждающий лубрикант Stimulove STRONG</t>
+          <t>Анальная силиконовая смазка ANALOVE ММ7</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>id-5669-1299</t>
+          <t>id-4732-1299</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
@@ -10168,12 +10138,12 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/5669/5669_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/5669/5669_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/5669/5669_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/4732/4732_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/4732/4732_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/4732/4732_5_650.jpg</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Идеально подходит любителям острых ощущений и сильных эмоций. Обладает мгновенным разогревающим эффектом длительного действия (до 40 минут). Быстро повышает сексуальное желание у обоих партнеров. Усиливает чувствительность, придает темпераментность. Обеспечивает продолжительное скольжение. Легко смывается водой.Применение: нанесите тонким слоем перед половым контактом. Доза подбирается индивидуально, начиная с 1-2 капель.StimuLove strong - жгучая страсть ваших отношений!.Возбуждающий лубрикант Stimulove STRONG мощного действия (20 г).  Возбуждающий лубрикант Stimulove STRONG мощного действия (20 г). Модель: bioritm-10984. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Прозрачная густая водно-силиконовая смазка способствует легкому и безболезненному проникновению при анальном сексе. Обладает антисептическими свойствами. Крем-лубрикант AnaLove из серии Ты и Я рекомендуется для повышения качества и безопасности интимных отношений. Идеально подходит для тех, кто приобретает опыт анального секса впервые. Дарит ни с чем несравнимое супердлительное скольжение. Совместим с изделиями из искусственных материалов. Анальная силиконовая смазка ANALOVE ММ7 (20 г).  Анальная силиконовая смазка ANALOVE ММ7 (20 г). Модель: bioritm-10990. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -10183,12 +10153,12 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R77" t="inlineStr"/>
@@ -10267,12 +10237,12 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Возбуждающий лубрикант мощного действия</t>
+          <t>Анальная силиконовая смазка ANALOVE 50</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>id-13006-1299</t>
+          <t>id-13002-1299</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
@@ -10288,12 +10258,12 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/13006/13006_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13006/13006_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13006/13006_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/13002/13002_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13002/13002_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13002/13002_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13002/13002_2_650.jpg</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Идеально подходит любителям острых ощущений и сильных эмоций. Обладает мгновенным разогревающим эффектом длительного действия (до 40 минут). Быстро повышает сексуальное желание у обоих партнеров. Усиливает чувствительность, придает темпераментность. Обеспечивает продолжительное скольжение. Легко смывается водой.Применение: нанесите тонким слоем перед половым контактом. Доза подбирается индивидуально, начиная с 1-2 капель.StimuLove strong - жгучая страсть ваших отношений!.Возбуждающий лубрикант мощного действия Stimulove STRONG (50 г).  Возбуждающий лубрикант мощного действия Stimulove STRONG (50 г). Модель: bioritm-10985. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Прозрачная густая водно-силиконовая смазка способствует легкому и безболезненному проникновению при анальном сексе. Обладает антисептическими свойствами. Крем-лубрикант AnaLove из серии Ты и Я рекомендуется для повышения качества и безопасности интимных отношений. Идеально подходит для тех, кто приобретает опыт анального секса впервые. Дарит ни с чем несравнимое супердлительное скольжение. Совместим с изделиями из искусственных материалов. Анальная силиконовая смазка ANALOVE (50 г).  Анальная силиконовая смазка ANALOVE (50 г). Модель: bioritm-10991. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -10371,7 +10341,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -10382,17 +10352,17 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Возбуждающий гель-лубрикант Stimulove</t>
+          <t>Крем-пролонгатор LONG PLAY (15 мл)</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>id-5668-1299</t>
+          <t>id-3357-1299</t>
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
@@ -10408,12 +10378,12 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/5668/5668_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/5668/5668_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/5668/5668_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/3357/3357_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3357/3357_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3357/3357_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3357/3357_5_650.jpg</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Помогает почувствовать нежность каждого прикосновения. Чуткие натуры по достоинству оценят приятный разогревающий эффект (продолжительностью до 20 минут). Повышает сексуальное желание у обоих партнеров. Предварительные ласки и сладкие поцелуи идеально дополнят возбуждающее действие геля. Лубрикант обеспечивает долгое и чувственное скольжение. Легко смывается водой.Применение: нанесите тонким слоем перед половым контактом. Доза подбирается индивидуально, начиная с 1-2 капель.Секс со StimuLove light украсит нежный романтический вечер.Возбуждающий гель-лубрикант Stimulove Light легкого действия (20 г).  Возбуждающий гель-лубрикант Stimulove Light легкого действия (20 г). Модель: bioritm-10987. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Сексуальные отношения будут такими же долгоиграющими, как и действие от крема Long play. Средство легко впитывается и быстро понижает чувствительность головки полового члена, благодаря чему появляется сильный пролонгирующий эффект. Дальше дело техники. Ухаживает за кожей полового члена. Начинает действовать спустя 7-10 минут с момента нанесения. Применение: за 7-10 минут до интимной близости крем мягко втирается в головку полового члена до полного впитывания. Доза подбирается индивидуально, начиная с 1-2 капель. Крем-пролонгатор LONG PLAY (15 мл).  Крем-пролонгатор LONG PLAY (15 мл). Модель: bioritm-11003. Косметика, препараты. Смазки, косметика &gt; Пролонгирующие смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -10435,17 +10405,17 @@
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr">
         <is>
-          <t>20 г</t>
+          <t>15 мл</t>
         </is>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>20 г</t>
+          <t>15 мл</t>
         </is>
       </c>
       <c r="W79" t="inlineStr"/>
@@ -10507,12 +10477,12 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Возбуждающий гель-лубрикант Stimulove</t>
+          <t>Гель-лубрикант анальный Lovegel E</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>id-13005-1299</t>
+          <t>id-8043-1299</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
@@ -10528,12 +10498,12 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/13005/13005_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13005/13005_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13005/13005_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/8043/8043_1_650.jpg</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Помогает почувствовать нежность каждого прикосновения. Чуткие натуры по достоинству оценят приятный разогревающий эффект (продолжительностью до 20 минут). Повышает сексуальное желание у обоих партнеров. Предварительные ласки и сладкие поцелуи идеально дополнят возбуждающее действие геля. Лубрикант обеспечивает долгое и чувственное скольжение. Легко смывается водой.Применение: нанесите тонким слоем перед половым контактом. Доза подбирается индивидуально, начиная с 1-2 капель.Секс со StimuLove light украсит нежный романтический вечер.Возбуждающий гель-лубрикант Stimulove Light легкого действия (50 г).  Возбуждающий гель-лубрикант Stimulove Light легкого действия (50 г). Модель: bioritm-10988. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Дарит восхитительное чувство комфорта и мягкое безболезненное проникновение при анальном сексе. Формула лубриканта обогащена экстрактом мяты, который снимает возможные неприятные ощущения во время полового акта. Гиалуроновая кислота активно увлажняет и быстро восстанавливает ткани после интимной близости. Anal sex сводит к минимуму вероятность появления микротравм. Комплексный уход, продолжительное скольжение и защита слизистых безупречно сочетаются в одном флаконе. Почувствуй с этим лубрикантом экстремальную свободу, остроту сексуальных ощущений, безопасность и безболезненность. Anal sex можно использовать при различных видах интимной близости. Применение: перед половым контактом нанесите тонким слоем на интимную зону, требующую смазывания. LOVEGEL E ANAL SEX - СТРАСТЬ БЕЗ ГРАНИЦ!.Гель-лубрикант анальный Lovegel E Extreme с экстрактом мяты, 4 г (в упаковке 5 шт).  Гель-лубрикант анальный Lovegel E Extreme с экстрактом мяты, 4 г (в упаковке 5 шт). Модель: bioritm-11313. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -10555,17 +10525,17 @@
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t>4 г</t>
         </is>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>4</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t>4 г</t>
         </is>
       </c>
       <c r="W80" t="inlineStr"/>
@@ -10627,12 +10597,12 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Анальная силиконовая смазка ANALOVE ММ7</t>
+          <t>Гель лубрикант Lovegel M Magic, 4 г в</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>id-4732-1299</t>
+          <t>id-8042-1299</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
@@ -10648,12 +10618,12 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/4732/4732_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/4732/4732_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/4732/4732_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/8042/8042_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/8042/8042_1_650.jpg</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Прозрачная густая водно-силиконовая смазка способствует легкому и безболезненному проникновению при анальном сексе. Обладает антисептическими свойствами. Крем-лубрикант AnaLove из серии Ты и Я рекомендуется для повышения качества и безопасности интимных отношений. Идеально подходит для тех, кто приобретает опыт анального секса впервые. Дарит ни с чем несравнимое супердлительное скольжение. Совместим с изделиями из искусственных материалов. Анальная силиконовая смазка ANALOVE ММ7 (20 г).  Анальная силиконовая смазка ANALOVE ММ7 (20 г). Модель: bioritm-10990. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">LOVEGEL M MAGIC SEX - ГЕЛЬ-ЛУБРИКАНТ С 100% НАТУРАЛЬНЫМ СОСТАВОМ Магия чувств и нежности слились в природной формуле лубриканта. Гель дарит абсолютно естественные ощущения. Создан с учетом особенностей женского организма. Максимально близко копирует женскую смазку и обеспечивает продолжительное скольжение. Идеальный выбор для чувствительной кожи. Благодаря 100% натуральному составу на водной основе и специальному пребиотику лубрикант поддерживает естественный баланс микрофлоры интимной зоны. Гиалуроновая кислота способствует регенерации, дарит интенсивное увлажнение и мягкий уход. Magic sex - сказочное удовольствие и незабываемый восторг взаимного экстаза! Применение: перед половым контактом нанесите тонким слоем на интимную зону, требующую смазывания. LOVEGEL M MAGIC SEX - НЕЖНОСТЬ ВАШЕЙ ЛЮБВИ!.Гель лубрикант Lovegel M Magic, 4 г (в упаковке 5 шт).  Гель лубрикант Lovegel M Magic, 4 г (в упаковке 5 шт). Модель: bioritm-11315. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -10663,29 +10633,29 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr">
         <is>
-          <t>20 г</t>
+          <t>4 г</t>
         </is>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>4</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>20 г</t>
+          <t>4 г</t>
         </is>
       </c>
       <c r="W81" t="inlineStr"/>
@@ -10747,12 +10717,12 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Анальная силиконовая смазка ANALOVE 50</t>
+          <t>Анальный гель-лубрикант Intim Anal 60 г</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>id-13002-1299</t>
+          <t>id-6728-1299</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
@@ -10768,12 +10738,12 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/13002/13002_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13002/13002_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13002/13002_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13002/13002_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/6728/6728_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/6728/6728_1_650.jpg</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Прозрачная густая водно-силиконовая смазка способствует легкому и безболезненному проникновению при анальном сексе. Обладает антисептическими свойствами. Крем-лубрикант AnaLove из серии Ты и Я рекомендуется для повышения качества и безопасности интимных отношений. Идеально подходит для тех, кто приобретает опыт анального секса впервые. Дарит ни с чем несравнимое супердлительное скольжение. Совместим с изделиями из искусственных материалов. Анальная силиконовая смазка ANALOVE (50 г).  Анальная силиконовая смазка ANALOVE (50 г). Модель: bioritm-10991. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">В порыве чувств помни, что во время анального секса нужны особые средства. Intim anal отлично сочетает долгое скольжение с мягкой, бережной защитой. Он обеспечивает нежное проникновение и создает необходимую увлажненность, способствуя только комфортным ощущениям во время секса. Легко смывается водой. Без запаха. Сочетается с изделиями из латекса и синтетических материалов. Применение: непосредственно перед интимной близостью нанесите тонким слоем на области, требующие смазывания. Анальный гель-лубрикант Intim Anal 60 г.  Анальный гель-лубрикант Intim Anal 60 г. Модель: bioritm-11934. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -10795,17 +10765,17 @@
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t>60 г</t>
         </is>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t>60 г</t>
         </is>
       </c>
       <c r="W82" t="inlineStr"/>
@@ -10851,7 +10821,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -10867,12 +10837,12 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Cиликоновая анальная смазка AnaLove, 4</t>
+          <t>Анальный гель с мятой и гиалуроновой</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>id-7754-1299</t>
+          <t>id-2280-1299</t>
         </is>
       </c>
       <c r="H83" t="inlineStr"/>
@@ -10888,12 +10858,12 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/7754/7754_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/2280/2280_3_650.jpg</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Прозрачная густая водно-силиконовая смазка способствует легкому и безболезненному проникновению при анальном сексе. Обладает антисептическими свойствами. Крем-лубрикант AnaLove из серии Ты и Я рекомендуется для повышения качества и безопасности интимных отношений. Идеально подходит для тех, кто приобретает опыт анального секса впервые. Дарит ни с чем несравнимое супердлительное скольжение. Совместим с изделиями из искусственных материалов. Cиликоновая анальная смазка AnaLove, 4 г (в упаковке 5 шт).  Cиликоновая анальная смазка AnaLove, 4 г (в упаковке 5 шт). Модель: bioritm-11-327. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Дарит восхитительное чувство комфорта и мягкое безболезненное проникновение при анальном сексе. Формула лубриканта обогащена экстрактом мяты, который снимает возможные неприятные ощущения во время полового акта. Гиалуроновая кислота активно увлажняет и быстро восстанавливает ткани после интимной близости. Anal sex сводит к минимуму вероятность появления микротравм. Комплексный уход, продолжительное скольжение и защита слизистых безупречно сочетаются в одном флаконе. Почувствуй с этим лубрикантом экстремальную с</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -10915,17 +10885,17 @@
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr">
         <is>
-          <t>5 * 4 г</t>
+          <t>20 г</t>
         </is>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>5 * 4</t>
+          <t>20</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>5 * 4 г</t>
+          <t>20 г</t>
         </is>
       </c>
       <c r="W83" t="inlineStr"/>
@@ -10951,7 +10921,7 @@
       <c r="AM83" t="inlineStr"/>
       <c r="AN83" t="inlineStr">
         <is>
-          <t>5 пробников</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO83" t="inlineStr">
@@ -10987,12 +10957,12 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Крем-пролонгатор LONG PLAY (15 мл)</t>
+          <t>Крем для увеличения пениса BIG PEN 50</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>id-3357-1299</t>
+          <t>id-10879-1299</t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
@@ -11008,12 +10978,12 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/3357/3357_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3357/3357_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3357/3357_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3357/3357_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/10879/10879_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/10879/10879_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/10879/10879_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/10879/10879_5_650.jpg</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сексуальные отношения будут такими же долгоиграющими, как и действие от крема Long play. Средство легко впитывается и быстро понижает чувствительность головки полового члена, благодаря чему появляется сильный пролонгирующий эффект. Дальше дело техники. Ухаживает за кожей полового члена. Начинает действовать спустя 7-10 минут с момента нанесения. Применение: за 7-10 минут до интимной близости крем мягко втирается в головку полового члена до полного впитывания. Доза подбирается индивидуально, начиная с 1-2 капель. Крем-пролонгатор LONG PLAY (15 мл).  Крем-пролонгатор LONG PLAY (15 мл). Модель: bioritm-11003. Косметика, препараты. Смазки, косметика &gt; Пролонгирующие смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Увеличить размер пениса также легко, как, например, бицепсов. Для этого используется специальная методика - пенбилдинг (от слов penis и building, т.е. дословно построение пениса). Это постепенное механическое растяжения пениса мужчины до желаемых размеров. За счет удлинения кровенаполнение полового органа значительно увеличивается во время эрекции. Член становится большим и упругим. Крем Big Pen  персональный тренер и помощник для занятий пенбилдингом. Разогревая кожу полового члена, он настраивает своего обладателя на спортивный лад и предстоящие упражнения. Средство разработано специально для максимального комфорта: комбинирует нежное и супердлительное скольжение масла и приятную упругость крема. Исключительный уровень комфорта и приятных ощущений сочетается с особенной структурой. Tingle-эффект является уникальным свойством Big Pen. Это чувство покалывания и дрожи, которое возникает за счет быстрого проникновения активных компонентов и дает реальное ощущение происходящих изменений. Крем обогащен натуральными компонентами. Смесь экстрактов (каштан конский, гинко билоба, иглица шиповатая) эффективно укрепляет стенки кровеносных сосудов и улучшает кровообращение, делает соединительные ткани эластичными и легко растяжимыми. Южноамериканское дерево потенции муира пуама с древних времен используется в народной медицине в качестве средства, которое то, что мягкое, делает твердым. Женьшень оказывает тонизирующее и стимулирующее действие. Природный афродизиак имбирь вызывает и усиливает половое влечение. Применение: ежедневно (в течение курса 10-14 дней) наносите крем на ствол и головку полового члена массирующими движениями до полного впитывания. После чего приступайте к специальным упражнениям. Длительность занятий пенбилдингом в среднем составляет 15-20 минут в день. Упражнения подробно описаны в инструкции, прилагаемой к крему Big Pen. Крем для увеличения пениса BIG PEN (50 г).  Крем для увеличения пениса BIG PEN (50 г). Модель: bioritm-12841. Косметика, препараты. Увеличение пениса &gt; Кремы, препараты. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -11035,17 +11005,17 @@
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr">
         <is>
-          <t>15 мл</t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>50</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>15 мл</t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="W84" t="inlineStr"/>
@@ -11091,7 +11061,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -11107,12 +11077,12 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Гель-лубрикант анальный Lovegel E</t>
+          <t>Масло Eros для эротического массажа с</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>id-8043-1299</t>
+          <t>id-18397-1299</t>
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
@@ -11128,17 +11098,17 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/8043/8043_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/18397/18397_2_650.jpg</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Дарит восхитительное чувство комфорта и мягкое безболезненное проникновение при анальном сексе. Формула лубриканта обогащена экстрактом мяты, который снимает возможные неприятные ощущения во время полового акта. Гиалуроновая кислота активно увлажняет и быстро восстанавливает ткани после интимной близости. Anal sex сводит к минимуму вероятность появления микротравм. Комплексный уход, продолжительное скольжение и защита слизистых безупречно сочетаются в одном флаконе. Почувствуй с этим лубрикантом экстремальную свободу, остроту сексуальных ощущений, безопасность и безболезненность. Anal sex можно использовать при различных видах интимной близости. Применение: перед половым контактом нанесите тонким слоем на интимную зону, требующую смазывания. LOVEGEL E ANAL SEX - СТРАСТЬ БЕЗ ГРАНИЦ!.Гель-лубрикант анальный Lovegel E Extreme с экстрактом мяты, 4 г (в упаковке 5 шт).  Гель-лубрикант анальный Lovegel E Extreme с экстрактом мяты, 4 г (в упаковке 5 шт). Модель: bioritm-11313. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Побалуйте себя великолепным ароматом. Масло для эротического массажа Eros fantasy вызывает ощущение тепла, особенно при дуновении. Повышает чувствительность. Имеет приятный аромат земляники и сладкий вкус. Eros fantasy обеспечивают длительное скольжение. Легко смывается водой. Масло Eros для эротического массажа с ароматом земляники (75 мл).  Масло Eros для эротического массажа с ароматом земляники (75 мл). Модель: bioritm-13015. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
@@ -11155,17 +11125,17 @@
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr">
         <is>
-          <t>4 г</t>
+          <t>75 мл</t>
         </is>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>75</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>4 г</t>
+          <t>75 мл</t>
         </is>
       </c>
       <c r="W85" t="inlineStr"/>
@@ -11211,7 +11181,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -11227,12 +11197,12 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Гель лубрикант Lovegel M Magic, 4 г в</t>
+          <t>Массажное масло с феромонами ZODIAC AIR</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>id-8042-1299</t>
+          <t>id-26854-1299</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
@@ -11248,12 +11218,12 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/8042/8042_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/8042/8042_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26854/26854_1_650.jpg</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t xml:space="preserve">LOVEGEL M MAGIC SEX - ГЕЛЬ-ЛУБРИКАНТ С 100% НАТУРАЛЬНЫМ СОСТАВОМ Магия чувств и нежности слились в природной формуле лубриканта. Гель дарит абсолютно естественные ощущения. Создан с учетом особенностей женского организма. Максимально близко копирует женскую смазку и обеспечивает продолжительное скольжение. Идеальный выбор для чувствительной кожи. Благодаря 100% натуральному составу на водной основе и специальному пребиотику лубрикант поддерживает естественный баланс микрофлоры интимной зоны. Гиалуроновая кислота способствует регенерации, дарит интенсивное увлажнение и мягкий уход. Magic sex - сказочное удовольствие и незабываемый восторг взаимного экстаза! Применение: перед половым контактом нанесите тонким слоем на интимную зону, требующую смазывания. LOVEGEL M MAGIC SEX - НЕЖНОСТЬ ВАШЕЙ ЛЮБВИ!.Гель лубрикант Lovegel M Magic, 4 г (в упаковке 5 шт).  Гель лубрикант Lovegel M Magic, 4 г (в упаковке 5 шт). Модель: bioritm-11315. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Аромат масла подобран специально для знаков зодиака стихии Воздух. Он раскроет чувственность и романтичность воздушных знаков. Феромоны усилят притягательность партнёров. Масло обеспечивает равномерное и длительное скольжение, придаёт коже мягкость и шелковистость, делает её нежной, приятной для прикосновений.Способ применения: перед массажем разогрейте масло в ладонях, нанесите на кожу лёгкими массирующими движениями. Массажное масло с феромонами ZODIAC AIR (75 мл).  Массажное масло с феромонами ZODIAC AIR (75 мл). Модель: bioritm-13019. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -11275,17 +11245,17 @@
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr">
         <is>
-          <t>4 г</t>
+          <t>75 мл</t>
         </is>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>75</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>4 г</t>
+          <t>75 мл</t>
         </is>
       </c>
       <c r="W86" t="inlineStr"/>
@@ -11331,7 +11301,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -11347,12 +11317,12 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Анальный гель-лубрикант Intim Anal 60 г</t>
+          <t>Массажное масло с феромонами ZODIAC</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>id-6728-1299</t>
+          <t>id-26856-1299</t>
         </is>
       </c>
       <c r="H87" t="inlineStr"/>
@@ -11368,12 +11338,12 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/6728/6728_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/6728/6728_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26856/26856_1_650.jpg</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t xml:space="preserve">В порыве чувств помни, что во время анального секса нужны особые средства. Intim anal отлично сочетает долгое скольжение с мягкой, бережной защитой. Он обеспечивает нежное проникновение и создает необходимую увлажненность, способствуя только комфортным ощущениям во время секса. Легко смывается водой. Без запаха. Сочетается с изделиями из латекса и синтетических материалов. Применение: непосредственно перед интимной близостью нанесите тонким слоем на области, требующие смазывания. Анальный гель-лубрикант Intim Anal 60 г.  Анальный гель-лубрикант Intim Anal 60 г. Модель: bioritm-11934. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Аромат масла подобран специально для знаков зодиака стихии Земля. Он раскроет пылкость и раскрепощённость земных знаков. Феромоны усилят притягательность партнёров. Масло обеспечивает равномерное и длительное скольжение, придаёт коже мягкость и шелковистость, делает её нежной, приятной для прикосновений.Способ применения: перед массажем разогрейте масло в ладонях, нанесите на кожу лёгкими массирующими движениями. Массажное масло с феромонами ZODIAC TERRA (75 мл).  Массажное масло с феромонами ZODIAC TERRA (75 мл). Модель: bioritm-13021. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -11395,17 +11365,17 @@
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr">
         <is>
-          <t>60 г</t>
+          <t>75 мл</t>
         </is>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>75</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>60 г</t>
+          <t>75 мл</t>
         </is>
       </c>
       <c r="W87" t="inlineStr"/>
@@ -11451,7 +11421,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Средства с феромонами</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -11462,17 +11432,17 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Анальный гель с мятой и гиалуроновой</t>
+          <t>Арома средство для тела с феромонами</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>id-2280-1299</t>
+          <t>id-26858-1299</t>
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
@@ -11488,12 +11458,12 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/2280/2280_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26858/26858_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26858/26858_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26858/26858_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26858/26858_3_650.jpg</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Дарит восхитительное чувство комфорта и мягкое безболезненное проникновение при анальном сексе. Формула лубриканта обогащена экстрактом мяты, который снимает возможные неприятные ощущения во время полового акта. Гиалуроновая кислота активно увлажняет и быстро восстанавливает ткани после интимной близости. Anal sex сводит к минимуму вероятность появления микротравм. Комплексный уход, продолжительное скольжение и защита слизистых безупречно сочетаются в одном флаконе. Почувствуй с этим лубрикантом экстремальную свободу, остроту сексуальных ощущений, безопасность и безболезненность. Anal sex можно использовать при различных видах интимной близости. Применение: перед половым контактом нанесите тонким слоем на интимную зону, требующую смазывания. LOVEGEL E ANAL SEX - СТРАСТЬ БЕЗ ГРАНИЦ!.Анальный гель с мятой и гиалуроновой кислотой Anal Sex (20 г).  Анальный гель с мятой и гиалуроновой кислотой Anal Sex (20 г). Модель: bioritm-12004. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Потрясающая парфюмированная композиция с феромонами Sexy Sweet вскружит голову, заворожит, разбудит эротическую фантазию! Её яркий аромат в сочетании с феромонами раскроет чувственность и сексуальность, раскрепостит, поможет создать свой неповторимый соблазнительный образ.Sexy Sweet работает на подсознательном уровне, без видимых усилий привлекая внимание, возбуждая и вызывая желание заняться любовью.Обладательница аппетитной новинки станет объектом обожания, пробудит желание вкусить все её прелести и подарить невероятное наслаждение!.Арома средство для тела с феромонами SEXY SWEET NECTAR LYCHEE с ароматом личи (10 мл).  Арома средство для тела с феромонами SEXY SWEET NECTAR LYCHEE с ароматом личи (10 мл). Модель: bioritm-16120. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -11515,17 +11485,17 @@
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr">
         <is>
-          <t>20 г</t>
+          <t>10 мл</t>
         </is>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>20 г</t>
+          <t>10 мл</t>
         </is>
       </c>
       <c r="W88" t="inlineStr"/>
@@ -11571,7 +11541,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Средства с феромонами</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -11582,17 +11552,17 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Крем для увеличения пениса BIG PEN 50</t>
+          <t>Арома средство для тела с феромонами</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>id-10879-1299</t>
+          <t>id-26859-1299</t>
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
@@ -11608,12 +11578,12 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/10879/10879_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/10879/10879_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/10879/10879_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/10879/10879_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26859/26859_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26859/26859_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26859/26859_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26859/26859_4_650.jpg</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Увеличить размер пениса также легко, как, например, бицепсов. Для этого используется специальная методика - пенбилдинг (от слов penis и building, т.е. дословно построение пениса). Это постепенное механическое растяжения пениса мужчины до желаемых размеров. За счет удлинения кровенаполнение полового органа значительно увеличивается во время эрекции. Член становится большим и упругим. Крем Big Pen  персональный тренер и помощник для занятий пенбилдингом. Разогревая кожу полового члена, он настраивает своего обладателя на спортивный лад и предстоящие упражнения. Средство разработано специально для максимального комфорта: комбинирует нежное и супердлительное скольжение масла и приятную упругость крема. Исключительный уровень комфорта и приятных ощущений сочетается с особенной структурой. Tingle-эффект является уникальным свойством Big Pen. Это чувство покалывания и дрожи, которое возникает за счет быстрого проникновения активных компонентов и дает реальное ощущение происходящих изменений. Крем обогащен натуральными компонентами. Смесь экстрактов (каштан конский, гинко билоба, иглица шиповатая) эффективно укрепляет стенки кровеносных сосудов и улучшает кровообращение, делает соединительные ткани эластичными и легко растяжимыми. Южноамериканское дерево потенции муира пуама с древних времен используется в народной медицине в качестве средства, которое то, что мягкое, делает твердым. Женьшень оказывает тонизирующее и стимулирующее действие. Природный афродизиак имбирь вызывает и усиливает половое влечение. Применение: ежедневно (в течение курса 10-14 дней) наносите крем на ствол и головку полового члена массирующими движениями до полного впитывания. После чего приступайте к специальным упражнениям. Длительность занятий пенбилдингом в среднем составляет 15-20 минут в день. Упражнения подробно описаны в инструкции, прилагаемой к крему Big Pen. Крем для увеличения пениса BIG PEN (50 г).  Крем для увеличения пениса BIG PEN (50 г). Модель: bioritm-12841. Косметика, препараты. Увеличение пениса &gt; Кремы, препараты. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Потрясающая парфюмированная композиция с феромонами Sexy Sweet вскружит голову, заворожит, разбудит эротическую фантазию! Её яркий аромат в сочетании с феромонами раскроет чувственность и сексуальность, раскрепостит, поможет создать свой неповторимый соблазнительный образ.Sexy Sweet работает на подсознательном уровне, без видимых усилий привлекая внимание, возбуждая и вызывая желание заняться любовью.Обладательница аппетитной новинки станет объектом обожания, пробудит желание вкусить все её прелести и подарить невероятное наслаждение!.Арома средство для тела с феромонами SEXY SWEET WILD BERRY с ароматом ягод (10 мл).  Арома средство для тела с феромонами SEXY SWEET WILD BERRY с ароматом ягод (10 мл). Модель: bioritm-16121. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -11635,17 +11605,17 @@
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t>10 мл</t>
         </is>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t>10 мл</t>
         </is>
       </c>
       <c r="W89" t="inlineStr"/>
@@ -11691,7 +11661,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Средства с феромонами</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -11702,17 +11672,17 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Масло Eros для эротического массажа с</t>
+          <t>Арома средство для тела с феромонами</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>id-18397-1299</t>
+          <t>id-26863-1299</t>
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
@@ -11728,17 +11698,17 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/18397/18397_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26863/26863_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26863/26863_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26863/26863_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26863/26863_4_650.jpg</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t xml:space="preserve">Побалуйте себя великолепным ароматом. Масло для эротического массажа Eros fantasy вызывает ощущение тепла, особенно при дуновении. Повышает чувствительность. Имеет приятный аромат земляники и сладкий вкус. Eros fantasy обеспечивают длительное скольжение. Легко смывается водой. Масло Eros для эротического массажа с ароматом земляники (75 мл).  Масло Eros для эротического массажа с аромато</t>
+          <t xml:space="preserve">Потрясающая парфюмированная композиция с феромонами Sexy Sweet вскружит голову, заворожит, разбудит эротическую фантазию! Её яркий аромат в сочетании с феромонами раскроет чувственность и сексуальность, раскрепостит, поможет создать свой неповторимый соблазнительный образ.Sexy Sweet работает на подсознательном уровне, без видимых усилий привлекая внимание, возбуждая и вызывая желание заняться любовью.Обладательница аппетитной новинки станет объектом обожания, пробудит желание вкусить все её прелести и подарить невероятное наслаждение!.Арома средство для тела с феромонами SEXY SWEET HOT CHOCOLATE с ароматом шоколада (10 мл).  Арома средство для тела с феромонами SEXY SWEET HOT CHOCOLATE с ароматом шоколада (10 мл). Модель: bioritm-16122. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
@@ -11755,17 +11725,17 @@
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr">
         <is>
-          <t>75 мл</t>
+          <t>10 мл</t>
         </is>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>10</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>75 мл</t>
+          <t>10 мл</t>
         </is>
       </c>
       <c r="W90" t="inlineStr"/>
@@ -11811,7 +11781,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Средства с феромонами</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -11822,17 +11792,17 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Массажное масло с феромонами ZODIAC AIR</t>
+          <t>Арома средство для тела с феромонами</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>id-26854-1299</t>
+          <t>id-26857-1299</t>
         </is>
       </c>
       <c r="H91" t="inlineStr"/>
@@ -11848,12 +11818,12 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26854/26854_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26857/26857_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26857/26857_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26857/26857_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26857/26857_4_650.jpg</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Аромат масла подобран специально для знаков зодиака стихии Воздух. Он раскроет чувственность и романтичность воздушных знаков. Феромоны усилят притягательность партнёров. Масло обеспечивает равномерное и длительное скольжение, придаёт коже мягкость и шелковистость, делает её нежной, приятной для прикосновений.Способ применения: перед массажем разогрейте масло в ладонях, нанесите на кожу лёгкими массирующими движениями. Массажное масло с феромонами ZODIAC AIR (75 мл).  Массажное масло с феромонами ZODIAC AIR (75 мл). Модель: bioritm-13019. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Потрясающая парфюмированная композиция с феромонами Sexy Sweet вскружит голову, заворожит, разбудит эротическую фантазию! Её яркий аромат в сочетании с феромонами раскроет чувственность и сексуальность, раскрепостит, поможет создать свой неповторимый соблазнительный образ.Sexy Sweet работает на подсознательном уровне, без видимых усилий привлекая внимание, возбуждая и вызывая желание заняться любовью.Обладательница аппетитной новинки станет объектом обожания, пробудит желание вкусить все её прелести и подарить невероятное наслаждение!.Арома средство для тела с феромонами SEXY SWEET JUICY MANGO с ароматом манго (10 мл).  Арома средство для тела с феромонами SEXY SWEET JUICY MANGO с ароматом манго (10 мл). Модель: bioritm-16123. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -11875,17 +11845,17 @@
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr">
         <is>
-          <t>75 мл</t>
+          <t>10 мл</t>
         </is>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>10</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>75 мл</t>
+          <t>10 мл</t>
         </is>
       </c>
       <c r="W91" t="inlineStr"/>
@@ -11931,7 +11901,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Средства с феромонами</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -11942,17 +11912,17 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Массажное масло с феромонами ZODIAC</t>
+          <t>Арома средство для тела с феромонами</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>id-26855-1299</t>
+          <t>id-26860-1299</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
@@ -11968,12 +11938,12 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26855/26855_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26860/26860_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26860/26860_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26860/26860_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26860/26860_4_650.jpg</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Аромат масла подобран специально для знаков зодиака стихии Огня. Он раскроет дерзость и страстность огненных знаков. Феромоны усилят притягательность партнёров. Масло обеспечивает равномерное и длительное скольжение, придаёт коже мягкость и шелковистость, делает её нежной, приятной для прикосновений.Способ применения: перед массажем разогрейте масло в ладонях, нанесите на кожу лёгкими массирующими движениями. Массажное масло с феромонами ZODIAC FIRE (75 мл).  Массажное масло с феромонами ZODIAC FIRE (75 мл). Модель: bioritm-13020. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Потрясающая парфюмированная композиция с феромонами Sexy Sweet вскружит голову, заворожит, разбудит эротическую фантазию! Её яркий аромат в сочетании с феромонами раскроет чувственность и сексуальность, раскрепостит, поможет создать свой неповторимый соблазнительный образ.Sexy Sweet работает на подсознательном уровне, без видимых усилий привлекая внимание, возбуждая и вызывая желание заняться любовью.Обладательница аппетитной новинки станет объектом обожания, пробудит желание вкусить все её прелести и подарить невероятное наслаждение!.Арома средство для тела с феромонами SEXY SWEET FRESH ORANGE с ароматом апельсина (10 мл).  Арома средство для тела с феромонами SEXY SWEET FRESH ORANGE с ароматом апельсина (10 мл). Модель: bioritm-16124. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -11995,17 +11965,17 @@
       <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr">
         <is>
-          <t>75 мл</t>
+          <t>10 мл</t>
         </is>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>10</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>75 мл</t>
+          <t>10 мл</t>
         </is>
       </c>
       <c r="W92" t="inlineStr"/>
@@ -12051,7 +12021,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Средства с феромонами</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -12062,17 +12032,17 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Массажное масло с феромонами ZODIAC</t>
+          <t>Арома средство для тела с феромонами</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>id-26856-1299</t>
+          <t>id-26862-1299</t>
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
@@ -12088,12 +12058,12 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26856/26856_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26862/26862_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26862/26862_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26862/26862_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26862/26862_4_650.jpg</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t xml:space="preserve">Аромат масла подобран специально для знаков зодиака стихии Земля. Он раскроет пылкость и раскрепощённость земных знаков. Феромоны усилят притягательность партнёров. Масло обеспечивает равномерное и длительное скольжение, придаёт коже мягкость и шелковистость, делает её нежной, приятной для прикосновений.Способ применения: перед массажем разогрейте масло в ладонях, нанесите на кожу лёгкими массирующими движениями. Массажное масло с феромонами ZODIAC TERRA (75 мл).  Массажное масло с феромонами ZODIAC TERRA (75 мл). Модель: bioritm-13021. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Потрясающая парфюмированная композиция с феромонами Sexy Sweet вскружит голову, заворожит, разбудит эротическую фантазию! Её яркий аромат в сочетании с феромонами раскроет чувственность и сексуальность, раскрепостит, поможет создать свой неповторимый соблазнительный образ.Sexy Sweet работает на подсознательном уровне, без видимых усилий привлекая внимание, возбуждая и вызывая желание заняться любовью.Обладательница аппетитной новинки станет объектом обожания, пробудит желание вкусить все её прелести и подарить невероятное наслаждение!.Арома средство для тела с феромонами SEXY SWEET BANANA SPLIT с ароматом банана (10 мл).  Арома средство для тела с феромонами SEXY SWEET BANANA SPLIT с ароматом банана (10 мл). Модель: bioritm-16125. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -12115,17 +12085,17 @@
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr">
         <is>
-          <t>75 мл</t>
+          <t>10 мл</t>
         </is>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>10</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>75 мл</t>
+          <t>10 мл</t>
         </is>
       </c>
       <c r="W93" t="inlineStr"/>
@@ -12171,7 +12141,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Средства с феромонами</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -12182,17 +12152,17 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Арома средство для тела с феромонами</t>
+          <t>Восстанавливающая смазка с прополисом</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>id-26861-1299</t>
+          <t>id-12821-1299</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
@@ -12208,12 +12178,12 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26861/26861_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26861/26861_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26861/26861_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26861/26861_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12821/12821_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12821/12821_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12821/12821_3_650.jpg</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t xml:space="preserve">Потрясающая парфюмированная композиция с феромонами Sexy Sweet вскружит голову, заворожит, разбудит эротическую фантазию! Её яркий аромат в сочетании с феромонами раскроет чувственность и сексуальность, раскрепостит, поможет создать свой неповторимый соблазнительный образ.Sexy Sweet работает на подсознательном уровне, без видимых усилий привлекая внимание, возбуждая и вызывая желание заняться любовью.Обладательница аппетитной новинки станет объектом обожания, пробудит желание вкусить все её прелести и подарить невероятное наслаждение!.Арома средство для тела с феромонами SEXY SWEET FROST CHERRY с ароматом вишни (10 мл).  Арома средство для тела с феромонами SEXY SWEET FROST CHERRY с ароматом вишни (10 мл). Модель: bioritm-16119. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Прополис  один из важнейших продуктов пчеловодства. Его химический состав включает в числе прочих и 10 жизненно необходимых витаминов, среди которых В1, В2, В6, А, Е, никотиновая и пантотеновая кислоты. Благодаря удачному сочетанию компонентов гель-лубрикант Услада с прополисом способствует быстрому восстановлению поврежденной слизистой, подавляет зуд и воспаление, при этом, сохраняя здоровую микрофлору. Услада с прополисом обладает уникальной способностью ускорять обновление тканей, оказывает дезодорирующее действие, препятствуя появлению неприятного запаха. Хорошо имитирует естественную женскую смазку. Обеспечивает нежное проникновение, длительное скольжение и сохранение целостности слизистых. Рекомендуется использовать после гинекологических операций и родов для более быстрого возвращения к нормальной сексуальной жизни. Применение: перед интимной близостью нанесите тонким слоем на половые органы. Для деликатного ухода за слизистой нанесите небольшое количество геля на вход во влагалище 1-2 раза в день после гигиенических процедур. Восстанавливающая смазка с прополисом Услада (30 г).  Восстанавливающая смазка с прополисом Услада (30 г). Модель: bioritm-16388. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -12235,17 +12205,17 @@
       <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr">
         <is>
-          <t>10 мл</t>
+          <t>30 г</t>
         </is>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>10 мл</t>
+          <t>30 г</t>
         </is>
       </c>
       <c r="W94" t="inlineStr"/>
@@ -12291,7 +12261,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Средства с феромонами</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -12307,12 +12277,12 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Арома средство для тела с феромонами</t>
+          <t>Антибактериальная смазка УСЛАДА с</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>id-26858-1299</t>
+          <t>id-12977-1299</t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
@@ -12328,12 +12298,12 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26858/26858_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26858/26858_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26858/26858_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26858/26858_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12977/12977_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12977/12977_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12977/12977_3_650.jpg</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t xml:space="preserve">Потрясающая парфюмированная композиция с феромонами Sexy Sweet вскружит голову, заворожит, разбудит эротическую фантазию! Её яркий аромат в сочетании с феромонами раскроет чувственность и сексуальность, раскрепостит, поможет создать свой неповторимый соблазнительный образ.Sexy Sweet работает на подсознательном уровне, без видимых усилий привлекая внимание, возбуждая и вызывая желание заняться любовью.Обладательница аппетитной новинки станет объектом обожания, пробудит желание вкусить все её прелести и подарить невероятное наслаждение!.Арома средство для тела с феромонами SEXY SWEET NECTAR LYCHEE с ароматом личи (10 мл).  Арома средство для тела с феромонами SEXY SWEET NECTAR LYCHEE с ароматом личи (10 мл). Модель: bioritm-16120. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Коллоидное серебро - это полностью натуральный продукт. Его безопасная и эффективная форма используется в качестве природного антисептика и как дезинфицирующее средство широкого спектра действия, способное значительно снизить остроту и длительность многих инфекционных заболеваний. Активно работает против 700 видов бактерий, вирусов и грибков. Гель-лубрикант Услада с серебром обеспечивает защиту слизистых от повреждений и препятствует распространению патогенных микробов во время полового акта. Рекомендуется использовать в качестве профилактики развития микроорганизмов, вызывающих дискомфортные ощущения в области влагалища (зуд, жжение). Гель-лубрикант Услада с серебром хорошо имитирует естественную женскую смазку. Обеспечивает нежное проникновение и длительное скольжение. Применение: перед интимной близостью нанесите тонким слоем на половые органы. Для деликатного ухода за слизистой нанесите небольшое количество геля на вход во влагалище 1-2 раза в день после гигиенических процедур. Антибактериальная смазка УСЛАДА с серебром (30 г).  Антибактериальная смазка УСЛАДА с серебром (30 г). Модель: bioritm-16390. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -12355,17 +12325,17 @@
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr">
         <is>
-          <t>10 мл</t>
+          <t>30 г</t>
         </is>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>10 мл</t>
+          <t>30 г</t>
         </is>
       </c>
       <c r="W95" t="inlineStr"/>
@@ -12411,7 +12381,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Средства с феромонами</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -12422,17 +12392,17 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Арома средство для тела с феромонами</t>
+          <t>Гель-лубрикант Услада с провитамином B5</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>id-26859-1299</t>
+          <t>id-12975-1299</t>
         </is>
       </c>
       <c r="H96" t="inlineStr"/>
@@ -12448,12 +12418,12 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26859/26859_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26859/26859_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26859/26859_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26859/26859_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12975/12975_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12975/12975_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12975/12975_3_650.jpg</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t xml:space="preserve">Потрясающая парфюмированная композиция с феромонами Sexy Sweet вскружит голову, заворожит, разбудит эротическую фантазию! Её яркий аромат в сочетании с феромонами раскроет чувственность и сексуальность, раскрепостит, поможет создать свой неповторимый соблазнительный образ.Sexy Sweet работает на подсознательном уровне, без видимых усилий привлекая внимание, возбуждая и вызывая желание заняться любовью.Обладательница аппетитной новинки станет объектом обожания, пробудит желание вкусить все её прелести и подарить невероятное наслаждение!.Арома средство для тела с феромонами SEXY SWEET WILD BERRY с ароматом ягод (10 мл).  Арома средство для тела с феромонами SEXY SWEET WILD BERRY с ароматом ягод (10 мл). Модель: bioritm-16121. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Витамин В5 и его предшественника провитамин В5 (пантенол-Д) по праву называют витамином красоты. Его недостаток в организме проявляется в увядании и старении: на коже образуются морщинки, на слизистой  трещинки. Поэтому провитамин В5 является незаменимым средством восстановления. Гель-лубрикант Услада с провитамином В5 усиленно регенерирует и интенсивно увлажняет слизистые. Особенно эффективен при сухости влагалища. Обеспечивает нежное проникновение и длительное скольжение при интимной близости, сохраняя целостность слизистых. Обладает заживляющими и смягчающими свойствами. Возвращает сухой и чувствительной слизистой состояние комфорта. Гель-лубрикант Услада с провитамином В5 отлично подходит для профилактического деликатного ухода за слизистой (при сухости влагалища в период климакса, после родов, операций и т.п.) Клиническое исследование показало, что регулярное применение геля-лубриканта с провитамином В5 способствует: -устранению сухости половых органов. -увеличению выделения собственной смазки перед половым актом. -повышению эластичности слизистой влагалища. Применение: перед интимной близостью нанесите тонким слоем на половые органы (половые губы, клитор, вход во влагалище). Для деликатного ухода за слизистой нанесите небольшое количество геля на вход во влагалище 2-3 раза в день после гигиенических процедур. Гель-лубрикант Услада с провитамином B5 (30 г).  Гель-лубрикант Услада с провитамином B5 (30 г). Модель: bioritm-16391. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -12475,17 +12445,17 @@
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr">
         <is>
-          <t>10 мл</t>
+          <t>30 г</t>
         </is>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>10 мл</t>
+          <t>30 г</t>
         </is>
       </c>
       <c r="W96" t="inlineStr"/>
@@ -12531,7 +12501,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Средства с феромонами</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -12542,17 +12512,17 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Арома средство для тела с феромонами</t>
+          <t>Оральный гель Tutti-Frutti со вкусом</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>id-26857-1299</t>
+          <t>id-10320-1299</t>
         </is>
       </c>
       <c r="H97" t="inlineStr"/>
@@ -12568,12 +12538,12 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26857/26857_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26857/26857_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26857/26857_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26857/26857_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/10320/10320_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/10320/10320_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/10320/10320_1_650.jpg</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Потрясающая парфюмированная композиция с феромонами Sexy Sweet вскружит голову, заворожит, разбудит эротическую фантазию! Её яркий аромат в сочетании с феромонами раскроет чувственность и сексуальность, раскрепостит, поможет создать свой неповторимый соблазнительный образ.Sexy Sweet работает на подсознательном уровне, без видимых усилий привлекая внимание, возбуждая и вызывая желание заняться любовью.Обладательница аппетитной новинки станет объектом обожания, пробудит желание вкусить все её прелести и подарить невероятное наслаждение!.Арома средство для тела с феромонами SEXY SWEET JUICY MANGO с ароматом манго (10 мл).  Арома средство для тела с феромонами SEXY SWEET JUICY MANGO с ароматом манго (10 мл). Модель: bioritm-16123. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Новый вкус вашей страсти - съедобные смазки Tutti Frutti из серии OraLove Вулкан страстей и незабываемый вкус эмоций смешались во флаконах съедобных смазок Tutti Frutti из серии OraLove. Вкус пламенной малины, неутомимой земляники, темпераментной вишни, пылкого яблока и чувственных экзотических фруктов подарят райское наслаждение, раскроют тайны создания гармонии интимных отношений. Многие пары для орального секса используют пищевые продукты (фрукты, взбитые сливки, шоколад и т.д). Такая гастрономическая практика может нанести существенный вред чувствительной микрофлоре половых органов. Продукция Tutti Frutti разработана специально для орального удовольствия. Съедобные смазки не нарушают баланс микрофлоры, а сохраняют его. Они придадут вашим любовным играм особый вкус и бережно позаботятся о чувствительной интимной зоне. Подходят для использования в качестве лубриканта. Обладают увлажняющим действием. Совместимы с изделиями из латекса и синтетических материалов. 5 причин попробовать съедобные смазки Tutti Frutti:  подходят для обоих партнеров  обладают увлажняющими свойствами  сочетаются с изделиями из латекса  придают новый вкус вашей страсти  добавят изюминку в отношения Применение: в момент любовных игр нанесите на наружные половые органы. НОВЫЙ ВКУС ВАШЕЙ СТРАСТИ - съедобные смазки Tutti Frutti из серии OraLove!.Оральный гель Tutti-Frutti со вкусом сочной вишни (30 г).  Оральный гель Tutti-Frutti со вкусом сочной вишни (30 г). Модель: bioritm-16968. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -12595,17 +12565,17 @@
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr">
         <is>
-          <t>10 мл</t>
+          <t>30 г</t>
         </is>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>10 мл</t>
+          <t>30 г</t>
         </is>
       </c>
       <c r="W97" t="inlineStr"/>
@@ -12651,7 +12621,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Средства с феромонами</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -12662,17 +12632,17 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Арома средство для тела с феромонами</t>
+          <t>Оральный гель Tutti-Frutti со вкусом</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>id-26860-1299</t>
+          <t>id-10318-1299</t>
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
@@ -12688,12 +12658,12 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26860/26860_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26860/26860_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26860/26860_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26860/26860_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/10318/10318_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/10318/10318_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/10318/10318_1_650.jpg</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Потрясающая парфюмированная композиция с феромонами Sexy Sweet вскружит голову, заворожит, разбудит эротическую фантазию! Её яркий аромат в сочетании с феромонами раскроет чувственность и сексуальность, раскрепостит, поможет создать свой неповторимый соблазнительный образ.Sexy Sweet работает на подсознательном уровне, без видимых усилий привлекая внимание, возбуждая и вызывая желание заняться любовью.Обладательница аппетитной новинки станет объектом обожания, пробудит желание вкусить все её прелести и подарить невероятное наслаждение!.Арома средство для тела с феромонами SEXY SWEET FRESH ORANGE с ароматом апельсина (10 мл).  Арома средство для тела с феромонами SEXY SWEET FRESH ORANGE с ароматом апельсина (10 мл). Модель: bioritm-16124. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Новый вкус вашей страсти - съедобные смазки Tutti Frutti из серии OraLove Вулкан страстей и незабываемый вкус эмоций смешались во флаконах съедобных смазок Tutti Frutti из серии OraLove. Вкус пламенной малины, неутомимой земляники, темпераментной вишни, пылкого яблока и чувственных экзотических фруктов подарят райское наслаждение, раскроют тайны создания гармонии интимных отношений. Многие пары для орального секса используют пищевые продукты (фрукты, взбитые сливки, шоколад и т.д). Такая гастрономическая практика может нанести существенный вред чувствительной микрофлоре половых органов. Продукция Tutti Frutti разработана специально для орального удовольствия. Съедобные смазки не нарушают баланс микрофлоры, а сохраняют его. Они придадут вашим любовным играм особый вкус и бережно позаботятся о чувствительной интимной зоне. Подходят для использования в качестве лубриканта. Обладают увлажняющим действием. Совместимы с изделиями из латекса и синтетических материалов. 5 причин попробовать съедобные смазки Tutti Frutti:  подходят для обоих партнеров  обладают увлажняющими свойствами  сочетаются с изделиями из латекса  придают новый вкус вашей страсти  добавят изюминку в отношения Применение: в момент любовных игр нанесите на наружные половые органы. НОВЫЙ ВКУС ВАШЕЙ СТРАСТИ - съедобные смазки Tutti Frutti из серии OraLove!.Оральный гель Tutti-Frutti со вкусом тропических фруктов (30 г).  Оральный гель Tutti-Frutti со вкусом тропических фруктов (30 г). Модель: bioritm-16970. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -12715,17 +12685,17 @@
       <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr">
         <is>
-          <t>10 мл</t>
+          <t>30 г</t>
         </is>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>10 мл</t>
+          <t>30 г</t>
         </is>
       </c>
       <c r="W98" t="inlineStr"/>
@@ -12771,7 +12741,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Средства с феромонами</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -12782,17 +12752,17 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Арома средство для тела с феромонами</t>
+          <t>Гель-лубрикант Услада с провитамином B5</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>id-26862-1299</t>
+          <t>id-12974-1299</t>
         </is>
       </c>
       <c r="H99" t="inlineStr"/>
@@ -12808,12 +12778,12 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26862/26862_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26862/26862_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26862/26862_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26862/26862_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12974/12974_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12974/12974_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12974/12974_3_650.jpg</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Потрясающая парфюмированная композиция с феромонами Sexy Sweet вскружит голову, заворожит, разбудит эротическую фантазию! Её яркий аромат в сочетании с феромонами раскроет чувственность и сексуальность, раскрепостит, поможет создать свой неповторимый соблазнительный образ.Sexy Sweet работает на подсознательном уровне, без видимых усилий привлекая внимание, возбуждая и вызывая желание заняться любовью.Обладательница аппетитной новинки станет объектом обожания, пробудит желание вкусить все её прелести и подарить невероятное наслаждение!.Арома средство для тела с феромонами SEXY SWEET BANANA SPLIT с ароматом банана (10 мл).  Арома средство для тела с феромонами SEXY SWEET BANANA SPLIT с ароматом банана (10 мл). Модель: bioritm-16125. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Витамин В5 и его предшественника провитамин В5 (пантенол-Д) по праву называют витамином красоты. Его недостаток в организме проявляется в увядании и старении: на коже образуются морщинки, на слизистой  трещинки. Поэтому провитамин В5 является незаменимым средством восстановления. Гель-лубрикант Услада с провитамином В5 усиленно регенерирует и интенсивно увлажняет слизистые. Особенно эффективен при сухости влагалища. Обеспечивает нежное проникновение и длительное скольжение при интимной близости, сохраняя целостность слизистых. Обладает заживляющими и смягчающими свойствами. Возвращает сухой и чувствительной слизистой состояние комфорта. Гель-лубрикант Услада с провитамином В5 отлично подходит для профилактического деликатного ухода за слизистой (при сухости влагалища в период климакса, после родов, операций и т.п.) Клиническое исследование показало, что регулярное применение геля-лубриканта с провитамином В5 способствует: -устранению сухости половых органов. -увеличению выделения собственной смазки перед половым актом. -повышению эластичности слизистой влагалища. Применение: перед интимной близостью нанесите тонким слоем на половые органы (половые губы, клитор, вход во влагалище). Для деликатного ухода за слизистой нанесите небольшое количество геля на вход во влагалище 2-3 раза в день после гигиенических процедур. Гель-лубрикант Услада с провитамином B5 (120 г).  Гель-лубрикант Услада с провитамином B5 (120 г). Модель: bioritm-18419. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -12823,29 +12793,29 @@
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R99" t="inlineStr"/>
       <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr">
         <is>
-          <t>10 мл</t>
+          <t>120 г</t>
         </is>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>120</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>10 мл</t>
+          <t>120 г</t>
         </is>
       </c>
       <c r="W99" t="inlineStr"/>
@@ -12891,7 +12861,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -12902,17 +12872,17 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Восстанавливающая смазка с прополисом</t>
+          <t>Интимный дезодорант для женщин DEO 18</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>id-12821-1299</t>
+          <t>id-11581-1299</t>
         </is>
       </c>
       <c r="H100" t="inlineStr"/>
@@ -12928,12 +12898,12 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/12821/12821_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12821/12821_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12821/12821_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/11581/11581_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/11581/11581_1_650.jpg</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t xml:space="preserve">Прополис  один из важнейших продуктов пчеловодства. Его химический состав включает в числе прочих и 10 жизненно необходимых витаминов, среди которых В1, В2, В6, А, Е, никотиновая и пантотеновая кислоты. Благодаря удачному сочетанию компонентов гель-лубрикант Услада с прополисом способствует быстрому восстановлению поврежденной слизистой, подавляет зуд и воспаление, при этом, сохраняя здоровую микрофлору. Услада с прополисом обладает уникальной способностью ускорять обновление тканей, оказывает дезодорирующее действие, препятствуя появлению неприятного запаха. Хорошо имитирует естественную женскую смазку. Обеспечивает нежное проникновение, длительное скольжение и сохранение целостности слизистых. Рекомендуется использовать после гинекологических операций и родов для более быстрого возвращения к нормальной сексуальной жизни. Применение: перед интимной близостью нанесите тонким слоем на половые органы. Для деликатного ухода за слизистой нанесите небольшое количество геля на вход во влагалище 1-2 раза в день после гигиенических процедур. Восстанавливающая смазка с прополисом Услада (30 г).  Восстанавливающая смазка с прополисом Услада (30 г). Модель: bioritm-16388. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Безусловный маст хэв косметички каждой женщины  интим-дезодорант Lovespray deo. Это первый помощник и отличное дополнение к гигиенической процедуре в путешествиях. Специальный нежный дезодорант для интимных зон не содержит спирта. Продукт разработан с учетом сохранения здоровой микрофлоры интимной области. Деликатно устраняет ненужный запах и препятствует его дальнейшему появлению. Дарит длительное ощущение свежести и уверенности в себе. Обладает приятным ненавязчивым ароматом и смягчающим действием. Способствует снятию раздражения от моющих средств и депиляторов в области бикини. Современный флакон удобен в применении и позволяет нанести дезодорант максимально гигиенично. Применение: распылите на область бикини. Lovespray deo - незаменимое средство ухода для современной женщины. Интимный дезодорант для женщин DEO (18 мл).  Интимный дезодорант для женщин DEO (18 мл). Модель: bioritm-18772. Косметика, препараты. Смазки, косметика &gt; Косметика. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -12943,29 +12913,29 @@
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R100" t="inlineStr"/>
       <c r="S100" t="inlineStr"/>
       <c r="T100" t="inlineStr">
         <is>
-          <t>30 г</t>
+          <t>18 мл</t>
         </is>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>18</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>30 г</t>
+          <t>18 мл</t>
         </is>
       </c>
       <c r="W100" t="inlineStr"/>
@@ -13011,7 +12981,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -13022,17 +12992,17 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Антибактериальная смазка УСЛАДА с</t>
+          <t>Лубрикант на водной основе ОКЕЙ с</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>id-12977-1299</t>
+          <t>id-28096-1299</t>
         </is>
       </c>
       <c r="H101" t="inlineStr"/>
@@ -13048,12 +13018,12 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/12977/12977_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12977/12977_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12977/12977_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28096/28096_1_650.jpg</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Коллоидное серебро - это полностью натуральный продукт. Его безопасная и эффективная форма используется в качестве природного антисептика и как дезинфицирующее средство широкого спектра действия, способное значительно снизить остроту и длительность многих инфекционных заболеваний. Активно работает против 700 видов бактерий, вирусов и грибков. Гель-лубрикант Услада с серебром обеспечивает защиту слизистых от повреждений и препятствует распространению патогенных микробов во время полового акта. Рекомендуется использовать в качестве профилактики развития микроорганизмов, вызывающих дискомфортные ощущения в области влагалища (зуд, жжение). Гель-лубрикант Услада с серебром хорошо имитирует естественную женскую смазку. Обеспечивает нежное проникновение и длительное скольжение. Применение: перед интимной близостью нанесите тонким слоем на половые органы. Для деликатного ухода за слизистой нанесите небольшое количество геля на вход во влагалище 1-2 раза в день после гигиенических процедур. Антибактериальная смазка УСЛАДА с серебром (30 г).  Антибактериальная смазка УСЛАДА с серебром (30 г). Модель: bioritm-16390. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Ароматический лубрикант позволяет дополнить удовольствие от интимной близости любимым ароматом. Гель обеспечивает отличное скольжение и увлажнение на протяжении всего акта. Совместим с секс-игрушками, презервативами. Легко смывается водой, не пачкает белье. Лубрикант на водной основе ОКЕЙ с ароматом вишни (50 г).  Лубрикант на водной основе ОКЕЙ с ароматом вишни (50 г). Модель: bioritm-20004. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -13075,17 +13045,17 @@
       <c r="S101" t="inlineStr"/>
       <c r="T101" t="inlineStr">
         <is>
-          <t>30 г</t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>50</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>30 г</t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="W101" t="inlineStr"/>
